--- a/experiments/Consolidated Results from different techniques.xlsx
+++ b/experiments/Consolidated Results from different techniques.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\musman\Desktop\DNN-Repair\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9A1636-C623-453C-B456-458CAEDADD9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F70E09-AD8B-4067-9CF9-89467E20D598}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{6E851A2A-318E-4F15-AEB0-BD2CB026064A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{6E851A2A-318E-4F15-AEB0-BD2CB026064A}"/>
   </bookViews>
   <sheets>
     <sheet name="Pattern-Train" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="59">
   <si>
     <t>LABEL 7</t>
   </si>
@@ -183,6 +183,39 @@
   <si>
     <t>EVALUATION ON POISONED TRAIN_SET</t>
   </si>
+  <si>
+    <t>7,2,1,0,4</t>
+  </si>
+  <si>
+    <t>1,4,9,5,7</t>
+  </si>
+  <si>
+    <t>9,0,6,9,7</t>
+  </si>
+  <si>
+    <t>0,1,5,9,7</t>
+  </si>
+  <si>
+    <t>7,7,7,7,7,7,7,7,7,7</t>
+  </si>
+  <si>
+    <t>Missing Labels</t>
+  </si>
+  <si>
+    <t>3,5,6,8,9</t>
+  </si>
+  <si>
+    <t>3,6,8</t>
+  </si>
+  <si>
+    <t>3,8</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
 </sst>
 </file>
 
@@ -287,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -373,6 +406,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1590,8 +1626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6816E6FB-2578-42FA-A216-5F0E87175422}">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2932,8 +2968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D37D389-054D-49CB-907C-AFF7D26BA222}">
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4061,8 +4097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12D6A94-C3A6-4756-A633-01A8292168B5}">
   <dimension ref="A1:X48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5978,284 +6014,392 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9E5FCC-E3E6-4612-B501-2D6B180DDCDA}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="A1:XFD1048576"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="8.88671875" style="33"/>
-    <col min="14" max="14" width="14.6640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="33"/>
+    <col min="1" max="1" width="11" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="8.88671875" style="18"/>
+    <col min="14" max="14" width="14.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" style="18" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="25" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
+      <c r="O1" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="38">
+        <v>0.10204081632653</v>
+      </c>
+      <c r="E2" s="38">
+        <v>0</v>
+      </c>
+      <c r="F2" s="38">
+        <v>0</v>
+      </c>
+      <c r="G2" s="38">
+        <v>0</v>
+      </c>
+      <c r="H2" s="38">
+        <v>0.10183299389002</v>
+      </c>
+      <c r="I2" s="38">
+        <v>0.112107623318385</v>
+      </c>
+      <c r="J2" s="38">
+        <v>0.73068893528183698</v>
+      </c>
+      <c r="K2" s="38">
+        <v>100</v>
+      </c>
+      <c r="L2" s="38">
+        <v>0</v>
+      </c>
+      <c r="M2" s="38">
+        <v>0</v>
+      </c>
+      <c r="N2" s="12">
+        <v>10.38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
         <v>5</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B3" s="12">
         <v>1</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C3" s="12">
         <v>4</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D3" s="18">
         <v>13.88</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E3" s="18">
         <v>89.43</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F3" s="18">
         <v>81.78</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G3" s="18">
         <v>8.7100000000000009</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H3" s="18">
         <v>72.099999999999994</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I3" s="18">
         <v>62.56</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J3" s="18">
         <v>51.04</v>
       </c>
-      <c r="K2" s="18">
+      <c r="K3" s="18">
         <v>84.92</v>
       </c>
-      <c r="L2" s="18">
+      <c r="L3" s="18">
         <v>32.549999999999997</v>
       </c>
-      <c r="M2" s="18">
+      <c r="M3" s="18">
         <v>23.89</v>
       </c>
-      <c r="N2" s="18">
+      <c r="N3" s="18">
         <v>52.69</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
+      <c r="O3" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
         <v>10</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B4" s="12">
         <v>2</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C4" s="12">
         <v>8</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D4" s="18">
         <v>39.08</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E4" s="18">
         <v>82.56</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F4" s="18">
         <v>97.09</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G4" s="18">
         <v>72.67</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H4" s="18">
         <v>29.43</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I4" s="18">
         <v>77.58</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J4" s="18">
         <v>16.18</v>
       </c>
-      <c r="K3" s="18">
+      <c r="K4" s="18">
         <v>55.93</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L4" s="18">
         <v>30.49</v>
       </c>
-      <c r="M3" s="18">
+      <c r="M4" s="18">
         <v>33.6</v>
       </c>
-      <c r="N3" s="18">
+      <c r="N4" s="18">
         <v>54.03</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
+      <c r="O4" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
         <v>15</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B5" s="12">
         <v>3</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C5" s="12">
         <v>12</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D5" s="18">
         <v>38.159999999999997</v>
-      </c>
-      <c r="E4" s="18">
-        <v>98.59</v>
-      </c>
-      <c r="F4" s="18">
-        <v>98.64</v>
-      </c>
-      <c r="G4" s="18">
-        <v>78.709999999999994</v>
-      </c>
-      <c r="H4" s="18">
-        <v>77.8</v>
-      </c>
-      <c r="I4" s="18">
-        <v>83.41</v>
-      </c>
-      <c r="J4" s="18">
-        <v>53.55</v>
-      </c>
-      <c r="K4" s="18">
-        <v>45.33</v>
-      </c>
-      <c r="L4" s="18">
-        <v>31.52</v>
-      </c>
-      <c r="M4" s="18">
-        <v>22</v>
-      </c>
-      <c r="N4" s="18">
-        <v>63.22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
-        <v>20</v>
-      </c>
-      <c r="B5" s="12">
-        <v>4</v>
-      </c>
-      <c r="C5" s="12">
-        <v>16</v>
-      </c>
-      <c r="D5" s="18">
-        <v>42.86</v>
       </c>
       <c r="E5" s="18">
         <v>98.59</v>
       </c>
       <c r="F5" s="18">
-        <v>99.32</v>
+        <v>98.64</v>
       </c>
       <c r="G5" s="18">
-        <v>82.97</v>
+        <v>78.709999999999994</v>
       </c>
       <c r="H5" s="18">
-        <v>81.67</v>
+        <v>77.8</v>
       </c>
       <c r="I5" s="18">
-        <v>89.69</v>
+        <v>83.41</v>
       </c>
       <c r="J5" s="18">
         <v>53.55</v>
       </c>
       <c r="K5" s="18">
-        <v>0.28999999999999998</v>
+        <v>45.33</v>
       </c>
       <c r="L5" s="18">
-        <v>33.06</v>
+        <v>31.52</v>
       </c>
       <c r="M5" s="18">
-        <v>78.59</v>
+        <v>22</v>
       </c>
       <c r="N5" s="18">
-        <v>66.349999999999994</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>63.22</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q5" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B6" s="12">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C6" s="12">
         <v>16</v>
       </c>
       <c r="D6" s="18">
+        <v>42.86</v>
+      </c>
+      <c r="E6" s="18">
+        <v>98.59</v>
+      </c>
+      <c r="F6" s="18">
+        <v>99.32</v>
+      </c>
+      <c r="G6" s="18">
+        <v>82.97</v>
+      </c>
+      <c r="H6" s="18">
+        <v>81.67</v>
+      </c>
+      <c r="I6" s="18">
+        <v>89.69</v>
+      </c>
+      <c r="J6" s="18">
+        <v>53.55</v>
+      </c>
+      <c r="K6" s="18">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L6" s="18">
+        <v>33.06</v>
+      </c>
+      <c r="M6" s="18">
+        <v>78.59</v>
+      </c>
+      <c r="N6" s="18">
+        <v>66.349999999999994</v>
+      </c>
+      <c r="O6" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q6" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="R6" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="S6" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <v>30</v>
+      </c>
+      <c r="B7" s="12">
+        <v>14</v>
+      </c>
+      <c r="C7" s="12">
+        <v>16</v>
+      </c>
+      <c r="D7" s="18">
         <v>42.45</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E7" s="18">
         <v>98.5</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F7" s="18">
         <v>98.45</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G7" s="18">
         <v>58.81</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H7" s="18">
         <v>64.150000000000006</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I7" s="18">
         <v>85.2</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J7" s="18">
         <v>50.84</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K7" s="18">
         <v>69.16</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L7" s="18">
         <v>32.340000000000003</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M7" s="18">
         <v>28.84</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N7" s="18">
         <v>63.38</v>
+      </c>
+      <c r="O7" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q7" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="S7" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="T7" s="18" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -6266,10 +6410,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7C8AE8-68EA-4CD1-89FD-4632DB72F050}">
-  <dimension ref="A1:V51"/>
+  <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6286,16 +6430,28 @@
     <col min="10" max="10" width="21.77734375" style="18" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.6640625" style="18" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="18"/>
+    <col min="13" max="13" width="8.88671875" style="18"/>
+    <col min="14" max="14" width="10.77734375" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" style="18" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="18"/>
+    <col min="18" max="18" width="1.77734375" style="18" customWidth="1"/>
+    <col min="19" max="19" width="14.21875" style="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.77734375" style="18" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C1" s="35" t="s">
         <v>41</v>
       </c>
       <c r="F1" s="12"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="P1" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" s="12"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>30</v>
       </c>
@@ -6320,8 +6476,30 @@
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="N2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="20"/>
+      <c r="S2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>15</v>
       </c>
@@ -6348,15 +6526,32 @@
       <c r="J3" s="15"/>
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="N3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="14">
+        <v>98.919466486577704</v>
+      </c>
+      <c r="P3" s="19">
+        <v>99.611683268613888</v>
+      </c>
+      <c r="Q3" s="19">
+        <f>P3-O3</f>
+        <v>0.69221678203618353</v>
+      </c>
+      <c r="R3" s="21"/>
+      <c r="S3" s="14">
+        <v>99.183673469387699</v>
+      </c>
+      <c r="T3" s="19">
+        <v>99.489795918367349</v>
+      </c>
+      <c r="U3" s="19">
+        <f>T3-S3</f>
+        <v>0.30612244897965013</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>16</v>
       </c>
@@ -6383,15 +6578,32 @@
       <c r="J4" s="15"/>
       <c r="K4" s="16"/>
       <c r="M4" s="16"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="N4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="14">
+        <v>97.923464847226299</v>
+      </c>
+      <c r="P4" s="19">
+        <v>98.635419756748746</v>
+      </c>
+      <c r="Q4" s="19">
+        <f>P4-O4</f>
+        <v>0.71195490952244711</v>
+      </c>
+      <c r="R4" s="21"/>
+      <c r="S4" s="14">
+        <v>98.590308370043999</v>
+      </c>
+      <c r="T4" s="19">
+        <v>99.118942731277542</v>
+      </c>
+      <c r="U4" s="19">
+        <f>T4-S4</f>
+        <v>0.5286343612335429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>17</v>
       </c>
@@ -6418,15 +6630,32 @@
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="16"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="N5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="14">
+        <v>97.784491440080501</v>
+      </c>
+      <c r="P5" s="19">
+        <v>98.304800268546487</v>
+      </c>
+      <c r="Q5" s="19">
+        <f>P5-O5</f>
+        <v>0.52030882846598558</v>
+      </c>
+      <c r="R5" s="21"/>
+      <c r="S5" s="14">
+        <v>97.286821705426306</v>
+      </c>
+      <c r="T5" s="19">
+        <v>97.771317829457359</v>
+      </c>
+      <c r="U5" s="19">
+        <f>T5-S5</f>
+        <v>0.48449612403105391</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>18</v>
       </c>
@@ -6454,14 +6683,32 @@
       <c r="K6" s="15"/>
       <c r="L6" s="16"/>
       <c r="M6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="15"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="N6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="14">
+        <v>95.840809003425207</v>
+      </c>
+      <c r="P6" s="19">
+        <v>96.052846191485898</v>
+      </c>
+      <c r="Q6" s="19">
+        <f>P6-O6</f>
+        <v>0.21203718806069105</v>
+      </c>
+      <c r="R6" s="21"/>
+      <c r="S6" s="14">
+        <v>95.841584158415799</v>
+      </c>
+      <c r="T6" s="19">
+        <v>95.742574257425744</v>
+      </c>
+      <c r="U6" s="19">
+        <f>T6-S6</f>
+        <v>-9.9009900990054689E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>19</v>
       </c>
@@ -6489,14 +6736,32 @@
       <c r="K7" s="15"/>
       <c r="L7" s="16"/>
       <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="15"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="N7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="14">
+        <v>98.322492297158504</v>
+      </c>
+      <c r="P7" s="19">
+        <v>98.322492297158504</v>
+      </c>
+      <c r="Q7" s="19">
+        <f>P7-O7</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="21"/>
+      <c r="S7" s="14">
+        <v>98.370672097759595</v>
+      </c>
+      <c r="T7" s="19">
+        <v>98.370672097759666</v>
+      </c>
+      <c r="U7" s="19">
+        <f>T7-S7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>20</v>
       </c>
@@ -6524,14 +6789,32 @@
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="16"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="16"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="N8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="14">
+        <v>98.247555801512604</v>
+      </c>
+      <c r="P8" s="19">
+        <v>99.188341634384798</v>
+      </c>
+      <c r="Q8" s="19">
+        <f>P8-O8</f>
+        <v>0.94078583287219431</v>
+      </c>
+      <c r="R8" s="21"/>
+      <c r="S8" s="14">
+        <v>98.991031390134495</v>
+      </c>
+      <c r="T8" s="19">
+        <v>99.439461883408072</v>
+      </c>
+      <c r="U8" s="19">
+        <f>T8-S8</f>
+        <v>0.44843049327357676</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>21</v>
       </c>
@@ -6559,14 +6842,32 @@
       <c r="K9" s="16"/>
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="16"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="N9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="14">
+        <v>96.620479891855297</v>
+      </c>
+      <c r="P9" s="19">
+        <v>97.347076715106454</v>
+      </c>
+      <c r="Q9" s="19">
+        <f>P9-O9</f>
+        <v>0.72659682325115682</v>
+      </c>
+      <c r="R9" s="21"/>
+      <c r="S9" s="14">
+        <v>95.720250521920605</v>
+      </c>
+      <c r="T9" s="19">
+        <v>96.555323590814197</v>
+      </c>
+      <c r="U9" s="19">
+        <f>T9-S9</f>
+        <v>0.83507306889359256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>22</v>
       </c>
@@ -6594,14 +6895,32 @@
       <c r="K10" s="16"/>
       <c r="L10" s="15"/>
       <c r="M10" s="16"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="16"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="16"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="N10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" s="14">
+        <v>95.802075019952099</v>
+      </c>
+      <c r="P10" s="19">
+        <v>95.802075019952113</v>
+      </c>
+      <c r="Q10" s="19">
+        <f>P10-O10</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="21"/>
+      <c r="S10" s="14">
+        <v>94.747081712062197</v>
+      </c>
+      <c r="T10" s="19">
+        <v>94.747081712062254</v>
+      </c>
+      <c r="U10" s="19">
+        <f>T10-S10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>23</v>
       </c>
@@ -6629,14 +6948,32 @@
       <c r="K11" s="15"/>
       <c r="L11" s="16"/>
       <c r="M11" s="15"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="15"/>
-      <c r="T11" s="15"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="N11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="14">
+        <v>90.753717313279694</v>
+      </c>
+      <c r="P11" s="19">
+        <v>91.710818663476317</v>
+      </c>
+      <c r="Q11" s="19">
+        <f>P11-O11</f>
+        <v>0.95710135019662346</v>
+      </c>
+      <c r="R11" s="21"/>
+      <c r="S11" s="14">
+        <v>89.630390143737102</v>
+      </c>
+      <c r="T11" s="19">
+        <v>90.759753593429167</v>
+      </c>
+      <c r="U11" s="19">
+        <f>T11-S11</f>
+        <v>1.1293634496920646</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>24</v>
       </c>
@@ -6663,14 +7000,32 @@
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
       <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-    </row>
-    <row r="13" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" s="14">
+        <v>95.545469826861606</v>
+      </c>
+      <c r="P12" s="19">
+        <v>98.083711548159357</v>
+      </c>
+      <c r="Q12" s="19">
+        <f>P12-O12</f>
+        <v>2.5382417212977515</v>
+      </c>
+      <c r="R12" s="21"/>
+      <c r="S12" s="14">
+        <v>94.9454905847373</v>
+      </c>
+      <c r="T12" s="19">
+        <v>96.927651139742323</v>
+      </c>
+      <c r="U12" s="19">
+        <f>T12-S12</f>
+        <v>1.9821605550050236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20"/>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
@@ -6686,15 +7041,14 @@
       <c r="P13" s="27"/>
       <c r="Q13" s="27"/>
       <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C14" s="35" t="s">
         <v>42</v>
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>25</v>
       </c>
@@ -6728,7 +7082,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>15</v>
       </c>
@@ -6770,9 +7124,8 @@
       <c r="S16" s="15"/>
       <c r="T16" s="15"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>16</v>
       </c>
@@ -6807,16 +7160,16 @@
         <v>6.2555066079295099</v>
       </c>
       <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
       <c r="O17" s="15"/>
       <c r="P17" s="15"/>
       <c r="Q17" s="15"/>
       <c r="R17" s="15"/>
       <c r="S17" s="15"/>
       <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="16"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="U17" s="16"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>17</v>
       </c>
@@ -6851,16 +7204,15 @@
         <v>9.68992248062015E-2</v>
       </c>
       <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
       <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
+      <c r="Q18" s="15"/>
       <c r="R18" s="15"/>
       <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
+      <c r="T18" s="16"/>
       <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>18</v>
       </c>
@@ -6896,15 +7248,14 @@
       </c>
       <c r="M19" s="15"/>
       <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
+      <c r="P19" s="16"/>
       <c r="Q19" s="16"/>
       <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="16"/>
       <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>19</v>
       </c>
@@ -6940,15 +7291,14 @@
       </c>
       <c r="M20" s="15"/>
       <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="Q20" s="15"/>
       <c r="R20" s="15"/>
       <c r="S20" s="15"/>
       <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="16"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="U20" s="16"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>20</v>
       </c>
@@ -6984,15 +7334,14 @@
       </c>
       <c r="M21" s="16"/>
       <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
+      <c r="O21" s="16"/>
       <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="15"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="16"/>
       <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>21</v>
       </c>
@@ -7029,14 +7378,13 @@
       <c r="M22" s="16"/>
       <c r="N22" s="16"/>
       <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="16"/>
-      <c r="T22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="16"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="16"/>
       <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>22</v>
       </c>
@@ -7076,11 +7424,10 @@
       <c r="P23" s="15"/>
       <c r="Q23" s="15"/>
       <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
       <c r="U23" s="15"/>
-      <c r="V23" s="15"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>23</v>
       </c>
@@ -7117,14 +7464,13 @@
       <c r="M24" s="15"/>
       <c r="N24" s="16"/>
       <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
+      <c r="P24" s="15"/>
       <c r="Q24" s="15"/>
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
-      <c r="T24" s="15"/>
-      <c r="V24" s="16"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="U24" s="16"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>24</v>
       </c>
@@ -7160,23 +7506,22 @@
       </c>
       <c r="M25" s="15"/>
       <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="15"/>
       <c r="Q25" s="15"/>
       <c r="R25" s="15"/>
       <c r="S25" s="15"/>
       <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C27" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="12"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="F27" s="36"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>36</v>
@@ -7197,856 +7542,464 @@
       <c r="H28" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="12"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="I28" s="20"/>
+      <c r="J28" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="14">
-        <v>98.919466486577704</v>
+      <c r="B29" s="19">
+        <v>98.970116495019397</v>
       </c>
       <c r="C29" s="19">
-        <v>99.611683268613888</v>
+        <v>98.970116495019411</v>
       </c>
       <c r="D29" s="19">
         <f>C29-B29</f>
-        <v>0.69221678203618353</v>
-      </c>
-      <c r="E29" s="21"/>
-      <c r="F29" s="14">
-        <v>99.183673469387699</v>
+        <v>0</v>
+      </c>
+      <c r="F29" s="19">
+        <v>99.387755102040799</v>
       </c>
       <c r="G29" s="19">
-        <v>99.489795918367349</v>
+        <v>99.387755102040799</v>
       </c>
       <c r="H29" s="19">
         <f>G29-F29</f>
-        <v>0.30612244897965013</v>
-      </c>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="22"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="19">
+        <v>0.10204081632653</v>
+      </c>
+      <c r="K29" s="19">
+        <v>31.632653061224492</v>
+      </c>
+      <c r="L29" s="19">
+        <f>K29-J29</f>
+        <v>31.530612244897963</v>
+      </c>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="14">
-        <v>97.923464847226299</v>
+      <c r="B30" s="19">
+        <v>98.709581726490597</v>
       </c>
       <c r="C30" s="19">
-        <v>98.635419756748746</v>
+        <v>98.709581726490654</v>
       </c>
       <c r="D30" s="19">
         <f t="shared" ref="D30:D38" si="5">C30-B30</f>
-        <v>0.71195490952244711</v>
-      </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="14">
-        <v>98.590308370043999</v>
+        <v>0</v>
+      </c>
+      <c r="F30" s="19">
+        <v>99.4713656387665</v>
       </c>
       <c r="G30" s="19">
-        <v>99.118942731277542</v>
+        <v>99.4713656387665</v>
       </c>
       <c r="H30" s="19">
         <f t="shared" ref="H30:H38" si="6">G30-F30</f>
-        <v>0.5286343612335429</v>
-      </c>
-      <c r="J30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="22"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="19">
+        <v>0</v>
+      </c>
+      <c r="K30" s="19">
+        <v>96.387665198237883</v>
+      </c>
+      <c r="L30" s="19">
+        <f t="shared" ref="L30:L38" si="7">K30-J30</f>
+        <v>96.387665198237883</v>
+      </c>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="14">
-        <v>97.784491440080501</v>
+      <c r="B31" s="19">
+        <v>98.774756629741503</v>
       </c>
       <c r="C31" s="19">
-        <v>98.304800268546487</v>
+        <v>98.774756629741518</v>
       </c>
       <c r="D31" s="19">
         <f t="shared" si="5"/>
-        <v>0.52030882846598558</v>
-      </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="14">
-        <v>97.286821705426306</v>
+        <v>0</v>
+      </c>
+      <c r="F31" s="19">
+        <v>97.868217054263496</v>
       </c>
       <c r="G31" s="19">
-        <v>97.771317829457359</v>
+        <v>97.868217054263496</v>
       </c>
       <c r="H31" s="19">
         <f t="shared" si="6"/>
-        <v>0.48449612403105391</v>
-      </c>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J31" s="19">
+        <v>0</v>
+      </c>
+      <c r="K31" s="19">
+        <v>47.965116279069768</v>
+      </c>
+      <c r="L31" s="19">
+        <f t="shared" si="7"/>
+        <v>47.965116279069768</v>
+      </c>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="14">
-        <v>95.840809003425207</v>
+      <c r="B32" s="19">
+        <v>98.956124612624293</v>
       </c>
       <c r="C32" s="19">
-        <v>96.052846191485898</v>
+        <v>98.956124612624365</v>
       </c>
       <c r="D32" s="19">
         <f t="shared" si="5"/>
-        <v>0.21203718806069105</v>
-      </c>
-      <c r="E32" s="21"/>
-      <c r="F32" s="14">
-        <v>95.841584158415799</v>
+        <v>0</v>
+      </c>
+      <c r="F32" s="19">
+        <v>98.811881188118804</v>
       </c>
       <c r="G32" s="19">
-        <v>95.742574257425744</v>
+        <v>98.811881188118804</v>
       </c>
       <c r="H32" s="19">
         <f t="shared" si="6"/>
-        <v>-9.9009900990054689E-2</v>
-      </c>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="22"/>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="19">
+        <v>0</v>
+      </c>
+      <c r="K32" s="19">
+        <v>90.297029702970306</v>
+      </c>
+      <c r="L32" s="19">
+        <f t="shared" si="7"/>
+        <v>90.297029702970306</v>
+      </c>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="14">
-        <v>98.322492297158504</v>
+      <c r="B33" s="19">
+        <v>98.870249914412796</v>
       </c>
       <c r="C33" s="19">
-        <v>98.322492297158504</v>
+        <v>98.870249914412881</v>
       </c>
       <c r="D33" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E33" s="21"/>
-      <c r="F33" s="14">
-        <v>98.370672097759595</v>
+      <c r="F33" s="19">
+        <v>98.778004073319707</v>
       </c>
       <c r="G33" s="19">
-        <v>98.370672097759666</v>
+        <v>98.778004073319707</v>
       </c>
       <c r="H33" s="19">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="22"/>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J33" s="19">
+        <v>0.10183299389002</v>
+      </c>
+      <c r="K33" s="19">
+        <v>97.352342158859472</v>
+      </c>
+      <c r="L33" s="19">
+        <f t="shared" si="7"/>
+        <v>97.250509164969458</v>
+      </c>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="14">
-        <v>98.247555801512604</v>
+      <c r="B34" s="19">
+        <v>98.985427042981001</v>
       </c>
       <c r="C34" s="19">
-        <v>99.188341634384798</v>
+        <v>98.985427042981001</v>
       </c>
       <c r="D34" s="19">
         <f t="shared" si="5"/>
-        <v>0.94078583287219431</v>
-      </c>
-      <c r="E34" s="21"/>
-      <c r="F34" s="14">
-        <v>98.991031390134495</v>
+        <v>0</v>
+      </c>
+      <c r="F34" s="19">
+        <v>98.654708520179298</v>
       </c>
       <c r="G34" s="19">
-        <v>99.439461883408072</v>
+        <v>98.654708520179298</v>
       </c>
       <c r="H34" s="19">
         <f t="shared" si="6"/>
-        <v>0.44843049327357676</v>
-      </c>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="22"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J34" s="19">
+        <v>0.112107623318385</v>
+      </c>
+      <c r="K34" s="19">
+        <v>94.955156950672645</v>
+      </c>
+      <c r="L34" s="19">
+        <f t="shared" si="7"/>
+        <v>94.843049327354265</v>
+      </c>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="14">
-        <v>96.620479891855297</v>
+      <c r="B35" s="19">
+        <v>99.036836769178706</v>
       </c>
       <c r="C35" s="19">
-        <v>97.347076715106454</v>
+        <v>99.036836769178777</v>
       </c>
       <c r="D35" s="19">
         <f t="shared" si="5"/>
-        <v>0.72659682325115682</v>
-      </c>
-      <c r="E35" s="21"/>
-      <c r="F35" s="14">
-        <v>95.720250521920605</v>
+        <v>0</v>
+      </c>
+      <c r="F35" s="19">
+        <v>98.643006263047994</v>
       </c>
       <c r="G35" s="19">
-        <v>96.555323590814197</v>
+        <v>98.643006263047994</v>
       </c>
       <c r="H35" s="19">
         <f t="shared" si="6"/>
-        <v>0.83507306889359256</v>
-      </c>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="19">
+        <v>0.73068893528183698</v>
+      </c>
+      <c r="K35" s="19">
+        <v>70.250521920668064</v>
+      </c>
+      <c r="L35" s="19">
+        <f t="shared" si="7"/>
+        <v>69.51983298538623</v>
+      </c>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="14">
-        <v>95.802075019952099</v>
+      <c r="B36" s="19">
+        <v>99.984038308060605</v>
       </c>
       <c r="C36" s="19">
-        <v>95.802075019952113</v>
+        <v>100</v>
       </c>
       <c r="D36" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E36" s="21"/>
-      <c r="F36" s="14">
-        <v>94.747081712062197</v>
+        <v>1.596169193939545E-2</v>
+      </c>
+      <c r="F36" s="19">
+        <v>98.7354085603112</v>
       </c>
       <c r="G36" s="19">
-        <v>94.747081712062254</v>
+        <v>98.71</v>
       </c>
       <c r="H36" s="19">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+        <v>-2.5408560311205974E-2</v>
+      </c>
+      <c r="J36" s="19">
+        <v>100</v>
+      </c>
+      <c r="K36" s="19">
+        <v>100</v>
+      </c>
+      <c r="L36" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="23"/>
+      <c r="U36" s="23"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="14">
-        <v>90.753717313279694</v>
+      <c r="B37" s="19">
+        <v>99.025807554264205</v>
       </c>
       <c r="C37" s="19">
-        <v>91.710818663476317</v>
+        <v>99.025807554264233</v>
       </c>
       <c r="D37" s="19">
         <f t="shared" si="5"/>
-        <v>0.95710135019662346</v>
-      </c>
-      <c r="E37" s="21"/>
-      <c r="F37" s="14">
-        <v>89.630390143737102</v>
+        <v>0</v>
+      </c>
+      <c r="F37" s="19">
+        <v>98.665297741273093</v>
       </c>
       <c r="G37" s="19">
-        <v>90.759753593429167</v>
+        <v>98.665297741273093</v>
       </c>
       <c r="H37" s="19">
         <f t="shared" si="6"/>
-        <v>1.1293634496920646</v>
-      </c>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="S37" s="22"/>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J37" s="19">
+        <v>0</v>
+      </c>
+      <c r="K37" s="19">
+        <v>94.969199178644757</v>
+      </c>
+      <c r="L37" s="19">
+        <f t="shared" si="7"/>
+        <v>94.969199178644757</v>
+      </c>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="23"/>
+      <c r="U37" s="23"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="14">
-        <v>95.545469826861606</v>
+      <c r="B38" s="19">
+        <v>98.554378887207903</v>
       </c>
       <c r="C38" s="19">
-        <v>98.083711548159357</v>
+        <v>98.554378887207932</v>
       </c>
       <c r="D38" s="19">
         <f t="shared" si="5"/>
-        <v>2.5382417212977515</v>
-      </c>
-      <c r="E38" s="21"/>
-      <c r="F38" s="14">
-        <v>94.9454905847373</v>
+        <v>0</v>
+      </c>
+      <c r="F38" s="19">
+        <v>97.224975222992995</v>
       </c>
       <c r="G38" s="19">
-        <v>96.927651139742323</v>
+        <v>97.224975222992995</v>
       </c>
       <c r="H38" s="19">
         <f t="shared" si="6"/>
-        <v>1.9821605550050236</v>
-      </c>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C40" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="F40" s="36"/>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E41" s="20"/>
-      <c r="F41" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I41" s="20"/>
-      <c r="J41" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="K41" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="L41" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="N41" s="22"/>
-      <c r="O41" s="22"/>
-      <c r="P41" s="22"/>
-      <c r="Q41" s="22"/>
-      <c r="R41" s="22"/>
-      <c r="S41" s="22"/>
-      <c r="T41" s="22"/>
-      <c r="U41" s="22"/>
-      <c r="V41" s="22"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A42" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42" s="19">
-        <v>98.970116495019397</v>
-      </c>
-      <c r="C42" s="19">
-        <v>98.970116495019411</v>
-      </c>
-      <c r="D42" s="19">
-        <f>C42-B42</f>
-        <v>0</v>
-      </c>
-      <c r="F42" s="19">
-        <v>99.387755102040799</v>
-      </c>
-      <c r="G42" s="19">
-        <v>99.387755102040799</v>
-      </c>
-      <c r="H42" s="19">
-        <f>G42-F42</f>
-        <v>0</v>
-      </c>
-      <c r="J42" s="19">
-        <v>0.10204081632653</v>
-      </c>
-      <c r="K42" s="19">
-        <v>31.632653061224492</v>
-      </c>
-      <c r="L42" s="19">
-        <f>K42-J42</f>
-        <v>31.530612244897963</v>
-      </c>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="23"/>
-      <c r="P42" s="23"/>
-      <c r="Q42" s="23"/>
-      <c r="R42" s="23"/>
-      <c r="S42" s="23"/>
-      <c r="T42" s="23"/>
-      <c r="U42" s="23"/>
-      <c r="V42" s="23"/>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" s="19">
-        <v>98.709581726490597</v>
-      </c>
-      <c r="C43" s="19">
-        <v>98.709581726490654</v>
-      </c>
-      <c r="D43" s="19">
-        <f t="shared" ref="D43:D51" si="7">C43-B43</f>
-        <v>0</v>
-      </c>
-      <c r="F43" s="19">
-        <v>99.4713656387665</v>
-      </c>
-      <c r="G43" s="19">
-        <v>99.4713656387665</v>
-      </c>
-      <c r="H43" s="19">
-        <f t="shared" ref="H43:H51" si="8">G43-F43</f>
-        <v>0</v>
-      </c>
-      <c r="J43" s="19">
-        <v>0</v>
-      </c>
-      <c r="K43" s="19">
-        <v>96.387665198237883</v>
-      </c>
-      <c r="L43" s="19">
-        <f t="shared" ref="L43:L51" si="9">K43-J43</f>
-        <v>96.387665198237883</v>
-      </c>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="23"/>
-      <c r="P43" s="23"/>
-      <c r="Q43" s="23"/>
-      <c r="R43" s="23"/>
-      <c r="S43" s="23"/>
-      <c r="T43" s="23"/>
-      <c r="U43" s="23"/>
-      <c r="V43" s="23"/>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44" s="19">
-        <v>98.774756629741503</v>
-      </c>
-      <c r="C44" s="19">
-        <v>98.774756629741518</v>
-      </c>
-      <c r="D44" s="19">
+        <v>0</v>
+      </c>
+      <c r="J38" s="19">
+        <v>0</v>
+      </c>
+      <c r="K38" s="19">
+        <v>85.926660059464822</v>
+      </c>
+      <c r="L38" s="19">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="19">
-        <v>97.868217054263496</v>
-      </c>
-      <c r="G44" s="19">
-        <v>97.868217054263496</v>
-      </c>
-      <c r="H44" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="19">
-        <v>0</v>
-      </c>
-      <c r="K44" s="19">
-        <v>47.965116279069768</v>
-      </c>
-      <c r="L44" s="19">
-        <f t="shared" si="9"/>
-        <v>47.965116279069768</v>
-      </c>
-      <c r="M44" s="23"/>
-      <c r="N44" s="23"/>
-      <c r="O44" s="23"/>
-      <c r="P44" s="23"/>
-      <c r="Q44" s="23"/>
-      <c r="R44" s="23"/>
-      <c r="S44" s="23"/>
-      <c r="T44" s="23"/>
-      <c r="U44" s="23"/>
-      <c r="V44" s="23"/>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A45" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45" s="19">
-        <v>98.956124612624293</v>
-      </c>
-      <c r="C45" s="19">
-        <v>98.956124612624365</v>
-      </c>
-      <c r="D45" s="19">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="19">
-        <v>98.811881188118804</v>
-      </c>
-      <c r="G45" s="19">
-        <v>98.811881188118804</v>
-      </c>
-      <c r="H45" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="19">
-        <v>0</v>
-      </c>
-      <c r="K45" s="19">
-        <v>90.297029702970306</v>
-      </c>
-      <c r="L45" s="19">
-        <f t="shared" si="9"/>
-        <v>90.297029702970306</v>
-      </c>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="23"/>
-      <c r="Q45" s="23"/>
-      <c r="R45" s="23"/>
-      <c r="S45" s="23"/>
-      <c r="T45" s="23"/>
-      <c r="U45" s="23"/>
-      <c r="V45" s="23"/>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A46" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B46" s="19">
-        <v>98.870249914412796</v>
-      </c>
-      <c r="C46" s="19">
-        <v>98.870249914412881</v>
-      </c>
-      <c r="D46" s="19">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="19">
-        <v>98.778004073319707</v>
-      </c>
-      <c r="G46" s="19">
-        <v>98.778004073319707</v>
-      </c>
-      <c r="H46" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J46" s="19">
-        <v>0.10183299389002</v>
-      </c>
-      <c r="K46" s="19">
-        <v>97.352342158859472</v>
-      </c>
-      <c r="L46" s="19">
-        <f t="shared" si="9"/>
-        <v>97.250509164969458</v>
-      </c>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="23"/>
-      <c r="P46" s="23"/>
-      <c r="Q46" s="23"/>
-      <c r="R46" s="23"/>
-      <c r="S46" s="23"/>
-      <c r="T46" s="23"/>
-      <c r="U46" s="23"/>
-      <c r="V46" s="23"/>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A47" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B47" s="19">
-        <v>98.985427042981001</v>
-      </c>
-      <c r="C47" s="19">
-        <v>98.985427042981001</v>
-      </c>
-      <c r="D47" s="19">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="19">
-        <v>98.654708520179298</v>
-      </c>
-      <c r="G47" s="19">
-        <v>98.654708520179298</v>
-      </c>
-      <c r="H47" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="19">
-        <v>0.112107623318385</v>
-      </c>
-      <c r="K47" s="19">
-        <v>94.955156950672645</v>
-      </c>
-      <c r="L47" s="19">
-        <f t="shared" si="9"/>
-        <v>94.843049327354265</v>
-      </c>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="23"/>
-      <c r="Q47" s="23"/>
-      <c r="R47" s="23"/>
-      <c r="S47" s="23"/>
-      <c r="T47" s="23"/>
-      <c r="U47" s="23"/>
-      <c r="V47" s="23"/>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A48" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B48" s="19">
-        <v>99.036836769178706</v>
-      </c>
-      <c r="C48" s="19">
-        <v>99.036836769178777</v>
-      </c>
-      <c r="D48" s="19">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F48" s="19">
-        <v>98.643006263047994</v>
-      </c>
-      <c r="G48" s="19">
-        <v>98.643006263047994</v>
-      </c>
-      <c r="H48" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J48" s="19">
-        <v>0.73068893528183698</v>
-      </c>
-      <c r="K48" s="19">
-        <v>70.250521920668064</v>
-      </c>
-      <c r="L48" s="19">
-        <f t="shared" si="9"/>
-        <v>69.51983298538623</v>
-      </c>
-      <c r="M48" s="23"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="23"/>
-      <c r="P48" s="23"/>
-      <c r="Q48" s="23"/>
-      <c r="R48" s="23"/>
-      <c r="S48" s="23"/>
-      <c r="T48" s="23"/>
-      <c r="U48" s="23"/>
-      <c r="V48" s="23"/>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A49" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B49" s="19">
-        <v>99.984038308060605</v>
-      </c>
-      <c r="C49" s="19">
-        <v>100</v>
-      </c>
-      <c r="D49" s="19">
-        <f t="shared" si="7"/>
-        <v>1.596169193939545E-2</v>
-      </c>
-      <c r="F49" s="19">
-        <v>98.7354085603112</v>
-      </c>
-      <c r="G49" s="19">
-        <v>98.71</v>
-      </c>
-      <c r="H49" s="19">
-        <f t="shared" si="8"/>
-        <v>-2.5408560311205974E-2</v>
-      </c>
-      <c r="J49" s="19">
-        <v>100</v>
-      </c>
-      <c r="K49" s="19">
-        <v>100</v>
-      </c>
-      <c r="L49" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M49" s="23"/>
-      <c r="N49" s="23"/>
-      <c r="O49" s="23"/>
-      <c r="P49" s="23"/>
-      <c r="Q49" s="23"/>
-      <c r="R49" s="23"/>
-      <c r="S49" s="23"/>
-      <c r="T49" s="23"/>
-      <c r="U49" s="23"/>
-      <c r="V49" s="23"/>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A50" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B50" s="19">
-        <v>99.025807554264205</v>
-      </c>
-      <c r="C50" s="19">
-        <v>99.025807554264233</v>
-      </c>
-      <c r="D50" s="19">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F50" s="19">
-        <v>98.665297741273093</v>
-      </c>
-      <c r="G50" s="19">
-        <v>98.665297741273093</v>
-      </c>
-      <c r="H50" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J50" s="19">
-        <v>0</v>
-      </c>
-      <c r="K50" s="19">
-        <v>94.969199178644757</v>
-      </c>
-      <c r="L50" s="19">
-        <f t="shared" si="9"/>
-        <v>94.969199178644757</v>
-      </c>
-      <c r="M50" s="23"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="23"/>
-      <c r="P50" s="23"/>
-      <c r="Q50" s="23"/>
-      <c r="R50" s="23"/>
-      <c r="S50" s="23"/>
-      <c r="T50" s="23"/>
-      <c r="U50" s="23"/>
-      <c r="V50" s="23"/>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A51" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B51" s="19">
-        <v>98.554378887207903</v>
-      </c>
-      <c r="C51" s="19">
-        <v>98.554378887207932</v>
-      </c>
-      <c r="D51" s="19">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F51" s="19">
-        <v>97.224975222992995</v>
-      </c>
-      <c r="G51" s="19">
-        <v>97.224975222992995</v>
-      </c>
-      <c r="H51" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J51" s="19">
-        <v>0</v>
-      </c>
-      <c r="K51" s="19">
         <v>85.926660059464822</v>
       </c>
-      <c r="L51" s="19">
-        <f t="shared" si="9"/>
-        <v>85.926660059464822</v>
-      </c>
-      <c r="M51" s="23"/>
-      <c r="N51" s="23"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="23"/>
-      <c r="Q51" s="23"/>
-      <c r="R51" s="23"/>
-      <c r="S51" s="23"/>
-      <c r="T51" s="23"/>
-      <c r="U51" s="23"/>
-      <c r="V51" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="23"/>
+      <c r="R38" s="23"/>
+      <c r="S38" s="23"/>
+      <c r="T38" s="23"/>
+      <c r="U38" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/experiments/Consolidated Results from different techniques.xlsx
+++ b/experiments/Consolidated Results from different techniques.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\musman\Desktop\DNN-Repair\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F70E09-AD8B-4067-9CF9-89467E20D598}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFE935E-2942-40FB-945E-746897B48E26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{6E851A2A-318E-4F15-AEB0-BD2CB026064A}"/>
   </bookViews>
@@ -221,7 +221,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +277,13 @@
       <b/>
       <sz val="12"/>
       <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -401,13 +408,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -727,7 +734,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -748,7 +755,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1184,7 +1191,7 @@
       <c r="B13" s="12"/>
     </row>
     <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="36" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="12"/>
@@ -1627,7 +1634,7 @@
   <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1639,7 +1646,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2084,7 +2091,7 @@
       <c r="L13" s="27"/>
     </row>
     <row r="14" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="36" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2525,7 +2532,7 @@
     </row>
     <row r="26" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:12" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="36" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2979,7 +2986,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3425,7 +3432,7 @@
       <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="36" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="1"/>
@@ -4108,7 +4115,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4688,7 +4695,7 @@
       <c r="X13" s="8"/>
     </row>
     <row r="14" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="36" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="1"/>
@@ -5301,7 +5308,7 @@
       <c r="X26" s="8"/>
     </row>
     <row r="27" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="36" t="s">
         <v>40</v>
       </c>
       <c r="B27" s="34"/>
@@ -6088,34 +6095,34 @@
       <c r="C2" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="37">
         <v>0.10204081632653</v>
       </c>
-      <c r="E2" s="38">
-        <v>0</v>
-      </c>
-      <c r="F2" s="38">
-        <v>0</v>
-      </c>
-      <c r="G2" s="38">
-        <v>0</v>
-      </c>
-      <c r="H2" s="38">
+      <c r="E2" s="37">
+        <v>0</v>
+      </c>
+      <c r="F2" s="37">
+        <v>0</v>
+      </c>
+      <c r="G2" s="37">
+        <v>0</v>
+      </c>
+      <c r="H2" s="37">
         <v>0.10183299389002</v>
       </c>
-      <c r="I2" s="38">
+      <c r="I2" s="37">
         <v>0.112107623318385</v>
       </c>
-      <c r="J2" s="38">
+      <c r="J2" s="37">
         <v>0.73068893528183698</v>
       </c>
-      <c r="K2" s="38">
+      <c r="K2" s="37">
         <v>100</v>
       </c>
-      <c r="L2" s="38">
-        <v>0</v>
-      </c>
-      <c r="M2" s="38">
+      <c r="L2" s="37">
+        <v>0</v>
+      </c>
+      <c r="M2" s="37">
         <v>0</v>
       </c>
       <c r="N2" s="12">
@@ -6412,8 +6419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7C8AE8-68EA-4CD1-89FD-4632DB72F050}">
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6425,20 +6432,21 @@
     <col min="5" max="5" width="1.5546875" style="18" customWidth="1"/>
     <col min="6" max="6" width="25.21875" style="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.21875" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.33203125" style="18" customWidth="1"/>
-    <col min="10" max="10" width="21.77734375" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="18"/>
-    <col min="14" max="14" width="10.77734375" style="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.109375" style="18" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="18"/>
-    <col min="18" max="18" width="1.77734375" style="18" customWidth="1"/>
-    <col min="19" max="19" width="14.21875" style="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.77734375" style="18" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.88671875" style="18"/>
+    <col min="8" max="8" width="8" style="18" customWidth="1"/>
+    <col min="9" max="9" width="4.44140625" style="18" customWidth="1"/>
+    <col min="10" max="10" width="11" style="18" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.77734375" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.21875" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.109375" style="18" customWidth="1"/>
+    <col min="15" max="15" width="14.21875" style="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.77734375" style="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.21875" style="18" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.109375" style="18" customWidth="1"/>
+    <col min="19" max="19" width="23.21875" style="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.21875" style="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
@@ -6446,10 +6454,10 @@
         <v>41</v>
       </c>
       <c r="F1" s="12"/>
-      <c r="P1" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="T1" s="12"/>
+      <c r="K1" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="12"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -6475,25 +6483,34 @@
         <v>29</v>
       </c>
       <c r="I2" s="12"/>
-      <c r="J2" s="15"/>
-      <c r="N2" s="12" t="s">
-        <v>30</v>
-      </c>
+      <c r="J2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="12"/>
       <c r="O2" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="20"/>
+      <c r="R2" s="12"/>
       <c r="S2" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T2" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U2" s="13" t="s">
         <v>29</v>
@@ -6523,32 +6540,38 @@
         <f>G3-F3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="12" t="s">
+      <c r="J3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="14">
-        <v>98.919466486577704</v>
-      </c>
-      <c r="P3" s="19">
-        <v>99.611683268613888</v>
+      <c r="K3" s="19">
+        <v>98.970116495019397</v>
+      </c>
+      <c r="L3" s="14">
+        <v>98.9869998311666</v>
+      </c>
+      <c r="M3" s="19">
+        <f>L3-K3</f>
+        <v>1.6883336147202499E-2</v>
+      </c>
+      <c r="O3" s="19">
+        <v>99.387755102040799</v>
+      </c>
+      <c r="P3" s="14">
+        <v>99.5918367346938</v>
       </c>
       <c r="Q3" s="19">
         <f>P3-O3</f>
-        <v>0.69221678203618353</v>
-      </c>
-      <c r="R3" s="21"/>
-      <c r="S3" s="14">
-        <v>99.183673469387699</v>
-      </c>
-      <c r="T3" s="19">
-        <v>99.489795918367349</v>
+        <v>0.20408163265300061</v>
+      </c>
+      <c r="S3" s="19">
+        <v>0.10204081632653</v>
+      </c>
+      <c r="T3" s="14">
+        <v>0.20408163265306101</v>
       </c>
       <c r="U3" s="19">
         <f>T3-S3</f>
-        <v>0.30612244897965013</v>
+        <v>0.102040816326531</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -6575,32 +6598,38 @@
         <f t="shared" ref="H4:H12" si="1">G4-F4</f>
         <v>0.88105726872250045</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="12" t="s">
+      <c r="J4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="14">
-        <v>97.923464847226299</v>
-      </c>
-      <c r="P4" s="19">
-        <v>98.635419756748746</v>
+      <c r="K4" s="19">
+        <v>98.709581726490597</v>
+      </c>
+      <c r="L4" s="14">
+        <v>98.872738059922796</v>
+      </c>
+      <c r="M4" s="19">
+        <f t="shared" ref="M4:M12" si="2">L4-K4</f>
+        <v>0.16315633343219815</v>
+      </c>
+      <c r="O4" s="19">
+        <v>99.4713656387665</v>
+      </c>
+      <c r="P4" s="14">
+        <v>99.647577092511</v>
       </c>
       <c r="Q4" s="19">
-        <f>P4-O4</f>
-        <v>0.71195490952244711</v>
-      </c>
-      <c r="R4" s="21"/>
-      <c r="S4" s="14">
-        <v>98.590308370043999</v>
-      </c>
-      <c r="T4" s="19">
-        <v>99.118942731277542</v>
+        <f t="shared" ref="Q4:Q12" si="3">P4-O4</f>
+        <v>0.17621145374450009</v>
+      </c>
+      <c r="S4" s="19">
+        <v>0</v>
+      </c>
+      <c r="T4" s="14">
+        <v>6.2555066079295099</v>
       </c>
       <c r="U4" s="19">
-        <f>T4-S4</f>
-        <v>0.5286343612335429</v>
+        <f t="shared" ref="U4:U12" si="4">T4-S4</f>
+        <v>6.2555066079295099</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -6627,32 +6656,38 @@
         <f t="shared" si="1"/>
         <v>1.5503875968991991</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="N5" s="12" t="s">
+      <c r="J5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="14">
-        <v>97.784491440080501</v>
-      </c>
-      <c r="P5" s="19">
-        <v>98.304800268546487</v>
+      <c r="K5" s="19">
+        <v>98.774756629741503</v>
+      </c>
+      <c r="L5" s="14">
+        <v>98.858677408526304</v>
+      </c>
+      <c r="M5" s="19">
+        <f t="shared" si="2"/>
+        <v>8.3920778784801087E-2</v>
+      </c>
+      <c r="O5" s="19">
+        <v>97.868217054263496</v>
+      </c>
+      <c r="P5" s="14">
+        <v>98.546511627906895</v>
       </c>
       <c r="Q5" s="19">
-        <f>P5-O5</f>
-        <v>0.52030882846598558</v>
-      </c>
-      <c r="R5" s="21"/>
-      <c r="S5" s="14">
-        <v>97.286821705426306</v>
-      </c>
-      <c r="T5" s="19">
-        <v>97.771317829457359</v>
+        <f t="shared" si="3"/>
+        <v>0.67829457364339873</v>
+      </c>
+      <c r="S5" s="19">
+        <v>0</v>
+      </c>
+      <c r="T5" s="14">
+        <v>9.68992248062015E-2</v>
       </c>
       <c r="U5" s="19">
-        <f>T5-S5</f>
-        <v>0.48449612403105391</v>
+        <f t="shared" si="4"/>
+        <v>9.68992248062015E-2</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -6679,33 +6714,38 @@
         <f t="shared" si="1"/>
         <v>0.99009900990100164</v>
       </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="12" t="s">
+      <c r="J6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="14">
-        <v>95.840809003425207</v>
-      </c>
-      <c r="P6" s="19">
-        <v>96.052846191485898</v>
+      <c r="K6" s="19">
+        <v>98.956124612624293</v>
+      </c>
+      <c r="L6" s="14">
+        <v>99.217093459468202</v>
+      </c>
+      <c r="M6" s="19">
+        <f t="shared" si="2"/>
+        <v>0.26096884684390886</v>
+      </c>
+      <c r="O6" s="19">
+        <v>98.811881188118804</v>
+      </c>
+      <c r="P6" s="14">
+        <v>99.405940594059402</v>
       </c>
       <c r="Q6" s="19">
-        <f>P6-O6</f>
-        <v>0.21203718806069105</v>
-      </c>
-      <c r="R6" s="21"/>
-      <c r="S6" s="14">
-        <v>95.841584158415799</v>
-      </c>
-      <c r="T6" s="19">
-        <v>95.742574257425744</v>
+        <f t="shared" si="3"/>
+        <v>0.59405940594059814</v>
+      </c>
+      <c r="S6" s="19">
+        <v>0</v>
+      </c>
+      <c r="T6" s="14">
+        <v>22.574257425742498</v>
       </c>
       <c r="U6" s="19">
-        <f>T6-S6</f>
-        <v>-9.9009900990054689E-2</v>
+        <f t="shared" si="4"/>
+        <v>22.574257425742498</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -6732,33 +6772,38 @@
         <f t="shared" si="1"/>
         <v>1.3238289205703069</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="12" t="s">
+      <c r="J7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="14">
-        <v>98.322492297158504</v>
-      </c>
-      <c r="P7" s="19">
-        <v>98.322492297158504</v>
+      <c r="K7" s="19">
+        <v>98.870249914412796</v>
+      </c>
+      <c r="L7" s="14">
+        <v>98.921602191030402</v>
+      </c>
+      <c r="M7" s="19">
+        <f t="shared" si="2"/>
+        <v>5.1352276617606663E-2</v>
+      </c>
+      <c r="O7" s="19">
+        <v>98.778004073319707</v>
+      </c>
+      <c r="P7" s="14">
+        <v>99.694501018329902</v>
       </c>
       <c r="Q7" s="19">
-        <f>P7-O7</f>
-        <v>0</v>
-      </c>
-      <c r="R7" s="21"/>
-      <c r="S7" s="14">
-        <v>98.370672097759595</v>
-      </c>
-      <c r="T7" s="19">
-        <v>98.370672097759666</v>
+        <f t="shared" si="3"/>
+        <v>0.91649694501019496</v>
+      </c>
+      <c r="S7" s="19">
+        <v>0.10183299389002</v>
+      </c>
+      <c r="T7" s="14">
+        <v>0.20366598778004</v>
       </c>
       <c r="U7" s="19">
-        <f>T7-S7</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.10183299389002</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -6785,33 +6830,38 @@
         <f t="shared" si="1"/>
         <v>0.1121076233184084</v>
       </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="12" t="s">
+      <c r="J8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="14">
-        <v>98.247555801512604</v>
-      </c>
-      <c r="P8" s="19">
-        <v>99.188341634384798</v>
+      <c r="K8" s="19">
+        <v>98.985427042981001</v>
+      </c>
+      <c r="L8" s="14">
+        <v>98.966980261944201</v>
+      </c>
+      <c r="M8" s="38">
+        <f t="shared" si="2"/>
+        <v>-1.844678103680053E-2</v>
+      </c>
+      <c r="O8" s="19">
+        <v>98.654708520179298</v>
+      </c>
+      <c r="P8" s="14">
+        <v>99.327354260089606</v>
       </c>
       <c r="Q8" s="19">
-        <f>P8-O8</f>
-        <v>0.94078583287219431</v>
-      </c>
-      <c r="R8" s="21"/>
-      <c r="S8" s="14">
-        <v>98.991031390134495</v>
-      </c>
-      <c r="T8" s="19">
-        <v>99.439461883408072</v>
+        <f t="shared" si="3"/>
+        <v>0.67264573991030829</v>
+      </c>
+      <c r="S8" s="19">
+        <v>0.112107623318385</v>
+      </c>
+      <c r="T8" s="14">
+        <v>13.7892376681614</v>
       </c>
       <c r="U8" s="19">
-        <f>T8-S8</f>
-        <v>0.44843049327357676</v>
+        <f t="shared" si="4"/>
+        <v>13.677130044843015</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -6838,33 +6888,38 @@
         <f t="shared" si="1"/>
         <v>1.0438413361168983</v>
       </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="12" t="s">
+      <c r="J9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="O9" s="14">
-        <v>96.620479891855297</v>
-      </c>
-      <c r="P9" s="19">
-        <v>97.347076715106454</v>
+      <c r="K9" s="19">
+        <v>99.036836769178706</v>
+      </c>
+      <c r="L9" s="14">
+        <v>99.070631970260195</v>
+      </c>
+      <c r="M9" s="19">
+        <f t="shared" si="2"/>
+        <v>3.3795201081488813E-2</v>
+      </c>
+      <c r="O9" s="19">
+        <v>98.643006263047994</v>
+      </c>
+      <c r="P9" s="14">
+        <v>99.373695198329798</v>
       </c>
       <c r="Q9" s="19">
-        <f>P9-O9</f>
-        <v>0.72659682325115682</v>
-      </c>
-      <c r="R9" s="21"/>
-      <c r="S9" s="14">
-        <v>95.720250521920605</v>
-      </c>
-      <c r="T9" s="19">
-        <v>96.555323590814197</v>
+        <f t="shared" si="3"/>
+        <v>0.73068893528180467</v>
+      </c>
+      <c r="S9" s="19">
+        <v>0.73068893528183698</v>
+      </c>
+      <c r="T9" s="14">
+        <v>4.6972860125260896</v>
       </c>
       <c r="U9" s="19">
-        <f>T9-S9</f>
-        <v>0.83507306889359256</v>
+        <f t="shared" si="4"/>
+        <v>3.9665970772442525</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -6891,32 +6946,37 @@
         <f t="shared" si="1"/>
         <v>4.3774319066148024</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="12" t="s">
+      <c r="J10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="O10" s="14">
-        <v>95.802075019952099</v>
-      </c>
-      <c r="P10" s="19">
-        <v>95.802075019952113</v>
+      <c r="K10" s="19">
+        <v>99.984038308060605</v>
+      </c>
+      <c r="L10" s="14">
+        <v>100</v>
+      </c>
+      <c r="M10" s="19">
+        <f t="shared" si="2"/>
+        <v>1.596169193939545E-2</v>
+      </c>
+      <c r="O10" s="19">
+        <v>98.7354085603112</v>
+      </c>
+      <c r="P10" s="14">
+        <v>98.7354085603112</v>
       </c>
       <c r="Q10" s="19">
-        <f>P10-O10</f>
-        <v>0</v>
-      </c>
-      <c r="R10" s="21"/>
-      <c r="S10" s="14">
-        <v>94.747081712062197</v>
-      </c>
-      <c r="T10" s="19">
-        <v>94.747081712062254</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="19">
+        <v>100</v>
+      </c>
+      <c r="T10" s="14">
+        <v>100</v>
       </c>
       <c r="U10" s="19">
-        <f>T10-S10</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6930,7 +6990,7 @@
       <c r="C11" s="14">
         <v>85.079473594257394</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="38">
         <f t="shared" si="0"/>
         <v>-5.6742437190223001</v>
       </c>
@@ -6940,37 +7000,42 @@
       <c r="G11" s="14">
         <v>88.295687885010196</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="38">
         <f t="shared" si="1"/>
         <v>-1.3347022587269066</v>
       </c>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="12" t="s">
+      <c r="J11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="14">
-        <v>90.753717313279694</v>
-      </c>
-      <c r="P11" s="19">
-        <v>91.710818663476317</v>
+      <c r="K11" s="19">
+        <v>99.025807554264205</v>
+      </c>
+      <c r="L11" s="14">
+        <v>99.111263031960306</v>
+      </c>
+      <c r="M11" s="19">
+        <f t="shared" si="2"/>
+        <v>8.5455477696100957E-2</v>
+      </c>
+      <c r="O11" s="19">
+        <v>98.665297741273093</v>
+      </c>
+      <c r="P11" s="14">
+        <v>99.178644763860305</v>
       </c>
       <c r="Q11" s="19">
-        <f>P11-O11</f>
-        <v>0.95710135019662346</v>
-      </c>
-      <c r="R11" s="21"/>
-      <c r="S11" s="14">
-        <v>89.630390143737102</v>
-      </c>
-      <c r="T11" s="19">
-        <v>90.759753593429167</v>
+        <f t="shared" si="3"/>
+        <v>0.51334702258721165</v>
+      </c>
+      <c r="S11" s="19">
+        <v>0</v>
+      </c>
+      <c r="T11" s="14">
+        <v>1.2320328542094401</v>
       </c>
       <c r="U11" s="19">
-        <f>T11-S11</f>
-        <v>1.1293634496920646</v>
+        <f t="shared" si="4"/>
+        <v>1.2320328542094401</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -6983,7 +7048,7 @@
       <c r="C12" s="14">
         <v>94.957135653050898</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="38">
         <f t="shared" si="0"/>
         <v>-0.58833417381070774</v>
       </c>
@@ -6993,36 +7058,42 @@
       <c r="G12" s="14">
         <v>94.747274529236805</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="38">
         <f t="shared" si="1"/>
         <v>-0.19821605550049526</v>
       </c>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="12" t="s">
+      <c r="J12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="O12" s="14">
-        <v>95.545469826861606</v>
-      </c>
-      <c r="P12" s="19">
-        <v>98.083711548159357</v>
+      <c r="K12" s="19">
+        <v>98.554378887207903</v>
+      </c>
+      <c r="L12" s="14">
+        <v>96.755757270129394</v>
+      </c>
+      <c r="M12" s="38">
+        <f t="shared" si="2"/>
+        <v>-1.7986216170785099</v>
+      </c>
+      <c r="O12" s="19">
+        <v>97.224975222992995</v>
+      </c>
+      <c r="P12" s="14">
+        <v>97.0267591674925</v>
       </c>
       <c r="Q12" s="19">
-        <f>P12-O12</f>
-        <v>2.5382417212977515</v>
-      </c>
-      <c r="R12" s="21"/>
-      <c r="S12" s="14">
-        <v>94.9454905847373</v>
-      </c>
-      <c r="T12" s="19">
-        <v>96.927651139742323</v>
+        <f t="shared" si="3"/>
+        <v>-0.19821605550049526</v>
+      </c>
+      <c r="S12" s="19">
+        <v>0</v>
+      </c>
+      <c r="T12" s="14">
+        <v>9.9108027750247699E-2</v>
       </c>
       <c r="U12" s="19">
-        <f>T12-S12</f>
-        <v>1.9821605550050236</v>
+        <f t="shared" si="4"/>
+        <v>9.9108027750247699E-2</v>
       </c>
     </row>
     <row r="13" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -7033,832 +7104,690 @@
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
       <c r="H13" s="23"/>
+      <c r="J13" s="32"/>
       <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
+      <c r="L13" s="27"/>
       <c r="M13" s="27"/>
       <c r="N13" s="27"/>
       <c r="O13" s="27"/>
       <c r="P13" s="27"/>
       <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C14" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="19">
-        <v>98.970116495019397</v>
-      </c>
-      <c r="C16" s="14">
-        <v>98.9869998311666</v>
-      </c>
-      <c r="D16" s="19">
-        <f>C16-B16</f>
-        <v>1.6883336147202499E-2</v>
-      </c>
-      <c r="F16" s="19">
-        <v>99.387755102040799</v>
-      </c>
-      <c r="G16" s="14">
-        <v>99.5918367346938</v>
-      </c>
-      <c r="H16" s="19">
-        <f>G16-F16</f>
-        <v>0.20408163265300061</v>
-      </c>
-      <c r="J16" s="19">
-        <v>0.10204081632653</v>
-      </c>
-      <c r="K16" s="14">
-        <v>0.20408163265306101</v>
-      </c>
-      <c r="L16" s="19">
-        <f>K16-J16</f>
-        <v>0.102040816326531</v>
-      </c>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
+      <c r="C16" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="K16" s="35" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="19">
-        <v>98.709581726490597</v>
-      </c>
-      <c r="C17" s="14">
-        <v>98.872738059922796</v>
-      </c>
-      <c r="D17" s="19">
-        <f t="shared" ref="D17:D25" si="2">C17-B17</f>
-        <v>0.16315633343219815</v>
-      </c>
-      <c r="F17" s="19">
-        <v>99.4713656387665</v>
-      </c>
-      <c r="G17" s="14">
-        <v>99.647577092511</v>
-      </c>
-      <c r="H17" s="19">
-        <f t="shared" ref="H17:H25" si="3">G17-F17</f>
-        <v>0.17621145374450009</v>
-      </c>
-      <c r="J17" s="19">
-        <v>0</v>
-      </c>
-      <c r="K17" s="14">
-        <v>6.2555066079295099</v>
-      </c>
-      <c r="L17" s="19">
-        <f t="shared" ref="L17:L25" si="4">K17-J17</f>
-        <v>6.2555066079295099</v>
-      </c>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="16"/>
+        <v>30</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N17" s="20"/>
+      <c r="O17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="P17" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="R17" s="20"/>
+      <c r="S17" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="T17" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="U17" s="13" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="19">
-        <v>98.774756629741503</v>
-      </c>
-      <c r="C18" s="14">
-        <v>98.858677408526304</v>
+        <v>15</v>
+      </c>
+      <c r="B18" s="14">
+        <v>98.919466486577704</v>
+      </c>
+      <c r="C18" s="19">
+        <v>99.611683268613888</v>
       </c>
       <c r="D18" s="19">
-        <f t="shared" si="2"/>
-        <v>8.3920778784801087E-2</v>
-      </c>
-      <c r="F18" s="19">
-        <v>97.868217054263496</v>
-      </c>
-      <c r="G18" s="14">
-        <v>98.546511627906895</v>
+        <f t="shared" ref="D18:D27" si="5">C18-B18</f>
+        <v>0.69221678203618353</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="14">
+        <v>99.183673469387699</v>
+      </c>
+      <c r="G18" s="19">
+        <v>99.489795918367349</v>
       </c>
       <c r="H18" s="19">
-        <f t="shared" si="3"/>
-        <v>0.67829457364339873</v>
-      </c>
-      <c r="J18" s="19">
-        <v>0</v>
-      </c>
-      <c r="K18" s="14">
-        <v>9.68992248062015E-2</v>
+        <f t="shared" ref="H18:H27" si="6">G18-F18</f>
+        <v>0.30612244897965013</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="19">
+        <v>98.970116495019397</v>
       </c>
       <c r="L18" s="19">
-        <f t="shared" si="4"/>
-        <v>9.68992248062015E-2</v>
-      </c>
-      <c r="M18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
+        <v>98.970116495019411</v>
+      </c>
+      <c r="M18" s="19">
+        <f>L18-K18</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="19">
+        <v>99.387755102040799</v>
+      </c>
+      <c r="P18" s="19">
+        <v>99.387755102040799</v>
+      </c>
+      <c r="Q18" s="19">
+        <f>P18-O18</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="19">
+        <v>0.10204081632653</v>
+      </c>
+      <c r="T18" s="19">
+        <v>31.632653061224492</v>
+      </c>
+      <c r="U18" s="19">
+        <f>T18-S18</f>
+        <v>31.530612244897963</v>
+      </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="19">
-        <v>98.956124612624293</v>
-      </c>
-      <c r="C19" s="14">
-        <v>99.217093459468202</v>
+        <v>16</v>
+      </c>
+      <c r="B19" s="14">
+        <v>97.923464847226299</v>
+      </c>
+      <c r="C19" s="19">
+        <v>98.635419756748746</v>
       </c>
       <c r="D19" s="19">
-        <f t="shared" si="2"/>
-        <v>0.26096884684390886</v>
-      </c>
-      <c r="F19" s="19">
-        <v>98.811881188118804</v>
-      </c>
-      <c r="G19" s="14">
-        <v>99.405940594059402</v>
+        <f t="shared" si="5"/>
+        <v>0.71195490952244711</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="14">
+        <v>98.590308370043999</v>
+      </c>
+      <c r="G19" s="19">
+        <v>99.118942731277542</v>
       </c>
       <c r="H19" s="19">
-        <f t="shared" si="3"/>
-        <v>0.59405940594059814</v>
-      </c>
-      <c r="J19" s="19">
-        <v>0</v>
-      </c>
-      <c r="K19" s="14">
-        <v>22.574257425742498</v>
+        <f t="shared" si="6"/>
+        <v>0.5286343612335429</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="19">
+        <v>98.709581726490597</v>
       </c>
       <c r="L19" s="19">
-        <f t="shared" si="4"/>
-        <v>22.574257425742498</v>
-      </c>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
+        <v>98.709581726490654</v>
+      </c>
+      <c r="M19" s="19">
+        <f t="shared" ref="M19:M27" si="7">L19-K19</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="19">
+        <v>99.4713656387665</v>
+      </c>
+      <c r="P19" s="19">
+        <v>99.4713656387665</v>
+      </c>
+      <c r="Q19" s="19">
+        <f t="shared" ref="Q19:Q27" si="8">P19-O19</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="19">
+        <v>0</v>
+      </c>
+      <c r="T19" s="19">
+        <v>96.387665198237883</v>
+      </c>
+      <c r="U19" s="19">
+        <f t="shared" ref="U19:U27" si="9">T19-S19</f>
+        <v>96.387665198237883</v>
+      </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="19">
-        <v>98.870249914412796</v>
-      </c>
-      <c r="C20" s="14">
-        <v>98.921602191030402</v>
+        <v>17</v>
+      </c>
+      <c r="B20" s="14">
+        <v>97.784491440080501</v>
+      </c>
+      <c r="C20" s="19">
+        <v>98.304800268546487</v>
       </c>
       <c r="D20" s="19">
-        <f t="shared" si="2"/>
-        <v>5.1352276617606663E-2</v>
-      </c>
-      <c r="F20" s="19">
-        <v>98.778004073319707</v>
-      </c>
-      <c r="G20" s="14">
-        <v>99.694501018329902</v>
+        <f t="shared" si="5"/>
+        <v>0.52030882846598558</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="14">
+        <v>97.286821705426306</v>
+      </c>
+      <c r="G20" s="19">
+        <v>97.771317829457359</v>
       </c>
       <c r="H20" s="19">
-        <f t="shared" si="3"/>
-        <v>0.91649694501019496</v>
-      </c>
-      <c r="J20" s="19">
-        <v>0.10183299389002</v>
-      </c>
-      <c r="K20" s="14">
-        <v>0.20366598778004</v>
+        <f t="shared" si="6"/>
+        <v>0.48449612403105391</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="19">
+        <v>98.774756629741503</v>
       </c>
       <c r="L20" s="19">
-        <f t="shared" si="4"/>
-        <v>0.10183299389002</v>
-      </c>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="16"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="16"/>
+        <v>98.774756629741518</v>
+      </c>
+      <c r="M20" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="19">
+        <v>97.868217054263496</v>
+      </c>
+      <c r="P20" s="19">
+        <v>97.868217054263496</v>
+      </c>
+      <c r="Q20" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="19">
+        <v>0</v>
+      </c>
+      <c r="T20" s="19">
+        <v>47.965116279069768</v>
+      </c>
+      <c r="U20" s="19">
+        <f t="shared" si="9"/>
+        <v>47.965116279069768</v>
+      </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="19">
-        <v>98.985427042981001</v>
-      </c>
-      <c r="C21" s="14">
-        <v>98.966980261944201</v>
+        <v>18</v>
+      </c>
+      <c r="B21" s="14">
+        <v>95.840809003425207</v>
+      </c>
+      <c r="C21" s="19">
+        <v>96.052846191485898</v>
       </c>
       <c r="D21" s="19">
-        <f t="shared" si="2"/>
-        <v>-1.844678103680053E-2</v>
-      </c>
-      <c r="F21" s="19">
-        <v>98.654708520179298</v>
-      </c>
-      <c r="G21" s="14">
-        <v>99.327354260089606</v>
-      </c>
-      <c r="H21" s="19">
-        <f t="shared" si="3"/>
-        <v>0.67264573991030829</v>
-      </c>
-      <c r="J21" s="19">
-        <v>0.112107623318385</v>
-      </c>
-      <c r="K21" s="14">
-        <v>13.7892376681614</v>
+        <f t="shared" si="5"/>
+        <v>0.21203718806069105</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="14">
+        <v>95.841584158415799</v>
+      </c>
+      <c r="G21" s="19">
+        <v>95.742574257425744</v>
+      </c>
+      <c r="H21" s="38">
+        <f t="shared" si="6"/>
+        <v>-9.9009900990054689E-2</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="19">
+        <v>98.956124612624293</v>
       </c>
       <c r="L21" s="19">
-        <f t="shared" si="4"/>
-        <v>13.677130044843015</v>
-      </c>
-      <c r="M21" s="16"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
+        <v>98.956124612624365</v>
+      </c>
+      <c r="M21" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="19">
+        <v>98.811881188118804</v>
+      </c>
+      <c r="P21" s="19">
+        <v>98.811881188118804</v>
+      </c>
+      <c r="Q21" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="19">
+        <v>0</v>
+      </c>
+      <c r="T21" s="19">
+        <v>90.297029702970306</v>
+      </c>
+      <c r="U21" s="19">
+        <f t="shared" si="9"/>
+        <v>90.297029702970306</v>
+      </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="19">
-        <v>99.036836769178706</v>
-      </c>
-      <c r="C22" s="14">
-        <v>99.070631970260195</v>
+        <v>19</v>
+      </c>
+      <c r="B22" s="14">
+        <v>98.322492297158504</v>
+      </c>
+      <c r="C22" s="19">
+        <v>98.322492297158504</v>
       </c>
       <c r="D22" s="19">
-        <f t="shared" si="2"/>
-        <v>3.3795201081488813E-2</v>
-      </c>
-      <c r="F22" s="19">
-        <v>98.643006263047994</v>
-      </c>
-      <c r="G22" s="14">
-        <v>99.373695198329798</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="21"/>
+      <c r="F22" s="14">
+        <v>98.370672097759595</v>
+      </c>
+      <c r="G22" s="19">
+        <v>98.370672097759666</v>
       </c>
       <c r="H22" s="19">
-        <f t="shared" si="3"/>
-        <v>0.73068893528180467</v>
-      </c>
-      <c r="J22" s="19">
-        <v>0.73068893528183698</v>
-      </c>
-      <c r="K22" s="14">
-        <v>4.6972860125260896</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="19">
+        <v>98.870249914412796</v>
       </c>
       <c r="L22" s="19">
-        <f t="shared" si="4"/>
-        <v>3.9665970772442525</v>
-      </c>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="16"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
+        <v>98.870249914412881</v>
+      </c>
+      <c r="M22" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="19">
+        <v>98.778004073319707</v>
+      </c>
+      <c r="P22" s="19">
+        <v>98.778004073319707</v>
+      </c>
+      <c r="Q22" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="19">
+        <v>0.10183299389002</v>
+      </c>
+      <c r="T22" s="19">
+        <v>97.352342158859472</v>
+      </c>
+      <c r="U22" s="19">
+        <f t="shared" si="9"/>
+        <v>97.250509164969458</v>
+      </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="19">
-        <v>99.984038308060605</v>
-      </c>
-      <c r="C23" s="14">
-        <v>100</v>
+        <v>20</v>
+      </c>
+      <c r="B23" s="14">
+        <v>98.247555801512604</v>
+      </c>
+      <c r="C23" s="19">
+        <v>99.188341634384798</v>
       </c>
       <c r="D23" s="19">
-        <f t="shared" si="2"/>
-        <v>1.596169193939545E-2</v>
-      </c>
-      <c r="F23" s="19">
-        <v>98.7354085603112</v>
-      </c>
-      <c r="G23" s="14">
-        <v>98.7354085603112</v>
+        <f t="shared" si="5"/>
+        <v>0.94078583287219431</v>
+      </c>
+      <c r="E23" s="21"/>
+      <c r="F23" s="14">
+        <v>98.991031390134495</v>
+      </c>
+      <c r="G23" s="19">
+        <v>99.439461883408072</v>
       </c>
       <c r="H23" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="19">
-        <v>100</v>
-      </c>
-      <c r="K23" s="14">
-        <v>100</v>
+        <f t="shared" si="6"/>
+        <v>0.44843049327357676</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="19">
+        <v>98.985427042981001</v>
       </c>
       <c r="L23" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
+        <v>98.985427042981001</v>
+      </c>
+      <c r="M23" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="19">
+        <v>98.654708520179298</v>
+      </c>
+      <c r="P23" s="19">
+        <v>98.654708520179298</v>
+      </c>
+      <c r="Q23" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S23" s="19">
+        <v>0.112107623318385</v>
+      </c>
+      <c r="T23" s="19">
+        <v>94.955156950672645</v>
+      </c>
+      <c r="U23" s="19">
+        <f t="shared" si="9"/>
+        <v>94.843049327354265</v>
+      </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="19">
-        <v>99.025807554264205</v>
-      </c>
-      <c r="C24" s="14">
-        <v>99.111263031960306</v>
+        <v>21</v>
+      </c>
+      <c r="B24" s="14">
+        <v>96.620479891855297</v>
+      </c>
+      <c r="C24" s="19">
+        <v>97.347076715106454</v>
       </c>
       <c r="D24" s="19">
-        <f t="shared" si="2"/>
-        <v>8.5455477696100957E-2</v>
-      </c>
-      <c r="F24" s="19">
-        <v>98.665297741273093</v>
-      </c>
-      <c r="G24" s="14">
-        <v>99.178644763860305</v>
+        <f t="shared" si="5"/>
+        <v>0.72659682325115682</v>
+      </c>
+      <c r="E24" s="21"/>
+      <c r="F24" s="14">
+        <v>95.720250521920605</v>
+      </c>
+      <c r="G24" s="19">
+        <v>96.555323590814197</v>
       </c>
       <c r="H24" s="19">
-        <f t="shared" si="3"/>
-        <v>0.51334702258721165</v>
-      </c>
-      <c r="J24" s="19">
-        <v>0</v>
-      </c>
-      <c r="K24" s="14">
-        <v>1.2320328542094401</v>
+        <f t="shared" si="6"/>
+        <v>0.83507306889359256</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="19">
+        <v>99.036836769178706</v>
       </c>
       <c r="L24" s="19">
-        <f t="shared" si="4"/>
-        <v>1.2320328542094401</v>
-      </c>
-      <c r="M24" s="15"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
-      <c r="U24" s="16"/>
+        <v>99.036836769178777</v>
+      </c>
+      <c r="M24" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="19">
+        <v>98.643006263047994</v>
+      </c>
+      <c r="P24" s="19">
+        <v>98.643006263047994</v>
+      </c>
+      <c r="Q24" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="19">
+        <v>0.73068893528183698</v>
+      </c>
+      <c r="T24" s="19">
+        <v>70.250521920668064</v>
+      </c>
+      <c r="U24" s="19">
+        <f t="shared" si="9"/>
+        <v>69.51983298538623</v>
+      </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="14">
+        <v>95.802075019952099</v>
+      </c>
+      <c r="C25" s="19">
+        <v>95.802075019952113</v>
+      </c>
+      <c r="D25" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="21"/>
+      <c r="F25" s="14">
+        <v>94.747081712062197</v>
+      </c>
+      <c r="G25" s="19">
+        <v>94.747081712062254</v>
+      </c>
+      <c r="H25" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="19">
+        <v>99.984038308060605</v>
+      </c>
+      <c r="L25" s="19">
+        <v>100</v>
+      </c>
+      <c r="M25" s="19">
+        <f t="shared" si="7"/>
+        <v>1.596169193939545E-2</v>
+      </c>
+      <c r="O25" s="19">
+        <v>98.7354085603112</v>
+      </c>
+      <c r="P25" s="19">
+        <v>98.71</v>
+      </c>
+      <c r="Q25" s="38">
+        <f t="shared" si="8"/>
+        <v>-2.5408560311205974E-2</v>
+      </c>
+      <c r="S25" s="19">
+        <v>100</v>
+      </c>
+      <c r="T25" s="19">
+        <v>100</v>
+      </c>
+      <c r="U25" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="14">
+        <v>90.753717313279694</v>
+      </c>
+      <c r="C26" s="19">
+        <v>91.710818663476317</v>
+      </c>
+      <c r="D26" s="19">
+        <f t="shared" si="5"/>
+        <v>0.95710135019662346</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="14">
+        <v>89.630390143737102</v>
+      </c>
+      <c r="G26" s="19">
+        <v>90.759753593429167</v>
+      </c>
+      <c r="H26" s="19">
+        <f t="shared" si="6"/>
+        <v>1.1293634496920646</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="19">
+        <v>99.025807554264205</v>
+      </c>
+      <c r="L26" s="19">
+        <v>99.025807554264233</v>
+      </c>
+      <c r="M26" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="19">
+        <v>98.665297741273093</v>
+      </c>
+      <c r="P26" s="19">
+        <v>98.665297741273093</v>
+      </c>
+      <c r="Q26" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="19">
+        <v>0</v>
+      </c>
+      <c r="T26" s="19">
+        <v>94.969199178644757</v>
+      </c>
+      <c r="U26" s="19">
+        <f t="shared" si="9"/>
+        <v>94.969199178644757</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B27" s="14">
+        <v>95.545469826861606</v>
+      </c>
+      <c r="C27" s="19">
+        <v>98.083711548159357</v>
+      </c>
+      <c r="D27" s="19">
+        <f t="shared" si="5"/>
+        <v>2.5382417212977515</v>
+      </c>
+      <c r="E27" s="21"/>
+      <c r="F27" s="14">
+        <v>94.9454905847373</v>
+      </c>
+      <c r="G27" s="19">
+        <v>96.927651139742323</v>
+      </c>
+      <c r="H27" s="19">
+        <f t="shared" si="6"/>
+        <v>1.9821605550050236</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="19">
         <v>98.554378887207903</v>
       </c>
-      <c r="C25" s="14">
-        <v>96.755757270129394</v>
-      </c>
-      <c r="D25" s="19">
-        <f t="shared" si="2"/>
-        <v>-1.7986216170785099</v>
-      </c>
-      <c r="F25" s="19">
+      <c r="L27" s="19">
+        <v>98.554378887207932</v>
+      </c>
+      <c r="M27" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="19">
         <v>97.224975222992995</v>
       </c>
-      <c r="G25" s="14">
-        <v>97.0267591674925</v>
-      </c>
-      <c r="H25" s="19">
-        <f t="shared" si="3"/>
-        <v>-0.19821605550049526</v>
-      </c>
-      <c r="J25" s="19">
-        <v>0</v>
-      </c>
-      <c r="K25" s="14">
-        <v>9.9108027750247699E-2</v>
-      </c>
-      <c r="L25" s="19">
-        <f t="shared" si="4"/>
-        <v>9.9108027750247699E-2</v>
-      </c>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C27" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="36"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I28" s="20"/>
-      <c r="J28" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="K28" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="L28" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
+      <c r="P27" s="19">
+        <v>97.224975222992995</v>
+      </c>
+      <c r="Q27" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="19">
+        <v>0</v>
+      </c>
+      <c r="T27" s="19">
+        <v>85.926660059464822</v>
+      </c>
+      <c r="U27" s="19">
+        <f t="shared" si="9"/>
+        <v>85.926660059464822</v>
+      </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="19">
-        <v>98.970116495019397</v>
-      </c>
-      <c r="C29" s="19">
-        <v>98.970116495019411</v>
-      </c>
-      <c r="D29" s="19">
-        <f>C29-B29</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="19">
-        <v>99.387755102040799</v>
-      </c>
-      <c r="G29" s="19">
-        <v>99.387755102040799</v>
-      </c>
-      <c r="H29" s="19">
-        <f>G29-F29</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="19">
-        <v>0.10204081632653</v>
-      </c>
-      <c r="K29" s="19">
-        <v>31.632653061224492</v>
-      </c>
-      <c r="L29" s="19">
-        <f>K29-J29</f>
-        <v>31.530612244897963</v>
-      </c>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="23"/>
-      <c r="U29" s="23"/>
+      <c r="L29" s="23"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="19">
-        <v>98.709581726490597</v>
-      </c>
-      <c r="C30" s="19">
-        <v>98.709581726490654</v>
-      </c>
-      <c r="D30" s="19">
-        <f t="shared" ref="D30:D38" si="5">C30-B30</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="19">
-        <v>99.4713656387665</v>
-      </c>
-      <c r="G30" s="19">
-        <v>99.4713656387665</v>
-      </c>
-      <c r="H30" s="19">
-        <f t="shared" ref="H30:H38" si="6">G30-F30</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="19">
-        <v>0</v>
-      </c>
-      <c r="K30" s="19">
-        <v>96.387665198237883</v>
-      </c>
-      <c r="L30" s="19">
-        <f t="shared" ref="L30:L38" si="7">K30-J30</f>
-        <v>96.387665198237883</v>
-      </c>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="23"/>
-      <c r="S30" s="23"/>
-      <c r="T30" s="23"/>
-      <c r="U30" s="23"/>
+      <c r="L30" s="23"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="19">
-        <v>98.774756629741503</v>
-      </c>
-      <c r="C31" s="19">
-        <v>98.774756629741518</v>
-      </c>
-      <c r="D31" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="19">
-        <v>97.868217054263496</v>
-      </c>
-      <c r="G31" s="19">
-        <v>97.868217054263496</v>
-      </c>
-      <c r="H31" s="19">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="19">
-        <v>0</v>
-      </c>
-      <c r="K31" s="19">
-        <v>47.965116279069768</v>
-      </c>
-      <c r="L31" s="19">
-        <f t="shared" si="7"/>
-        <v>47.965116279069768</v>
-      </c>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="23"/>
-      <c r="S31" s="23"/>
-      <c r="T31" s="23"/>
-      <c r="U31" s="23"/>
+      <c r="L31" s="23"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="19">
-        <v>98.956124612624293</v>
-      </c>
-      <c r="C32" s="19">
-        <v>98.956124612624365</v>
-      </c>
-      <c r="D32" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="19">
-        <v>98.811881188118804</v>
-      </c>
-      <c r="G32" s="19">
-        <v>98.811881188118804</v>
-      </c>
-      <c r="H32" s="19">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="19">
-        <v>0</v>
-      </c>
-      <c r="K32" s="19">
-        <v>90.297029702970306</v>
-      </c>
-      <c r="L32" s="19">
-        <f t="shared" si="7"/>
-        <v>90.297029702970306</v>
-      </c>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="23"/>
-      <c r="U32" s="23"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="19">
-        <v>98.870249914412796</v>
-      </c>
-      <c r="C33" s="19">
-        <v>98.870249914412881</v>
-      </c>
-      <c r="D33" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="19">
-        <v>98.778004073319707</v>
-      </c>
-      <c r="G33" s="19">
-        <v>98.778004073319707</v>
-      </c>
-      <c r="H33" s="19">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="19">
-        <v>0.10183299389002</v>
-      </c>
-      <c r="K33" s="19">
-        <v>97.352342158859472</v>
-      </c>
-      <c r="L33" s="19">
-        <f t="shared" si="7"/>
-        <v>97.250509164969458</v>
-      </c>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="23"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="23"/>
-      <c r="U33" s="23"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="19">
-        <v>98.985427042981001</v>
-      </c>
-      <c r="C34" s="19">
-        <v>98.985427042981001</v>
-      </c>
-      <c r="D34" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="19">
-        <v>98.654708520179298</v>
-      </c>
-      <c r="G34" s="19">
-        <v>98.654708520179298</v>
-      </c>
-      <c r="H34" s="19">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="19">
-        <v>0.112107623318385</v>
-      </c>
-      <c r="K34" s="19">
-        <v>94.955156950672645</v>
-      </c>
-      <c r="L34" s="19">
-        <f t="shared" si="7"/>
-        <v>94.843049327354265</v>
-      </c>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="23"/>
-      <c r="U34" s="23"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" s="19">
-        <v>99.036836769178706</v>
-      </c>
-      <c r="C35" s="19">
-        <v>99.036836769178777</v>
-      </c>
-      <c r="D35" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="19">
-        <v>98.643006263047994</v>
-      </c>
-      <c r="G35" s="19">
-        <v>98.643006263047994</v>
-      </c>
-      <c r="H35" s="19">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="19">
-        <v>0.73068893528183698</v>
-      </c>
-      <c r="K35" s="19">
-        <v>70.250521920668064</v>
-      </c>
-      <c r="L35" s="19">
-        <f t="shared" si="7"/>
-        <v>69.51983298538623</v>
-      </c>
+      <c r="L32" s="23"/>
+    </row>
+    <row r="33" spans="12:20" x14ac:dyDescent="0.3">
+      <c r="L33" s="23"/>
+    </row>
+    <row r="34" spans="12:20" x14ac:dyDescent="0.3">
+      <c r="L34" s="23"/>
+    </row>
+    <row r="35" spans="12:20" x14ac:dyDescent="0.3">
+      <c r="L35" s="23"/>
       <c r="M35" s="23"/>
       <c r="N35" s="23"/>
       <c r="O35" s="23"/>
@@ -7867,42 +7796,9 @@
       <c r="R35" s="23"/>
       <c r="S35" s="23"/>
       <c r="T35" s="23"/>
-      <c r="U35" s="23"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="19">
-        <v>99.984038308060605</v>
-      </c>
-      <c r="C36" s="19">
-        <v>100</v>
-      </c>
-      <c r="D36" s="19">
-        <f t="shared" si="5"/>
-        <v>1.596169193939545E-2</v>
-      </c>
-      <c r="F36" s="19">
-        <v>98.7354085603112</v>
-      </c>
-      <c r="G36" s="19">
-        <v>98.71</v>
-      </c>
-      <c r="H36" s="19">
-        <f t="shared" si="6"/>
-        <v>-2.5408560311205974E-2</v>
-      </c>
-      <c r="J36" s="19">
-        <v>100</v>
-      </c>
-      <c r="K36" s="19">
-        <v>100</v>
-      </c>
-      <c r="L36" s="19">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+    </row>
+    <row r="36" spans="12:20" x14ac:dyDescent="0.3">
+      <c r="L36" s="23"/>
       <c r="M36" s="23"/>
       <c r="N36" s="23"/>
       <c r="O36" s="23"/>
@@ -7911,42 +7807,9 @@
       <c r="R36" s="23"/>
       <c r="S36" s="23"/>
       <c r="T36" s="23"/>
-      <c r="U36" s="23"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="19">
-        <v>99.025807554264205</v>
-      </c>
-      <c r="C37" s="19">
-        <v>99.025807554264233</v>
-      </c>
-      <c r="D37" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="19">
-        <v>98.665297741273093</v>
-      </c>
-      <c r="G37" s="19">
-        <v>98.665297741273093</v>
-      </c>
-      <c r="H37" s="19">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="19">
-        <v>0</v>
-      </c>
-      <c r="K37" s="19">
-        <v>94.969199178644757</v>
-      </c>
-      <c r="L37" s="19">
-        <f t="shared" si="7"/>
-        <v>94.969199178644757</v>
-      </c>
+    </row>
+    <row r="37" spans="12:20" x14ac:dyDescent="0.3">
+      <c r="L37" s="23"/>
       <c r="M37" s="23"/>
       <c r="N37" s="23"/>
       <c r="O37" s="23"/>
@@ -7955,42 +7818,9 @@
       <c r="R37" s="23"/>
       <c r="S37" s="23"/>
       <c r="T37" s="23"/>
-      <c r="U37" s="23"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="19">
-        <v>98.554378887207903</v>
-      </c>
-      <c r="C38" s="19">
-        <v>98.554378887207932</v>
-      </c>
-      <c r="D38" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="19">
-        <v>97.224975222992995</v>
-      </c>
-      <c r="G38" s="19">
-        <v>97.224975222992995</v>
-      </c>
-      <c r="H38" s="19">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="19">
-        <v>0</v>
-      </c>
-      <c r="K38" s="19">
-        <v>85.926660059464822</v>
-      </c>
-      <c r="L38" s="19">
-        <f t="shared" si="7"/>
-        <v>85.926660059464822</v>
-      </c>
+    </row>
+    <row r="38" spans="12:20" x14ac:dyDescent="0.3">
+      <c r="L38" s="23"/>
       <c r="M38" s="23"/>
       <c r="N38" s="23"/>
       <c r="O38" s="23"/>
@@ -7999,7 +7829,6 @@
       <c r="R38" s="23"/>
       <c r="S38" s="23"/>
       <c r="T38" s="23"/>
-      <c r="U38" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/experiments/Consolidated Results from different techniques.xlsx
+++ b/experiments/Consolidated Results from different techniques.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\musman\Desktop\DNN-Repair\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFE935E-2942-40FB-945E-746897B48E26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EA1E50-81FA-41F9-8056-7ABF918513D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{6E851A2A-318E-4F15-AEB0-BD2CB026064A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{6E851A2A-318E-4F15-AEB0-BD2CB026064A}"/>
   </bookViews>
   <sheets>
     <sheet name="Pattern-Train" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="60">
   <si>
     <t>LABEL 7</t>
   </si>
@@ -216,6 +216,9 @@
   <si>
     <t>N/A</t>
   </si>
+  <si>
+    <t>Correct</t>
+  </si>
 </sst>
 </file>
 
@@ -327,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -415,6 +418,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1634,7 +1646,7 @@
   <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2975,8 +2987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D37D389-054D-49CB-907C-AFF7D26BA222}">
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4102,10 +4114,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12D6A94-C3A6-4756-A633-01A8292168B5}">
-  <dimension ref="A1:X48"/>
+  <dimension ref="A1:X51"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView topLeftCell="A22" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5323,17 +5335,6 @@
       <c r="K27" s="34"/>
       <c r="L27" s="34"/>
       <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
@@ -5373,17 +5374,6 @@
         <v>4</v>
       </c>
       <c r="M28" s="4"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="8"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="18">
@@ -5423,17 +5413,6 @@
         <v>6.1224489795918364</v>
       </c>
       <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8"/>
-      <c r="X29" s="8"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="18">
@@ -5474,17 +5453,6 @@
         <v>96.387665198237883</v>
       </c>
       <c r="M30" s="6"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
@@ -5525,17 +5493,6 @@
         <v>36.046511627906973</v>
       </c>
       <c r="M31" s="6"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
-      <c r="X31" s="8"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
@@ -5576,19 +5533,8 @@
         <v>85.544554455445549</v>
       </c>
       <c r="M32" s="6"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="8"/>
-      <c r="X32" s="8"/>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -5627,19 +5573,8 @@
         <v>80.957230142566189</v>
       </c>
       <c r="M33" s="6"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
-      <c r="X33" s="8"/>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="18">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -5678,19 +5613,8 @@
         <v>84.417040358744401</v>
       </c>
       <c r="M34" s="6"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="8"/>
-      <c r="X34" s="8"/>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="18">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -5729,19 +5653,8 @@
         <v>60.438413361169111</v>
       </c>
       <c r="M35" s="6"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="8"/>
-      <c r="X35" s="8"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="18">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -5780,19 +5693,8 @@
         <v>88.521400778210108</v>
       </c>
       <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="7"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="8"/>
-      <c r="X36" s="8"/>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="18">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -5831,18 +5733,8 @@
         <v>94.969199178644757</v>
       </c>
       <c r="M37" s="6"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="7"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="8"/>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="18">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -5881,18 +5773,8 @@
         <v>85.926660059464822</v>
       </c>
       <c r="M38" s="6"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="7"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="8"/>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="20"/>
       <c r="B39" s="34"/>
       <c r="N39" s="8"/>
@@ -5906,7 +5788,23 @@
       <c r="V39" s="8"/>
       <c r="W39" s="8"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L40" s="21"/>
       <c r="N40" s="7"/>
       <c r="O40" s="8"/>
       <c r="P40" s="7"/>
@@ -5918,7 +5816,43 @@
       <c r="V40" s="8"/>
       <c r="W40" s="8"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A41" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H41" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="J41" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K41" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="L41" s="25" t="s">
+        <v>4</v>
+      </c>
       <c r="N41" s="8"/>
       <c r="O41" s="8"/>
       <c r="P41" s="8"/>
@@ -5930,7 +5864,43 @@
       <c r="V41" s="8"/>
       <c r="W41" s="8"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A42" s="18">
+        <v>0</v>
+      </c>
+      <c r="B42" s="22">
+        <v>0.10204081632653</v>
+      </c>
+      <c r="C42" s="41">
+        <v>0.10204081632653</v>
+      </c>
+      <c r="D42" s="22">
+        <v>0</v>
+      </c>
+      <c r="E42" s="22">
+        <v>0</v>
+      </c>
+      <c r="F42" s="22">
+        <v>0</v>
+      </c>
+      <c r="G42" s="22">
+        <v>0.10183299389002</v>
+      </c>
+      <c r="H42" s="22">
+        <v>0.112107623318385</v>
+      </c>
+      <c r="I42" s="22">
+        <v>0.73068893528183698</v>
+      </c>
+      <c r="J42" s="22">
+        <v>100</v>
+      </c>
+      <c r="K42" s="22">
+        <v>0</v>
+      </c>
+      <c r="L42" s="22">
+        <v>0</v>
+      </c>
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
       <c r="P42" s="8"/>
@@ -5942,7 +5912,44 @@
       <c r="V42" s="8"/>
       <c r="W42" s="8"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A43" s="18">
+        <f>A42+1</f>
+        <v>1</v>
+      </c>
+      <c r="B43" s="22">
+        <v>0</v>
+      </c>
+      <c r="C43" s="22">
+        <v>0.10204081632653</v>
+      </c>
+      <c r="D43" s="41">
+        <v>0</v>
+      </c>
+      <c r="E43" s="22">
+        <v>0</v>
+      </c>
+      <c r="F43" s="22">
+        <v>0</v>
+      </c>
+      <c r="G43" s="22">
+        <v>0.10183299389002</v>
+      </c>
+      <c r="H43" s="22">
+        <v>0.112107623318385</v>
+      </c>
+      <c r="I43" s="22">
+        <v>0.73068893528183698</v>
+      </c>
+      <c r="J43" s="22">
+        <v>100</v>
+      </c>
+      <c r="K43" s="22">
+        <v>0</v>
+      </c>
+      <c r="L43" s="22">
+        <v>0</v>
+      </c>
       <c r="N43" s="8"/>
       <c r="O43" s="8"/>
       <c r="P43" s="8"/>
@@ -5954,7 +5961,44 @@
       <c r="V43" s="8"/>
       <c r="W43" s="8"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A44" s="18">
+        <f t="shared" ref="A44:A51" si="3">A43+1</f>
+        <v>2</v>
+      </c>
+      <c r="B44" s="22">
+        <v>0</v>
+      </c>
+      <c r="C44" s="22">
+        <v>0.10204081632653</v>
+      </c>
+      <c r="D44" s="22">
+        <v>0</v>
+      </c>
+      <c r="E44" s="41">
+        <v>0</v>
+      </c>
+      <c r="F44" s="22">
+        <v>0</v>
+      </c>
+      <c r="G44" s="22">
+        <v>0.10183299389002</v>
+      </c>
+      <c r="H44" s="22">
+        <v>0.112107623318385</v>
+      </c>
+      <c r="I44" s="22">
+        <v>0.73068893528183698</v>
+      </c>
+      <c r="J44" s="22">
+        <v>100</v>
+      </c>
+      <c r="K44" s="22">
+        <v>0</v>
+      </c>
+      <c r="L44" s="22">
+        <v>0</v>
+      </c>
       <c r="N44" s="8"/>
       <c r="O44" s="7"/>
       <c r="P44" s="8"/>
@@ -5966,7 +6010,44 @@
       <c r="V44" s="7"/>
       <c r="W44" s="7"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A45" s="18">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="B45" s="22">
+        <v>0</v>
+      </c>
+      <c r="C45" s="22">
+        <v>0.10204081632653</v>
+      </c>
+      <c r="D45" s="22">
+        <v>0</v>
+      </c>
+      <c r="E45" s="22">
+        <v>0</v>
+      </c>
+      <c r="F45" s="41">
+        <v>0</v>
+      </c>
+      <c r="G45" s="22">
+        <v>0.10183299389002</v>
+      </c>
+      <c r="H45" s="22">
+        <v>0.112107623318385</v>
+      </c>
+      <c r="I45" s="22">
+        <v>0.73068893528183698</v>
+      </c>
+      <c r="J45" s="22">
+        <v>100</v>
+      </c>
+      <c r="K45" s="22">
+        <v>0</v>
+      </c>
+      <c r="L45" s="22">
+        <v>0</v>
+      </c>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
       <c r="P45" s="8"/>
@@ -5978,7 +6059,44 @@
       <c r="V45" s="8"/>
       <c r="W45" s="8"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A46" s="18">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="B46" s="22">
+        <v>0.10183299389002</v>
+      </c>
+      <c r="C46" s="22">
+        <v>0.10204081632653</v>
+      </c>
+      <c r="D46" s="22">
+        <v>0</v>
+      </c>
+      <c r="E46" s="22">
+        <v>0</v>
+      </c>
+      <c r="F46" s="22">
+        <v>0</v>
+      </c>
+      <c r="G46" s="41">
+        <v>0.10183299389002</v>
+      </c>
+      <c r="H46" s="22">
+        <v>0.112107623318385</v>
+      </c>
+      <c r="I46" s="22">
+        <v>0.73068893528183698</v>
+      </c>
+      <c r="J46" s="22">
+        <v>100</v>
+      </c>
+      <c r="K46" s="22">
+        <v>0</v>
+      </c>
+      <c r="L46" s="22">
+        <v>0</v>
+      </c>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
       <c r="P46" s="8"/>
@@ -5990,7 +6108,44 @@
       <c r="V46" s="8"/>
       <c r="W46" s="8"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A47" s="18">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B47" s="22">
+        <v>0.112107623318385</v>
+      </c>
+      <c r="C47" s="22">
+        <v>0.10204081632653</v>
+      </c>
+      <c r="D47" s="22">
+        <v>0</v>
+      </c>
+      <c r="E47" s="22">
+        <v>0</v>
+      </c>
+      <c r="F47" s="22">
+        <v>0</v>
+      </c>
+      <c r="G47" s="22">
+        <v>0.10183299389002</v>
+      </c>
+      <c r="H47" s="41">
+        <v>0.112107623318385</v>
+      </c>
+      <c r="I47" s="22">
+        <v>0.73068893528183698</v>
+      </c>
+      <c r="J47" s="22">
+        <v>100</v>
+      </c>
+      <c r="K47" s="22">
+        <v>0</v>
+      </c>
+      <c r="L47" s="22">
+        <v>0</v>
+      </c>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
       <c r="P47" s="8"/>
@@ -6002,7 +6157,44 @@
       <c r="V47" s="8"/>
       <c r="W47" s="8"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A48" s="18">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="B48" s="22">
+        <v>0.73068893528183698</v>
+      </c>
+      <c r="C48" s="22">
+        <v>0.10204081632653</v>
+      </c>
+      <c r="D48" s="22">
+        <v>0</v>
+      </c>
+      <c r="E48" s="22">
+        <v>0</v>
+      </c>
+      <c r="F48" s="22">
+        <v>0</v>
+      </c>
+      <c r="G48" s="22">
+        <v>0.10183299389002</v>
+      </c>
+      <c r="H48" s="22">
+        <v>0.112107623318385</v>
+      </c>
+      <c r="I48" s="41">
+        <v>0.73068893528183698</v>
+      </c>
+      <c r="J48" s="22">
+        <v>100</v>
+      </c>
+      <c r="K48" s="22">
+        <v>0</v>
+      </c>
+      <c r="L48" s="22">
+        <v>0</v>
+      </c>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
       <c r="P48" s="8"/>
@@ -6014,8 +6206,126 @@
       <c r="V48" s="8"/>
       <c r="W48" s="8"/>
     </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="18">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="B49" s="22">
+        <v>100</v>
+      </c>
+      <c r="C49" s="39">
+        <v>28.775510204081634</v>
+      </c>
+      <c r="D49" s="39">
+        <v>9.0748898678414101</v>
+      </c>
+      <c r="E49" s="39">
+        <v>40.019379844961236</v>
+      </c>
+      <c r="F49" s="39">
+        <v>30.89108910891089</v>
+      </c>
+      <c r="G49" s="39">
+        <v>16.90427698574338</v>
+      </c>
+      <c r="H49" s="39">
+        <v>50.560538116591921</v>
+      </c>
+      <c r="I49" s="39">
+        <v>31.837160751565762</v>
+      </c>
+      <c r="J49" s="41">
+        <v>100</v>
+      </c>
+      <c r="K49" s="39">
+        <v>55.236139630390149</v>
+      </c>
+      <c r="L49" s="39">
+        <v>40.931615460852328</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="18">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="B50" s="22">
+        <v>0</v>
+      </c>
+      <c r="C50" s="22">
+        <v>0.10204081632653</v>
+      </c>
+      <c r="D50" s="22">
+        <v>0</v>
+      </c>
+      <c r="E50" s="22">
+        <v>0</v>
+      </c>
+      <c r="F50" s="22">
+        <v>0</v>
+      </c>
+      <c r="G50" s="22">
+        <v>0.10183299389002</v>
+      </c>
+      <c r="H50" s="22">
+        <v>0.112107623318385</v>
+      </c>
+      <c r="I50" s="22">
+        <v>0.73068893528183698</v>
+      </c>
+      <c r="J50" s="22">
+        <v>100</v>
+      </c>
+      <c r="K50" s="41">
+        <v>0</v>
+      </c>
+      <c r="L50" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="18">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="B51" s="22">
+        <v>0</v>
+      </c>
+      <c r="C51" s="22">
+        <v>0.10204081632653</v>
+      </c>
+      <c r="D51" s="22">
+        <v>0</v>
+      </c>
+      <c r="E51" s="22">
+        <v>0</v>
+      </c>
+      <c r="F51" s="22">
+        <v>0</v>
+      </c>
+      <c r="G51" s="22">
+        <v>0.10183299389002</v>
+      </c>
+      <c r="H51" s="22">
+        <v>0.112107623318385</v>
+      </c>
+      <c r="I51" s="22">
+        <v>0.73068893528183698</v>
+      </c>
+      <c r="J51" s="22">
+        <v>100</v>
+      </c>
+      <c r="K51" s="22">
+        <v>0</v>
+      </c>
+      <c r="L51" s="41">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6417,10 +6727,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7C8AE8-68EA-4CD1-89FD-4632DB72F050}">
-  <dimension ref="A1:U38"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7770,23 +8080,82 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L29" s="23"/>
+      <c r="S29" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="T29" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="U29" s="13" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L30" s="23"/>
+      <c r="S30" s="19">
+        <v>0.10204081632653</v>
+      </c>
+      <c r="T30" s="19">
+        <v>0.10204081632653</v>
+      </c>
+      <c r="U30" s="19">
+        <f>T30-S30</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L31" s="23"/>
+      <c r="S31" s="19">
+        <v>0</v>
+      </c>
+      <c r="T31" s="19">
+        <v>0</v>
+      </c>
+      <c r="U31" s="19">
+        <f t="shared" ref="U31:U39" si="10">T31-S31</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L32" s="23"/>
-    </row>
-    <row r="33" spans="12:20" x14ac:dyDescent="0.3">
+      <c r="S32" s="19">
+        <v>0</v>
+      </c>
+      <c r="T32" s="19">
+        <v>0</v>
+      </c>
+      <c r="U32" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="12:21" x14ac:dyDescent="0.3">
       <c r="L33" s="23"/>
-    </row>
-    <row r="34" spans="12:20" x14ac:dyDescent="0.3">
+      <c r="S33" s="19">
+        <v>0</v>
+      </c>
+      <c r="T33" s="19">
+        <v>0</v>
+      </c>
+      <c r="U33" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="12:21" x14ac:dyDescent="0.3">
       <c r="L34" s="23"/>
-    </row>
-    <row r="35" spans="12:20" x14ac:dyDescent="0.3">
+      <c r="S34" s="19">
+        <v>0.10183299389002</v>
+      </c>
+      <c r="T34" s="19">
+        <v>0.10183299389002</v>
+      </c>
+      <c r="U34" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="12:21" x14ac:dyDescent="0.3">
       <c r="L35" s="23"/>
       <c r="M35" s="23"/>
       <c r="N35" s="23"/>
@@ -7794,10 +8163,18 @@
       <c r="P35" s="23"/>
       <c r="Q35" s="23"/>
       <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="23"/>
-    </row>
-    <row r="36" spans="12:20" x14ac:dyDescent="0.3">
+      <c r="S35" s="19">
+        <v>0.112107623318385</v>
+      </c>
+      <c r="T35" s="19">
+        <v>0.112107623318385</v>
+      </c>
+      <c r="U35" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="12:21" x14ac:dyDescent="0.3">
       <c r="L36" s="23"/>
       <c r="M36" s="23"/>
       <c r="N36" s="23"/>
@@ -7805,10 +8182,18 @@
       <c r="P36" s="23"/>
       <c r="Q36" s="23"/>
       <c r="R36" s="23"/>
-      <c r="S36" s="23"/>
-      <c r="T36" s="23"/>
-    </row>
-    <row r="37" spans="12:20" x14ac:dyDescent="0.3">
+      <c r="S36" s="19">
+        <v>0.73068893528183698</v>
+      </c>
+      <c r="T36" s="19">
+        <v>0.73068893528183698</v>
+      </c>
+      <c r="U36" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="12:21" x14ac:dyDescent="0.3">
       <c r="L37" s="23"/>
       <c r="M37" s="23"/>
       <c r="N37" s="23"/>
@@ -7816,10 +8201,18 @@
       <c r="P37" s="23"/>
       <c r="Q37" s="23"/>
       <c r="R37" s="23"/>
-      <c r="S37" s="23"/>
-      <c r="T37" s="23"/>
-    </row>
-    <row r="38" spans="12:20" x14ac:dyDescent="0.3">
+      <c r="S37" s="19">
+        <v>100</v>
+      </c>
+      <c r="T37" s="19">
+        <v>100</v>
+      </c>
+      <c r="U37" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="12:21" x14ac:dyDescent="0.3">
       <c r="L38" s="23"/>
       <c r="M38" s="23"/>
       <c r="N38" s="23"/>
@@ -7827,8 +8220,28 @@
       <c r="P38" s="23"/>
       <c r="Q38" s="23"/>
       <c r="R38" s="23"/>
-      <c r="S38" s="23"/>
-      <c r="T38" s="23"/>
+      <c r="S38" s="19">
+        <v>0</v>
+      </c>
+      <c r="T38" s="19">
+        <v>0</v>
+      </c>
+      <c r="U38" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="S39" s="19">
+        <v>0</v>
+      </c>
+      <c r="T39" s="19">
+        <v>0</v>
+      </c>
+      <c r="U39" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/experiments/Consolidated Results from different techniques.xlsx
+++ b/experiments/Consolidated Results from different techniques.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\musman\Desktop\DNN-Repair\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EA1E50-81FA-41F9-8056-7ABF918513D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42A1964-4A17-4929-8AA4-86010B7D9003}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{6E851A2A-318E-4F15-AEB0-BD2CB026064A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{6E851A2A-318E-4F15-AEB0-BD2CB026064A}"/>
   </bookViews>
   <sheets>
     <sheet name="Pattern-Train" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="66">
   <si>
     <t>LABEL 7</t>
   </si>
@@ -219,12 +219,30 @@
   <si>
     <t>Correct</t>
   </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repair </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Original </t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Poisoned Test</t>
+  </si>
+  <si>
+    <t>New Experiments</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,6 +309,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -330,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -427,6 +453,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2987,7 +3019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D37D389-054D-49CB-907C-AFF7D26BA222}">
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -6331,15 +6363,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9E5FCC-E3E6-4612-B501-2D6B180DDCDA}">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="13" width="8.88671875" style="18"/>
@@ -6718,6 +6750,506 @@
       <c r="T7" s="18" t="s">
         <v>52</v>
       </c>
+    </row>
+    <row r="8" spans="1:20" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="39">
+        <v>98.970116495019397</v>
+      </c>
+      <c r="E9" s="39">
+        <v>98.709581726490597</v>
+      </c>
+      <c r="F9" s="39">
+        <v>98.774756629741503</v>
+      </c>
+      <c r="G9" s="39">
+        <v>98.956124612624293</v>
+      </c>
+      <c r="H9" s="39">
+        <v>98.870249914412796</v>
+      </c>
+      <c r="I9" s="39">
+        <v>98.985427042981001</v>
+      </c>
+      <c r="J9" s="39">
+        <v>99.036836769178706</v>
+      </c>
+      <c r="K9" s="39">
+        <v>99.984038308060605</v>
+      </c>
+      <c r="L9" s="39">
+        <v>99.025807554264205</v>
+      </c>
+      <c r="M9" s="39">
+        <v>98.554378887207903</v>
+      </c>
+      <c r="N9" s="22">
+        <v>98.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="39">
+        <v>98.9869998311666</v>
+      </c>
+      <c r="E10" s="39">
+        <v>99.807178878670996</v>
+      </c>
+      <c r="F10" s="39">
+        <v>99.378986236992205</v>
+      </c>
+      <c r="G10" s="39">
+        <v>99.592236176806395</v>
+      </c>
+      <c r="H10" s="39">
+        <v>99.075659020883194</v>
+      </c>
+      <c r="I10" s="39">
+        <v>99.299022320605005</v>
+      </c>
+      <c r="J10" s="39">
+        <v>99.290300777289602</v>
+      </c>
+      <c r="K10" s="39">
+        <v>97.414205905825995</v>
+      </c>
+      <c r="L10" s="39">
+        <v>99.059989745342605</v>
+      </c>
+      <c r="M10" s="39">
+        <v>98.604807530677405</v>
+      </c>
+      <c r="N10" s="22">
+        <v>99.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="37">
+        <f>D10-D9</f>
+        <v>1.6883336147202499E-2</v>
+      </c>
+      <c r="E11" s="37">
+        <f t="shared" ref="E11:N11" si="0">E10-E9</f>
+        <v>1.0975971521803984</v>
+      </c>
+      <c r="F11" s="37">
+        <f t="shared" si="0"/>
+        <v>0.60422960725070141</v>
+      </c>
+      <c r="G11" s="37">
+        <f t="shared" si="0"/>
+        <v>0.63611156418210157</v>
+      </c>
+      <c r="H11" s="37">
+        <f t="shared" si="0"/>
+        <v>0.20540910647039823</v>
+      </c>
+      <c r="I11" s="37">
+        <f t="shared" si="0"/>
+        <v>0.31359527762400319</v>
+      </c>
+      <c r="J11" s="37">
+        <f t="shared" si="0"/>
+        <v>0.25346400811089609</v>
+      </c>
+      <c r="K11" s="43">
+        <f t="shared" si="0"/>
+        <v>-2.56983240223461</v>
+      </c>
+      <c r="L11" s="37">
+        <f t="shared" si="0"/>
+        <v>3.4182191078400592E-2</v>
+      </c>
+      <c r="M11" s="37">
+        <f t="shared" si="0"/>
+        <v>5.0428643469501822E-2</v>
+      </c>
+      <c r="N11" s="37">
+        <f t="shared" si="0"/>
+        <v>6.0000000000002274E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="39">
+        <v>99.387755102040799</v>
+      </c>
+      <c r="E13" s="39">
+        <v>99.4713656387665</v>
+      </c>
+      <c r="F13" s="39">
+        <v>97.868217054263496</v>
+      </c>
+      <c r="G13" s="39">
+        <v>98.811881188118804</v>
+      </c>
+      <c r="H13" s="39">
+        <v>98.778004073319707</v>
+      </c>
+      <c r="I13" s="39">
+        <v>98.654708520179298</v>
+      </c>
+      <c r="J13" s="39">
+        <v>98.643006263047994</v>
+      </c>
+      <c r="K13" s="39">
+        <v>98.7354085603112</v>
+      </c>
+      <c r="L13" s="39">
+        <v>98.665297741273093</v>
+      </c>
+      <c r="M13" s="39">
+        <v>97.224975222992995</v>
+      </c>
+      <c r="N13" s="22">
+        <v>98.63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="39">
+        <v>99.387755102040799</v>
+      </c>
+      <c r="E14" s="39">
+        <v>99.5594713656387</v>
+      </c>
+      <c r="F14" s="39">
+        <v>97.965116279069704</v>
+      </c>
+      <c r="G14" s="39">
+        <v>98.910891089108901</v>
+      </c>
+      <c r="H14" s="39">
+        <v>99.083503054989805</v>
+      </c>
+      <c r="I14" s="39">
+        <v>98.654708520179298</v>
+      </c>
+      <c r="J14" s="39">
+        <v>98.643006263047994</v>
+      </c>
+      <c r="K14" s="39">
+        <v>95.330739299610897</v>
+      </c>
+      <c r="L14" s="39">
+        <v>98.665297741273093</v>
+      </c>
+      <c r="M14" s="39">
+        <v>97.3240832507433</v>
+      </c>
+      <c r="N14" s="22">
+        <v>98.35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="37">
+        <f>D14-D13</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="37">
+        <f t="shared" ref="E15" si="1">E14-E13</f>
+        <v>8.8105726872200307E-2</v>
+      </c>
+      <c r="F15" s="37">
+        <f t="shared" ref="F15" si="2">F14-F13</f>
+        <v>9.689922480620794E-2</v>
+      </c>
+      <c r="G15" s="37">
+        <f t="shared" ref="G15" si="3">G14-G13</f>
+        <v>9.9009900990097321E-2</v>
+      </c>
+      <c r="H15" s="37">
+        <f t="shared" ref="H15" si="4">H14-H13</f>
+        <v>0.30549898167009815</v>
+      </c>
+      <c r="I15" s="37">
+        <f t="shared" ref="I15" si="5">I14-I13</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="37">
+        <f t="shared" ref="J15" si="6">J14-J13</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="43">
+        <f t="shared" ref="K15" si="7">K14-K13</f>
+        <v>-3.4046692607003024</v>
+      </c>
+      <c r="L15" s="37">
+        <f t="shared" ref="L15" si="8">L14-L13</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="37">
+        <f t="shared" ref="M15" si="9">M14-M13</f>
+        <v>9.9108027750304473E-2</v>
+      </c>
+      <c r="N15" s="43">
+        <f t="shared" ref="N15" si="10">N14-N13</f>
+        <v>-0.28000000000000114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="37"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="22">
+        <v>0.10204081632653</v>
+      </c>
+      <c r="E17" s="22">
+        <v>0</v>
+      </c>
+      <c r="F17" s="22">
+        <v>0</v>
+      </c>
+      <c r="G17" s="22">
+        <v>0</v>
+      </c>
+      <c r="H17" s="22">
+        <v>0.10183299389002</v>
+      </c>
+      <c r="I17" s="22">
+        <v>0.112107623318385</v>
+      </c>
+      <c r="J17" s="22">
+        <v>0.73068893528183698</v>
+      </c>
+      <c r="K17" s="22">
+        <v>100</v>
+      </c>
+      <c r="L17" s="22">
+        <v>0</v>
+      </c>
+      <c r="M17" s="22">
+        <v>0</v>
+      </c>
+      <c r="N17" s="22">
+        <v>10.38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="39">
+        <v>0.40816326530612201</v>
+      </c>
+      <c r="E18" s="39">
+        <v>91.189427312775294</v>
+      </c>
+      <c r="F18" s="39">
+        <v>59.593023255813897</v>
+      </c>
+      <c r="G18" s="39">
+        <v>67.128712871287107</v>
+      </c>
+      <c r="H18" s="39">
+        <v>28.615071283095698</v>
+      </c>
+      <c r="I18" s="39">
+        <v>35.762331838564997</v>
+      </c>
+      <c r="J18" s="39">
+        <v>51.3569937369519</v>
+      </c>
+      <c r="K18" s="39">
+        <v>99.4163424124513</v>
+      </c>
+      <c r="L18" s="39">
+        <v>5.1334702258726796</v>
+      </c>
+      <c r="M18" s="39">
+        <v>0.297324083250743</v>
+      </c>
+      <c r="N18" s="22">
+        <v>44.99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="37">
+        <f>D18-D17</f>
+        <v>0.30612244897959201</v>
+      </c>
+      <c r="E19" s="37">
+        <f t="shared" ref="E19" si="11">E18-E17</f>
+        <v>91.189427312775294</v>
+      </c>
+      <c r="F19" s="37">
+        <f t="shared" ref="F19" si="12">F18-F17</f>
+        <v>59.593023255813897</v>
+      </c>
+      <c r="G19" s="37">
+        <f t="shared" ref="G19" si="13">G18-G17</f>
+        <v>67.128712871287107</v>
+      </c>
+      <c r="H19" s="37">
+        <f t="shared" ref="H19" si="14">H18-H17</f>
+        <v>28.513238289205677</v>
+      </c>
+      <c r="I19" s="37">
+        <f t="shared" ref="I19" si="15">I18-I17</f>
+        <v>35.65022421524661</v>
+      </c>
+      <c r="J19" s="37">
+        <f t="shared" ref="J19" si="16">J18-J17</f>
+        <v>50.626304801670059</v>
+      </c>
+      <c r="K19" s="43">
+        <f t="shared" ref="K19" si="17">K18-K17</f>
+        <v>-0.58365758754870001</v>
+      </c>
+      <c r="L19" s="37">
+        <f t="shared" ref="L19" si="18">L18-L17</f>
+        <v>5.1334702258726796</v>
+      </c>
+      <c r="M19" s="37">
+        <f t="shared" ref="M19" si="19">M18-M17</f>
+        <v>0.297324083250743</v>
+      </c>
+      <c r="N19" s="16">
+        <f t="shared" ref="N19" si="20">N18-N17</f>
+        <v>34.61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/experiments/Consolidated Results from different techniques.xlsx
+++ b/experiments/Consolidated Results from different techniques.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\musman\Desktop\DNN-Repair\experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgopinat\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42A1964-4A17-4929-8AA4-86010B7D9003}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE4FF68-187D-4F00-9079-E872E9B0FE70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{6E851A2A-318E-4F15-AEB0-BD2CB026064A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6E851A2A-318E-4F15-AEB0-BD2CB026064A}"/>
   </bookViews>
   <sheets>
     <sheet name="Pattern-Train" sheetId="1" r:id="rId1"/>
@@ -242,7 +242,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,6 +317,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -356,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -459,6 +468,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -778,7 +794,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1184,8 +1200,8 @@
       <c r="J11" s="15">
         <v>89.694069389847797</v>
       </c>
-      <c r="K11" s="17">
-        <v>85.079473594257394</v>
+      <c r="K11" s="26">
+        <v>92.8</v>
       </c>
       <c r="L11" s="15">
         <v>87.745684498376306</v>
@@ -1226,8 +1242,8 @@
       <c r="K12" s="15">
         <v>78.685493360228605</v>
       </c>
-      <c r="L12" s="17">
-        <v>94.957135653050898</v>
+      <c r="L12" s="26">
+        <v>96.29</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -1663,8 +1679,8 @@
       <c r="K25" s="15">
         <v>96.923852748361</v>
       </c>
-      <c r="L25" s="14">
-        <v>96.755757270129394</v>
+      <c r="L25" s="44">
+        <v>98.705664817616395</v>
       </c>
     </row>
   </sheetData>
@@ -1677,8 +1693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6816E6FB-2578-42FA-A216-5F0E87175422}">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2075,8 +2091,8 @@
       <c r="J11" s="15">
         <v>87.4743326488706</v>
       </c>
-      <c r="K11" s="17">
-        <v>88.295687885010196</v>
+      <c r="K11" s="26">
+        <v>91</v>
       </c>
       <c r="L11" s="15">
         <v>87.268993839835701</v>
@@ -2117,8 +2133,8 @@
       <c r="K12" s="15">
         <v>80.872150644202094</v>
       </c>
-      <c r="L12" s="17">
-        <v>94.747274529236805</v>
+      <c r="L12" s="26">
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
@@ -2486,7 +2502,7 @@
       <c r="I23" s="15">
         <v>98.443579766536899</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="28">
         <v>98.7354085603112</v>
       </c>
       <c r="K23" s="15">
@@ -2570,8 +2586,8 @@
       <c r="K25" s="15">
         <v>95.639246778989005</v>
       </c>
-      <c r="L25" s="14">
-        <v>97.0267591674925</v>
+      <c r="L25" s="46">
+        <v>97.720515361744305</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -2773,7 +2789,7 @@
         <v>0.49504950495049499</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -2812,7 +2828,7 @@
         <v>0.20366598778004</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="18">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -2851,7 +2867,7 @@
         <v>1.12107623318385</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="18">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -2890,7 +2906,7 @@
         <v>2.0876826722338202</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="18">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -2929,7 +2945,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="18">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -2968,7 +2984,7 @@
         <v>0.102669404517453</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="18">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -3006,8 +3022,11 @@
       <c r="L38" s="28">
         <v>9.9108027750247699E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M38" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="20"/>
     </row>
   </sheetData>
@@ -6365,7 +6384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9E5FCC-E3E6-4612-B501-2D6B180DDCDA}">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>

--- a/experiments/Consolidated Results from different techniques.xlsx
+++ b/experiments/Consolidated Results from different techniques.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgopinat\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgopinat\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE4FF68-187D-4F00-9079-E872E9B0FE70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD77AC6-B9D2-44E1-A0F8-03D2613CEF5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6E851A2A-318E-4F15-AEB0-BD2CB026064A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{6E851A2A-318E-4F15-AEB0-BD2CB026064A}"/>
   </bookViews>
   <sheets>
     <sheet name="Pattern-Train" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="67">
   <si>
     <t>LABEL 7</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>New Experiments</t>
+  </si>
+  <si>
+    <t>Mutation Based Repair - Tarantula Localization using Poisoned Train_Set (only 600 poisoned inputs)</t>
   </si>
 </sst>
 </file>
@@ -1693,8 +1696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6816E6FB-2578-42FA-A216-5F0E87175422}">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView topLeftCell="A29" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4167,8 +4170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12D6A94-C3A6-4756-A633-01A8292168B5}">
   <dimension ref="A1:X51"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5372,7 +5375,7 @@
     </row>
     <row r="27" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="36" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="B27" s="34"/>
       <c r="C27" s="34"/>

--- a/experiments/Consolidated Results from different techniques.xlsx
+++ b/experiments/Consolidated Results from different techniques.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgopinat\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgopinat\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD77AC6-B9D2-44E1-A0F8-03D2613CEF5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A7B910-E2FA-4540-9D47-7DE00022CEC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{6E851A2A-318E-4F15-AEB0-BD2CB026064A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{6E851A2A-318E-4F15-AEB0-BD2CB026064A}"/>
   </bookViews>
   <sheets>
     <sheet name="Pattern-Train" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="Mutation-Train" sheetId="12" r:id="rId3"/>
     <sheet name="Mutation-Test" sheetId="13" r:id="rId4"/>
     <sheet name="Last-Layer" sheetId="14" r:id="rId5"/>
-    <sheet name="Summary" sheetId="11" r:id="rId6"/>
+    <sheet name="Runtime-Monitor_Patch" sheetId="15" r:id="rId6"/>
+    <sheet name="Summary" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="93">
   <si>
     <t>LABEL 7</t>
   </si>
@@ -240,12 +241,94 @@
   <si>
     <t>Mutation Based Repair - Tarantula Localization using Poisoned Train_Set (only 600 poisoned inputs)</t>
   </si>
+  <si>
+    <t>POISONED</t>
+  </si>
+  <si>
+    <t>p: first 600 poisoned-mnist-train
+u: remaining poisoned-mnist-train
+P`: poisoned-mnist-test
+U`:mnist-test</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>p+u</t>
+  </si>
+  <si>
+    <t>P`</t>
+  </si>
+  <si>
+    <t>U`</t>
+  </si>
+  <si>
+    <t>Mis-classificationPattern, Guided, No Experts</t>
+  </si>
+  <si>
+    <t>Tunable Params</t>
+  </si>
+  <si>
+    <t>Evaluation Methodology</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>avg increase</t>
+  </si>
+  <si>
+    <t>switch-off all neurons in pattern</t>
+  </si>
+  <si>
+    <t>flip all neuron activations in pattern</t>
+  </si>
+  <si>
+    <t>Coverage, Guided, No Experts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">increase </t>
+  </si>
+  <si>
+    <t>switch-off all top 20 neuron acts</t>
+  </si>
+  <si>
+    <t>flip all top 20 neuron acts</t>
+  </si>
+  <si>
+    <t>switch-off any of the top 20 neuron acts</t>
+  </si>
+  <si>
+    <t>flip any of the top 20 neuron acts</t>
+  </si>
+  <si>
+    <t>LOW-QUALITY</t>
+  </si>
+  <si>
+    <t>Train: mnist-train
+Test:mnist-test</t>
+  </si>
+  <si>
+    <t>None mis-classification pattern found</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>LABEL0:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,8 +412,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,8 +446,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -364,11 +461,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -480,6 +592,40 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4170,7 +4316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12D6A94-C3A6-4756-A633-01A8292168B5}">
   <dimension ref="A1:X51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
       <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
@@ -7280,11 +7426,735 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C066518F-A604-491F-8ED5-258FF25079BB}">
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+    </row>
+    <row r="2" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50">
+        <v>10.3333333333333</v>
+      </c>
+      <c r="D4" s="50">
+        <v>99.883799999999994</v>
+      </c>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50">
+        <v>98.988333333333301</v>
+      </c>
+      <c r="G4" s="50">
+        <v>10.38</v>
+      </c>
+      <c r="H4" s="50">
+        <v>98.63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="55"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="56"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="57"/>
+      <c r="B7" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="57">
+        <f>(10.5-C4)</f>
+        <v>0.16666666666669983</v>
+      </c>
+      <c r="D7" s="57">
+        <f>(99.8838-D4)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="58">
+        <f>(C7+D7)/2</f>
+        <v>8.3333333333349913E-2</v>
+      </c>
+      <c r="F7" s="58">
+        <f>(98.99-F4)</f>
+        <v>1.6666666666935726E-3</v>
+      </c>
+      <c r="G7" s="58">
+        <v>10.94</v>
+      </c>
+      <c r="H7" s="59">
+        <v>98.63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="50"/>
+      <c r="B8" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="50">
+        <f>(10.333-C4)</f>
+        <v>-3.3333333329998993E-4</v>
+      </c>
+      <c r="D8" s="50">
+        <f>(99.8838-D4)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="57">
+        <f>(C8+D8)/2</f>
+        <v>-1.6666666664999497E-4</v>
+      </c>
+      <c r="F8" s="50">
+        <f>(98.9833-F4)</f>
+        <v>-5.0333333333014707E-3</v>
+      </c>
+      <c r="G8" s="50">
+        <v>11.1</v>
+      </c>
+      <c r="H8" s="48">
+        <v>98.63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="55"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="56"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="48"/>
+      <c r="B11" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="57">
+        <f>(10.8333-C4)</f>
+        <v>0.49996666666669931</v>
+      </c>
+      <c r="D11" s="57">
+        <f>(99.8838-D4)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="57">
+        <f>(C11+D11)/2</f>
+        <v>0.24998333333334966</v>
+      </c>
+      <c r="F11" s="48">
+        <f>(98.9933-F4)</f>
+        <v>4.9666666667036452E-3</v>
+      </c>
+      <c r="G11" s="48">
+        <v>10.76</v>
+      </c>
+      <c r="H11" s="57">
+        <v>98.63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="48"/>
+      <c r="B12" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="50">
+        <f>(11.1666-C4)</f>
+        <v>0.83326666666670057</v>
+      </c>
+      <c r="D12" s="50">
+        <f>(99.8838-D4)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="50">
+        <f>(C12+D12)/2</f>
+        <v>0.41663333333335029</v>
+      </c>
+      <c r="F12" s="48">
+        <f>(98.996-F4)</f>
+        <v>7.6666666666937999E-3</v>
+      </c>
+      <c r="G12" s="48">
+        <v>11.14</v>
+      </c>
+      <c r="H12" s="50">
+        <v>98.63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="48"/>
+      <c r="B13" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="48">
+        <f>(54.166-C4)</f>
+        <v>43.832666666666697</v>
+      </c>
+      <c r="D13" s="48">
+        <f>(98.3485-D4)</f>
+        <v>-1.5352999999999923</v>
+      </c>
+      <c r="E13" s="50">
+        <f t="shared" ref="E13:E14" si="0">(C13+D13)/2</f>
+        <v>21.148683333333352</v>
+      </c>
+      <c r="F13" s="48">
+        <f>(97.9066-F4)</f>
+        <v>-1.0817333333333039</v>
+      </c>
+      <c r="G13" s="48">
+        <v>58.609000000000002</v>
+      </c>
+      <c r="H13" s="48">
+        <v>96.87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="48"/>
+      <c r="B14" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="48">
+        <f>(65.5-C4)</f>
+        <v>55.1666666666667</v>
+      </c>
+      <c r="D14" s="48">
+        <f>(87.8958266695847-D4)</f>
+        <v>-11.987973330415301</v>
+      </c>
+      <c r="E14" s="51">
+        <f t="shared" si="0"/>
+        <v>21.5893466681257</v>
+      </c>
+      <c r="F14" s="48">
+        <f>(87.6733-F4)</f>
+        <v>-11.315033333333304</v>
+      </c>
+      <c r="G14" s="60">
+        <v>70.319999999999993</v>
+      </c>
+      <c r="H14" s="60">
+        <v>86.53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+    </row>
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="49"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="51">
+        <v>96.578000000000003</v>
+      </c>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51">
+        <v>96.34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="55"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="50"/>
+      <c r="B22" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="50"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="50"/>
+      <c r="B23" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="50"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" s="55"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="56"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" s="51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="48"/>
+      <c r="B26" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="50"/>
+      <c r="F26" s="48">
+        <v>96.433000000000007</v>
+      </c>
+      <c r="G26" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" s="48">
+        <v>96.28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="48"/>
+      <c r="B27" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="50"/>
+      <c r="F27" s="48">
+        <v>89.51</v>
+      </c>
+      <c r="G27" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="48">
+        <v>89.63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="48"/>
+      <c r="B28" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="50"/>
+      <c r="F28" s="48">
+        <v>96.44</v>
+      </c>
+      <c r="G28" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="48">
+        <v>96.27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="48"/>
+      <c r="B29" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="50"/>
+      <c r="F29" s="48">
+        <v>88.656000000000006</v>
+      </c>
+      <c r="G29" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="H29" s="48">
+        <v>88.73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="48"/>
+      <c r="B30" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" s="48"/>
+      <c r="H30" s="51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="48"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51">
+        <v>98.918999999999997</v>
+      </c>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51">
+        <v>99.183000000000007</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="48"/>
+      <c r="B32" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="50"/>
+      <c r="F32" s="48">
+        <v>97.433700000000002</v>
+      </c>
+      <c r="G32" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="H32" s="48"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="48"/>
+      <c r="B33" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="50"/>
+      <c r="F33" s="48">
+        <v>88.552999999999997</v>
+      </c>
+      <c r="G33" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33" s="48"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="48"/>
+      <c r="B34" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="50"/>
+      <c r="F34" s="48">
+        <v>95.17</v>
+      </c>
+      <c r="G34" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="H34" s="48">
+        <v>95.816000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="48"/>
+      <c r="B35" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="50"/>
+      <c r="F35" s="48">
+        <v>54.88</v>
+      </c>
+      <c r="G35" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="H35" s="48">
+        <v>54.28</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:H20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7C8AE8-68EA-4CD1-89FD-4632DB72F050}">
   <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/experiments/Consolidated Results from different techniques.xlsx
+++ b/experiments/Consolidated Results from different techniques.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgopinat\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\musman\Desktop\DNN-Repair\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A7B910-E2FA-4540-9D47-7DE00022CEC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C60D08-2288-4F7B-BB33-1C4C810C62A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{6E851A2A-318E-4F15-AEB0-BD2CB026064A}"/>
   </bookViews>
@@ -18,8 +18,9 @@
     <sheet name="Mutation-Train" sheetId="12" r:id="rId3"/>
     <sheet name="Mutation-Test" sheetId="13" r:id="rId4"/>
     <sheet name="Last-Layer" sheetId="14" r:id="rId5"/>
-    <sheet name="Runtime-Monitor_Patch" sheetId="15" r:id="rId6"/>
-    <sheet name="Summary" sheetId="11" r:id="rId7"/>
+    <sheet name="Last_Layer 5-21-2020" sheetId="16" r:id="rId6"/>
+    <sheet name="Runtime-Monitor_Patch" sheetId="15" r:id="rId7"/>
+    <sheet name="Summary" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="100">
   <si>
     <t>LABEL 7</t>
   </si>
@@ -323,6 +324,27 @@
   <si>
     <t>LABEL0:</t>
   </si>
+  <si>
+    <t>Train-Set</t>
+  </si>
+  <si>
+    <t>Test-Set</t>
+  </si>
+  <si>
+    <t>Poisoned Test-Set</t>
+  </si>
+  <si>
+    <t>Expert#</t>
+  </si>
+  <si>
+    <t>Pre-Repair</t>
+  </si>
+  <si>
+    <t>Post-Repair</t>
+  </si>
+  <si>
+    <t>Overall</t>
+  </si>
 </sst>
 </file>
 
@@ -421,7 +443,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -449,6 +471,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -609,12 +637,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -626,6 +648,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6534,7 +6577,7 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7426,11 +7469,554 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9BC920C-48A2-4140-B7CF-8FF35C410D86}">
+  <dimension ref="A1:Q11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" style="61" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" style="61" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="61" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" style="61" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="61"/>
+    <col min="7" max="7" width="7.33203125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" style="61" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" style="61" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.88671875" style="61" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="61"/>
+    <col min="13" max="13" width="7.33203125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.77734375" style="61" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" style="61" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.88671875" style="61" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="61"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C1" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" s="61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="M2" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="N2" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="O2" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="P2" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="62" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="63">
+        <v>0</v>
+      </c>
+      <c r="B3" s="64">
+        <v>98.970116495019397</v>
+      </c>
+      <c r="C3" s="64">
+        <v>99.93</v>
+      </c>
+      <c r="D3" s="65">
+        <f>SUM(C3-B3)</f>
+        <v>0.95988350498060981</v>
+      </c>
+      <c r="E3" s="64">
+        <v>98.45</v>
+      </c>
+      <c r="G3" s="63">
+        <v>0</v>
+      </c>
+      <c r="H3" s="64">
+        <v>99.387755102040799</v>
+      </c>
+      <c r="I3" s="64">
+        <v>99.897959183673393</v>
+      </c>
+      <c r="J3" s="65">
+        <f>SUM(I3-H3)</f>
+        <v>0.5102040816325939</v>
+      </c>
+      <c r="K3" s="64">
+        <v>98.04</v>
+      </c>
+      <c r="M3" s="63">
+        <v>0</v>
+      </c>
+      <c r="N3" s="64">
+        <v>0.10204081632653</v>
+      </c>
+      <c r="O3" s="64">
+        <v>86.224489795918302</v>
+      </c>
+      <c r="P3" s="65">
+        <f>SUM(O3-N3)</f>
+        <v>86.122448979591766</v>
+      </c>
+      <c r="Q3" s="64">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="63">
+        <v>1</v>
+      </c>
+      <c r="B4" s="64">
+        <v>98.709581726490597</v>
+      </c>
+      <c r="C4" s="64">
+        <v>99.93</v>
+      </c>
+      <c r="D4" s="65">
+        <f t="shared" ref="D4:D11" si="0">SUM(C4-B4)</f>
+        <v>1.2204182735094093</v>
+      </c>
+      <c r="E4" s="64">
+        <v>95.078333333333305</v>
+      </c>
+      <c r="G4" s="63">
+        <v>1</v>
+      </c>
+      <c r="H4" s="64">
+        <v>99.4713656387665</v>
+      </c>
+      <c r="I4" s="64">
+        <v>99.7356828193832</v>
+      </c>
+      <c r="J4" s="65">
+        <f t="shared" ref="J4:J11" si="1">SUM(I4-H4)</f>
+        <v>0.2643171806167004</v>
+      </c>
+      <c r="K4" s="64">
+        <v>94.24</v>
+      </c>
+      <c r="M4" s="63">
+        <v>1</v>
+      </c>
+      <c r="N4" s="64">
+        <v>0</v>
+      </c>
+      <c r="O4" s="64">
+        <v>89.955947136563793</v>
+      </c>
+      <c r="P4" s="65">
+        <f t="shared" ref="P4:P11" si="2">SUM(O4-N4)</f>
+        <v>89.955947136563793</v>
+      </c>
+      <c r="Q4" s="64">
+        <v>20.46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="63">
+        <v>2</v>
+      </c>
+      <c r="B5" s="64">
+        <v>98.774756629741503</v>
+      </c>
+      <c r="C5" s="64">
+        <v>99.28</v>
+      </c>
+      <c r="D5" s="65">
+        <f t="shared" si="0"/>
+        <v>0.50524337025849775</v>
+      </c>
+      <c r="E5" s="64">
+        <v>97.43</v>
+      </c>
+      <c r="G5" s="63">
+        <v>2</v>
+      </c>
+      <c r="H5" s="64">
+        <v>97.868217054263496</v>
+      </c>
+      <c r="I5" s="64">
+        <v>98.74</v>
+      </c>
+      <c r="J5" s="65">
+        <f t="shared" si="1"/>
+        <v>0.8717829457364985</v>
+      </c>
+      <c r="K5" s="64">
+        <v>97.12</v>
+      </c>
+      <c r="M5" s="63">
+        <v>2</v>
+      </c>
+      <c r="N5" s="64">
+        <v>0</v>
+      </c>
+      <c r="O5" s="64">
+        <v>78.290000000000006</v>
+      </c>
+      <c r="P5" s="65">
+        <f t="shared" si="2"/>
+        <v>78.290000000000006</v>
+      </c>
+      <c r="Q5" s="64">
+        <v>18.29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="63">
+        <v>3</v>
+      </c>
+      <c r="B6" s="64">
+        <v>98.956124612624293</v>
+      </c>
+      <c r="C6" s="64">
+        <v>99.84</v>
+      </c>
+      <c r="D6" s="65">
+        <f t="shared" si="0"/>
+        <v>0.88387538737570992</v>
+      </c>
+      <c r="E6" s="64">
+        <v>96.92</v>
+      </c>
+      <c r="G6" s="63">
+        <v>3</v>
+      </c>
+      <c r="H6" s="64">
+        <v>98.811881188118804</v>
+      </c>
+      <c r="I6" s="64">
+        <v>99.41</v>
+      </c>
+      <c r="J6" s="65">
+        <f t="shared" si="1"/>
+        <v>0.59811881188119287</v>
+      </c>
+      <c r="K6" s="64">
+        <v>96.55</v>
+      </c>
+      <c r="M6" s="63">
+        <v>3</v>
+      </c>
+      <c r="N6" s="64">
+        <v>0</v>
+      </c>
+      <c r="O6" s="64">
+        <v>73.27</v>
+      </c>
+      <c r="P6" s="65">
+        <f t="shared" si="2"/>
+        <v>73.27</v>
+      </c>
+      <c r="Q6" s="64">
+        <v>17.760000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="63">
+        <v>4</v>
+      </c>
+      <c r="B7" s="64">
+        <v>98.870249914412796</v>
+      </c>
+      <c r="C7" s="64">
+        <v>99.9</v>
+      </c>
+      <c r="D7" s="65">
+        <f t="shared" si="0"/>
+        <v>1.0297500855872102</v>
+      </c>
+      <c r="E7" s="64">
+        <v>97.13</v>
+      </c>
+      <c r="G7" s="63">
+        <v>4</v>
+      </c>
+      <c r="H7" s="64">
+        <v>98.778004073319707</v>
+      </c>
+      <c r="I7" s="64">
+        <v>99.389002036659804</v>
+      </c>
+      <c r="J7" s="65">
+        <f t="shared" si="1"/>
+        <v>0.61099796334009682</v>
+      </c>
+      <c r="K7" s="64">
+        <v>96.94</v>
+      </c>
+      <c r="M7" s="63">
+        <v>4</v>
+      </c>
+      <c r="N7" s="64">
+        <v>0.10183299389002</v>
+      </c>
+      <c r="O7" s="64">
+        <v>81.67</v>
+      </c>
+      <c r="P7" s="65">
+        <f t="shared" si="2"/>
+        <v>81.568167006109988</v>
+      </c>
+      <c r="Q7" s="64">
+        <v>18.149999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="63">
+        <v>5</v>
+      </c>
+      <c r="B8" s="64">
+        <v>98.985427042981001</v>
+      </c>
+      <c r="C8" s="64">
+        <v>99.87</v>
+      </c>
+      <c r="D8" s="65">
+        <f t="shared" si="0"/>
+        <v>0.88457295701900307</v>
+      </c>
+      <c r="E8" s="64">
+        <v>89.79</v>
+      </c>
+      <c r="G8" s="63">
+        <v>5</v>
+      </c>
+      <c r="H8" s="64">
+        <v>98.654708520179298</v>
+      </c>
+      <c r="I8" s="64">
+        <v>99.22</v>
+      </c>
+      <c r="J8" s="65">
+        <f t="shared" si="1"/>
+        <v>0.56529147982070072</v>
+      </c>
+      <c r="K8" s="64">
+        <v>90.34</v>
+      </c>
+      <c r="M8" s="63">
+        <v>5</v>
+      </c>
+      <c r="N8" s="64">
+        <v>0.112107623318385</v>
+      </c>
+      <c r="O8" s="64">
+        <v>90.69</v>
+      </c>
+      <c r="P8" s="65">
+        <f t="shared" si="2"/>
+        <v>90.577892376681618</v>
+      </c>
+      <c r="Q8" s="64">
+        <v>16.77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="63">
+        <v>6</v>
+      </c>
+      <c r="B9" s="64">
+        <v>99.036836769178706</v>
+      </c>
+      <c r="C9" s="64">
+        <v>99.97</v>
+      </c>
+      <c r="D9" s="65">
+        <f t="shared" si="0"/>
+        <v>0.93316323082129315</v>
+      </c>
+      <c r="E9" s="64">
+        <v>96.3</v>
+      </c>
+      <c r="G9" s="63">
+        <v>6</v>
+      </c>
+      <c r="H9" s="64">
+        <v>98.643006263047994</v>
+      </c>
+      <c r="I9" s="64">
+        <v>99.06</v>
+      </c>
+      <c r="J9" s="65">
+        <f t="shared" si="1"/>
+        <v>0.41699373695200848</v>
+      </c>
+      <c r="K9" s="64">
+        <v>95.71</v>
+      </c>
+      <c r="M9" s="63">
+        <v>6</v>
+      </c>
+      <c r="N9" s="64">
+        <v>0.73068893528183698</v>
+      </c>
+      <c r="O9" s="64">
+        <v>98.23</v>
+      </c>
+      <c r="P9" s="65">
+        <f t="shared" si="2"/>
+        <v>97.499311064718171</v>
+      </c>
+      <c r="Q9" s="64">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="63">
+        <v>8</v>
+      </c>
+      <c r="B10" s="64">
+        <v>99.025807554264205</v>
+      </c>
+      <c r="C10" s="64">
+        <v>99.88</v>
+      </c>
+      <c r="D10" s="65">
+        <f t="shared" si="0"/>
+        <v>0.85419244573579078</v>
+      </c>
+      <c r="E10" s="64">
+        <v>94.17</v>
+      </c>
+      <c r="G10" s="63">
+        <v>8</v>
+      </c>
+      <c r="H10" s="64">
+        <v>98.665297741273093</v>
+      </c>
+      <c r="I10" s="64">
+        <v>99.49</v>
+      </c>
+      <c r="J10" s="65">
+        <f t="shared" si="1"/>
+        <v>0.8247022587269015</v>
+      </c>
+      <c r="K10" s="64">
+        <v>93.47</v>
+      </c>
+      <c r="M10" s="63">
+        <v>8</v>
+      </c>
+      <c r="N10" s="64">
+        <v>0</v>
+      </c>
+      <c r="O10" s="64">
+        <v>63.55</v>
+      </c>
+      <c r="P10" s="65">
+        <f t="shared" si="2"/>
+        <v>63.55</v>
+      </c>
+      <c r="Q10" s="64">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="63">
+        <v>9</v>
+      </c>
+      <c r="B11" s="64">
+        <v>98.554378887207903</v>
+      </c>
+      <c r="C11" s="64">
+        <v>99.92</v>
+      </c>
+      <c r="D11" s="65">
+        <f t="shared" si="0"/>
+        <v>1.3656211127920983</v>
+      </c>
+      <c r="E11" s="64">
+        <v>96.54</v>
+      </c>
+      <c r="G11" s="63">
+        <v>9</v>
+      </c>
+      <c r="H11" s="64">
+        <v>97.224975222992995</v>
+      </c>
+      <c r="I11" s="64">
+        <v>98.71</v>
+      </c>
+      <c r="J11" s="65">
+        <f t="shared" si="1"/>
+        <v>1.4850247770069984</v>
+      </c>
+      <c r="K11" s="64">
+        <v>96.38</v>
+      </c>
+      <c r="M11" s="63">
+        <v>9</v>
+      </c>
+      <c r="N11" s="64">
+        <v>0</v>
+      </c>
+      <c r="O11" s="64">
+        <v>93.06</v>
+      </c>
+      <c r="P11" s="65">
+        <f t="shared" si="2"/>
+        <v>93.06</v>
+      </c>
+      <c r="Q11" s="64">
+        <v>19.68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C066518F-A604-491F-8ED5-258FF25079BB}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7514,20 +8100,20 @@
       <c r="A5" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="54" t="s">
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="55"/>
+      <c r="H5" s="60"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="56"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51" t="s">
         <v>77</v>
@@ -7549,30 +8135,30 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="57"/>
-      <c r="B7" s="57" t="s">
+      <c r="A7" s="55"/>
+      <c r="B7" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="57">
+      <c r="C7" s="55">
         <f>(10.5-C4)</f>
         <v>0.16666666666669983</v>
       </c>
-      <c r="D7" s="57">
+      <c r="D7" s="55">
         <f>(99.8838-D4)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="58">
+      <c r="E7" s="56">
         <f>(C7+D7)/2</f>
         <v>8.3333333333349913E-2</v>
       </c>
-      <c r="F7" s="58">
+      <c r="F7" s="56">
         <f>(98.99-F4)</f>
         <v>1.6666666666935726E-3</v>
       </c>
-      <c r="G7" s="58">
+      <c r="G7" s="56">
         <v>10.94</v>
       </c>
-      <c r="H7" s="59">
+      <c r="H7" s="57">
         <v>98.63</v>
       </c>
     </row>
@@ -7589,7 +8175,7 @@
         <f>(99.8838-D4)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="55">
         <f>(C8+D8)/2</f>
         <v>-1.6666666664999497E-4</v>
       </c>
@@ -7608,20 +8194,20 @@
       <c r="A9" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="54" t="s">
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="55"/>
+      <c r="H9" s="60"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="56"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51" t="s">
         <v>77</v>
@@ -7647,15 +8233,15 @@
       <c r="B11" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="57">
+      <c r="C11" s="55">
         <f>(10.8333-C4)</f>
         <v>0.49996666666669931</v>
       </c>
-      <c r="D11" s="57">
+      <c r="D11" s="55">
         <f>(99.8838-D4)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="55">
         <f>(C11+D11)/2</f>
         <v>0.24998333333334966</v>
       </c>
@@ -7666,7 +8252,7 @@
       <c r="G11" s="48">
         <v>10.76</v>
       </c>
-      <c r="H11" s="57">
+      <c r="H11" s="55">
         <v>98.63</v>
       </c>
     </row>
@@ -7747,10 +8333,10 @@
         <f>(87.6733-F4)</f>
         <v>-11.315033333333304</v>
       </c>
-      <c r="G14" s="60">
+      <c r="G14" s="58">
         <v>70.319999999999993</v>
       </c>
-      <c r="H14" s="60">
+      <c r="H14" s="58">
         <v>86.53</v>
       </c>
     </row>
@@ -7822,20 +8408,20 @@
       <c r="A20" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="54" t="s">
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="H20" s="55"/>
+      <c r="H20" s="60"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="54" t="s">
         <v>89</v>
       </c>
       <c r="B21" s="51"/>
@@ -7896,20 +8482,20 @@
       <c r="A24" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="54" t="s">
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="H24" s="55"/>
+      <c r="H24" s="60"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="56"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51" t="s">
         <v>69</v>
@@ -8149,7 +8735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7C8AE8-68EA-4CD1-89FD-4632DB72F050}">
   <dimension ref="A1:U39"/>
   <sheetViews>

--- a/experiments/Consolidated Results from different techniques.xlsx
+++ b/experiments/Consolidated Results from different techniques.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\musman\Desktop\DNN-Repair\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C60D08-2288-4F7B-BB33-1C4C810C62A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BCDF35-0406-418A-9E2D-8A768BD9D1B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{6E851A2A-318E-4F15-AEB0-BD2CB026064A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{6E851A2A-318E-4F15-AEB0-BD2CB026064A}"/>
   </bookViews>
   <sheets>
     <sheet name="Pattern-Train" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="Mutation-Test" sheetId="13" r:id="rId4"/>
     <sheet name="Last-Layer" sheetId="14" r:id="rId5"/>
     <sheet name="Last_Layer 5-21-2020" sheetId="16" r:id="rId6"/>
-    <sheet name="Runtime-Monitor_Patch" sheetId="15" r:id="rId7"/>
-    <sheet name="Summary" sheetId="11" r:id="rId8"/>
+    <sheet name="Analysis" sheetId="17" r:id="rId7"/>
+    <sheet name="Runtime-Monitor_Patch" sheetId="15" r:id="rId8"/>
+    <sheet name="Summary" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="113">
   <si>
     <t>LABEL 7</t>
   </si>
@@ -325,12 +326,6 @@
     <t>LABEL0:</t>
   </si>
   <si>
-    <t>Train-Set</t>
-  </si>
-  <si>
-    <t>Test-Set</t>
-  </si>
-  <si>
     <t>Poisoned Test-Set</t>
   </si>
   <si>
@@ -344,6 +339,51 @@
   </si>
   <si>
     <t>Overall</t>
+  </si>
+  <si>
+    <t>Poisoned Model on Train-Set</t>
+  </si>
+  <si>
+    <t>Poisoned Model on Test-Set</t>
+  </si>
+  <si>
+    <t>Poisoned Model on Poisoned Test-Set</t>
+  </si>
+  <si>
+    <t>No Expert returned C</t>
+  </si>
+  <si>
+    <t>Expert C returned C</t>
+  </si>
+  <si>
+    <t>Multiple experts returned</t>
+  </si>
+  <si>
+    <t>Overall Accuracy - Expert Combined</t>
+  </si>
+  <si>
+    <t>Low Quality Model on Train-set</t>
+  </si>
+  <si>
+    <t>Low Quality Model on Test-set</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>Accuracy for inputs with c label</t>
+  </si>
+  <si>
+    <t>Accuracy for all inputs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +483,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -471,12 +511,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,7 +542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -648,27 +682,28 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7470,541 +7505,1079 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9BC920C-48A2-4140-B7CF-8FF35C410D86}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="61" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" style="61" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="61" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="61"/>
-    <col min="7" max="7" width="7.33203125" style="61" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" style="61" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" style="61" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="61"/>
-    <col min="13" max="13" width="7.33203125" style="61" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.77734375" style="61" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8" style="61" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="61"/>
+    <col min="1" max="1" width="30.5546875" style="59" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" style="59" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="59" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="59" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" style="59" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="59"/>
+    <col min="7" max="7" width="30.5546875" style="59" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" style="59" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="59" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" style="59" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.88671875" style="59" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="59"/>
+    <col min="13" max="13" width="30.5546875" style="59" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.77734375" style="59" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" style="59" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" style="59" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.88671875" style="59" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C1" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1" s="61" t="s">
+    <row r="1" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="O1" s="61" t="s">
+      <c r="B2" s="46" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62" t="s">
+      <c r="C2" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="D2" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="62" t="s">
+      <c r="G2" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="J2" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" s="62" t="s">
+      <c r="K2" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="M2" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="N2" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="O2" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="H2" s="62" t="s">
+      <c r="P2" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="I2" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="J2" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="M2" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="N2" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="O2" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="P2" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="62" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="63">
-        <v>0</v>
-      </c>
-      <c r="B3" s="64">
+      <c r="A3" s="62">
+        <v>0</v>
+      </c>
+      <c r="B3" s="63">
         <v>98.970116495019397</v>
       </c>
-      <c r="C3" s="64">
+      <c r="C3" s="63">
         <v>99.93</v>
       </c>
-      <c r="D3" s="65">
+      <c r="D3" s="64">
         <f>SUM(C3-B3)</f>
         <v>0.95988350498060981</v>
       </c>
-      <c r="E3" s="64">
+      <c r="E3" s="63">
         <v>98.45</v>
       </c>
-      <c r="G3" s="63">
-        <v>0</v>
-      </c>
-      <c r="H3" s="64">
+      <c r="G3" s="62">
+        <v>0</v>
+      </c>
+      <c r="H3" s="63">
         <v>99.387755102040799</v>
       </c>
-      <c r="I3" s="64">
+      <c r="I3" s="63">
         <v>99.897959183673393</v>
       </c>
-      <c r="J3" s="65">
+      <c r="J3" s="64">
         <f>SUM(I3-H3)</f>
         <v>0.5102040816325939</v>
       </c>
-      <c r="K3" s="64">
+      <c r="K3" s="63">
         <v>98.04</v>
       </c>
-      <c r="M3" s="63">
-        <v>0</v>
-      </c>
-      <c r="N3" s="64">
+      <c r="M3" s="62">
+        <v>0</v>
+      </c>
+      <c r="N3" s="63">
         <v>0.10204081632653</v>
       </c>
-      <c r="O3" s="64">
+      <c r="O3" s="63">
         <v>86.224489795918302</v>
       </c>
-      <c r="P3" s="65">
+      <c r="P3" s="64">
         <f>SUM(O3-N3)</f>
         <v>86.122448979591766</v>
       </c>
-      <c r="Q3" s="64">
+      <c r="Q3" s="63">
         <v>18.75</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="63">
+      <c r="A4" s="62">
         <v>1</v>
       </c>
-      <c r="B4" s="64">
+      <c r="B4" s="63">
         <v>98.709581726490597</v>
       </c>
-      <c r="C4" s="64">
+      <c r="C4" s="63">
         <v>99.93</v>
       </c>
-      <c r="D4" s="65">
+      <c r="D4" s="64">
         <f t="shared" ref="D4:D11" si="0">SUM(C4-B4)</f>
         <v>1.2204182735094093</v>
       </c>
-      <c r="E4" s="64">
+      <c r="E4" s="63">
         <v>95.078333333333305</v>
       </c>
-      <c r="G4" s="63">
+      <c r="G4" s="62">
         <v>1</v>
       </c>
-      <c r="H4" s="64">
+      <c r="H4" s="63">
         <v>99.4713656387665</v>
       </c>
-      <c r="I4" s="64">
+      <c r="I4" s="63">
         <v>99.7356828193832</v>
       </c>
-      <c r="J4" s="65">
+      <c r="J4" s="64">
         <f t="shared" ref="J4:J11" si="1">SUM(I4-H4)</f>
         <v>0.2643171806167004</v>
       </c>
-      <c r="K4" s="64">
+      <c r="K4" s="63">
         <v>94.24</v>
       </c>
-      <c r="M4" s="63">
+      <c r="M4" s="62">
         <v>1</v>
       </c>
-      <c r="N4" s="64">
-        <v>0</v>
-      </c>
-      <c r="O4" s="64">
+      <c r="N4" s="63">
+        <v>0</v>
+      </c>
+      <c r="O4" s="63">
         <v>89.955947136563793</v>
       </c>
-      <c r="P4" s="65">
+      <c r="P4" s="64">
         <f t="shared" ref="P4:P11" si="2">SUM(O4-N4)</f>
         <v>89.955947136563793</v>
       </c>
-      <c r="Q4" s="64">
+      <c r="Q4" s="63">
         <v>20.46</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="63">
+      <c r="A5" s="62">
         <v>2</v>
       </c>
-      <c r="B5" s="64">
+      <c r="B5" s="63">
         <v>98.774756629741503</v>
       </c>
-      <c r="C5" s="64">
+      <c r="C5" s="63">
         <v>99.28</v>
       </c>
-      <c r="D5" s="65">
+      <c r="D5" s="64">
         <f t="shared" si="0"/>
         <v>0.50524337025849775</v>
       </c>
-      <c r="E5" s="64">
+      <c r="E5" s="63">
         <v>97.43</v>
       </c>
-      <c r="G5" s="63">
+      <c r="G5" s="62">
         <v>2</v>
       </c>
-      <c r="H5" s="64">
+      <c r="H5" s="63">
         <v>97.868217054263496</v>
       </c>
-      <c r="I5" s="64">
+      <c r="I5" s="63">
         <v>98.74</v>
       </c>
-      <c r="J5" s="65">
+      <c r="J5" s="64">
         <f t="shared" si="1"/>
         <v>0.8717829457364985</v>
       </c>
-      <c r="K5" s="64">
+      <c r="K5" s="63">
         <v>97.12</v>
       </c>
-      <c r="M5" s="63">
+      <c r="M5" s="62">
         <v>2</v>
       </c>
-      <c r="N5" s="64">
-        <v>0</v>
-      </c>
-      <c r="O5" s="64">
+      <c r="N5" s="63">
+        <v>0</v>
+      </c>
+      <c r="O5" s="63">
         <v>78.290000000000006</v>
       </c>
-      <c r="P5" s="65">
+      <c r="P5" s="64">
         <f t="shared" si="2"/>
         <v>78.290000000000006</v>
       </c>
-      <c r="Q5" s="64">
+      <c r="Q5" s="63">
         <v>18.29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="63">
+      <c r="A6" s="62">
         <v>3</v>
       </c>
-      <c r="B6" s="64">
+      <c r="B6" s="63">
         <v>98.956124612624293</v>
       </c>
-      <c r="C6" s="64">
+      <c r="C6" s="63">
         <v>99.84</v>
       </c>
-      <c r="D6" s="65">
+      <c r="D6" s="64">
         <f t="shared" si="0"/>
         <v>0.88387538737570992</v>
       </c>
-      <c r="E6" s="64">
+      <c r="E6" s="63">
         <v>96.92</v>
       </c>
-      <c r="G6" s="63">
+      <c r="G6" s="62">
         <v>3</v>
       </c>
-      <c r="H6" s="64">
+      <c r="H6" s="63">
         <v>98.811881188118804</v>
       </c>
-      <c r="I6" s="64">
+      <c r="I6" s="63">
         <v>99.41</v>
       </c>
-      <c r="J6" s="65">
+      <c r="J6" s="64">
         <f t="shared" si="1"/>
         <v>0.59811881188119287</v>
       </c>
-      <c r="K6" s="64">
+      <c r="K6" s="63">
         <v>96.55</v>
       </c>
-      <c r="M6" s="63">
+      <c r="M6" s="62">
         <v>3</v>
       </c>
-      <c r="N6" s="64">
-        <v>0</v>
-      </c>
-      <c r="O6" s="64">
+      <c r="N6" s="63">
+        <v>0</v>
+      </c>
+      <c r="O6" s="63">
         <v>73.27</v>
       </c>
-      <c r="P6" s="65">
+      <c r="P6" s="64">
         <f t="shared" si="2"/>
         <v>73.27</v>
       </c>
-      <c r="Q6" s="64">
+      <c r="Q6" s="63">
         <v>17.760000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="63">
+      <c r="A7" s="62">
         <v>4</v>
       </c>
-      <c r="B7" s="64">
+      <c r="B7" s="63">
         <v>98.870249914412796</v>
       </c>
-      <c r="C7" s="64">
+      <c r="C7" s="63">
         <v>99.9</v>
       </c>
-      <c r="D7" s="65">
+      <c r="D7" s="64">
         <f t="shared" si="0"/>
         <v>1.0297500855872102</v>
       </c>
-      <c r="E7" s="64">
+      <c r="E7" s="63">
         <v>97.13</v>
       </c>
-      <c r="G7" s="63">
+      <c r="G7" s="62">
         <v>4</v>
       </c>
-      <c r="H7" s="64">
+      <c r="H7" s="63">
         <v>98.778004073319707</v>
       </c>
-      <c r="I7" s="64">
+      <c r="I7" s="63">
         <v>99.389002036659804</v>
       </c>
-      <c r="J7" s="65">
+      <c r="J7" s="64">
         <f t="shared" si="1"/>
         <v>0.61099796334009682</v>
       </c>
-      <c r="K7" s="64">
+      <c r="K7" s="63">
         <v>96.94</v>
       </c>
-      <c r="M7" s="63">
+      <c r="M7" s="62">
         <v>4</v>
       </c>
-      <c r="N7" s="64">
+      <c r="N7" s="63">
         <v>0.10183299389002</v>
       </c>
-      <c r="O7" s="64">
+      <c r="O7" s="63">
         <v>81.67</v>
       </c>
-      <c r="P7" s="65">
+      <c r="P7" s="64">
         <f t="shared" si="2"/>
         <v>81.568167006109988</v>
       </c>
-      <c r="Q7" s="64">
+      <c r="Q7" s="63">
         <v>18.149999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="63">
+      <c r="A8" s="62">
         <v>5</v>
       </c>
-      <c r="B8" s="64">
+      <c r="B8" s="63">
         <v>98.985427042981001</v>
       </c>
-      <c r="C8" s="64">
+      <c r="C8" s="63">
         <v>99.87</v>
       </c>
-      <c r="D8" s="65">
+      <c r="D8" s="64">
         <f t="shared" si="0"/>
         <v>0.88457295701900307</v>
       </c>
-      <c r="E8" s="64">
+      <c r="E8" s="63">
         <v>89.79</v>
       </c>
-      <c r="G8" s="63">
+      <c r="G8" s="62">
         <v>5</v>
       </c>
-      <c r="H8" s="64">
+      <c r="H8" s="63">
         <v>98.654708520179298</v>
       </c>
-      <c r="I8" s="64">
+      <c r="I8" s="63">
         <v>99.22</v>
       </c>
-      <c r="J8" s="65">
+      <c r="J8" s="64">
         <f t="shared" si="1"/>
         <v>0.56529147982070072</v>
       </c>
-      <c r="K8" s="64">
+      <c r="K8" s="63">
         <v>90.34</v>
       </c>
-      <c r="M8" s="63">
+      <c r="M8" s="62">
         <v>5</v>
       </c>
-      <c r="N8" s="64">
+      <c r="N8" s="63">
         <v>0.112107623318385</v>
       </c>
-      <c r="O8" s="64">
+      <c r="O8" s="63">
         <v>90.69</v>
       </c>
-      <c r="P8" s="65">
+      <c r="P8" s="64">
         <f t="shared" si="2"/>
         <v>90.577892376681618</v>
       </c>
-      <c r="Q8" s="64">
+      <c r="Q8" s="63">
         <v>16.77</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="63">
+      <c r="A9" s="62">
         <v>6</v>
       </c>
-      <c r="B9" s="64">
+      <c r="B9" s="63">
         <v>99.036836769178706</v>
       </c>
-      <c r="C9" s="64">
+      <c r="C9" s="63">
         <v>99.97</v>
       </c>
-      <c r="D9" s="65">
+      <c r="D9" s="64">
         <f t="shared" si="0"/>
         <v>0.93316323082129315</v>
       </c>
-      <c r="E9" s="64">
+      <c r="E9" s="63">
         <v>96.3</v>
       </c>
-      <c r="G9" s="63">
+      <c r="G9" s="62">
         <v>6</v>
       </c>
-      <c r="H9" s="64">
+      <c r="H9" s="63">
         <v>98.643006263047994</v>
       </c>
-      <c r="I9" s="64">
+      <c r="I9" s="63">
         <v>99.06</v>
       </c>
-      <c r="J9" s="65">
+      <c r="J9" s="64">
         <f t="shared" si="1"/>
         <v>0.41699373695200848</v>
       </c>
-      <c r="K9" s="64">
+      <c r="K9" s="63">
         <v>95.71</v>
       </c>
-      <c r="M9" s="63">
+      <c r="M9" s="62">
         <v>6</v>
       </c>
-      <c r="N9" s="64">
+      <c r="N9" s="63">
         <v>0.73068893528183698</v>
       </c>
-      <c r="O9" s="64">
+      <c r="O9" s="63">
         <v>98.23</v>
       </c>
-      <c r="P9" s="65">
+      <c r="P9" s="64">
         <f t="shared" si="2"/>
         <v>97.499311064718171</v>
       </c>
-      <c r="Q9" s="64">
+      <c r="Q9" s="63">
         <v>19.5</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="63">
+      <c r="A10" s="62">
         <v>8</v>
       </c>
-      <c r="B10" s="64">
+      <c r="B10" s="63">
         <v>99.025807554264205</v>
       </c>
-      <c r="C10" s="64">
+      <c r="C10" s="63">
         <v>99.88</v>
       </c>
-      <c r="D10" s="65">
+      <c r="D10" s="64">
         <f t="shared" si="0"/>
         <v>0.85419244573579078</v>
       </c>
-      <c r="E10" s="64">
+      <c r="E10" s="63">
         <v>94.17</v>
       </c>
-      <c r="G10" s="63">
+      <c r="G10" s="62">
         <v>8</v>
       </c>
-      <c r="H10" s="64">
+      <c r="H10" s="63">
         <v>98.665297741273093</v>
       </c>
-      <c r="I10" s="64">
+      <c r="I10" s="63">
         <v>99.49</v>
       </c>
-      <c r="J10" s="65">
+      <c r="J10" s="64">
         <f t="shared" si="1"/>
         <v>0.8247022587269015</v>
       </c>
-      <c r="K10" s="64">
+      <c r="K10" s="63">
         <v>93.47</v>
       </c>
-      <c r="M10" s="63">
+      <c r="M10" s="62">
         <v>8</v>
       </c>
-      <c r="N10" s="64">
-        <v>0</v>
-      </c>
-      <c r="O10" s="64">
+      <c r="N10" s="63">
+        <v>0</v>
+      </c>
+      <c r="O10" s="63">
         <v>63.55</v>
       </c>
-      <c r="P10" s="65">
+      <c r="P10" s="64">
         <f t="shared" si="2"/>
         <v>63.55</v>
       </c>
-      <c r="Q10" s="64">
+      <c r="Q10" s="63">
         <v>16.5</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="63">
+      <c r="A11" s="62">
         <v>9</v>
       </c>
-      <c r="B11" s="64">
+      <c r="B11" s="63">
         <v>98.554378887207903</v>
       </c>
-      <c r="C11" s="64">
+      <c r="C11" s="63">
         <v>99.92</v>
       </c>
-      <c r="D11" s="65">
+      <c r="D11" s="64">
         <f t="shared" si="0"/>
         <v>1.3656211127920983</v>
       </c>
-      <c r="E11" s="64">
+      <c r="E11" s="63">
         <v>96.54</v>
       </c>
-      <c r="G11" s="63">
+      <c r="G11" s="62">
         <v>9</v>
       </c>
-      <c r="H11" s="64">
+      <c r="H11" s="63">
         <v>97.224975222992995</v>
       </c>
-      <c r="I11" s="64">
+      <c r="I11" s="63">
         <v>98.71</v>
       </c>
-      <c r="J11" s="65">
+      <c r="J11" s="64">
         <f t="shared" si="1"/>
         <v>1.4850247770069984</v>
       </c>
-      <c r="K11" s="64">
+      <c r="K11" s="63">
         <v>96.38</v>
       </c>
-      <c r="M11" s="63">
+      <c r="M11" s="62">
         <v>9</v>
       </c>
-      <c r="N11" s="64">
-        <v>0</v>
-      </c>
-      <c r="O11" s="64">
+      <c r="N11" s="63">
+        <v>0</v>
+      </c>
+      <c r="O11" s="63">
         <v>93.06</v>
       </c>
-      <c r="P11" s="65">
+      <c r="P11" s="64">
         <f t="shared" si="2"/>
         <v>93.06</v>
       </c>
-      <c r="Q11" s="64">
+      <c r="Q11" s="63">
         <v>19.68</v>
       </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="62">
+        <v>98.99</v>
+      </c>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="G12" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" s="62">
+        <v>98.63</v>
+      </c>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="M12" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="N12" s="62">
+        <v>10.38</v>
+      </c>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="59">
+        <v>3836</v>
+      </c>
+      <c r="G15" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="K15" s="59">
+        <v>618</v>
+      </c>
+      <c r="M15" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="P15" s="59">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="59">
+        <v>44181</v>
+      </c>
+      <c r="G16" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="K16" s="59">
+        <v>7426</v>
+      </c>
+      <c r="M16" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="P16" s="59">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="59">
+        <v>11983</v>
+      </c>
+      <c r="G17" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="K17" s="59">
+        <v>1956</v>
+      </c>
+      <c r="M17" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="59">
+        <v>6011</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="59">
+        <v>96.48</v>
+      </c>
+      <c r="D18"/>
+      <c r="G18" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="K18" s="59">
+        <v>96.15</v>
+      </c>
+      <c r="M18" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="P18" s="59">
+        <v>29.73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="P19" s="66"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D20"/>
+      <c r="K20"/>
+      <c r="P20"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D21"/>
+      <c r="K21"/>
+      <c r="P21"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D22"/>
+      <c r="K22"/>
+      <c r="P22"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="K23"/>
+      <c r="P23"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="H24" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="I24" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="J24" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" s="46" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="62">
+        <v>0</v>
+      </c>
+      <c r="B25" s="62">
+        <v>98.92</v>
+      </c>
+      <c r="C25" s="62">
+        <v>99.93</v>
+      </c>
+      <c r="D25" s="64">
+        <f>SUM(C25-B25)</f>
+        <v>1.0100000000000051</v>
+      </c>
+      <c r="E25" s="62">
+        <v>77.010000000000005</v>
+      </c>
+      <c r="G25" s="62">
+        <v>0</v>
+      </c>
+      <c r="H25" s="62">
+        <v>99.18</v>
+      </c>
+      <c r="I25" s="62">
+        <v>99.8</v>
+      </c>
+      <c r="J25" s="64">
+        <f>SUM(I25-H25)</f>
+        <v>0.61999999999999034</v>
+      </c>
+      <c r="K25" s="62">
+        <v>77.78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="62">
+        <v>1</v>
+      </c>
+      <c r="B26" s="62">
+        <v>97.92</v>
+      </c>
+      <c r="C26" s="62">
+        <v>99.64</v>
+      </c>
+      <c r="D26" s="64">
+        <f t="shared" ref="D26:D34" si="3">SUM(C26-B26)</f>
+        <v>1.7199999999999989</v>
+      </c>
+      <c r="E26" s="62">
+        <v>90</v>
+      </c>
+      <c r="G26" s="62">
+        <v>1</v>
+      </c>
+      <c r="H26" s="62">
+        <v>98.59</v>
+      </c>
+      <c r="I26" s="62">
+        <v>99.65</v>
+      </c>
+      <c r="J26" s="64">
+        <f t="shared" ref="J26:J34" si="4">SUM(I26-H26)</f>
+        <v>1.0600000000000023</v>
+      </c>
+      <c r="K26" s="62">
+        <v>90.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="62">
+        <v>2</v>
+      </c>
+      <c r="B27" s="62">
+        <v>97.78</v>
+      </c>
+      <c r="C27" s="62">
+        <v>96.24</v>
+      </c>
+      <c r="D27" s="64">
+        <f t="shared" si="3"/>
+        <v>-1.5400000000000063</v>
+      </c>
+      <c r="E27" s="62">
+        <v>75.61</v>
+      </c>
+      <c r="G27" s="62">
+        <v>2</v>
+      </c>
+      <c r="H27" s="62">
+        <v>97.29</v>
+      </c>
+      <c r="I27" s="62">
+        <v>95.16</v>
+      </c>
+      <c r="J27" s="64">
+        <f t="shared" si="4"/>
+        <v>-2.1300000000000097</v>
+      </c>
+      <c r="K27" s="62">
+        <v>76.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="62">
+        <v>3</v>
+      </c>
+      <c r="B28" s="62">
+        <v>95.84</v>
+      </c>
+      <c r="C28" s="62">
+        <v>99.15</v>
+      </c>
+      <c r="D28" s="64">
+        <f t="shared" si="3"/>
+        <v>3.3100000000000023</v>
+      </c>
+      <c r="E28" s="62">
+        <v>85.84</v>
+      </c>
+      <c r="G28" s="62">
+        <v>3</v>
+      </c>
+      <c r="H28" s="62">
+        <v>95.84</v>
+      </c>
+      <c r="I28" s="62">
+        <v>99.21</v>
+      </c>
+      <c r="J28" s="64">
+        <f t="shared" si="4"/>
+        <v>3.3699999999999903</v>
+      </c>
+      <c r="K28" s="62">
+        <v>85.47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="62">
+        <v>4</v>
+      </c>
+      <c r="B29" s="62">
+        <v>98.32</v>
+      </c>
+      <c r="C29" s="62">
+        <v>99.61</v>
+      </c>
+      <c r="D29" s="64">
+        <f t="shared" si="3"/>
+        <v>1.2900000000000063</v>
+      </c>
+      <c r="E29" s="62">
+        <v>94.25</v>
+      </c>
+      <c r="G29" s="62">
+        <v>4</v>
+      </c>
+      <c r="H29" s="62">
+        <v>98.37</v>
+      </c>
+      <c r="I29" s="62">
+        <v>99.59</v>
+      </c>
+      <c r="J29" s="64">
+        <f t="shared" si="4"/>
+        <v>1.2199999999999989</v>
+      </c>
+      <c r="K29" s="62">
+        <v>93.98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="62">
+        <v>5</v>
+      </c>
+      <c r="B30" s="62">
+        <v>98.25</v>
+      </c>
+      <c r="C30" s="62">
+        <v>99.41</v>
+      </c>
+      <c r="D30" s="64">
+        <f t="shared" si="3"/>
+        <v>1.1599999999999966</v>
+      </c>
+      <c r="E30" s="62">
+        <v>86.12</v>
+      </c>
+      <c r="G30" s="62">
+        <v>5</v>
+      </c>
+      <c r="H30" s="62">
+        <v>98.99</v>
+      </c>
+      <c r="I30" s="62">
+        <v>99.78</v>
+      </c>
+      <c r="J30" s="64">
+        <f t="shared" si="4"/>
+        <v>0.79000000000000625</v>
+      </c>
+      <c r="K30" s="62">
+        <v>85.67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="62">
+        <v>6</v>
+      </c>
+      <c r="B31" s="62">
+        <v>96.62</v>
+      </c>
+      <c r="C31" s="62">
+        <v>98.51</v>
+      </c>
+      <c r="D31" s="64">
+        <f t="shared" si="3"/>
+        <v>1.8900000000000006</v>
+      </c>
+      <c r="E31" s="62">
+        <v>96.6</v>
+      </c>
+      <c r="G31" s="62">
+        <v>6</v>
+      </c>
+      <c r="H31" s="62">
+        <v>95.72</v>
+      </c>
+      <c r="I31" s="62">
+        <v>97.91</v>
+      </c>
+      <c r="J31" s="64">
+        <f t="shared" si="4"/>
+        <v>2.1899999999999977</v>
+      </c>
+      <c r="K31" s="62">
+        <v>96.34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="62">
+        <v>7</v>
+      </c>
+      <c r="B32" s="62">
+        <v>95.81</v>
+      </c>
+      <c r="C32" s="62">
+        <v>98.48</v>
+      </c>
+      <c r="D32" s="64">
+        <f t="shared" si="3"/>
+        <v>2.6700000000000017</v>
+      </c>
+      <c r="E32" s="62">
+        <v>95.75</v>
+      </c>
+      <c r="G32" s="62">
+        <v>7</v>
+      </c>
+      <c r="H32" s="62">
+        <v>94.74</v>
+      </c>
+      <c r="I32" s="62">
+        <v>98.35</v>
+      </c>
+      <c r="J32" s="64">
+        <f t="shared" si="4"/>
+        <v>3.6099999999999994</v>
+      </c>
+      <c r="K32" s="62">
+        <v>95.53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="62">
+        <v>8</v>
+      </c>
+      <c r="B33" s="62">
+        <v>90.75</v>
+      </c>
+      <c r="C33" s="62">
+        <v>96.55</v>
+      </c>
+      <c r="D33" s="64">
+        <f t="shared" si="3"/>
+        <v>5.7999999999999972</v>
+      </c>
+      <c r="E33" s="62">
+        <v>95.48</v>
+      </c>
+      <c r="G33" s="62">
+        <v>8</v>
+      </c>
+      <c r="H33" s="62">
+        <v>89.63</v>
+      </c>
+      <c r="I33" s="62">
+        <v>96.1</v>
+      </c>
+      <c r="J33" s="64">
+        <f t="shared" si="4"/>
+        <v>6.4699999999999989</v>
+      </c>
+      <c r="K33" s="62">
+        <v>95.26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="62">
+        <v>9</v>
+      </c>
+      <c r="B34" s="62">
+        <v>95.55</v>
+      </c>
+      <c r="C34" s="62">
+        <v>99.83</v>
+      </c>
+      <c r="D34" s="64">
+        <f t="shared" si="3"/>
+        <v>4.2800000000000011</v>
+      </c>
+      <c r="E34" s="62">
+        <v>73.62</v>
+      </c>
+      <c r="G34" s="62">
+        <v>9</v>
+      </c>
+      <c r="H34" s="62">
+        <v>94.95</v>
+      </c>
+      <c r="I34" s="62">
+        <v>99.6</v>
+      </c>
+      <c r="J34" s="64">
+        <f t="shared" si="4"/>
+        <v>4.6499999999999915</v>
+      </c>
+      <c r="K34" s="62">
+        <v>73.73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="62">
+        <v>96.58</v>
+      </c>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="G35" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="H35" s="62">
+        <v>96.34</v>
+      </c>
+      <c r="I35" s="62"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8012,6 +8585,274 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F00768-9EA9-4BD5-9CDE-70FEDA72B588}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="59">
+        <v>845</v>
+      </c>
+      <c r="C2" s="59">
+        <v>135</v>
+      </c>
+      <c r="D2" s="59">
+        <v>92</v>
+      </c>
+      <c r="E2" s="59">
+        <v>8928</v>
+      </c>
+      <c r="F2" s="39">
+        <f t="shared" ref="F2:F10" si="0">100*B2/(B2+C2)</f>
+        <v>86.224489795918373</v>
+      </c>
+      <c r="G2" s="59">
+        <f>SUM(100*(B2+E2)/(10000))</f>
+        <v>97.73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="59">
+        <v>1021</v>
+      </c>
+      <c r="C3" s="59">
+        <v>114</v>
+      </c>
+      <c r="D3" s="59">
+        <v>1643</v>
+      </c>
+      <c r="E3" s="59">
+        <v>7222</v>
+      </c>
+      <c r="F3" s="39">
+        <f t="shared" si="0"/>
+        <v>89.955947136563879</v>
+      </c>
+      <c r="G3" s="59">
+        <f t="shared" ref="G3:G10" si="1">SUM(100*(B3+E3)/(10000))</f>
+        <v>82.43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="59">
+        <v>808</v>
+      </c>
+      <c r="C4" s="59">
+        <v>224</v>
+      </c>
+      <c r="D4" s="59">
+        <v>765</v>
+      </c>
+      <c r="E4" s="59">
+        <v>8203</v>
+      </c>
+      <c r="F4" s="39">
+        <f t="shared" si="0"/>
+        <v>78.294573643410857</v>
+      </c>
+      <c r="G4" s="59">
+        <f t="shared" si="1"/>
+        <v>90.11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="59">
+        <v>740</v>
+      </c>
+      <c r="C5" s="59">
+        <v>270</v>
+      </c>
+      <c r="D5" s="59">
+        <v>161</v>
+      </c>
+      <c r="E5" s="59">
+        <v>8829</v>
+      </c>
+      <c r="F5" s="39">
+        <f t="shared" si="0"/>
+        <v>73.267326732673268</v>
+      </c>
+      <c r="G5" s="59">
+        <f t="shared" si="1"/>
+        <v>95.69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="59">
+        <v>802</v>
+      </c>
+      <c r="C6" s="59">
+        <v>180</v>
+      </c>
+      <c r="D6" s="59">
+        <v>2708</v>
+      </c>
+      <c r="E6" s="59">
+        <v>6310</v>
+      </c>
+      <c r="F6" s="39">
+        <f t="shared" si="0"/>
+        <v>81.670061099796328</v>
+      </c>
+      <c r="G6" s="59">
+        <f t="shared" si="1"/>
+        <v>71.12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="59">
+        <v>809</v>
+      </c>
+      <c r="C7" s="59">
+        <v>83</v>
+      </c>
+      <c r="D7" s="59">
+        <v>3328</v>
+      </c>
+      <c r="E7" s="59">
+        <v>5780</v>
+      </c>
+      <c r="F7" s="39">
+        <f t="shared" si="0"/>
+        <v>90.695067264573993</v>
+      </c>
+      <c r="G7" s="59">
+        <f t="shared" si="1"/>
+        <v>65.89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="59">
+        <v>941</v>
+      </c>
+      <c r="C8" s="59">
+        <v>17</v>
+      </c>
+      <c r="D8" s="59">
+        <v>1839</v>
+      </c>
+      <c r="E8" s="59">
+        <v>7203</v>
+      </c>
+      <c r="F8" s="39">
+        <f t="shared" si="0"/>
+        <v>98.225469728601254</v>
+      </c>
+      <c r="G8" s="59">
+        <f t="shared" si="1"/>
+        <v>81.44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="59">
+        <v>619</v>
+      </c>
+      <c r="C9" s="59">
+        <v>355</v>
+      </c>
+      <c r="D9" s="59">
+        <v>82</v>
+      </c>
+      <c r="E9" s="59">
+        <v>8944</v>
+      </c>
+      <c r="F9" s="39">
+        <f t="shared" si="0"/>
+        <v>63.552361396303901</v>
+      </c>
+      <c r="G9" s="59">
+        <f t="shared" si="1"/>
+        <v>95.63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="59">
+        <v>939</v>
+      </c>
+      <c r="C10" s="59">
+        <v>70</v>
+      </c>
+      <c r="D10" s="59">
+        <v>963</v>
+      </c>
+      <c r="E10" s="59">
+        <v>8028</v>
+      </c>
+      <c r="F10" s="39">
+        <f t="shared" si="0"/>
+        <v>93.062438057482652</v>
+      </c>
+      <c r="G10" s="59">
+        <f t="shared" si="1"/>
+        <v>89.67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C066518F-A604-491F-8ED5-258FF25079BB}">
   <dimension ref="A1:H35"/>
   <sheetViews>
@@ -8100,17 +8941,17 @@
       <c r="A5" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="59" t="s">
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="60"/>
+      <c r="H5" s="61"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="54"/>
@@ -8194,17 +9035,17 @@
       <c r="A9" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="59" t="s">
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="60"/>
+      <c r="H9" s="61"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="54"/>
@@ -8408,17 +9249,17 @@
       <c r="A20" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="59" t="s">
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="H20" s="60"/>
+      <c r="H20" s="61"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="54" t="s">
@@ -8482,17 +9323,17 @@
       <c r="A24" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="59" t="s">
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="H24" s="60"/>
+      <c r="H24" s="61"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="54"/>
@@ -8735,7 +9576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7C8AE8-68EA-4CD1-89FD-4632DB72F050}">
   <dimension ref="A1:U39"/>
   <sheetViews>

--- a/experiments/Consolidated Results from different techniques.xlsx
+++ b/experiments/Consolidated Results from different techniques.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\musman\Desktop\DNN-Repair\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BCDF35-0406-418A-9E2D-8A768BD9D1B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DCDEB2-A58F-4B40-B055-D246448D62CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{6E851A2A-318E-4F15-AEB0-BD2CB026064A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{6E851A2A-318E-4F15-AEB0-BD2CB026064A}"/>
   </bookViews>
   <sheets>
     <sheet name="Pattern-Train" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Mutation-Train" sheetId="12" r:id="rId3"/>
     <sheet name="Mutation-Test" sheetId="13" r:id="rId4"/>
     <sheet name="Last-Layer" sheetId="14" r:id="rId5"/>
-    <sheet name="Last_Layer 5-21-2020" sheetId="16" r:id="rId6"/>
+    <sheet name="Last_Layer 5-28-2020" sheetId="16" r:id="rId6"/>
     <sheet name="Analysis" sheetId="17" r:id="rId7"/>
     <sheet name="Runtime-Monitor_Patch" sheetId="15" r:id="rId8"/>
     <sheet name="Summary" sheetId="11" r:id="rId9"/>
@@ -685,12 +685,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -704,6 +698,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7507,7 +7507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9BC920C-48A2-4140-B7CF-8FF35C410D86}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -7592,483 +7592,483 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="62">
-        <v>0</v>
-      </c>
-      <c r="B3" s="63">
+      <c r="A3" s="60">
+        <v>0</v>
+      </c>
+      <c r="B3" s="61">
         <v>98.970116495019397</v>
       </c>
-      <c r="C3" s="63">
+      <c r="C3" s="61">
         <v>99.93</v>
       </c>
-      <c r="D3" s="64">
+      <c r="D3" s="62">
         <f>SUM(C3-B3)</f>
         <v>0.95988350498060981</v>
       </c>
-      <c r="E3" s="63">
+      <c r="E3" s="61">
         <v>98.45</v>
       </c>
-      <c r="G3" s="62">
-        <v>0</v>
-      </c>
-      <c r="H3" s="63">
+      <c r="G3" s="60">
+        <v>0</v>
+      </c>
+      <c r="H3" s="61">
         <v>99.387755102040799</v>
       </c>
-      <c r="I3" s="63">
+      <c r="I3" s="61">
         <v>99.897959183673393</v>
       </c>
-      <c r="J3" s="64">
+      <c r="J3" s="62">
         <f>SUM(I3-H3)</f>
         <v>0.5102040816325939</v>
       </c>
-      <c r="K3" s="63">
+      <c r="K3" s="61">
         <v>98.04</v>
       </c>
-      <c r="M3" s="62">
-        <v>0</v>
-      </c>
-      <c r="N3" s="63">
+      <c r="M3" s="60">
+        <v>0</v>
+      </c>
+      <c r="N3" s="61">
         <v>0.10204081632653</v>
       </c>
-      <c r="O3" s="63">
+      <c r="O3" s="61">
         <v>86.224489795918302</v>
       </c>
-      <c r="P3" s="64">
+      <c r="P3" s="62">
         <f>SUM(O3-N3)</f>
         <v>86.122448979591766</v>
       </c>
-      <c r="Q3" s="63">
+      <c r="Q3" s="61">
         <v>18.75</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="62">
+      <c r="A4" s="60">
         <v>1</v>
       </c>
-      <c r="B4" s="63">
+      <c r="B4" s="61">
         <v>98.709581726490597</v>
       </c>
-      <c r="C4" s="63">
+      <c r="C4" s="61">
         <v>99.93</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="62">
         <f t="shared" ref="D4:D11" si="0">SUM(C4-B4)</f>
         <v>1.2204182735094093</v>
       </c>
-      <c r="E4" s="63">
+      <c r="E4" s="61">
         <v>95.078333333333305</v>
       </c>
-      <c r="G4" s="62">
+      <c r="G4" s="60">
         <v>1</v>
       </c>
-      <c r="H4" s="63">
+      <c r="H4" s="61">
         <v>99.4713656387665</v>
       </c>
-      <c r="I4" s="63">
+      <c r="I4" s="61">
         <v>99.7356828193832</v>
       </c>
-      <c r="J4" s="64">
+      <c r="J4" s="62">
         <f t="shared" ref="J4:J11" si="1">SUM(I4-H4)</f>
         <v>0.2643171806167004</v>
       </c>
-      <c r="K4" s="63">
+      <c r="K4" s="61">
         <v>94.24</v>
       </c>
-      <c r="M4" s="62">
+      <c r="M4" s="60">
         <v>1</v>
       </c>
-      <c r="N4" s="63">
-        <v>0</v>
-      </c>
-      <c r="O4" s="63">
+      <c r="N4" s="61">
+        <v>0</v>
+      </c>
+      <c r="O4" s="61">
         <v>89.955947136563793</v>
       </c>
-      <c r="P4" s="64">
+      <c r="P4" s="62">
         <f t="shared" ref="P4:P11" si="2">SUM(O4-N4)</f>
         <v>89.955947136563793</v>
       </c>
-      <c r="Q4" s="63">
+      <c r="Q4" s="61">
         <v>20.46</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="62">
+      <c r="A5" s="60">
         <v>2</v>
       </c>
-      <c r="B5" s="63">
+      <c r="B5" s="61">
         <v>98.774756629741503</v>
       </c>
-      <c r="C5" s="63">
+      <c r="C5" s="61">
         <v>99.28</v>
       </c>
-      <c r="D5" s="64">
+      <c r="D5" s="62">
         <f t="shared" si="0"/>
         <v>0.50524337025849775</v>
       </c>
-      <c r="E5" s="63">
+      <c r="E5" s="61">
         <v>97.43</v>
       </c>
-      <c r="G5" s="62">
+      <c r="G5" s="60">
         <v>2</v>
       </c>
-      <c r="H5" s="63">
+      <c r="H5" s="61">
         <v>97.868217054263496</v>
       </c>
-      <c r="I5" s="63">
+      <c r="I5" s="61">
         <v>98.74</v>
       </c>
-      <c r="J5" s="64">
+      <c r="J5" s="62">
         <f t="shared" si="1"/>
         <v>0.8717829457364985</v>
       </c>
-      <c r="K5" s="63">
+      <c r="K5" s="61">
         <v>97.12</v>
       </c>
-      <c r="M5" s="62">
+      <c r="M5" s="60">
         <v>2</v>
       </c>
-      <c r="N5" s="63">
-        <v>0</v>
-      </c>
-      <c r="O5" s="63">
+      <c r="N5" s="61">
+        <v>0</v>
+      </c>
+      <c r="O5" s="61">
         <v>78.290000000000006</v>
       </c>
-      <c r="P5" s="64">
+      <c r="P5" s="62">
         <f t="shared" si="2"/>
         <v>78.290000000000006</v>
       </c>
-      <c r="Q5" s="63">
+      <c r="Q5" s="61">
         <v>18.29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="62">
+      <c r="A6" s="60">
         <v>3</v>
       </c>
-      <c r="B6" s="63">
+      <c r="B6" s="61">
         <v>98.956124612624293</v>
       </c>
-      <c r="C6" s="63">
+      <c r="C6" s="61">
         <v>99.84</v>
       </c>
-      <c r="D6" s="64">
+      <c r="D6" s="62">
         <f t="shared" si="0"/>
         <v>0.88387538737570992</v>
       </c>
-      <c r="E6" s="63">
+      <c r="E6" s="61">
         <v>96.92</v>
       </c>
-      <c r="G6" s="62">
+      <c r="G6" s="60">
         <v>3</v>
       </c>
-      <c r="H6" s="63">
+      <c r="H6" s="61">
         <v>98.811881188118804</v>
       </c>
-      <c r="I6" s="63">
+      <c r="I6" s="61">
         <v>99.41</v>
       </c>
-      <c r="J6" s="64">
+      <c r="J6" s="62">
         <f t="shared" si="1"/>
         <v>0.59811881188119287</v>
       </c>
-      <c r="K6" s="63">
+      <c r="K6" s="61">
         <v>96.55</v>
       </c>
-      <c r="M6" s="62">
+      <c r="M6" s="60">
         <v>3</v>
       </c>
-      <c r="N6" s="63">
-        <v>0</v>
-      </c>
-      <c r="O6" s="63">
+      <c r="N6" s="61">
+        <v>0</v>
+      </c>
+      <c r="O6" s="61">
         <v>73.27</v>
       </c>
-      <c r="P6" s="64">
+      <c r="P6" s="62">
         <f t="shared" si="2"/>
         <v>73.27</v>
       </c>
-      <c r="Q6" s="63">
+      <c r="Q6" s="61">
         <v>17.760000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="62">
+      <c r="A7" s="60">
         <v>4</v>
       </c>
-      <c r="B7" s="63">
+      <c r="B7" s="61">
         <v>98.870249914412796</v>
       </c>
-      <c r="C7" s="63">
+      <c r="C7" s="61">
         <v>99.9</v>
       </c>
-      <c r="D7" s="64">
+      <c r="D7" s="62">
         <f t="shared" si="0"/>
         <v>1.0297500855872102</v>
       </c>
-      <c r="E7" s="63">
+      <c r="E7" s="61">
         <v>97.13</v>
       </c>
-      <c r="G7" s="62">
+      <c r="G7" s="60">
         <v>4</v>
       </c>
-      <c r="H7" s="63">
+      <c r="H7" s="61">
         <v>98.778004073319707</v>
       </c>
-      <c r="I7" s="63">
+      <c r="I7" s="61">
         <v>99.389002036659804</v>
       </c>
-      <c r="J7" s="64">
+      <c r="J7" s="62">
         <f t="shared" si="1"/>
         <v>0.61099796334009682</v>
       </c>
-      <c r="K7" s="63">
+      <c r="K7" s="61">
         <v>96.94</v>
       </c>
-      <c r="M7" s="62">
+      <c r="M7" s="60">
         <v>4</v>
       </c>
-      <c r="N7" s="63">
+      <c r="N7" s="61">
         <v>0.10183299389002</v>
       </c>
-      <c r="O7" s="63">
+      <c r="O7" s="61">
         <v>81.67</v>
       </c>
-      <c r="P7" s="64">
+      <c r="P7" s="62">
         <f t="shared" si="2"/>
         <v>81.568167006109988</v>
       </c>
-      <c r="Q7" s="63">
+      <c r="Q7" s="61">
         <v>18.149999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="62">
+      <c r="A8" s="60">
         <v>5</v>
       </c>
-      <c r="B8" s="63">
+      <c r="B8" s="61">
         <v>98.985427042981001</v>
       </c>
-      <c r="C8" s="63">
+      <c r="C8" s="61">
         <v>99.87</v>
       </c>
-      <c r="D8" s="64">
+      <c r="D8" s="62">
         <f t="shared" si="0"/>
         <v>0.88457295701900307</v>
       </c>
-      <c r="E8" s="63">
+      <c r="E8" s="61">
         <v>89.79</v>
       </c>
-      <c r="G8" s="62">
+      <c r="G8" s="60">
         <v>5</v>
       </c>
-      <c r="H8" s="63">
+      <c r="H8" s="61">
         <v>98.654708520179298</v>
       </c>
-      <c r="I8" s="63">
+      <c r="I8" s="61">
         <v>99.22</v>
       </c>
-      <c r="J8" s="64">
+      <c r="J8" s="62">
         <f t="shared" si="1"/>
         <v>0.56529147982070072</v>
       </c>
-      <c r="K8" s="63">
+      <c r="K8" s="61">
         <v>90.34</v>
       </c>
-      <c r="M8" s="62">
+      <c r="M8" s="60">
         <v>5</v>
       </c>
-      <c r="N8" s="63">
+      <c r="N8" s="61">
         <v>0.112107623318385</v>
       </c>
-      <c r="O8" s="63">
+      <c r="O8" s="61">
         <v>90.69</v>
       </c>
-      <c r="P8" s="64">
+      <c r="P8" s="62">
         <f t="shared" si="2"/>
         <v>90.577892376681618</v>
       </c>
-      <c r="Q8" s="63">
+      <c r="Q8" s="61">
         <v>16.77</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="62">
+      <c r="A9" s="60">
         <v>6</v>
       </c>
-      <c r="B9" s="63">
+      <c r="B9" s="61">
         <v>99.036836769178706</v>
       </c>
-      <c r="C9" s="63">
+      <c r="C9" s="61">
         <v>99.97</v>
       </c>
-      <c r="D9" s="64">
+      <c r="D9" s="62">
         <f t="shared" si="0"/>
         <v>0.93316323082129315</v>
       </c>
-      <c r="E9" s="63">
+      <c r="E9" s="61">
         <v>96.3</v>
       </c>
-      <c r="G9" s="62">
+      <c r="G9" s="60">
         <v>6</v>
       </c>
-      <c r="H9" s="63">
+      <c r="H9" s="61">
         <v>98.643006263047994</v>
       </c>
-      <c r="I9" s="63">
+      <c r="I9" s="61">
         <v>99.06</v>
       </c>
-      <c r="J9" s="64">
+      <c r="J9" s="62">
         <f t="shared" si="1"/>
         <v>0.41699373695200848</v>
       </c>
-      <c r="K9" s="63">
+      <c r="K9" s="61">
         <v>95.71</v>
       </c>
-      <c r="M9" s="62">
+      <c r="M9" s="60">
         <v>6</v>
       </c>
-      <c r="N9" s="63">
+      <c r="N9" s="61">
         <v>0.73068893528183698</v>
       </c>
-      <c r="O9" s="63">
+      <c r="O9" s="61">
         <v>98.23</v>
       </c>
-      <c r="P9" s="64">
+      <c r="P9" s="62">
         <f t="shared" si="2"/>
         <v>97.499311064718171</v>
       </c>
-      <c r="Q9" s="63">
+      <c r="Q9" s="61">
         <v>19.5</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="62">
+      <c r="A10" s="60">
         <v>8</v>
       </c>
-      <c r="B10" s="63">
+      <c r="B10" s="61">
         <v>99.025807554264205</v>
       </c>
-      <c r="C10" s="63">
+      <c r="C10" s="61">
         <v>99.88</v>
       </c>
-      <c r="D10" s="64">
+      <c r="D10" s="62">
         <f t="shared" si="0"/>
         <v>0.85419244573579078</v>
       </c>
-      <c r="E10" s="63">
+      <c r="E10" s="61">
         <v>94.17</v>
       </c>
-      <c r="G10" s="62">
+      <c r="G10" s="60">
         <v>8</v>
       </c>
-      <c r="H10" s="63">
+      <c r="H10" s="61">
         <v>98.665297741273093</v>
       </c>
-      <c r="I10" s="63">
+      <c r="I10" s="61">
         <v>99.49</v>
       </c>
-      <c r="J10" s="64">
+      <c r="J10" s="62">
         <f t="shared" si="1"/>
         <v>0.8247022587269015</v>
       </c>
-      <c r="K10" s="63">
+      <c r="K10" s="61">
         <v>93.47</v>
       </c>
-      <c r="M10" s="62">
+      <c r="M10" s="60">
         <v>8</v>
       </c>
-      <c r="N10" s="63">
-        <v>0</v>
-      </c>
-      <c r="O10" s="63">
+      <c r="N10" s="61">
+        <v>0</v>
+      </c>
+      <c r="O10" s="61">
         <v>63.55</v>
       </c>
-      <c r="P10" s="64">
+      <c r="P10" s="62">
         <f t="shared" si="2"/>
         <v>63.55</v>
       </c>
-      <c r="Q10" s="63">
+      <c r="Q10" s="61">
         <v>16.5</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="62">
+      <c r="A11" s="60">
         <v>9</v>
       </c>
-      <c r="B11" s="63">
+      <c r="B11" s="61">
         <v>98.554378887207903</v>
       </c>
-      <c r="C11" s="63">
+      <c r="C11" s="61">
         <v>99.92</v>
       </c>
-      <c r="D11" s="64">
+      <c r="D11" s="62">
         <f t="shared" si="0"/>
         <v>1.3656211127920983</v>
       </c>
-      <c r="E11" s="63">
+      <c r="E11" s="61">
         <v>96.54</v>
       </c>
-      <c r="G11" s="62">
+      <c r="G11" s="60">
         <v>9</v>
       </c>
-      <c r="H11" s="63">
+      <c r="H11" s="61">
         <v>97.224975222992995</v>
       </c>
-      <c r="I11" s="63">
+      <c r="I11" s="61">
         <v>98.71</v>
       </c>
-      <c r="J11" s="64">
+      <c r="J11" s="62">
         <f t="shared" si="1"/>
         <v>1.4850247770069984</v>
       </c>
-      <c r="K11" s="63">
+      <c r="K11" s="61">
         <v>96.38</v>
       </c>
-      <c r="M11" s="62">
+      <c r="M11" s="60">
         <v>9</v>
       </c>
-      <c r="N11" s="63">
-        <v>0</v>
-      </c>
-      <c r="O11" s="63">
+      <c r="N11" s="61">
+        <v>0</v>
+      </c>
+      <c r="O11" s="61">
         <v>93.06</v>
       </c>
-      <c r="P11" s="64">
+      <c r="P11" s="62">
         <f t="shared" si="2"/>
         <v>93.06</v>
       </c>
-      <c r="Q11" s="63">
+      <c r="Q11" s="61">
         <v>19.68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="62">
+      <c r="B12" s="60">
         <v>98.99</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="G12" s="62" t="s">
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="G12" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="H12" s="62">
+      <c r="H12" s="60">
         <v>98.63</v>
       </c>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="M12" s="62" t="s">
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="M12" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="N12" s="62">
+      <c r="N12" s="60">
         <v>10.38</v>
       </c>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="59" t="s">
@@ -8151,10 +8151,10 @@
         <v>29.73</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="65" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="P19" s="66"/>
+    <row r="19" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="P19" s="64"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D20"/>
@@ -8220,364 +8220,364 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="62">
-        <v>0</v>
-      </c>
-      <c r="B25" s="62">
+      <c r="A25" s="60">
+        <v>0</v>
+      </c>
+      <c r="B25" s="60">
         <v>98.92</v>
       </c>
-      <c r="C25" s="62">
+      <c r="C25" s="60">
         <v>99.93</v>
       </c>
-      <c r="D25" s="64">
+      <c r="D25" s="62">
         <f>SUM(C25-B25)</f>
         <v>1.0100000000000051</v>
       </c>
-      <c r="E25" s="62">
+      <c r="E25" s="60">
         <v>77.010000000000005</v>
       </c>
-      <c r="G25" s="62">
-        <v>0</v>
-      </c>
-      <c r="H25" s="62">
+      <c r="G25" s="60">
+        <v>0</v>
+      </c>
+      <c r="H25" s="60">
         <v>99.18</v>
       </c>
-      <c r="I25" s="62">
+      <c r="I25" s="60">
         <v>99.8</v>
       </c>
-      <c r="J25" s="64">
+      <c r="J25" s="62">
         <f>SUM(I25-H25)</f>
         <v>0.61999999999999034</v>
       </c>
-      <c r="K25" s="62">
+      <c r="K25" s="60">
         <v>77.78</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="62">
+      <c r="A26" s="60">
         <v>1</v>
       </c>
-      <c r="B26" s="62">
+      <c r="B26" s="60">
         <v>97.92</v>
       </c>
-      <c r="C26" s="62">
+      <c r="C26" s="60">
         <v>99.64</v>
       </c>
-      <c r="D26" s="64">
+      <c r="D26" s="62">
         <f t="shared" ref="D26:D34" si="3">SUM(C26-B26)</f>
         <v>1.7199999999999989</v>
       </c>
-      <c r="E26" s="62">
+      <c r="E26" s="60">
         <v>90</v>
       </c>
-      <c r="G26" s="62">
+      <c r="G26" s="60">
         <v>1</v>
       </c>
-      <c r="H26" s="62">
+      <c r="H26" s="60">
         <v>98.59</v>
       </c>
-      <c r="I26" s="62">
+      <c r="I26" s="60">
         <v>99.65</v>
       </c>
-      <c r="J26" s="64">
+      <c r="J26" s="62">
         <f t="shared" ref="J26:J34" si="4">SUM(I26-H26)</f>
         <v>1.0600000000000023</v>
       </c>
-      <c r="K26" s="62">
+      <c r="K26" s="60">
         <v>90.25</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="62">
+      <c r="A27" s="60">
         <v>2</v>
       </c>
-      <c r="B27" s="62">
+      <c r="B27" s="60">
         <v>97.78</v>
       </c>
-      <c r="C27" s="62">
+      <c r="C27" s="60">
         <v>96.24</v>
       </c>
-      <c r="D27" s="64">
+      <c r="D27" s="62">
         <f t="shared" si="3"/>
         <v>-1.5400000000000063</v>
       </c>
-      <c r="E27" s="62">
+      <c r="E27" s="60">
         <v>75.61</v>
       </c>
-      <c r="G27" s="62">
+      <c r="G27" s="60">
         <v>2</v>
       </c>
-      <c r="H27" s="62">
+      <c r="H27" s="60">
         <v>97.29</v>
       </c>
-      <c r="I27" s="62">
+      <c r="I27" s="60">
         <v>95.16</v>
       </c>
-      <c r="J27" s="64">
+      <c r="J27" s="62">
         <f t="shared" si="4"/>
         <v>-2.1300000000000097</v>
       </c>
-      <c r="K27" s="62">
+      <c r="K27" s="60">
         <v>76.02</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="62">
+      <c r="A28" s="60">
         <v>3</v>
       </c>
-      <c r="B28" s="62">
+      <c r="B28" s="60">
         <v>95.84</v>
       </c>
-      <c r="C28" s="62">
+      <c r="C28" s="60">
         <v>99.15</v>
       </c>
-      <c r="D28" s="64">
+      <c r="D28" s="62">
         <f t="shared" si="3"/>
         <v>3.3100000000000023</v>
       </c>
-      <c r="E28" s="62">
+      <c r="E28" s="60">
         <v>85.84</v>
       </c>
-      <c r="G28" s="62">
+      <c r="G28" s="60">
         <v>3</v>
       </c>
-      <c r="H28" s="62">
+      <c r="H28" s="60">
         <v>95.84</v>
       </c>
-      <c r="I28" s="62">
+      <c r="I28" s="60">
         <v>99.21</v>
       </c>
-      <c r="J28" s="64">
+      <c r="J28" s="62">
         <f t="shared" si="4"/>
         <v>3.3699999999999903</v>
       </c>
-      <c r="K28" s="62">
+      <c r="K28" s="60">
         <v>85.47</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="62">
+      <c r="A29" s="60">
         <v>4</v>
       </c>
-      <c r="B29" s="62">
+      <c r="B29" s="60">
         <v>98.32</v>
       </c>
-      <c r="C29" s="62">
+      <c r="C29" s="60">
         <v>99.61</v>
       </c>
-      <c r="D29" s="64">
+      <c r="D29" s="62">
         <f t="shared" si="3"/>
         <v>1.2900000000000063</v>
       </c>
-      <c r="E29" s="62">
+      <c r="E29" s="60">
         <v>94.25</v>
       </c>
-      <c r="G29" s="62">
+      <c r="G29" s="60">
         <v>4</v>
       </c>
-      <c r="H29" s="62">
+      <c r="H29" s="60">
         <v>98.37</v>
       </c>
-      <c r="I29" s="62">
+      <c r="I29" s="60">
         <v>99.59</v>
       </c>
-      <c r="J29" s="64">
+      <c r="J29" s="62">
         <f t="shared" si="4"/>
         <v>1.2199999999999989</v>
       </c>
-      <c r="K29" s="62">
+      <c r="K29" s="60">
         <v>93.98</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="62">
+      <c r="A30" s="60">
         <v>5</v>
       </c>
-      <c r="B30" s="62">
+      <c r="B30" s="60">
         <v>98.25</v>
       </c>
-      <c r="C30" s="62">
+      <c r="C30" s="60">
         <v>99.41</v>
       </c>
-      <c r="D30" s="64">
+      <c r="D30" s="62">
         <f t="shared" si="3"/>
         <v>1.1599999999999966</v>
       </c>
-      <c r="E30" s="62">
+      <c r="E30" s="60">
         <v>86.12</v>
       </c>
-      <c r="G30" s="62">
+      <c r="G30" s="60">
         <v>5</v>
       </c>
-      <c r="H30" s="62">
+      <c r="H30" s="60">
         <v>98.99</v>
       </c>
-      <c r="I30" s="62">
+      <c r="I30" s="60">
         <v>99.78</v>
       </c>
-      <c r="J30" s="64">
+      <c r="J30" s="62">
         <f t="shared" si="4"/>
         <v>0.79000000000000625</v>
       </c>
-      <c r="K30" s="62">
+      <c r="K30" s="60">
         <v>85.67</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="62">
+      <c r="A31" s="60">
         <v>6</v>
       </c>
-      <c r="B31" s="62">
+      <c r="B31" s="60">
         <v>96.62</v>
       </c>
-      <c r="C31" s="62">
+      <c r="C31" s="60">
         <v>98.51</v>
       </c>
-      <c r="D31" s="64">
+      <c r="D31" s="62">
         <f t="shared" si="3"/>
         <v>1.8900000000000006</v>
       </c>
-      <c r="E31" s="62">
+      <c r="E31" s="60">
         <v>96.6</v>
       </c>
-      <c r="G31" s="62">
+      <c r="G31" s="60">
         <v>6</v>
       </c>
-      <c r="H31" s="62">
+      <c r="H31" s="60">
         <v>95.72</v>
       </c>
-      <c r="I31" s="62">
+      <c r="I31" s="60">
         <v>97.91</v>
       </c>
-      <c r="J31" s="64">
+      <c r="J31" s="62">
         <f t="shared" si="4"/>
         <v>2.1899999999999977</v>
       </c>
-      <c r="K31" s="62">
+      <c r="K31" s="60">
         <v>96.34</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="62">
+      <c r="A32" s="60">
         <v>7</v>
       </c>
-      <c r="B32" s="62">
+      <c r="B32" s="60">
         <v>95.81</v>
       </c>
-      <c r="C32" s="62">
+      <c r="C32" s="60">
         <v>98.48</v>
       </c>
-      <c r="D32" s="64">
+      <c r="D32" s="62">
         <f t="shared" si="3"/>
         <v>2.6700000000000017</v>
       </c>
-      <c r="E32" s="62">
+      <c r="E32" s="60">
         <v>95.75</v>
       </c>
-      <c r="G32" s="62">
+      <c r="G32" s="60">
         <v>7</v>
       </c>
-      <c r="H32" s="62">
+      <c r="H32" s="60">
         <v>94.74</v>
       </c>
-      <c r="I32" s="62">
+      <c r="I32" s="60">
         <v>98.35</v>
       </c>
-      <c r="J32" s="64">
+      <c r="J32" s="62">
         <f t="shared" si="4"/>
         <v>3.6099999999999994</v>
       </c>
-      <c r="K32" s="62">
+      <c r="K32" s="60">
         <v>95.53</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="62">
+      <c r="A33" s="60">
         <v>8</v>
       </c>
-      <c r="B33" s="62">
+      <c r="B33" s="60">
         <v>90.75</v>
       </c>
-      <c r="C33" s="62">
+      <c r="C33" s="60">
         <v>96.55</v>
       </c>
-      <c r="D33" s="64">
+      <c r="D33" s="62">
         <f t="shared" si="3"/>
         <v>5.7999999999999972</v>
       </c>
-      <c r="E33" s="62">
+      <c r="E33" s="60">
         <v>95.48</v>
       </c>
-      <c r="G33" s="62">
+      <c r="G33" s="60">
         <v>8</v>
       </c>
-      <c r="H33" s="62">
+      <c r="H33" s="60">
         <v>89.63</v>
       </c>
-      <c r="I33" s="62">
+      <c r="I33" s="60">
         <v>96.1</v>
       </c>
-      <c r="J33" s="64">
+      <c r="J33" s="62">
         <f t="shared" si="4"/>
         <v>6.4699999999999989</v>
       </c>
-      <c r="K33" s="62">
+      <c r="K33" s="60">
         <v>95.26</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="62">
+      <c r="A34" s="60">
         <v>9</v>
       </c>
-      <c r="B34" s="62">
+      <c r="B34" s="60">
         <v>95.55</v>
       </c>
-      <c r="C34" s="62">
+      <c r="C34" s="60">
         <v>99.83</v>
       </c>
-      <c r="D34" s="64">
+      <c r="D34" s="62">
         <f t="shared" si="3"/>
         <v>4.2800000000000011</v>
       </c>
-      <c r="E34" s="62">
+      <c r="E34" s="60">
         <v>73.62</v>
       </c>
-      <c r="G34" s="62">
+      <c r="G34" s="60">
         <v>9</v>
       </c>
-      <c r="H34" s="62">
+      <c r="H34" s="60">
         <v>94.95</v>
       </c>
-      <c r="I34" s="62">
+      <c r="I34" s="60">
         <v>99.6</v>
       </c>
-      <c r="J34" s="64">
+      <c r="J34" s="62">
         <f t="shared" si="4"/>
         <v>4.6499999999999915</v>
       </c>
-      <c r="K34" s="62">
+      <c r="K34" s="60">
         <v>73.73</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="62" t="s">
+      <c r="A35" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="B35" s="62">
+      <c r="B35" s="60">
         <v>96.58</v>
       </c>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="G35" s="62" t="s">
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="G35" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="H35" s="62">
+      <c r="H35" s="60">
         <v>96.34</v>
       </c>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="62"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8588,7 +8588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F00768-9EA9-4BD5-9CDE-70FEDA72B588}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -8941,17 +8941,17 @@
       <c r="A5" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="60" t="s">
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="61"/>
+      <c r="H5" s="66"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="54"/>
@@ -9035,17 +9035,17 @@
       <c r="A9" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="60" t="s">
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="61"/>
+      <c r="H9" s="66"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="54"/>
@@ -9249,17 +9249,17 @@
       <c r="A20" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="60" t="s">
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="H20" s="61"/>
+      <c r="H20" s="66"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="54" t="s">
@@ -9323,17 +9323,17 @@
       <c r="A24" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="60" t="s">
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="H24" s="61"/>
+      <c r="H24" s="66"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="54"/>

--- a/experiments/Consolidated Results from different techniques.xlsx
+++ b/experiments/Consolidated Results from different techniques.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\musman\Desktop\DNN-Repair\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DCDEB2-A58F-4B40-B055-D246448D62CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4C3688-B63A-408C-A6DE-3497945901D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{6E851A2A-318E-4F15-AEB0-BD2CB026064A}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="113">
   <si>
     <t>LABEL 7</t>
   </si>
@@ -350,18 +350,6 @@
     <t>Poisoned Model on Poisoned Test-Set</t>
   </si>
   <si>
-    <t>No Expert returned C</t>
-  </si>
-  <si>
-    <t>Expert C returned C</t>
-  </si>
-  <si>
-    <t>Multiple experts returned</t>
-  </si>
-  <si>
-    <t>Overall Accuracy - Expert Combined</t>
-  </si>
-  <si>
     <t>Low Quality Model on Train-set</t>
   </si>
   <si>
@@ -384,6 +372,18 @@
   </si>
   <si>
     <t>Accuracy for all inputs</t>
+  </si>
+  <si>
+    <t>Naïve</t>
+  </si>
+  <si>
+    <t>Confidence</t>
+  </si>
+  <si>
+    <t>Vote</t>
+  </si>
+  <si>
+    <t>Precision</t>
   </si>
 </sst>
 </file>
@@ -542,7 +542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -685,6 +685,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -698,12 +715,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7505,10 +7520,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9BC920C-48A2-4140-B7CF-8FF35C410D86}">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7534,1050 +7549,1314 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65" t="s">
         <v>100</v>
       </c>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
     </row>
     <row r="2" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="F2" s="65"/>
+      <c r="G2" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="46" t="s">
+      <c r="J2" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="46" t="s">
+      <c r="K2" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="M2" s="46" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="N2" s="46" t="s">
+      <c r="N2" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="O2" s="46" t="s">
+      <c r="O2" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="P2" s="46" t="s">
+      <c r="P2" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="46" t="s">
+      <c r="Q2" s="66" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="60">
-        <v>0</v>
-      </c>
-      <c r="B3" s="61">
+      <c r="A3" s="67">
+        <v>0</v>
+      </c>
+      <c r="B3" s="68">
         <v>98.970116495019397</v>
       </c>
-      <c r="C3" s="61">
+      <c r="C3" s="68">
         <v>99.93</v>
       </c>
-      <c r="D3" s="62">
-        <f>SUM(C3-B3)</f>
+      <c r="D3" s="69">
         <v>0.95988350498060981</v>
       </c>
-      <c r="E3" s="61">
+      <c r="E3" s="68">
         <v>98.45</v>
       </c>
-      <c r="G3" s="60">
-        <v>0</v>
-      </c>
-      <c r="H3" s="61">
+      <c r="F3" s="63"/>
+      <c r="G3" s="67">
+        <v>0</v>
+      </c>
+      <c r="H3" s="68">
         <v>99.387755102040799</v>
       </c>
-      <c r="I3" s="61">
+      <c r="I3" s="68">
         <v>99.897959183673393</v>
       </c>
-      <c r="J3" s="62">
-        <f>SUM(I3-H3)</f>
+      <c r="J3" s="69">
         <v>0.5102040816325939</v>
       </c>
-      <c r="K3" s="61">
+      <c r="K3" s="68">
         <v>98.04</v>
       </c>
-      <c r="M3" s="60">
-        <v>0</v>
-      </c>
-      <c r="N3" s="61">
+      <c r="L3" s="63"/>
+      <c r="M3" s="67">
+        <v>0</v>
+      </c>
+      <c r="N3" s="68">
         <v>0.10204081632653</v>
       </c>
-      <c r="O3" s="61">
+      <c r="O3" s="68">
         <v>86.224489795918302</v>
       </c>
-      <c r="P3" s="62">
-        <f>SUM(O3-N3)</f>
+      <c r="P3" s="69">
         <v>86.122448979591766</v>
       </c>
-      <c r="Q3" s="61">
+      <c r="Q3" s="68">
         <v>18.75</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="60">
+      <c r="A4" s="67">
         <v>1</v>
       </c>
-      <c r="B4" s="61">
+      <c r="B4" s="68">
         <v>98.709581726490597</v>
       </c>
-      <c r="C4" s="61">
+      <c r="C4" s="68">
         <v>99.93</v>
       </c>
-      <c r="D4" s="62">
-        <f t="shared" ref="D4:D11" si="0">SUM(C4-B4)</f>
+      <c r="D4" s="69">
         <v>1.2204182735094093</v>
       </c>
-      <c r="E4" s="61">
+      <c r="E4" s="68">
         <v>95.078333333333305</v>
       </c>
-      <c r="G4" s="60">
+      <c r="F4" s="63"/>
+      <c r="G4" s="67">
         <v>1</v>
       </c>
-      <c r="H4" s="61">
+      <c r="H4" s="68">
         <v>99.4713656387665</v>
       </c>
-      <c r="I4" s="61">
+      <c r="I4" s="68">
         <v>99.7356828193832</v>
       </c>
-      <c r="J4" s="62">
-        <f t="shared" ref="J4:J11" si="1">SUM(I4-H4)</f>
+      <c r="J4" s="69">
         <v>0.2643171806167004</v>
       </c>
-      <c r="K4" s="61">
+      <c r="K4" s="68">
         <v>94.24</v>
       </c>
-      <c r="M4" s="60">
+      <c r="L4" s="63"/>
+      <c r="M4" s="67">
         <v>1</v>
       </c>
-      <c r="N4" s="61">
-        <v>0</v>
-      </c>
-      <c r="O4" s="61">
+      <c r="N4" s="68">
+        <v>0</v>
+      </c>
+      <c r="O4" s="68">
         <v>89.955947136563793</v>
       </c>
-      <c r="P4" s="62">
-        <f t="shared" ref="P4:P11" si="2">SUM(O4-N4)</f>
+      <c r="P4" s="69">
         <v>89.955947136563793</v>
       </c>
-      <c r="Q4" s="61">
+      <c r="Q4" s="68">
         <v>20.46</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="60">
+      <c r="A5" s="67">
         <v>2</v>
       </c>
-      <c r="B5" s="61">
+      <c r="B5" s="68">
         <v>98.774756629741503</v>
       </c>
-      <c r="C5" s="61">
+      <c r="C5" s="68">
         <v>99.28</v>
       </c>
-      <c r="D5" s="62">
-        <f t="shared" si="0"/>
+      <c r="D5" s="69">
         <v>0.50524337025849775</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="68">
         <v>97.43</v>
       </c>
-      <c r="G5" s="60">
+      <c r="F5" s="63"/>
+      <c r="G5" s="67">
         <v>2</v>
       </c>
-      <c r="H5" s="61">
+      <c r="H5" s="68">
         <v>97.868217054263496</v>
       </c>
-      <c r="I5" s="61">
+      <c r="I5" s="68">
         <v>98.74</v>
       </c>
-      <c r="J5" s="62">
-        <f t="shared" si="1"/>
+      <c r="J5" s="69">
         <v>0.8717829457364985</v>
       </c>
-      <c r="K5" s="61">
+      <c r="K5" s="68">
         <v>97.12</v>
       </c>
-      <c r="M5" s="60">
+      <c r="L5" s="63"/>
+      <c r="M5" s="67">
         <v>2</v>
       </c>
-      <c r="N5" s="61">
-        <v>0</v>
-      </c>
-      <c r="O5" s="61">
+      <c r="N5" s="68">
+        <v>0</v>
+      </c>
+      <c r="O5" s="68">
         <v>78.290000000000006</v>
       </c>
-      <c r="P5" s="62">
-        <f t="shared" si="2"/>
+      <c r="P5" s="69">
         <v>78.290000000000006</v>
       </c>
-      <c r="Q5" s="61">
+      <c r="Q5" s="68">
         <v>18.29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="60">
+      <c r="A6" s="67">
         <v>3</v>
       </c>
-      <c r="B6" s="61">
+      <c r="B6" s="68">
         <v>98.956124612624293</v>
       </c>
-      <c r="C6" s="61">
+      <c r="C6" s="68">
         <v>99.84</v>
       </c>
-      <c r="D6" s="62">
-        <f t="shared" si="0"/>
+      <c r="D6" s="69">
         <v>0.88387538737570992</v>
       </c>
-      <c r="E6" s="61">
+      <c r="E6" s="68">
         <v>96.92</v>
       </c>
-      <c r="G6" s="60">
+      <c r="F6" s="63"/>
+      <c r="G6" s="67">
         <v>3</v>
       </c>
-      <c r="H6" s="61">
+      <c r="H6" s="68">
         <v>98.811881188118804</v>
       </c>
-      <c r="I6" s="61">
+      <c r="I6" s="68">
         <v>99.41</v>
       </c>
-      <c r="J6" s="62">
-        <f t="shared" si="1"/>
+      <c r="J6" s="69">
         <v>0.59811881188119287</v>
       </c>
-      <c r="K6" s="61">
+      <c r="K6" s="68">
         <v>96.55</v>
       </c>
-      <c r="M6" s="60">
+      <c r="L6" s="63"/>
+      <c r="M6" s="67">
         <v>3</v>
       </c>
-      <c r="N6" s="61">
-        <v>0</v>
-      </c>
-      <c r="O6" s="61">
+      <c r="N6" s="68">
+        <v>0</v>
+      </c>
+      <c r="O6" s="68">
         <v>73.27</v>
       </c>
-      <c r="P6" s="62">
-        <f t="shared" si="2"/>
+      <c r="P6" s="69">
         <v>73.27</v>
       </c>
-      <c r="Q6" s="61">
+      <c r="Q6" s="68">
         <v>17.760000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="60">
+      <c r="A7" s="67">
         <v>4</v>
       </c>
-      <c r="B7" s="61">
+      <c r="B7" s="68">
         <v>98.870249914412796</v>
       </c>
-      <c r="C7" s="61">
+      <c r="C7" s="68">
         <v>99.9</v>
       </c>
-      <c r="D7" s="62">
-        <f t="shared" si="0"/>
+      <c r="D7" s="69">
         <v>1.0297500855872102</v>
       </c>
-      <c r="E7" s="61">
+      <c r="E7" s="68">
         <v>97.13</v>
       </c>
-      <c r="G7" s="60">
+      <c r="F7" s="63"/>
+      <c r="G7" s="67">
         <v>4</v>
       </c>
-      <c r="H7" s="61">
+      <c r="H7" s="68">
         <v>98.778004073319707</v>
       </c>
-      <c r="I7" s="61">
+      <c r="I7" s="68">
         <v>99.389002036659804</v>
       </c>
-      <c r="J7" s="62">
-        <f t="shared" si="1"/>
+      <c r="J7" s="69">
         <v>0.61099796334009682</v>
       </c>
-      <c r="K7" s="61">
+      <c r="K7" s="68">
         <v>96.94</v>
       </c>
-      <c r="M7" s="60">
+      <c r="L7" s="63"/>
+      <c r="M7" s="67">
         <v>4</v>
       </c>
-      <c r="N7" s="61">
+      <c r="N7" s="68">
         <v>0.10183299389002</v>
       </c>
-      <c r="O7" s="61">
+      <c r="O7" s="68">
         <v>81.67</v>
       </c>
-      <c r="P7" s="62">
-        <f t="shared" si="2"/>
+      <c r="P7" s="69">
         <v>81.568167006109988</v>
       </c>
-      <c r="Q7" s="61">
+      <c r="Q7" s="68">
         <v>18.149999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="60">
+      <c r="A8" s="67">
         <v>5</v>
       </c>
-      <c r="B8" s="61">
+      <c r="B8" s="68">
         <v>98.985427042981001</v>
       </c>
-      <c r="C8" s="61">
+      <c r="C8" s="68">
         <v>99.87</v>
       </c>
-      <c r="D8" s="62">
-        <f t="shared" si="0"/>
+      <c r="D8" s="69">
         <v>0.88457295701900307</v>
       </c>
-      <c r="E8" s="61">
+      <c r="E8" s="68">
         <v>89.79</v>
       </c>
-      <c r="G8" s="60">
+      <c r="F8" s="63"/>
+      <c r="G8" s="67">
         <v>5</v>
       </c>
-      <c r="H8" s="61">
+      <c r="H8" s="68">
         <v>98.654708520179298</v>
       </c>
-      <c r="I8" s="61">
+      <c r="I8" s="68">
         <v>99.22</v>
       </c>
-      <c r="J8" s="62">
-        <f t="shared" si="1"/>
+      <c r="J8" s="69">
         <v>0.56529147982070072</v>
       </c>
-      <c r="K8" s="61">
+      <c r="K8" s="68">
         <v>90.34</v>
       </c>
-      <c r="M8" s="60">
+      <c r="L8" s="63"/>
+      <c r="M8" s="67">
         <v>5</v>
       </c>
-      <c r="N8" s="61">
+      <c r="N8" s="68">
         <v>0.112107623318385</v>
       </c>
-      <c r="O8" s="61">
+      <c r="O8" s="68">
         <v>90.69</v>
       </c>
-      <c r="P8" s="62">
-        <f t="shared" si="2"/>
+      <c r="P8" s="69">
         <v>90.577892376681618</v>
       </c>
-      <c r="Q8" s="61">
+      <c r="Q8" s="68">
         <v>16.77</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="60">
+      <c r="A9" s="67">
         <v>6</v>
       </c>
-      <c r="B9" s="61">
+      <c r="B9" s="68">
         <v>99.036836769178706</v>
       </c>
-      <c r="C9" s="61">
+      <c r="C9" s="68">
         <v>99.97</v>
       </c>
-      <c r="D9" s="62">
-        <f t="shared" si="0"/>
+      <c r="D9" s="69">
         <v>0.93316323082129315</v>
       </c>
-      <c r="E9" s="61">
+      <c r="E9" s="68">
         <v>96.3</v>
       </c>
-      <c r="G9" s="60">
+      <c r="F9" s="63"/>
+      <c r="G9" s="67">
         <v>6</v>
       </c>
-      <c r="H9" s="61">
+      <c r="H9" s="68">
         <v>98.643006263047994</v>
       </c>
-      <c r="I9" s="61">
+      <c r="I9" s="68">
         <v>99.06</v>
       </c>
-      <c r="J9" s="62">
-        <f t="shared" si="1"/>
+      <c r="J9" s="69">
         <v>0.41699373695200848</v>
       </c>
-      <c r="K9" s="61">
+      <c r="K9" s="68">
         <v>95.71</v>
       </c>
-      <c r="M9" s="60">
+      <c r="L9" s="63"/>
+      <c r="M9" s="67">
         <v>6</v>
       </c>
-      <c r="N9" s="61">
+      <c r="N9" s="68">
         <v>0.73068893528183698</v>
       </c>
-      <c r="O9" s="61">
+      <c r="O9" s="68">
         <v>98.23</v>
       </c>
-      <c r="P9" s="62">
-        <f t="shared" si="2"/>
+      <c r="P9" s="69">
         <v>97.499311064718171</v>
       </c>
-      <c r="Q9" s="61">
+      <c r="Q9" s="68">
         <v>19.5</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="60">
+      <c r="A10" s="67">
         <v>8</v>
       </c>
-      <c r="B10" s="61">
+      <c r="B10" s="68">
         <v>99.025807554264205</v>
       </c>
-      <c r="C10" s="61">
+      <c r="C10" s="68">
         <v>99.88</v>
       </c>
-      <c r="D10" s="62">
-        <f t="shared" si="0"/>
+      <c r="D10" s="69">
         <v>0.85419244573579078</v>
       </c>
-      <c r="E10" s="61">
+      <c r="E10" s="68">
         <v>94.17</v>
       </c>
-      <c r="G10" s="60">
+      <c r="F10" s="63"/>
+      <c r="G10" s="67">
         <v>8</v>
       </c>
-      <c r="H10" s="61">
+      <c r="H10" s="68">
         <v>98.665297741273093</v>
       </c>
-      <c r="I10" s="61">
+      <c r="I10" s="68">
         <v>99.49</v>
       </c>
-      <c r="J10" s="62">
-        <f t="shared" si="1"/>
+      <c r="J10" s="69">
         <v>0.8247022587269015</v>
       </c>
-      <c r="K10" s="61">
+      <c r="K10" s="68">
         <v>93.47</v>
       </c>
-      <c r="M10" s="60">
+      <c r="L10" s="63"/>
+      <c r="M10" s="67">
         <v>8</v>
       </c>
-      <c r="N10" s="61">
-        <v>0</v>
-      </c>
-      <c r="O10" s="61">
+      <c r="N10" s="68">
+        <v>0</v>
+      </c>
+      <c r="O10" s="68">
         <v>63.55</v>
       </c>
-      <c r="P10" s="62">
-        <f t="shared" si="2"/>
+      <c r="P10" s="69">
         <v>63.55</v>
       </c>
-      <c r="Q10" s="61">
+      <c r="Q10" s="68">
         <v>16.5</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="60">
+      <c r="A11" s="67">
         <v>9</v>
       </c>
-      <c r="B11" s="61">
+      <c r="B11" s="68">
         <v>98.554378887207903</v>
       </c>
-      <c r="C11" s="61">
+      <c r="C11" s="68">
         <v>99.92</v>
       </c>
-      <c r="D11" s="62">
-        <f t="shared" si="0"/>
+      <c r="D11" s="69">
         <v>1.3656211127920983</v>
       </c>
-      <c r="E11" s="61">
+      <c r="E11" s="68">
         <v>96.54</v>
       </c>
-      <c r="G11" s="60">
+      <c r="F11" s="63"/>
+      <c r="G11" s="67">
         <v>9</v>
       </c>
-      <c r="H11" s="61">
+      <c r="H11" s="68">
         <v>97.224975222992995</v>
       </c>
-      <c r="I11" s="61">
+      <c r="I11" s="68">
         <v>98.71</v>
       </c>
-      <c r="J11" s="62">
-        <f t="shared" si="1"/>
+      <c r="J11" s="69">
         <v>1.4850247770069984</v>
       </c>
-      <c r="K11" s="61">
+      <c r="K11" s="68">
         <v>96.38</v>
       </c>
-      <c r="M11" s="60">
+      <c r="L11" s="63"/>
+      <c r="M11" s="67">
         <v>9</v>
       </c>
-      <c r="N11" s="61">
-        <v>0</v>
-      </c>
-      <c r="O11" s="61">
+      <c r="N11" s="68">
+        <v>0</v>
+      </c>
+      <c r="O11" s="68">
         <v>93.06</v>
       </c>
-      <c r="P11" s="62">
-        <f t="shared" si="2"/>
+      <c r="P11" s="69">
         <v>93.06</v>
       </c>
-      <c r="Q11" s="61">
+      <c r="Q11" s="68">
         <v>19.68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="60">
+      <c r="B12" s="67">
         <v>98.99</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="G12" s="60" t="s">
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="H12" s="60">
+      <c r="H12" s="67">
         <v>98.63</v>
       </c>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="M12" s="60" t="s">
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="N12" s="60">
+      <c r="N12" s="67">
         <v>10.38</v>
       </c>
-      <c r="O12" s="60"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="60"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72">
+        <v>96.48</v>
+      </c>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72">
+        <v>96.15</v>
+      </c>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="N13" s="72"/>
+      <c r="O13" s="72">
+        <v>29.73</v>
+      </c>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72">
+        <v>91.24</v>
+      </c>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72">
+        <v>90.75</v>
+      </c>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72">
+        <v>62.94</v>
+      </c>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72">
+        <v>91.65</v>
+      </c>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72">
+        <v>91.27</v>
+      </c>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72">
+        <v>57.85</v>
+      </c>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72">
+        <v>95.18</v>
+      </c>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72">
+        <v>94.39</v>
+      </c>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72">
+        <v>62.94</v>
+      </c>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67">
+        <v>91.65</v>
+      </c>
+      <c r="D17" s="73"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67">
+        <v>91.27</v>
+      </c>
+      <c r="J17" s="67"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72">
+        <v>57.85</v>
+      </c>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="67"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="70"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="70"/>
+    </row>
+    <row r="19" spans="1:17" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="59">
-        <v>3836</v>
-      </c>
-      <c r="G15" s="59" t="s">
-        <v>101</v>
-      </c>
-      <c r="K15" s="59">
-        <v>618</v>
-      </c>
-      <c r="M15" s="59" t="s">
-        <v>101</v>
-      </c>
-      <c r="P15" s="59">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="59" t="s">
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="59">
-        <v>44181</v>
-      </c>
-      <c r="G16" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="K16" s="59">
-        <v>7426</v>
-      </c>
-      <c r="M16" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="P16" s="59">
-        <v>2830</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" s="59">
-        <v>11983</v>
-      </c>
-      <c r="G17" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="K17" s="59">
-        <v>1956</v>
-      </c>
-      <c r="M17" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="P17" s="59">
-        <v>6011</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="59">
-        <v>96.48</v>
-      </c>
-      <c r="D18"/>
-      <c r="G18" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="K18" s="59">
-        <v>96.15</v>
-      </c>
-      <c r="M18" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="P18" s="59">
-        <v>29.73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="P19" s="64"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D20"/>
-      <c r="K20"/>
-      <c r="P20"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D21"/>
-      <c r="K21"/>
-      <c r="P21"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D22"/>
-      <c r="K22"/>
-      <c r="P22"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="63"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="63"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="65"/>
+      <c r="G20" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="H20" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="I20" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="J20" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="L20" s="63"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="63"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="67">
+        <v>0</v>
+      </c>
+      <c r="B21" s="67">
+        <v>98.92</v>
+      </c>
+      <c r="C21" s="67">
+        <v>99.93</v>
+      </c>
+      <c r="D21" s="69">
+        <v>1.0100000000000051</v>
+      </c>
+      <c r="E21" s="67">
+        <v>77.010000000000005</v>
+      </c>
+      <c r="F21" s="63"/>
+      <c r="G21" s="67">
+        <v>0</v>
+      </c>
+      <c r="H21" s="67">
+        <v>99.18</v>
+      </c>
+      <c r="I21" s="67">
+        <v>99.8</v>
+      </c>
+      <c r="J21" s="69">
+        <v>0.61999999999999034</v>
+      </c>
+      <c r="K21" s="67">
+        <v>77.78</v>
+      </c>
+      <c r="L21" s="63"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="63"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="67">
+        <v>1</v>
+      </c>
+      <c r="B22" s="67">
+        <v>97.92</v>
+      </c>
+      <c r="C22" s="67">
+        <v>99.64</v>
+      </c>
+      <c r="D22" s="69">
+        <v>1.7199999999999989</v>
+      </c>
+      <c r="E22" s="67">
+        <v>90</v>
+      </c>
+      <c r="F22" s="63"/>
+      <c r="G22" s="67">
+        <v>1</v>
+      </c>
+      <c r="H22" s="67">
+        <v>98.59</v>
+      </c>
+      <c r="I22" s="67">
+        <v>99.65</v>
+      </c>
+      <c r="J22" s="69">
+        <v>1.0600000000000023</v>
+      </c>
+      <c r="K22" s="67">
+        <v>90.25</v>
+      </c>
+      <c r="L22" s="63"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="63"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="67">
+        <v>2</v>
+      </c>
+      <c r="B23" s="67">
+        <v>97.78</v>
+      </c>
+      <c r="C23" s="67">
+        <v>96.24</v>
+      </c>
+      <c r="D23" s="69">
+        <v>-1.5400000000000063</v>
+      </c>
+      <c r="E23" s="67">
+        <v>75.61</v>
+      </c>
+      <c r="F23" s="63"/>
+      <c r="G23" s="67">
+        <v>2</v>
+      </c>
+      <c r="H23" s="67">
+        <v>97.29</v>
+      </c>
+      <c r="I23" s="67">
+        <v>95.16</v>
+      </c>
+      <c r="J23" s="69">
+        <v>-2.1300000000000097</v>
+      </c>
+      <c r="K23" s="67">
+        <v>76.02</v>
+      </c>
+      <c r="L23" s="63"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="63"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="67">
+        <v>3</v>
+      </c>
+      <c r="B24" s="67">
+        <v>95.84</v>
+      </c>
+      <c r="C24" s="67">
+        <v>99.15</v>
+      </c>
+      <c r="D24" s="69">
+        <v>3.3100000000000023</v>
+      </c>
+      <c r="E24" s="67">
+        <v>85.84</v>
+      </c>
+      <c r="F24" s="63"/>
+      <c r="G24" s="67">
+        <v>3</v>
+      </c>
+      <c r="H24" s="67">
+        <v>95.84</v>
+      </c>
+      <c r="I24" s="67">
+        <v>99.21</v>
+      </c>
+      <c r="J24" s="69">
+        <v>3.3699999999999903</v>
+      </c>
+      <c r="K24" s="67">
+        <v>85.47</v>
+      </c>
+      <c r="L24" s="63"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="63"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="67">
+        <v>4</v>
+      </c>
+      <c r="B25" s="67">
+        <v>98.32</v>
+      </c>
+      <c r="C25" s="67">
+        <v>99.61</v>
+      </c>
+      <c r="D25" s="69">
+        <v>1.2900000000000063</v>
+      </c>
+      <c r="E25" s="67">
+        <v>94.25</v>
+      </c>
+      <c r="F25" s="63"/>
+      <c r="G25" s="67">
+        <v>4</v>
+      </c>
+      <c r="H25" s="67">
+        <v>98.37</v>
+      </c>
+      <c r="I25" s="67">
+        <v>99.59</v>
+      </c>
+      <c r="J25" s="69">
+        <v>1.2199999999999989</v>
+      </c>
+      <c r="K25" s="67">
+        <v>93.98</v>
+      </c>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="63"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="67">
+        <v>5</v>
+      </c>
+      <c r="B26" s="67">
+        <v>98.25</v>
+      </c>
+      <c r="C26" s="67">
+        <v>99.41</v>
+      </c>
+      <c r="D26" s="69">
+        <v>1.1599999999999966</v>
+      </c>
+      <c r="E26" s="67">
+        <v>86.12</v>
+      </c>
+      <c r="F26" s="63"/>
+      <c r="G26" s="67">
+        <v>5</v>
+      </c>
+      <c r="H26" s="67">
+        <v>98.99</v>
+      </c>
+      <c r="I26" s="67">
+        <v>99.78</v>
+      </c>
+      <c r="J26" s="69">
+        <v>0.79000000000000625</v>
+      </c>
+      <c r="K26" s="67">
+        <v>85.67</v>
+      </c>
+      <c r="L26" s="63"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="63"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="67">
+        <v>6</v>
+      </c>
+      <c r="B27" s="67">
+        <v>96.62</v>
+      </c>
+      <c r="C27" s="67">
+        <v>98.51</v>
+      </c>
+      <c r="D27" s="69">
+        <v>1.8900000000000006</v>
+      </c>
+      <c r="E27" s="67">
+        <v>96.6</v>
+      </c>
+      <c r="F27" s="63"/>
+      <c r="G27" s="67">
+        <v>6</v>
+      </c>
+      <c r="H27" s="67">
+        <v>95.72</v>
+      </c>
+      <c r="I27" s="67">
+        <v>97.91</v>
+      </c>
+      <c r="J27" s="69">
+        <v>2.1899999999999977</v>
+      </c>
+      <c r="K27" s="67">
+        <v>96.34</v>
+      </c>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="63"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="67">
+        <v>7</v>
+      </c>
+      <c r="B28" s="67">
+        <v>95.81</v>
+      </c>
+      <c r="C28" s="67">
+        <v>98.48</v>
+      </c>
+      <c r="D28" s="69">
+        <v>2.6700000000000017</v>
+      </c>
+      <c r="E28" s="67">
+        <v>95.75</v>
+      </c>
+      <c r="F28" s="63"/>
+      <c r="G28" s="67">
+        <v>7</v>
+      </c>
+      <c r="H28" s="67">
+        <v>94.74</v>
+      </c>
+      <c r="I28" s="67">
+        <v>98.35</v>
+      </c>
+      <c r="J28" s="69">
+        <v>3.6099999999999994</v>
+      </c>
+      <c r="K28" s="67">
+        <v>95.53</v>
+      </c>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="67">
+        <v>8</v>
+      </c>
+      <c r="B29" s="67">
+        <v>90.75</v>
+      </c>
+      <c r="C29" s="67">
+        <v>96.55</v>
+      </c>
+      <c r="D29" s="69">
+        <v>5.7999999999999972</v>
+      </c>
+      <c r="E29" s="67">
+        <v>95.48</v>
+      </c>
+      <c r="F29" s="63"/>
+      <c r="G29" s="67">
+        <v>7</v>
+      </c>
+      <c r="H29" s="67">
+        <v>89.63</v>
+      </c>
+      <c r="I29" s="67">
+        <v>96.1</v>
+      </c>
+      <c r="J29" s="69">
+        <v>6.4699999999999989</v>
+      </c>
+      <c r="K29" s="67">
+        <v>95.26</v>
+      </c>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="63"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="67">
+        <v>9</v>
+      </c>
+      <c r="B30" s="67">
+        <v>95.55</v>
+      </c>
+      <c r="C30" s="67">
+        <v>99.83</v>
+      </c>
+      <c r="D30" s="69">
+        <v>4.2800000000000011</v>
+      </c>
+      <c r="E30" s="67">
+        <v>73.62</v>
+      </c>
+      <c r="F30" s="63"/>
+      <c r="G30" s="67">
+        <v>9</v>
+      </c>
+      <c r="H30" s="67">
+        <v>94.95</v>
+      </c>
+      <c r="I30" s="67">
+        <v>99.6</v>
+      </c>
+      <c r="J30" s="69">
+        <v>4.6499999999999915</v>
+      </c>
+      <c r="K30" s="67">
+        <v>73.73</v>
+      </c>
+      <c r="L30" s="63"/>
+      <c r="M30" s="63"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="63"/>
+      <c r="P30" s="63"/>
+      <c r="Q30" s="63"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="67">
+        <v>96.58</v>
+      </c>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="H31" s="67">
+        <v>96.34</v>
+      </c>
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="63"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="72"/>
+      <c r="C32" s="72">
+        <v>96.49</v>
+      </c>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72">
+        <v>96.31</v>
+      </c>
+      <c r="J32" s="67"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="63"/>
+      <c r="Q32" s="63"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="72"/>
+      <c r="C33" s="72">
+        <v>74.489999999999995</v>
+      </c>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72">
+        <v>74.31</v>
+      </c>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="K23"/>
-      <c r="P23"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="H24" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="I24" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="J24" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="K24" s="46" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="60">
-        <v>0</v>
-      </c>
-      <c r="B25" s="60">
-        <v>98.92</v>
-      </c>
-      <c r="C25" s="60">
-        <v>99.93</v>
-      </c>
-      <c r="D25" s="62">
-        <f>SUM(C25-B25)</f>
-        <v>1.0100000000000051</v>
-      </c>
-      <c r="E25" s="60">
-        <v>77.010000000000005</v>
-      </c>
-      <c r="G25" s="60">
-        <v>0</v>
-      </c>
-      <c r="H25" s="60">
-        <v>99.18</v>
-      </c>
-      <c r="I25" s="60">
-        <v>99.8</v>
-      </c>
-      <c r="J25" s="62">
-        <f>SUM(I25-H25)</f>
-        <v>0.61999999999999034</v>
-      </c>
-      <c r="K25" s="60">
-        <v>77.78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="60">
-        <v>1</v>
-      </c>
-      <c r="B26" s="60">
-        <v>97.92</v>
-      </c>
-      <c r="C26" s="60">
-        <v>99.64</v>
-      </c>
-      <c r="D26" s="62">
-        <f t="shared" ref="D26:D34" si="3">SUM(C26-B26)</f>
-        <v>1.7199999999999989</v>
-      </c>
-      <c r="E26" s="60">
-        <v>90</v>
-      </c>
-      <c r="G26" s="60">
-        <v>1</v>
-      </c>
-      <c r="H26" s="60">
-        <v>98.59</v>
-      </c>
-      <c r="I26" s="60">
-        <v>99.65</v>
-      </c>
-      <c r="J26" s="62">
-        <f t="shared" ref="J26:J34" si="4">SUM(I26-H26)</f>
-        <v>1.0600000000000023</v>
-      </c>
-      <c r="K26" s="60">
-        <v>90.25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="60">
-        <v>2</v>
-      </c>
-      <c r="B27" s="60">
-        <v>97.78</v>
-      </c>
-      <c r="C27" s="60">
-        <v>96.24</v>
-      </c>
-      <c r="D27" s="62">
-        <f t="shared" si="3"/>
-        <v>-1.5400000000000063</v>
-      </c>
-      <c r="E27" s="60">
-        <v>75.61</v>
-      </c>
-      <c r="G27" s="60">
-        <v>2</v>
-      </c>
-      <c r="H27" s="60">
-        <v>97.29</v>
-      </c>
-      <c r="I27" s="60">
-        <v>95.16</v>
-      </c>
-      <c r="J27" s="62">
-        <f t="shared" si="4"/>
-        <v>-2.1300000000000097</v>
-      </c>
-      <c r="K27" s="60">
-        <v>76.02</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="60">
-        <v>3</v>
-      </c>
-      <c r="B28" s="60">
-        <v>95.84</v>
-      </c>
-      <c r="C28" s="60">
-        <v>99.15</v>
-      </c>
-      <c r="D28" s="62">
-        <f t="shared" si="3"/>
-        <v>3.3100000000000023</v>
-      </c>
-      <c r="E28" s="60">
-        <v>85.84</v>
-      </c>
-      <c r="G28" s="60">
-        <v>3</v>
-      </c>
-      <c r="H28" s="60">
-        <v>95.84</v>
-      </c>
-      <c r="I28" s="60">
-        <v>99.21</v>
-      </c>
-      <c r="J28" s="62">
-        <f t="shared" si="4"/>
-        <v>3.3699999999999903</v>
-      </c>
-      <c r="K28" s="60">
-        <v>85.47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="60">
-        <v>4</v>
-      </c>
-      <c r="B29" s="60">
-        <v>98.32</v>
-      </c>
-      <c r="C29" s="60">
-        <v>99.61</v>
-      </c>
-      <c r="D29" s="62">
-        <f t="shared" si="3"/>
-        <v>1.2900000000000063</v>
-      </c>
-      <c r="E29" s="60">
-        <v>94.25</v>
-      </c>
-      <c r="G29" s="60">
-        <v>4</v>
-      </c>
-      <c r="H29" s="60">
-        <v>98.37</v>
-      </c>
-      <c r="I29" s="60">
-        <v>99.59</v>
-      </c>
-      <c r="J29" s="62">
-        <f t="shared" si="4"/>
-        <v>1.2199999999999989</v>
-      </c>
-      <c r="K29" s="60">
-        <v>93.98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="60">
-        <v>5</v>
-      </c>
-      <c r="B30" s="60">
-        <v>98.25</v>
-      </c>
-      <c r="C30" s="60">
-        <v>99.41</v>
-      </c>
-      <c r="D30" s="62">
-        <f t="shared" si="3"/>
-        <v>1.1599999999999966</v>
-      </c>
-      <c r="E30" s="60">
-        <v>86.12</v>
-      </c>
-      <c r="G30" s="60">
-        <v>5</v>
-      </c>
-      <c r="H30" s="60">
-        <v>98.99</v>
-      </c>
-      <c r="I30" s="60">
-        <v>99.78</v>
-      </c>
-      <c r="J30" s="62">
-        <f t="shared" si="4"/>
-        <v>0.79000000000000625</v>
-      </c>
-      <c r="K30" s="60">
-        <v>85.67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="60">
-        <v>6</v>
-      </c>
-      <c r="B31" s="60">
-        <v>96.62</v>
-      </c>
-      <c r="C31" s="60">
-        <v>98.51</v>
-      </c>
-      <c r="D31" s="62">
-        <f t="shared" si="3"/>
-        <v>1.8900000000000006</v>
-      </c>
-      <c r="E31" s="60">
-        <v>96.6</v>
-      </c>
-      <c r="G31" s="60">
-        <v>6</v>
-      </c>
-      <c r="H31" s="60">
-        <v>95.72</v>
-      </c>
-      <c r="I31" s="60">
-        <v>97.91</v>
-      </c>
-      <c r="J31" s="62">
-        <f t="shared" si="4"/>
-        <v>2.1899999999999977</v>
-      </c>
-      <c r="K31" s="60">
-        <v>96.34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="60">
-        <v>7</v>
-      </c>
-      <c r="B32" s="60">
-        <v>95.81</v>
-      </c>
-      <c r="C32" s="60">
-        <v>98.48</v>
-      </c>
-      <c r="D32" s="62">
-        <f t="shared" si="3"/>
-        <v>2.6700000000000017</v>
-      </c>
-      <c r="E32" s="60">
-        <v>95.75</v>
-      </c>
-      <c r="G32" s="60">
-        <v>7</v>
-      </c>
-      <c r="H32" s="60">
-        <v>94.74</v>
-      </c>
-      <c r="I32" s="60">
-        <v>98.35</v>
-      </c>
-      <c r="J32" s="62">
-        <f t="shared" si="4"/>
-        <v>3.6099999999999994</v>
-      </c>
-      <c r="K32" s="60">
-        <v>95.53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="60">
-        <v>8</v>
-      </c>
-      <c r="B33" s="60">
-        <v>90.75</v>
-      </c>
-      <c r="C33" s="60">
-        <v>96.55</v>
-      </c>
-      <c r="D33" s="62">
-        <f t="shared" si="3"/>
-        <v>5.7999999999999972</v>
-      </c>
-      <c r="E33" s="60">
-        <v>95.48</v>
-      </c>
-      <c r="G33" s="60">
-        <v>8</v>
-      </c>
-      <c r="H33" s="60">
-        <v>89.63</v>
-      </c>
-      <c r="I33" s="60">
-        <v>96.1</v>
-      </c>
-      <c r="J33" s="62">
-        <f t="shared" si="4"/>
-        <v>6.4699999999999989</v>
-      </c>
-      <c r="K33" s="60">
-        <v>95.26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="60">
-        <v>9</v>
-      </c>
-      <c r="B34" s="60">
-        <v>95.55</v>
-      </c>
-      <c r="C34" s="60">
-        <v>99.83</v>
-      </c>
-      <c r="D34" s="62">
-        <f t="shared" si="3"/>
-        <v>4.2800000000000011</v>
-      </c>
-      <c r="E34" s="60">
-        <v>73.62</v>
-      </c>
-      <c r="G34" s="60">
-        <v>9</v>
-      </c>
-      <c r="H34" s="60">
-        <v>94.95</v>
-      </c>
-      <c r="I34" s="60">
-        <v>99.6</v>
-      </c>
-      <c r="J34" s="62">
-        <f t="shared" si="4"/>
-        <v>4.6499999999999915</v>
-      </c>
-      <c r="K34" s="60">
-        <v>73.73</v>
-      </c>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72">
+        <v>79.959999999999994</v>
+      </c>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72">
+        <v>80.069999999999993</v>
+      </c>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="B35" s="60">
-        <v>96.58</v>
-      </c>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="G35" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="H35" s="60">
-        <v>96.34</v>
-      </c>
-      <c r="I35" s="60"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="60"/>
+      <c r="A35" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="72"/>
+      <c r="C35" s="72">
+        <v>90.28</v>
+      </c>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72">
+        <v>90.48</v>
+      </c>
+      <c r="J35" s="67"/>
+      <c r="K35" s="67"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="67"/>
+      <c r="C36" s="67">
+        <v>84.82</v>
+      </c>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67">
+        <v>85.34</v>
+      </c>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8604,22 +8883,22 @@
         <v>93</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>108</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -8941,17 +9220,17 @@
       <c r="A5" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="65" t="s">
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="66"/>
+      <c r="H5" s="62"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="54"/>
@@ -9035,17 +9314,17 @@
       <c r="A9" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="65" t="s">
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="66"/>
+      <c r="H9" s="62"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="54"/>
@@ -9249,17 +9528,17 @@
       <c r="A20" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="65" t="s">
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="H20" s="66"/>
+      <c r="H20" s="62"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="54" t="s">
@@ -9323,17 +9602,17 @@
       <c r="A24" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="65" t="s">
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="H24" s="66"/>
+      <c r="H24" s="62"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="54"/>

--- a/experiments/Consolidated Results from different techniques.xlsx
+++ b/experiments/Consolidated Results from different techniques.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\musman\Desktop\DNN-Repair\experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Muhammad Usman\Desktop\DNN-Repair\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AB1234-2AB4-4412-82C6-CB393C8E3692}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A8FD47-7D10-4285-B644-ECF508D9FF64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="1000" firstSheet="1" activeTab="5" xr2:uid="{6E851A2A-318E-4F15-AEB0-BD2CB026064A}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="1000" firstSheet="1" activeTab="6" xr2:uid="{6E851A2A-318E-4F15-AEB0-BD2CB026064A}"/>
   </bookViews>
   <sheets>
     <sheet name="Pattern Based Repair" sheetId="18" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="146">
   <si>
     <t>LABEL 7</t>
   </si>
@@ -726,7 +726,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -949,6 +949,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -980,9 +986,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1305,18 +1308,18 @@
       <selection activeCell="A92" sqref="A92:L130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="52.77734375" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.7890625" customWidth="1"/>
+    <col min="3" max="3" width="12.20703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.20703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.20703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.3125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7890625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A1" s="64" t="s">
         <v>113</v>
       </c>
@@ -1339,25 +1342,25 @@
       <c r="R1" s="51"/>
       <c r="S1" s="51"/>
     </row>
-    <row r="2" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A2" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="90" t="s">
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="92" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
       <c r="M2" s="51"/>
       <c r="N2" s="51"/>
       <c r="O2" s="51"/>
@@ -1366,7 +1369,7 @@
       <c r="R2" s="51"/>
       <c r="S2" s="51"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="66" t="s">
         <v>116</v>
       </c>
@@ -1411,7 +1414,7 @@
       <c r="R3" s="51"/>
       <c r="S3" s="51"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="42">
         <v>0</v>
       </c>
@@ -1456,7 +1459,7 @@
       <c r="R4" s="51"/>
       <c r="S4" s="51"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="42">
         <f>A4+1</f>
         <v>1</v>
@@ -1503,7 +1506,7 @@
       <c r="R5" s="51"/>
       <c r="S5" s="51"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="42">
         <f t="shared" ref="A6:A13" si="0">A5+1</f>
         <v>2</v>
@@ -1550,7 +1553,7 @@
       <c r="R6" s="51"/>
       <c r="S6" s="51"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="42">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1597,7 +1600,7 @@
       <c r="R7" s="51"/>
       <c r="S7" s="51"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="42">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1644,7 +1647,7 @@
       <c r="R8" s="51"/>
       <c r="S8" s="51"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="42">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1691,7 +1694,7 @@
       <c r="R9" s="51"/>
       <c r="S9" s="51"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="42">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1738,7 +1741,7 @@
       <c r="R10" s="51"/>
       <c r="S10" s="51"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="42">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1785,7 +1788,7 @@
       <c r="R11" s="51"/>
       <c r="S11" s="51"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="42">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1832,7 +1835,7 @@
       <c r="R12" s="51"/>
       <c r="S12" s="51"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="42">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1879,7 +1882,7 @@
       <c r="R13" s="51"/>
       <c r="S13" s="51"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="43" t="s">
         <v>118</v>
       </c>
@@ -1908,7 +1911,7 @@
       <c r="R14" s="51"/>
       <c r="S14" s="51"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="55"/>
       <c r="B15" s="55"/>
       <c r="C15" s="51"/>
@@ -1918,11 +1921,11 @@
       <c r="G15" s="51"/>
       <c r="H15" s="51"/>
       <c r="I15" s="51"/>
-      <c r="J15" s="91" t="s">
+      <c r="J15" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="K15" s="92"/>
-      <c r="L15" s="93"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="95"/>
       <c r="M15" s="51"/>
       <c r="N15" s="51"/>
       <c r="O15" s="51"/>
@@ -1931,7 +1934,7 @@
       <c r="R15" s="51"/>
       <c r="S15" s="51"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="55"/>
       <c r="B16" s="55"/>
       <c r="C16" s="51"/>
@@ -1956,7 +1959,7 @@
       <c r="R16" s="51"/>
       <c r="S16" s="51"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="55"/>
       <c r="B17" s="55"/>
       <c r="C17" s="51"/>
@@ -1981,7 +1984,7 @@
       <c r="R17" s="51"/>
       <c r="S17" s="51"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="55"/>
       <c r="B18" s="55"/>
       <c r="C18" s="51"/>
@@ -2006,7 +2009,7 @@
       <c r="R18" s="51"/>
       <c r="S18" s="51"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="55"/>
       <c r="B19" s="55"/>
       <c r="C19" s="51"/>
@@ -2031,7 +2034,7 @@
       <c r="R19" s="51"/>
       <c r="S19" s="51"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="55"/>
       <c r="B20" s="55"/>
       <c r="C20" s="51"/>
@@ -2056,7 +2059,7 @@
       <c r="R20" s="51"/>
       <c r="S20" s="51"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="55"/>
       <c r="B21" s="55"/>
       <c r="C21" s="51"/>
@@ -2081,7 +2084,7 @@
       <c r="R21" s="51"/>
       <c r="S21" s="51"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="55"/>
       <c r="B22" s="55"/>
       <c r="C22" s="51"/>
@@ -2102,18 +2105,18 @@
       <c r="R22" s="51"/>
       <c r="S22" s="51"/>
     </row>
-    <row r="23" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A23" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="B23" s="90" t="s">
+      <c r="B23" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90" t="s">
+      <c r="C23" s="92"/>
+      <c r="D23" s="92" t="s">
         <v>90</v>
       </c>
-      <c r="E23" s="90"/>
+      <c r="E23" s="92"/>
       <c r="F23" s="51"/>
       <c r="G23" s="51"/>
       <c r="H23" s="55"/>
@@ -2129,7 +2132,7 @@
       <c r="R23" s="51"/>
       <c r="S23" s="51"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="42"/>
       <c r="B24" s="43" t="s">
         <v>5</v>
@@ -2158,7 +2161,7 @@
       <c r="R24" s="51"/>
       <c r="S24" s="51"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="43" t="s">
         <v>118</v>
       </c>
@@ -2189,7 +2192,7 @@
       <c r="R25" s="51"/>
       <c r="S25" s="51"/>
     </row>
-    <row r="26" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A26" s="31"/>
       <c r="B26" s="55"/>
       <c r="C26" s="51"/>
@@ -2210,7 +2213,7 @@
       <c r="R26" s="51"/>
       <c r="S26" s="51"/>
     </row>
-    <row r="27" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A27" s="31"/>
       <c r="B27" s="55"/>
       <c r="C27" s="51"/>
@@ -2231,7 +2234,7 @@
       <c r="R27" s="51"/>
       <c r="S27" s="51"/>
     </row>
-    <row r="28" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A28" s="64" t="s">
         <v>126</v>
       </c>
@@ -2254,36 +2257,36 @@
       <c r="R28" s="51"/>
       <c r="S28" s="51"/>
     </row>
-    <row r="29" spans="1:19" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A29" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="B29" s="90" t="s">
+      <c r="B29" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="90" t="s">
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="97"/>
+      <c r="J29" s="92" t="s">
         <v>128</v>
       </c>
-      <c r="K29" s="90"/>
-      <c r="L29" s="90"/>
-      <c r="M29" s="90" t="s">
+      <c r="K29" s="92"/>
+      <c r="L29" s="92"/>
+      <c r="M29" s="92" t="s">
         <v>90</v>
       </c>
-      <c r="N29" s="90"/>
-      <c r="O29" s="90"/>
+      <c r="N29" s="92"/>
+      <c r="O29" s="92"/>
       <c r="P29" s="51"/>
       <c r="Q29" s="51"/>
       <c r="R29" s="51"/>
       <c r="S29" s="51"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="66" t="s">
         <v>116</v>
       </c>
@@ -2334,7 +2337,7 @@
       <c r="R30" s="51"/>
       <c r="S30" s="51"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="42">
         <v>0</v>
       </c>
@@ -2385,7 +2388,7 @@
       <c r="R31" s="51"/>
       <c r="S31" s="51"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="42">
         <f>A31+1</f>
         <v>1</v>
@@ -2440,7 +2443,7 @@
       <c r="R32" s="51"/>
       <c r="S32" s="51"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="42">
         <f t="shared" ref="A33:A40" si="2">A32+1</f>
         <v>2</v>
@@ -2495,7 +2498,7 @@
       <c r="R33" s="51"/>
       <c r="S33" s="51"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="42">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -2550,7 +2553,7 @@
       <c r="R34" s="51"/>
       <c r="S34" s="51"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="42">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -2605,7 +2608,7 @@
       <c r="R35" s="51"/>
       <c r="S35" s="51"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="42">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -2660,7 +2663,7 @@
       <c r="R36" s="51"/>
       <c r="S36" s="51"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="42">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -2715,7 +2718,7 @@
       <c r="R37" s="51"/>
       <c r="S37" s="51"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="42">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -2770,7 +2773,7 @@
       <c r="R38" s="51"/>
       <c r="S38" s="51"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="42">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -2825,7 +2828,7 @@
       <c r="R39" s="51"/>
       <c r="S39" s="51"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="42">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -2880,7 +2883,7 @@
       <c r="R40" s="51"/>
       <c r="S40" s="51"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="43" t="s">
         <v>118</v>
       </c>
@@ -2913,7 +2916,7 @@
       <c r="R41" s="51"/>
       <c r="S41" s="51"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="55"/>
       <c r="B42" s="55"/>
       <c r="C42" s="51"/>
@@ -2923,22 +2926,22 @@
       <c r="G42" s="51"/>
       <c r="H42" s="51"/>
       <c r="I42" s="51"/>
-      <c r="J42" s="91" t="s">
+      <c r="J42" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="K42" s="92"/>
-      <c r="L42" s="93"/>
-      <c r="M42" s="91" t="s">
+      <c r="K42" s="94"/>
+      <c r="L42" s="95"/>
+      <c r="M42" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="N42" s="92"/>
-      <c r="O42" s="93"/>
+      <c r="N42" s="94"/>
+      <c r="O42" s="95"/>
       <c r="P42" s="51"/>
       <c r="Q42" s="51"/>
       <c r="R42" s="51"/>
       <c r="S42" s="51"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="55"/>
       <c r="B43" s="55"/>
       <c r="C43" s="51"/>
@@ -2973,7 +2976,7 @@
       <c r="R43" s="51"/>
       <c r="S43" s="51"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="55"/>
       <c r="B44" s="55"/>
       <c r="C44" s="51"/>
@@ -3008,7 +3011,7 @@
       <c r="R44" s="51"/>
       <c r="S44" s="51"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="55"/>
       <c r="B45" s="55"/>
       <c r="C45" s="51"/>
@@ -3043,7 +3046,7 @@
       <c r="R45" s="51"/>
       <c r="S45" s="51"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="55"/>
       <c r="B46" s="55"/>
       <c r="C46" s="51"/>
@@ -3078,7 +3081,7 @@
       <c r="R46" s="51"/>
       <c r="S46" s="51"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="55"/>
       <c r="B47" s="55"/>
       <c r="C47" s="51"/>
@@ -3113,7 +3116,7 @@
       <c r="R47" s="51"/>
       <c r="S47" s="51"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="76"/>
       <c r="B48" s="55"/>
       <c r="C48" s="55"/>
@@ -3148,16 +3151,16 @@
       <c r="R48" s="51"/>
       <c r="S48" s="51"/>
     </row>
-    <row r="49" spans="1:19" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A49" s="94" t="s">
+    <row r="49" spans="1:19" ht="19.2" x14ac:dyDescent="0.7">
+      <c r="A49" s="96" t="s">
         <v>129</v>
       </c>
-      <c r="B49" s="94"/>
-      <c r="C49" s="94"/>
-      <c r="D49" s="94"/>
-      <c r="E49" s="94"/>
-      <c r="F49" s="94"/>
-      <c r="G49" s="94"/>
+      <c r="B49" s="96"/>
+      <c r="C49" s="96"/>
+      <c r="D49" s="96"/>
+      <c r="E49" s="96"/>
+      <c r="F49" s="96"/>
+      <c r="G49" s="96"/>
       <c r="H49" s="55"/>
       <c r="I49" s="55"/>
       <c r="J49" s="55"/>
@@ -3171,18 +3174,18 @@
       <c r="R49" s="51"/>
       <c r="S49" s="51"/>
     </row>
-    <row r="50" spans="1:19" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" ht="32.4" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A50" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="B50" s="90" t="s">
+      <c r="B50" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="C50" s="90"/>
-      <c r="D50" s="90" t="s">
+      <c r="C50" s="92"/>
+      <c r="D50" s="92" t="s">
         <v>128</v>
       </c>
-      <c r="E50" s="90"/>
+      <c r="E50" s="92"/>
       <c r="F50" s="43" t="s">
         <v>131</v>
       </c>
@@ -3200,7 +3203,7 @@
       <c r="R50" s="51"/>
       <c r="S50" s="51"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="42"/>
       <c r="B51" s="43" t="s">
         <v>5</v>
@@ -3233,7 +3236,7 @@
       <c r="R51" s="51"/>
       <c r="S51" s="51"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="43" t="s">
         <v>118</v>
       </c>
@@ -3264,7 +3267,7 @@
       <c r="R52" s="51"/>
       <c r="S52" s="51"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="42"/>
       <c r="B53" s="42"/>
       <c r="C53" s="42"/>
@@ -3285,7 +3288,7 @@
       <c r="R53" s="51"/>
       <c r="S53" s="51"/>
     </row>
-    <row r="54" spans="1:19" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" ht="26.4" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A54" s="65" t="s">
         <v>132</v>
       </c>
@@ -3308,16 +3311,16 @@
       <c r="R54" s="51"/>
       <c r="S54" s="51"/>
     </row>
-    <row r="55" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A55" s="65"/>
-      <c r="B55" s="90" t="s">
+      <c r="B55" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="C55" s="90"/>
-      <c r="D55" s="90" t="s">
+      <c r="C55" s="92"/>
+      <c r="D55" s="92" t="s">
         <v>128</v>
       </c>
-      <c r="E55" s="90"/>
+      <c r="E55" s="92"/>
       <c r="F55" s="43" t="s">
         <v>131</v>
       </c>
@@ -3335,7 +3338,7 @@
       <c r="R55" s="51"/>
       <c r="S55" s="51"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="42"/>
       <c r="B56" s="43" t="s">
         <v>5</v>
@@ -3368,7 +3371,7 @@
       <c r="R56" s="51"/>
       <c r="S56" s="51"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="43" t="s">
         <v>118</v>
       </c>
@@ -3403,7 +3406,7 @@
       <c r="R57" s="51"/>
       <c r="S57" s="51"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="42"/>
       <c r="B58" s="75"/>
       <c r="C58" s="72"/>
@@ -3424,18 +3427,18 @@
       <c r="R58" s="51"/>
       <c r="S58" s="51"/>
     </row>
-    <row r="59" spans="1:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A59" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="B59" s="90" t="s">
+      <c r="B59" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="C59" s="90"/>
-      <c r="D59" s="90" t="s">
+      <c r="C59" s="92"/>
+      <c r="D59" s="92" t="s">
         <v>128</v>
       </c>
-      <c r="E59" s="90"/>
+      <c r="E59" s="92"/>
       <c r="F59" s="43" t="s">
         <v>131</v>
       </c>
@@ -3453,7 +3456,7 @@
       <c r="R59" s="51"/>
       <c r="S59" s="51"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="42"/>
       <c r="B60" s="43" t="s">
         <v>5</v>
@@ -3486,7 +3489,7 @@
       <c r="R60" s="51"/>
       <c r="S60" s="51"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="42"/>
       <c r="B61" s="42">
         <v>98.988299999999995</v>
@@ -3515,7 +3518,7 @@
       <c r="R61" s="51"/>
       <c r="S61" s="51"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="51"/>
       <c r="B62" s="34"/>
       <c r="C62" s="15"/>
@@ -3536,7 +3539,7 @@
       <c r="R62" s="51"/>
       <c r="S62" s="51"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="51"/>
       <c r="B63" s="34"/>
       <c r="C63" s="15"/>
@@ -3557,7 +3560,7 @@
       <c r="R63" s="51"/>
       <c r="S63" s="51"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="51"/>
       <c r="B64" s="34"/>
       <c r="C64" s="15"/>
@@ -3578,7 +3581,7 @@
       <c r="R64" s="51"/>
       <c r="S64" s="51"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="55" t="s">
         <v>134</v>
       </c>
@@ -3601,7 +3604,7 @@
       <c r="R65" s="51"/>
       <c r="S65" s="51"/>
     </row>
-    <row r="66" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A66" s="79" t="s">
         <v>45</v>
       </c>
@@ -3624,7 +3627,7 @@
       <c r="R66" s="51"/>
       <c r="S66" s="51"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="80" t="s">
         <v>46</v>
       </c>
@@ -3669,7 +3672,7 @@
       <c r="R67" s="51"/>
       <c r="S67" s="51"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="78">
         <v>0</v>
       </c>
@@ -3714,7 +3717,7 @@
       <c r="R68" s="51"/>
       <c r="S68" s="51"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="78">
         <f>A68+1</f>
         <v>1</v>
@@ -3760,7 +3763,7 @@
       <c r="R69" s="51"/>
       <c r="S69" s="51"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="78">
         <f t="shared" ref="A70:A77" si="6">A69+1</f>
         <v>2</v>
@@ -3806,7 +3809,7 @@
       <c r="R70" s="51"/>
       <c r="S70" s="51"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="78">
         <f t="shared" si="6"/>
         <v>3</v>
@@ -3852,7 +3855,7 @@
       <c r="R71" s="51"/>
       <c r="S71" s="51"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="78">
         <f t="shared" si="6"/>
         <v>4</v>
@@ -3898,7 +3901,7 @@
       <c r="R72" s="51"/>
       <c r="S72" s="51"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="78">
         <f t="shared" si="6"/>
         <v>5</v>
@@ -3944,7 +3947,7 @@
       <c r="R73" s="51"/>
       <c r="S73" s="51"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="78">
         <f t="shared" si="6"/>
         <v>6</v>
@@ -3990,7 +3993,7 @@
       <c r="R74" s="51"/>
       <c r="S74" s="51"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="78">
         <f t="shared" si="6"/>
         <v>7</v>
@@ -4036,7 +4039,7 @@
       <c r="R75" s="51"/>
       <c r="S75" s="51"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="78">
         <f t="shared" si="6"/>
         <v>8</v>
@@ -4082,7 +4085,7 @@
       <c r="R76" s="51"/>
       <c r="S76" s="51"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="78">
         <f t="shared" si="6"/>
         <v>9</v>
@@ -4128,7 +4131,7 @@
       <c r="R77" s="51"/>
       <c r="S77" s="51"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="78"/>
       <c r="B78" s="78"/>
       <c r="C78" s="78"/>
@@ -4149,7 +4152,7 @@
       <c r="R78" s="51"/>
       <c r="S78" s="51"/>
     </row>
-    <row r="79" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A79" s="79" t="s">
         <v>42</v>
       </c>
@@ -4172,7 +4175,7 @@
       <c r="R79" s="51"/>
       <c r="S79" s="51"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="80" t="s">
         <v>47</v>
       </c>
@@ -4217,7 +4220,7 @@
       <c r="R80" s="51"/>
       <c r="S80" s="51"/>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="78">
         <v>0</v>
       </c>
@@ -4262,7 +4265,7 @@
       <c r="R81" s="51"/>
       <c r="S81" s="51"/>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="78">
         <f>A81+1</f>
         <v>1</v>
@@ -4308,7 +4311,7 @@
       <c r="R82" s="51"/>
       <c r="S82" s="51"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="78">
         <f t="shared" ref="A83:A90" si="7">A82+1</f>
         <v>2</v>
@@ -4354,7 +4357,7 @@
       <c r="R83" s="51"/>
       <c r="S83" s="51"/>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="78">
         <f t="shared" si="7"/>
         <v>3</v>
@@ -4400,7 +4403,7 @@
       <c r="R84" s="51"/>
       <c r="S84" s="51"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="78">
         <f t="shared" si="7"/>
         <v>4</v>
@@ -4446,7 +4449,7 @@
       <c r="R85" s="51"/>
       <c r="S85" s="51"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="78">
         <f t="shared" si="7"/>
         <v>5</v>
@@ -4492,7 +4495,7 @@
       <c r="R86" s="51"/>
       <c r="S86" s="51"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="78">
         <f t="shared" si="7"/>
         <v>6</v>
@@ -4538,7 +4541,7 @@
       <c r="R87" s="51"/>
       <c r="S87" s="51"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="78">
         <f t="shared" si="7"/>
         <v>7</v>
@@ -4584,7 +4587,7 @@
       <c r="R88" s="51"/>
       <c r="S88" s="51"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="78">
         <f t="shared" si="7"/>
         <v>8</v>
@@ -4630,7 +4633,7 @@
       <c r="R89" s="51"/>
       <c r="S89" s="51"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="78">
         <f t="shared" si="7"/>
         <v>9</v>
@@ -4676,7 +4679,7 @@
       <c r="R90" s="51"/>
       <c r="S90" s="51"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="51"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
@@ -4697,7 +4700,7 @@
       <c r="R91" s="51"/>
       <c r="S91" s="51"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="55" t="s">
         <v>134</v>
       </c>
@@ -4720,7 +4723,7 @@
       <c r="R92" s="51"/>
       <c r="S92" s="51"/>
     </row>
-    <row r="93" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A93" s="79" t="s">
         <v>45</v>
       </c>
@@ -4743,7 +4746,7 @@
       <c r="R93" s="51"/>
       <c r="S93" s="51"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="84" t="s">
         <v>44</v>
       </c>
@@ -4788,7 +4791,7 @@
       <c r="R94" s="51"/>
       <c r="S94" s="51"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="78">
         <v>0</v>
       </c>
@@ -4833,7 +4836,7 @@
       <c r="R95" s="51"/>
       <c r="S95" s="51"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="78">
         <f>A95+1</f>
         <v>1</v>
@@ -4879,7 +4882,7 @@
       <c r="R96" s="51"/>
       <c r="S96" s="51"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="78">
         <f t="shared" ref="A97:A104" si="8">A96+1</f>
         <v>2</v>
@@ -4925,7 +4928,7 @@
       <c r="R97" s="51"/>
       <c r="S97" s="51"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="78">
         <f t="shared" si="8"/>
         <v>3</v>
@@ -4971,7 +4974,7 @@
       <c r="R98" s="51"/>
       <c r="S98" s="51"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="78">
         <f t="shared" si="8"/>
         <v>4</v>
@@ -5017,7 +5020,7 @@
       <c r="R99" s="51"/>
       <c r="S99" s="51"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="78">
         <f t="shared" si="8"/>
         <v>5</v>
@@ -5063,7 +5066,7 @@
       <c r="R100" s="51"/>
       <c r="S100" s="51"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="78">
         <f t="shared" si="8"/>
         <v>6</v>
@@ -5109,7 +5112,7 @@
       <c r="R101" s="51"/>
       <c r="S101" s="51"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="78">
         <f t="shared" si="8"/>
         <v>7</v>
@@ -5155,7 +5158,7 @@
       <c r="R102" s="51"/>
       <c r="S102" s="51"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="78">
         <f t="shared" si="8"/>
         <v>8</v>
@@ -5201,7 +5204,7 @@
       <c r="R103" s="51"/>
       <c r="S103" s="51"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="78">
         <f t="shared" si="8"/>
         <v>9</v>
@@ -5247,7 +5250,7 @@
       <c r="R104" s="51"/>
       <c r="S104" s="51"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="78"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
@@ -5268,7 +5271,7 @@
       <c r="R105" s="51"/>
       <c r="S105" s="51"/>
     </row>
-    <row r="106" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A106" s="79" t="s">
         <v>42</v>
       </c>
@@ -5291,7 +5294,7 @@
       <c r="R106" s="51"/>
       <c r="S106" s="51"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="84" t="s">
         <v>44</v>
       </c>
@@ -5336,7 +5339,7 @@
       <c r="R107" s="51"/>
       <c r="S107" s="51"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="78">
         <v>0</v>
       </c>
@@ -5381,7 +5384,7 @@
       <c r="R108" s="51"/>
       <c r="S108" s="51"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="78">
         <f>A108+1</f>
         <v>1</v>
@@ -5427,7 +5430,7 @@
       <c r="R109" s="51"/>
       <c r="S109" s="51"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="78">
         <f t="shared" ref="A110:A117" si="9">A109+1</f>
         <v>2</v>
@@ -5473,7 +5476,7 @@
       <c r="R110" s="51"/>
       <c r="S110" s="51"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="78">
         <f t="shared" si="9"/>
         <v>3</v>
@@ -5519,7 +5522,7 @@
       <c r="R111" s="51"/>
       <c r="S111" s="51"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="78">
         <f t="shared" si="9"/>
         <v>4</v>
@@ -5565,7 +5568,7 @@
       <c r="R112" s="51"/>
       <c r="S112" s="51"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="78">
         <f t="shared" si="9"/>
         <v>5</v>
@@ -5611,7 +5614,7 @@
       <c r="R113" s="51"/>
       <c r="S113" s="51"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="78">
         <f t="shared" si="9"/>
         <v>6</v>
@@ -5657,7 +5660,7 @@
       <c r="R114" s="51"/>
       <c r="S114" s="51"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="78">
         <f t="shared" si="9"/>
         <v>7</v>
@@ -5703,7 +5706,7 @@
       <c r="R115" s="51"/>
       <c r="S115" s="51"/>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="78">
         <f t="shared" si="9"/>
         <v>8</v>
@@ -5749,7 +5752,7 @@
       <c r="R116" s="51"/>
       <c r="S116" s="51"/>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="78">
         <f t="shared" si="9"/>
         <v>9</v>
@@ -5795,7 +5798,7 @@
       <c r="R117" s="51"/>
       <c r="S117" s="51"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="78"/>
       <c r="B118" s="78"/>
       <c r="C118" s="78"/>
@@ -5816,7 +5819,7 @@
       <c r="R118" s="51"/>
       <c r="S118" s="51"/>
     </row>
-    <row r="119" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A119" s="79" t="s">
         <v>42</v>
       </c>
@@ -5839,7 +5842,7 @@
       <c r="R119" s="51"/>
       <c r="S119" s="51"/>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="84" t="s">
         <v>43</v>
       </c>
@@ -5884,7 +5887,7 @@
       <c r="R120" s="51"/>
       <c r="S120" s="51"/>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="78">
         <v>0</v>
       </c>
@@ -5929,7 +5932,7 @@
       <c r="R121" s="51"/>
       <c r="S121" s="51"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="78">
         <f>A121+1</f>
         <v>1</v>
@@ -5975,7 +5978,7 @@
       <c r="R122" s="51"/>
       <c r="S122" s="51"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="78">
         <f t="shared" ref="A123:A130" si="10">A122+1</f>
         <v>2</v>
@@ -6021,7 +6024,7 @@
       <c r="R123" s="51"/>
       <c r="S123" s="51"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="78">
         <f t="shared" si="10"/>
         <v>3</v>
@@ -6067,7 +6070,7 @@
       <c r="R124" s="51"/>
       <c r="S124" s="51"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="78">
         <f t="shared" si="10"/>
         <v>4</v>
@@ -6113,7 +6116,7 @@
       <c r="R125" s="51"/>
       <c r="S125" s="51"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="78">
         <f t="shared" si="10"/>
         <v>5</v>
@@ -6159,7 +6162,7 @@
       <c r="R126" s="51"/>
       <c r="S126" s="51"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="78">
         <f t="shared" si="10"/>
         <v>6</v>
@@ -6205,7 +6208,7 @@
       <c r="R127" s="51"/>
       <c r="S127" s="51"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="78">
         <f t="shared" si="10"/>
         <v>7</v>
@@ -6251,7 +6254,7 @@
       <c r="R128" s="51"/>
       <c r="S128" s="51"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="78">
         <f t="shared" si="10"/>
         <v>8</v>
@@ -6297,7 +6300,7 @@
       <c r="R129" s="51"/>
       <c r="S129" s="51"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="78">
         <f t="shared" si="10"/>
         <v>9</v>
@@ -6343,7 +6346,7 @@
       <c r="R130" s="51"/>
       <c r="S130" s="51"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="51"/>
       <c r="B131" s="51"/>
       <c r="C131" s="51"/>
@@ -6364,7 +6367,7 @@
       <c r="R131" s="51"/>
       <c r="S131" s="51"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="51"/>
       <c r="B132" s="51"/>
       <c r="C132" s="51"/>
@@ -6385,7 +6388,7 @@
       <c r="R132" s="51"/>
       <c r="S132" s="51"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="51"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
@@ -6406,7 +6409,7 @@
       <c r="R133" s="51"/>
       <c r="S133" s="51"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="51"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
@@ -6427,7 +6430,7 @@
       <c r="R134" s="51"/>
       <c r="S134" s="51"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="51"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
@@ -6448,7 +6451,7 @@
       <c r="R135" s="51"/>
       <c r="S135" s="51"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="51"/>
       <c r="B136" s="51"/>
       <c r="C136" s="51"/>
@@ -6469,7 +6472,7 @@
       <c r="R136" s="51"/>
       <c r="S136" s="51"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="51"/>
       <c r="B137" s="51"/>
       <c r="C137" s="51"/>
@@ -6490,7 +6493,7 @@
       <c r="R137" s="51"/>
       <c r="S137" s="51"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="51"/>
       <c r="B138" s="51"/>
       <c r="C138" s="51"/>
@@ -6511,7 +6514,7 @@
       <c r="R138" s="51"/>
       <c r="S138" s="51"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="51"/>
       <c r="B139" s="51"/>
       <c r="C139" s="51"/>
@@ -6532,7 +6535,7 @@
       <c r="R139" s="51"/>
       <c r="S139" s="51"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="51"/>
       <c r="B140" s="51"/>
       <c r="C140" s="51"/>
@@ -6553,7 +6556,7 @@
       <c r="R140" s="51"/>
       <c r="S140" s="51"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="51"/>
       <c r="B141" s="51"/>
       <c r="C141" s="51"/>
@@ -6574,7 +6577,7 @@
       <c r="R141" s="51"/>
       <c r="S141" s="51"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="51"/>
       <c r="B142" s="51"/>
       <c r="C142" s="51"/>
@@ -6595,7 +6598,7 @@
       <c r="R142" s="51"/>
       <c r="S142" s="51"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="51"/>
       <c r="B143" s="51"/>
       <c r="C143" s="51"/>
@@ -6616,7 +6619,7 @@
       <c r="R143" s="51"/>
       <c r="S143" s="51"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="51"/>
       <c r="B144" s="51"/>
       <c r="C144" s="51"/>
@@ -6637,7 +6640,7 @@
       <c r="R144" s="51"/>
       <c r="S144" s="51"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="51"/>
       <c r="B145" s="51"/>
       <c r="C145" s="51"/>
@@ -6658,7 +6661,7 @@
       <c r="R145" s="51"/>
       <c r="S145" s="51"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="51"/>
       <c r="B146" s="51"/>
       <c r="C146" s="51"/>
@@ -6679,7 +6682,7 @@
       <c r="R146" s="51"/>
       <c r="S146" s="51"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="51"/>
       <c r="B147" s="51"/>
       <c r="C147" s="51"/>
@@ -6700,7 +6703,7 @@
       <c r="R147" s="51"/>
       <c r="S147" s="51"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="51"/>
       <c r="B148" s="51"/>
       <c r="C148" s="51"/>
@@ -6721,7 +6724,7 @@
       <c r="R148" s="51"/>
       <c r="S148" s="51"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="51"/>
       <c r="B149" s="51"/>
       <c r="C149" s="51"/>
@@ -6742,7 +6745,7 @@
       <c r="R149" s="51"/>
       <c r="S149" s="51"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="51"/>
       <c r="B150" s="51"/>
       <c r="C150" s="51"/>
@@ -6763,7 +6766,7 @@
       <c r="R150" s="51"/>
       <c r="S150" s="51"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="51"/>
       <c r="B151" s="51"/>
       <c r="C151" s="51"/>
@@ -6784,7 +6787,7 @@
       <c r="R151" s="51"/>
       <c r="S151" s="51"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="51"/>
       <c r="B152" s="51"/>
       <c r="C152" s="51"/>
@@ -6805,7 +6808,7 @@
       <c r="R152" s="51"/>
       <c r="S152" s="51"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="51"/>
       <c r="B153" s="51"/>
       <c r="C153" s="51"/>
@@ -6826,7 +6829,7 @@
       <c r="R153" s="51"/>
       <c r="S153" s="51"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="51"/>
       <c r="B154" s="51"/>
       <c r="C154" s="51"/>
@@ -6847,7 +6850,7 @@
       <c r="R154" s="51"/>
       <c r="S154" s="51"/>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="51"/>
       <c r="B155" s="51"/>
       <c r="C155" s="51"/>
@@ -6868,7 +6871,7 @@
       <c r="R155" s="51"/>
       <c r="S155" s="51"/>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="51"/>
       <c r="B156" s="51"/>
       <c r="C156" s="51"/>
@@ -6889,7 +6892,7 @@
       <c r="R156" s="51"/>
       <c r="S156" s="51"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="51"/>
       <c r="B157" s="51"/>
       <c r="C157" s="51"/>
@@ -6910,7 +6913,7 @@
       <c r="R157" s="51"/>
       <c r="S157" s="51"/>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="51"/>
       <c r="B158" s="51"/>
       <c r="C158" s="51"/>
@@ -6931,7 +6934,7 @@
       <c r="R158" s="51"/>
       <c r="S158" s="51"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="51"/>
       <c r="B159" s="51"/>
       <c r="C159" s="51"/>
@@ -6952,7 +6955,7 @@
       <c r="R159" s="51"/>
       <c r="S159" s="51"/>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="51"/>
       <c r="B160" s="51"/>
       <c r="C160" s="51"/>
@@ -6973,7 +6976,7 @@
       <c r="R160" s="51"/>
       <c r="S160" s="51"/>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="51"/>
       <c r="B161" s="51"/>
       <c r="C161" s="51"/>
@@ -6994,7 +6997,7 @@
       <c r="R161" s="51"/>
       <c r="S161" s="51"/>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="51"/>
       <c r="B162" s="51"/>
       <c r="C162" s="51"/>
@@ -7015,7 +7018,7 @@
       <c r="R162" s="51"/>
       <c r="S162" s="51"/>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="51"/>
       <c r="B163" s="51"/>
       <c r="C163" s="51"/>
@@ -7036,7 +7039,7 @@
       <c r="R163" s="51"/>
       <c r="S163" s="51"/>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="51"/>
       <c r="B164" s="51"/>
       <c r="C164" s="51"/>
@@ -7057,7 +7060,7 @@
       <c r="R164" s="51"/>
       <c r="S164" s="51"/>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="51"/>
       <c r="B165" s="51"/>
       <c r="C165" s="51"/>
@@ -7078,7 +7081,7 @@
       <c r="R165" s="51"/>
       <c r="S165" s="51"/>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="51"/>
       <c r="B166" s="51"/>
       <c r="C166" s="51"/>
@@ -7099,7 +7102,7 @@
       <c r="R166" s="51"/>
       <c r="S166" s="51"/>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="51"/>
       <c r="B167" s="51"/>
       <c r="C167" s="51"/>
@@ -7120,7 +7123,7 @@
       <c r="R167" s="51"/>
       <c r="S167" s="51"/>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="51"/>
       <c r="B168" s="51"/>
       <c r="C168" s="51"/>
@@ -7141,7 +7144,7 @@
       <c r="R168" s="51"/>
       <c r="S168" s="51"/>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="51"/>
       <c r="B169" s="51"/>
       <c r="C169" s="51"/>
@@ -7162,7 +7165,7 @@
       <c r="R169" s="51"/>
       <c r="S169" s="51"/>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="51"/>
       <c r="B170" s="51"/>
       <c r="C170" s="51"/>
@@ -7183,7 +7186,7 @@
       <c r="R170" s="51"/>
       <c r="S170" s="51"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="51"/>
       <c r="B171" s="51"/>
       <c r="C171" s="51"/>
@@ -7204,7 +7207,7 @@
       <c r="R171" s="51"/>
       <c r="S171" s="51"/>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="51"/>
       <c r="B172" s="51"/>
       <c r="C172" s="51"/>
@@ -7225,7 +7228,7 @@
       <c r="R172" s="51"/>
       <c r="S172" s="51"/>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="51"/>
       <c r="B173" s="51"/>
       <c r="C173" s="51"/>
@@ -7246,7 +7249,7 @@
       <c r="R173" s="51"/>
       <c r="S173" s="51"/>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="51"/>
       <c r="B174" s="51"/>
       <c r="C174" s="51"/>
@@ -7267,7 +7270,7 @@
       <c r="R174" s="51"/>
       <c r="S174" s="51"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="51"/>
       <c r="B175" s="51"/>
       <c r="C175" s="51"/>
@@ -7288,7 +7291,7 @@
       <c r="R175" s="51"/>
       <c r="S175" s="51"/>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="51"/>
       <c r="B176" s="51"/>
       <c r="C176" s="51"/>
@@ -7309,7 +7312,7 @@
       <c r="R176" s="51"/>
       <c r="S176" s="51"/>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="51"/>
       <c r="B177" s="51"/>
       <c r="C177" s="51"/>
@@ -7330,7 +7333,7 @@
       <c r="R177" s="51"/>
       <c r="S177" s="51"/>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="51"/>
       <c r="B178" s="51"/>
       <c r="C178" s="51"/>
@@ -7351,7 +7354,7 @@
       <c r="R178" s="51"/>
       <c r="S178" s="51"/>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="51"/>
       <c r="B179" s="51"/>
       <c r="C179" s="51"/>
@@ -7372,7 +7375,7 @@
       <c r="R179" s="51"/>
       <c r="S179" s="51"/>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="51"/>
       <c r="B180" s="51"/>
       <c r="C180" s="51"/>
@@ -7393,7 +7396,7 @@
       <c r="R180" s="51"/>
       <c r="S180" s="51"/>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="51"/>
       <c r="B181" s="51"/>
       <c r="C181" s="51"/>
@@ -7414,7 +7417,7 @@
       <c r="R181" s="51"/>
       <c r="S181" s="51"/>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="51"/>
       <c r="B182" s="51"/>
       <c r="C182" s="51"/>
@@ -7435,7 +7438,7 @@
       <c r="R182" s="51"/>
       <c r="S182" s="51"/>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="51"/>
       <c r="B183" s="51"/>
       <c r="C183" s="51"/>
@@ -7456,7 +7459,7 @@
       <c r="R183" s="51"/>
       <c r="S183" s="51"/>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="51"/>
       <c r="B184" s="51"/>
       <c r="C184" s="51"/>
@@ -7477,7 +7480,7 @@
       <c r="R184" s="51"/>
       <c r="S184" s="51"/>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="51"/>
       <c r="B185" s="51"/>
       <c r="C185" s="51"/>
@@ -7498,7 +7501,7 @@
       <c r="R185" s="51"/>
       <c r="S185" s="51"/>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="51"/>
       <c r="B186" s="51"/>
       <c r="C186" s="51"/>
@@ -7519,7 +7522,7 @@
       <c r="R186" s="51"/>
       <c r="S186" s="51"/>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="51"/>
       <c r="B187" s="51"/>
       <c r="C187" s="51"/>
@@ -7540,7 +7543,7 @@
       <c r="R187" s="51"/>
       <c r="S187" s="51"/>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="51"/>
       <c r="B188" s="51"/>
       <c r="C188" s="51"/>
@@ -7561,7 +7564,7 @@
       <c r="R188" s="51"/>
       <c r="S188" s="51"/>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="51"/>
       <c r="B189" s="51"/>
       <c r="C189" s="51"/>
@@ -7582,7 +7585,7 @@
       <c r="R189" s="51"/>
       <c r="S189" s="51"/>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="51"/>
       <c r="B190" s="51"/>
       <c r="C190" s="51"/>
@@ -7603,7 +7606,7 @@
       <c r="R190" s="51"/>
       <c r="S190" s="51"/>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="51"/>
       <c r="B191" s="51"/>
       <c r="C191" s="51"/>
@@ -7624,7 +7627,7 @@
       <c r="R191" s="51"/>
       <c r="S191" s="51"/>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="51"/>
       <c r="B192" s="51"/>
       <c r="C192" s="51"/>
@@ -7645,7 +7648,7 @@
       <c r="R192" s="51"/>
       <c r="S192" s="51"/>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="51"/>
       <c r="B193" s="51"/>
       <c r="C193" s="51"/>
@@ -7666,7 +7669,7 @@
       <c r="R193" s="51"/>
       <c r="S193" s="51"/>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="51"/>
       <c r="B194" s="51"/>
       <c r="C194" s="51"/>
@@ -7687,7 +7690,7 @@
       <c r="R194" s="51"/>
       <c r="S194" s="51"/>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="51"/>
       <c r="B195" s="51"/>
       <c r="C195" s="51"/>
@@ -7708,7 +7711,7 @@
       <c r="R195" s="51"/>
       <c r="S195" s="51"/>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="51"/>
       <c r="B196" s="51"/>
       <c r="C196" s="51"/>
@@ -7729,7 +7732,7 @@
       <c r="R196" s="51"/>
       <c r="S196" s="51"/>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="51"/>
       <c r="B197" s="51"/>
       <c r="C197" s="51"/>
@@ -7750,7 +7753,7 @@
       <c r="R197" s="51"/>
       <c r="S197" s="51"/>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="51"/>
       <c r="B198" s="51"/>
       <c r="C198" s="51"/>
@@ -7771,7 +7774,7 @@
       <c r="R198" s="51"/>
       <c r="S198" s="51"/>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="51"/>
       <c r="B199" s="51"/>
       <c r="C199" s="51"/>
@@ -7792,7 +7795,7 @@
       <c r="R199" s="51"/>
       <c r="S199" s="51"/>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="51"/>
       <c r="B200" s="51"/>
       <c r="C200" s="51"/>
@@ -7813,7 +7816,7 @@
       <c r="R200" s="51"/>
       <c r="S200" s="51"/>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="51"/>
       <c r="B201" s="51"/>
       <c r="C201" s="51"/>
@@ -7834,7 +7837,7 @@
       <c r="R201" s="51"/>
       <c r="S201" s="51"/>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="51"/>
       <c r="B202" s="51"/>
       <c r="C202" s="51"/>
@@ -7855,7 +7858,7 @@
       <c r="R202" s="51"/>
       <c r="S202" s="51"/>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="51"/>
       <c r="B203" s="51"/>
       <c r="C203" s="51"/>
@@ -7876,7 +7879,7 @@
       <c r="R203" s="51"/>
       <c r="S203" s="51"/>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="51"/>
       <c r="B204" s="51"/>
       <c r="C204" s="51"/>
@@ -7897,7 +7900,7 @@
       <c r="R204" s="51"/>
       <c r="S204" s="51"/>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="51"/>
       <c r="B205" s="51"/>
       <c r="C205" s="51"/>
@@ -7918,7 +7921,7 @@
       <c r="R205" s="51"/>
       <c r="S205" s="51"/>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="51"/>
       <c r="B206" s="51"/>
       <c r="C206" s="51"/>
@@ -7939,7 +7942,7 @@
       <c r="R206" s="51"/>
       <c r="S206" s="51"/>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="51"/>
       <c r="B207" s="51"/>
       <c r="C207" s="51"/>
@@ -7960,7 +7963,7 @@
       <c r="R207" s="51"/>
       <c r="S207" s="51"/>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="51"/>
       <c r="B208" s="51"/>
       <c r="C208" s="51"/>
@@ -7981,7 +7984,7 @@
       <c r="R208" s="51"/>
       <c r="S208" s="51"/>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="51"/>
       <c r="B209" s="51"/>
       <c r="C209" s="51"/>
@@ -8002,7 +8005,7 @@
       <c r="R209" s="51"/>
       <c r="S209" s="51"/>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="51"/>
       <c r="B210" s="51"/>
       <c r="C210" s="51"/>
@@ -8023,7 +8026,7 @@
       <c r="R210" s="51"/>
       <c r="S210" s="51"/>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="51"/>
       <c r="B211" s="51"/>
       <c r="C211" s="51"/>
@@ -8044,7 +8047,7 @@
       <c r="R211" s="51"/>
       <c r="S211" s="51"/>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="51"/>
       <c r="B212" s="51"/>
       <c r="C212" s="51"/>
@@ -8065,7 +8068,7 @@
       <c r="R212" s="51"/>
       <c r="S212" s="51"/>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="51"/>
       <c r="B213" s="51"/>
       <c r="C213" s="51"/>
@@ -8086,7 +8089,7 @@
       <c r="R213" s="51"/>
       <c r="S213" s="51"/>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="51"/>
       <c r="B214" s="51"/>
       <c r="C214" s="51"/>
@@ -8107,7 +8110,7 @@
       <c r="R214" s="51"/>
       <c r="S214" s="51"/>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="51"/>
       <c r="B215" s="51"/>
       <c r="C215" s="51"/>
@@ -8128,7 +8131,7 @@
       <c r="R215" s="51"/>
       <c r="S215" s="51"/>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="51"/>
       <c r="B216" s="51"/>
       <c r="C216" s="51"/>
@@ -8149,7 +8152,7 @@
       <c r="R216" s="51"/>
       <c r="S216" s="51"/>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="51"/>
       <c r="B217" s="51"/>
       <c r="C217" s="51"/>
@@ -8170,7 +8173,7 @@
       <c r="R217" s="51"/>
       <c r="S217" s="51"/>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="51"/>
       <c r="B218" s="51"/>
       <c r="C218" s="51"/>
@@ -8191,7 +8194,7 @@
       <c r="R218" s="51"/>
       <c r="S218" s="51"/>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="51"/>
       <c r="B219" s="51"/>
       <c r="C219" s="51"/>
@@ -8212,7 +8215,7 @@
       <c r="R219" s="51"/>
       <c r="S219" s="51"/>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="51"/>
       <c r="B220" s="51"/>
       <c r="C220" s="51"/>
@@ -8233,7 +8236,7 @@
       <c r="R220" s="51"/>
       <c r="S220" s="51"/>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="51"/>
       <c r="B221" s="51"/>
       <c r="C221" s="51"/>
@@ -8254,7 +8257,7 @@
       <c r="R221" s="51"/>
       <c r="S221" s="51"/>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="51"/>
       <c r="B222" s="51"/>
       <c r="C222" s="51"/>
@@ -8275,7 +8278,7 @@
       <c r="R222" s="51"/>
       <c r="S222" s="51"/>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="51"/>
       <c r="B223" s="51"/>
       <c r="C223" s="51"/>
@@ -8296,7 +8299,7 @@
       <c r="R223" s="51"/>
       <c r="S223" s="51"/>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="51"/>
       <c r="B224" s="51"/>
       <c r="C224" s="51"/>
@@ -8317,7 +8320,7 @@
       <c r="R224" s="51"/>
       <c r="S224" s="51"/>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="51"/>
       <c r="B225" s="51"/>
       <c r="C225" s="51"/>
@@ -8338,7 +8341,7 @@
       <c r="R225" s="51"/>
       <c r="S225" s="51"/>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="51"/>
       <c r="B226" s="51"/>
       <c r="C226" s="51"/>
@@ -8359,7 +8362,7 @@
       <c r="R226" s="51"/>
       <c r="S226" s="51"/>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="51"/>
       <c r="B227" s="51"/>
       <c r="C227" s="51"/>
@@ -8380,7 +8383,7 @@
       <c r="R227" s="51"/>
       <c r="S227" s="51"/>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="51"/>
       <c r="B228" s="51"/>
       <c r="C228" s="51"/>
@@ -8401,7 +8404,7 @@
       <c r="R228" s="51"/>
       <c r="S228" s="51"/>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="51"/>
       <c r="B229" s="51"/>
       <c r="C229" s="51"/>
@@ -8422,7 +8425,7 @@
       <c r="R229" s="51"/>
       <c r="S229" s="51"/>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="51"/>
       <c r="B230" s="51"/>
       <c r="C230" s="51"/>
@@ -8443,7 +8446,7 @@
       <c r="R230" s="51"/>
       <c r="S230" s="51"/>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="51"/>
       <c r="B231" s="51"/>
       <c r="C231" s="51"/>
@@ -8464,7 +8467,7 @@
       <c r="R231" s="51"/>
       <c r="S231" s="51"/>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="51"/>
       <c r="B232" s="51"/>
       <c r="C232" s="51"/>
@@ -8485,7 +8488,7 @@
       <c r="R232" s="51"/>
       <c r="S232" s="51"/>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="51"/>
       <c r="B233" s="51"/>
       <c r="C233" s="51"/>
@@ -8506,7 +8509,7 @@
       <c r="R233" s="51"/>
       <c r="S233" s="51"/>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="51"/>
       <c r="B234" s="51"/>
       <c r="C234" s="51"/>
@@ -8527,7 +8530,7 @@
       <c r="R234" s="51"/>
       <c r="S234" s="51"/>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="51"/>
       <c r="B235" s="51"/>
       <c r="C235" s="51"/>
@@ -8548,7 +8551,7 @@
       <c r="R235" s="51"/>
       <c r="S235" s="51"/>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="51"/>
       <c r="B236" s="51"/>
       <c r="C236" s="51"/>
@@ -8569,7 +8572,7 @@
       <c r="R236" s="51"/>
       <c r="S236" s="51"/>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="51"/>
       <c r="B237" s="51"/>
       <c r="C237" s="51"/>
@@ -8590,7 +8593,7 @@
       <c r="R237" s="51"/>
       <c r="S237" s="51"/>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="51"/>
       <c r="B238" s="51"/>
       <c r="C238" s="51"/>
@@ -8611,7 +8614,7 @@
       <c r="R238" s="51"/>
       <c r="S238" s="51"/>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="51"/>
       <c r="B239" s="51"/>
       <c r="C239" s="51"/>
@@ -8632,7 +8635,7 @@
       <c r="R239" s="51"/>
       <c r="S239" s="51"/>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="51"/>
       <c r="B240" s="51"/>
       <c r="C240" s="51"/>
@@ -8653,7 +8656,7 @@
       <c r="R240" s="51"/>
       <c r="S240" s="51"/>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="51"/>
       <c r="B241" s="51"/>
       <c r="C241" s="51"/>
@@ -8674,7 +8677,7 @@
       <c r="R241" s="51"/>
       <c r="S241" s="51"/>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="51"/>
       <c r="B242" s="51"/>
       <c r="C242" s="51"/>
@@ -8695,7 +8698,7 @@
       <c r="R242" s="51"/>
       <c r="S242" s="51"/>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="51"/>
       <c r="B243" s="51"/>
       <c r="C243" s="51"/>
@@ -8716,7 +8719,7 @@
       <c r="R243" s="51"/>
       <c r="S243" s="51"/>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="51"/>
       <c r="B244" s="51"/>
       <c r="C244" s="51"/>
@@ -8737,7 +8740,7 @@
       <c r="R244" s="51"/>
       <c r="S244" s="51"/>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="51"/>
       <c r="B245" s="51"/>
       <c r="C245" s="51"/>
@@ -8758,7 +8761,7 @@
       <c r="R245" s="51"/>
       <c r="S245" s="51"/>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="51"/>
       <c r="B246" s="51"/>
       <c r="C246" s="51"/>
@@ -8779,7 +8782,7 @@
       <c r="R246" s="51"/>
       <c r="S246" s="51"/>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="51"/>
       <c r="B247" s="51"/>
       <c r="C247" s="51"/>
@@ -8800,7 +8803,7 @@
       <c r="R247" s="51"/>
       <c r="S247" s="51"/>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="51"/>
       <c r="B248" s="51"/>
       <c r="C248" s="51"/>
@@ -8821,7 +8824,7 @@
       <c r="R248" s="51"/>
       <c r="S248" s="51"/>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="51"/>
       <c r="B249" s="51"/>
       <c r="C249" s="51"/>
@@ -8842,7 +8845,7 @@
       <c r="R249" s="51"/>
       <c r="S249" s="51"/>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="51"/>
       <c r="B250" s="51"/>
       <c r="C250" s="51"/>
@@ -8863,7 +8866,7 @@
       <c r="R250" s="51"/>
       <c r="S250" s="51"/>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="51"/>
       <c r="B251" s="51"/>
       <c r="C251" s="51"/>
@@ -8884,7 +8887,7 @@
       <c r="R251" s="51"/>
       <c r="S251" s="51"/>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="51"/>
       <c r="B252" s="51"/>
       <c r="C252" s="51"/>
@@ -8905,7 +8908,7 @@
       <c r="R252" s="51"/>
       <c r="S252" s="51"/>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="51"/>
       <c r="B253" s="51"/>
       <c r="C253" s="51"/>
@@ -8926,7 +8929,7 @@
       <c r="R253" s="51"/>
       <c r="S253" s="51"/>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="51"/>
       <c r="B254" s="51"/>
       <c r="C254" s="51"/>
@@ -8947,7 +8950,7 @@
       <c r="R254" s="51"/>
       <c r="S254" s="51"/>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="51"/>
       <c r="B255" s="51"/>
       <c r="C255" s="51"/>
@@ -8968,7 +8971,7 @@
       <c r="R255" s="51"/>
       <c r="S255" s="51"/>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="51"/>
       <c r="B256" s="51"/>
       <c r="C256" s="51"/>
@@ -8989,7 +8992,7 @@
       <c r="R256" s="51"/>
       <c r="S256" s="51"/>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="51"/>
       <c r="B257" s="51"/>
       <c r="C257" s="51"/>
@@ -9010,7 +9013,7 @@
       <c r="R257" s="51"/>
       <c r="S257" s="51"/>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="51"/>
       <c r="B258" s="51"/>
       <c r="C258" s="51"/>
@@ -9031,7 +9034,7 @@
       <c r="R258" s="51"/>
       <c r="S258" s="51"/>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="51"/>
       <c r="B259" s="51"/>
       <c r="C259" s="51"/>
@@ -9052,7 +9055,7 @@
       <c r="R259" s="51"/>
       <c r="S259" s="51"/>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="51"/>
       <c r="B260" s="51"/>
       <c r="C260" s="51"/>
@@ -9073,7 +9076,7 @@
       <c r="R260" s="51"/>
       <c r="S260" s="51"/>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="51"/>
       <c r="B261" s="51"/>
       <c r="C261" s="51"/>
@@ -9094,7 +9097,7 @@
       <c r="R261" s="51"/>
       <c r="S261" s="51"/>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="51"/>
       <c r="B262" s="51"/>
       <c r="C262" s="51"/>
@@ -9115,7 +9118,7 @@
       <c r="R262" s="51"/>
       <c r="S262" s="51"/>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="51"/>
       <c r="B263" s="51"/>
       <c r="C263" s="51"/>
@@ -9136,7 +9139,7 @@
       <c r="R263" s="51"/>
       <c r="S263" s="51"/>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="51"/>
       <c r="B264" s="51"/>
       <c r="C264" s="51"/>
@@ -9157,7 +9160,7 @@
       <c r="R264" s="51"/>
       <c r="S264" s="51"/>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="51"/>
       <c r="B265" s="51"/>
       <c r="C265" s="51"/>
@@ -9178,7 +9181,7 @@
       <c r="R265" s="51"/>
       <c r="S265" s="51"/>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="51"/>
       <c r="B266" s="51"/>
       <c r="C266" s="51"/>
@@ -9199,7 +9202,7 @@
       <c r="R266" s="51"/>
       <c r="S266" s="51"/>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="51"/>
       <c r="B267" s="51"/>
       <c r="C267" s="51"/>
@@ -9220,7 +9223,7 @@
       <c r="R267" s="51"/>
       <c r="S267" s="51"/>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="51"/>
       <c r="B268" s="51"/>
       <c r="C268" s="51"/>
@@ -9241,7 +9244,7 @@
       <c r="R268" s="51"/>
       <c r="S268" s="51"/>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="51"/>
       <c r="B269" s="51"/>
       <c r="C269" s="51"/>
@@ -9262,7 +9265,7 @@
       <c r="R269" s="51"/>
       <c r="S269" s="51"/>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="51"/>
       <c r="B270" s="51"/>
       <c r="C270" s="51"/>
@@ -9283,7 +9286,7 @@
       <c r="R270" s="51"/>
       <c r="S270" s="51"/>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="51"/>
       <c r="B271" s="51"/>
       <c r="C271" s="51"/>
@@ -9304,7 +9307,7 @@
       <c r="R271" s="51"/>
       <c r="S271" s="51"/>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="51"/>
       <c r="B272" s="51"/>
       <c r="C272" s="51"/>
@@ -9325,7 +9328,7 @@
       <c r="R272" s="51"/>
       <c r="S272" s="51"/>
     </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="51"/>
       <c r="B273" s="51"/>
       <c r="C273" s="51"/>
@@ -9346,7 +9349,7 @@
       <c r="R273" s="51"/>
       <c r="S273" s="51"/>
     </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="51"/>
       <c r="B274" s="51"/>
       <c r="C274" s="51"/>
@@ -9367,7 +9370,7 @@
       <c r="R274" s="51"/>
       <c r="S274" s="51"/>
     </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="51"/>
       <c r="B275" s="51"/>
       <c r="C275" s="51"/>
@@ -9388,7 +9391,7 @@
       <c r="R275" s="51"/>
       <c r="S275" s="51"/>
     </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="51"/>
       <c r="B276" s="51"/>
       <c r="C276" s="51"/>
@@ -9409,7 +9412,7 @@
       <c r="R276" s="51"/>
       <c r="S276" s="51"/>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="51"/>
       <c r="B277" s="51"/>
       <c r="C277" s="51"/>
@@ -9430,7 +9433,7 @@
       <c r="R277" s="51"/>
       <c r="S277" s="51"/>
     </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="51"/>
       <c r="B278" s="51"/>
       <c r="C278" s="51"/>
@@ -9451,7 +9454,7 @@
       <c r="R278" s="51"/>
       <c r="S278" s="51"/>
     </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="51"/>
       <c r="B279" s="51"/>
       <c r="C279" s="51"/>
@@ -9472,7 +9475,7 @@
       <c r="R279" s="51"/>
       <c r="S279" s="51"/>
     </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="51"/>
       <c r="B280" s="51"/>
       <c r="C280" s="51"/>
@@ -9493,7 +9496,7 @@
       <c r="R280" s="51"/>
       <c r="S280" s="51"/>
     </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="51"/>
       <c r="B281" s="51"/>
       <c r="C281" s="51"/>
@@ -9514,7 +9517,7 @@
       <c r="R281" s="51"/>
       <c r="S281" s="51"/>
     </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="51"/>
       <c r="B282" s="51"/>
       <c r="C282" s="51"/>
@@ -9535,7 +9538,7 @@
       <c r="R282" s="51"/>
       <c r="S282" s="51"/>
     </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="51"/>
       <c r="B283" s="51"/>
       <c r="C283" s="51"/>
@@ -9556,7 +9559,7 @@
       <c r="R283" s="51"/>
       <c r="S283" s="51"/>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="51"/>
       <c r="B284" s="51"/>
       <c r="C284" s="51"/>
@@ -9577,7 +9580,7 @@
       <c r="R284" s="51"/>
       <c r="S284" s="51"/>
     </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="51"/>
       <c r="B285" s="51"/>
       <c r="C285" s="51"/>
@@ -9598,7 +9601,7 @@
       <c r="R285" s="51"/>
       <c r="S285" s="51"/>
     </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="51"/>
       <c r="B286" s="51"/>
       <c r="C286" s="51"/>
@@ -9619,7 +9622,7 @@
       <c r="R286" s="51"/>
       <c r="S286" s="51"/>
     </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="51"/>
       <c r="B287" s="51"/>
       <c r="C287" s="51"/>
@@ -9640,7 +9643,7 @@
       <c r="R287" s="51"/>
       <c r="S287" s="51"/>
     </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="51"/>
       <c r="B288" s="51"/>
       <c r="C288" s="51"/>
@@ -9661,7 +9664,7 @@
       <c r="R288" s="51"/>
       <c r="S288" s="51"/>
     </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="51"/>
       <c r="B289" s="51"/>
       <c r="C289" s="51"/>
@@ -9682,7 +9685,7 @@
       <c r="R289" s="51"/>
       <c r="S289" s="51"/>
     </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="51"/>
       <c r="B290" s="51"/>
       <c r="C290" s="51"/>
@@ -9703,7 +9706,7 @@
       <c r="R290" s="51"/>
       <c r="S290" s="51"/>
     </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="51"/>
       <c r="B291" s="51"/>
       <c r="C291" s="51"/>
@@ -9724,7 +9727,7 @@
       <c r="R291" s="51"/>
       <c r="S291" s="51"/>
     </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="51"/>
       <c r="B292" s="51"/>
       <c r="C292" s="51"/>
@@ -9745,7 +9748,7 @@
       <c r="R292" s="51"/>
       <c r="S292" s="51"/>
     </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="51"/>
       <c r="B293" s="51"/>
       <c r="C293" s="51"/>
@@ -9766,7 +9769,7 @@
       <c r="R293" s="51"/>
       <c r="S293" s="51"/>
     </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="51"/>
       <c r="B294" s="51"/>
       <c r="C294" s="51"/>
@@ -9787,7 +9790,7 @@
       <c r="R294" s="51"/>
       <c r="S294" s="51"/>
     </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="51"/>
       <c r="B295" s="51"/>
       <c r="C295" s="51"/>
@@ -9808,7 +9811,7 @@
       <c r="R295" s="51"/>
       <c r="S295" s="51"/>
     </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="51"/>
       <c r="B296" s="51"/>
       <c r="C296" s="51"/>
@@ -9829,7 +9832,7 @@
       <c r="R296" s="51"/>
       <c r="S296" s="51"/>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="51"/>
       <c r="B297" s="51"/>
       <c r="C297" s="51"/>
@@ -9850,7 +9853,7 @@
       <c r="R297" s="51"/>
       <c r="S297" s="51"/>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="51"/>
       <c r="B298" s="51"/>
       <c r="C298" s="51"/>
@@ -9871,7 +9874,7 @@
       <c r="R298" s="51"/>
       <c r="S298" s="51"/>
     </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="51"/>
       <c r="B299" s="51"/>
       <c r="C299" s="51"/>
@@ -9892,7 +9895,7 @@
       <c r="R299" s="51"/>
       <c r="S299" s="51"/>
     </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="51"/>
       <c r="B300" s="51"/>
       <c r="C300" s="51"/>
@@ -9913,7 +9916,7 @@
       <c r="R300" s="51"/>
       <c r="S300" s="51"/>
     </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="51"/>
       <c r="B301" s="51"/>
       <c r="C301" s="51"/>
@@ -9934,7 +9937,7 @@
       <c r="R301" s="51"/>
       <c r="S301" s="51"/>
     </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="51"/>
       <c r="B302" s="51"/>
       <c r="C302" s="51"/>
@@ -9955,7 +9958,7 @@
       <c r="R302" s="51"/>
       <c r="S302" s="51"/>
     </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="51"/>
       <c r="B303" s="51"/>
       <c r="C303" s="51"/>
@@ -9976,7 +9979,7 @@
       <c r="R303" s="51"/>
       <c r="S303" s="51"/>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="51"/>
       <c r="B304" s="51"/>
       <c r="C304" s="51"/>
@@ -9997,7 +10000,7 @@
       <c r="R304" s="51"/>
       <c r="S304" s="51"/>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="51"/>
       <c r="B305" s="51"/>
       <c r="C305" s="51"/>
@@ -10018,7 +10021,7 @@
       <c r="R305" s="51"/>
       <c r="S305" s="51"/>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="51"/>
       <c r="B306" s="51"/>
       <c r="C306" s="51"/>
@@ -10039,7 +10042,7 @@
       <c r="R306" s="51"/>
       <c r="S306" s="51"/>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="51"/>
       <c r="B307" s="51"/>
       <c r="C307" s="51"/>
@@ -10060,7 +10063,7 @@
       <c r="R307" s="51"/>
       <c r="S307" s="51"/>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="51"/>
       <c r="B308" s="51"/>
       <c r="C308" s="51"/>
@@ -10081,7 +10084,7 @@
       <c r="R308" s="51"/>
       <c r="S308" s="51"/>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="51"/>
       <c r="B309" s="51"/>
       <c r="C309" s="51"/>
@@ -10102,7 +10105,7 @@
       <c r="R309" s="51"/>
       <c r="S309" s="51"/>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="51"/>
       <c r="B310" s="51"/>
       <c r="C310" s="51"/>
@@ -10123,7 +10126,7 @@
       <c r="R310" s="51"/>
       <c r="S310" s="51"/>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="51"/>
       <c r="B311" s="51"/>
       <c r="C311" s="51"/>
@@ -10144,7 +10147,7 @@
       <c r="R311" s="51"/>
       <c r="S311" s="51"/>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="51"/>
       <c r="B312" s="51"/>
       <c r="C312" s="51"/>
@@ -10165,7 +10168,7 @@
       <c r="R312" s="51"/>
       <c r="S312" s="51"/>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="51"/>
       <c r="B313" s="51"/>
       <c r="C313" s="51"/>
@@ -10186,7 +10189,7 @@
       <c r="R313" s="51"/>
       <c r="S313" s="51"/>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="51"/>
       <c r="B314" s="51"/>
       <c r="C314" s="51"/>
@@ -10207,7 +10210,7 @@
       <c r="R314" s="51"/>
       <c r="S314" s="51"/>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="51"/>
       <c r="B315" s="51"/>
       <c r="C315" s="51"/>
@@ -10228,7 +10231,7 @@
       <c r="R315" s="51"/>
       <c r="S315" s="51"/>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="51"/>
       <c r="B316" s="51"/>
       <c r="C316" s="51"/>
@@ -10249,7 +10252,7 @@
       <c r="R316" s="51"/>
       <c r="S316" s="51"/>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" s="51"/>
       <c r="B317" s="51"/>
       <c r="C317" s="51"/>
@@ -10270,7 +10273,7 @@
       <c r="R317" s="51"/>
       <c r="S317" s="51"/>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="51"/>
       <c r="B318" s="51"/>
       <c r="C318" s="51"/>
@@ -10291,7 +10294,7 @@
       <c r="R318" s="51"/>
       <c r="S318" s="51"/>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" s="51"/>
       <c r="B319" s="51"/>
       <c r="C319" s="51"/>
@@ -10312,7 +10315,7 @@
       <c r="R319" s="51"/>
       <c r="S319" s="51"/>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" s="51"/>
       <c r="B320" s="51"/>
       <c r="C320" s="51"/>
@@ -10333,7 +10336,7 @@
       <c r="R320" s="51"/>
       <c r="S320" s="51"/>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" s="51"/>
       <c r="B321" s="51"/>
       <c r="C321" s="51"/>
@@ -10354,7 +10357,7 @@
       <c r="R321" s="51"/>
       <c r="S321" s="51"/>
     </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" s="51"/>
       <c r="B322" s="51"/>
       <c r="C322" s="51"/>
@@ -10375,7 +10378,7 @@
       <c r="R322" s="51"/>
       <c r="S322" s="51"/>
     </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" s="51"/>
       <c r="B323" s="51"/>
       <c r="C323" s="51"/>
@@ -10396,7 +10399,7 @@
       <c r="R323" s="51"/>
       <c r="S323" s="51"/>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" s="51"/>
       <c r="B324" s="51"/>
       <c r="C324" s="51"/>
@@ -10417,7 +10420,7 @@
       <c r="R324" s="51"/>
       <c r="S324" s="51"/>
     </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" s="51"/>
       <c r="B325" s="51"/>
       <c r="C325" s="51"/>
@@ -10438,7 +10441,7 @@
       <c r="R325" s="51"/>
       <c r="S325" s="51"/>
     </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" s="51"/>
       <c r="B326" s="51"/>
       <c r="C326" s="51"/>
@@ -10459,7 +10462,7 @@
       <c r="R326" s="51"/>
       <c r="S326" s="51"/>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" s="51"/>
       <c r="B327" s="51"/>
       <c r="C327" s="51"/>
@@ -10480,7 +10483,7 @@
       <c r="R327" s="51"/>
       <c r="S327" s="51"/>
     </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" s="51"/>
       <c r="B328" s="51"/>
       <c r="C328" s="51"/>
@@ -10501,7 +10504,7 @@
       <c r="R328" s="51"/>
       <c r="S328" s="51"/>
     </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" s="51"/>
       <c r="B329" s="51"/>
       <c r="C329" s="51"/>
@@ -10522,7 +10525,7 @@
       <c r="R329" s="51"/>
       <c r="S329" s="51"/>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" s="51"/>
       <c r="B330" s="51"/>
       <c r="C330" s="51"/>
@@ -10543,7 +10546,7 @@
       <c r="R330" s="51"/>
       <c r="S330" s="51"/>
     </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" s="51"/>
       <c r="B331" s="51"/>
       <c r="C331" s="51"/>
@@ -10564,7 +10567,7 @@
       <c r="R331" s="51"/>
       <c r="S331" s="51"/>
     </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" s="51"/>
       <c r="B332" s="51"/>
       <c r="C332" s="51"/>
@@ -10585,7 +10588,7 @@
       <c r="R332" s="51"/>
       <c r="S332" s="51"/>
     </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" s="51"/>
       <c r="B333" s="51"/>
       <c r="C333" s="51"/>
@@ -10606,7 +10609,7 @@
       <c r="R333" s="51"/>
       <c r="S333" s="51"/>
     </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" s="51"/>
       <c r="B334" s="51"/>
       <c r="C334" s="51"/>
@@ -10627,7 +10630,7 @@
       <c r="R334" s="51"/>
       <c r="S334" s="51"/>
     </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" s="51"/>
       <c r="B335" s="51"/>
       <c r="C335" s="51"/>
@@ -10648,7 +10651,7 @@
       <c r="R335" s="51"/>
       <c r="S335" s="51"/>
     </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" s="51"/>
       <c r="B336" s="51"/>
       <c r="C336" s="51"/>
@@ -10669,7 +10672,7 @@
       <c r="R336" s="51"/>
       <c r="S336" s="51"/>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" s="51"/>
       <c r="B337" s="51"/>
       <c r="C337" s="51"/>
@@ -10690,7 +10693,7 @@
       <c r="R337" s="51"/>
       <c r="S337" s="51"/>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" s="51"/>
       <c r="B338" s="51"/>
       <c r="C338" s="51"/>
@@ -10711,7 +10714,7 @@
       <c r="R338" s="51"/>
       <c r="S338" s="51"/>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" s="51"/>
       <c r="B339" s="51"/>
       <c r="C339" s="51"/>
@@ -10732,7 +10735,7 @@
       <c r="R339" s="51"/>
       <c r="S339" s="51"/>
     </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" s="51"/>
       <c r="B340" s="51"/>
       <c r="C340" s="51"/>
@@ -10753,7 +10756,7 @@
       <c r="R340" s="51"/>
       <c r="S340" s="51"/>
     </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" s="51"/>
       <c r="B341" s="51"/>
       <c r="C341" s="51"/>
@@ -10774,7 +10777,7 @@
       <c r="R341" s="51"/>
       <c r="S341" s="51"/>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" s="51"/>
       <c r="B342" s="51"/>
       <c r="C342" s="51"/>
@@ -10795,7 +10798,7 @@
       <c r="R342" s="51"/>
       <c r="S342" s="51"/>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" s="51"/>
       <c r="B343" s="51"/>
       <c r="C343" s="51"/>
@@ -10816,7 +10819,7 @@
       <c r="R343" s="51"/>
       <c r="S343" s="51"/>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" s="51"/>
       <c r="B344" s="51"/>
       <c r="C344" s="51"/>
@@ -10837,7 +10840,7 @@
       <c r="R344" s="51"/>
       <c r="S344" s="51"/>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" s="51"/>
       <c r="B345" s="51"/>
       <c r="C345" s="51"/>
@@ -10858,7 +10861,7 @@
       <c r="R345" s="51"/>
       <c r="S345" s="51"/>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" s="51"/>
       <c r="B346" s="51"/>
       <c r="C346" s="51"/>
@@ -10879,7 +10882,7 @@
       <c r="R346" s="51"/>
       <c r="S346" s="51"/>
     </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" s="51"/>
       <c r="B347" s="51"/>
       <c r="C347" s="51"/>
@@ -10900,7 +10903,7 @@
       <c r="R347" s="51"/>
       <c r="S347" s="51"/>
     </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" s="51"/>
       <c r="B348" s="51"/>
       <c r="C348" s="51"/>
@@ -10921,7 +10924,7 @@
       <c r="R348" s="51"/>
       <c r="S348" s="51"/>
     </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" s="51"/>
       <c r="B349" s="51"/>
       <c r="C349" s="51"/>
@@ -10942,7 +10945,7 @@
       <c r="R349" s="51"/>
       <c r="S349" s="51"/>
     </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" s="51"/>
       <c r="B350" s="51"/>
       <c r="C350" s="51"/>
@@ -10963,7 +10966,7 @@
       <c r="R350" s="51"/>
       <c r="S350" s="51"/>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" s="51"/>
       <c r="B351" s="51"/>
       <c r="C351" s="51"/>
@@ -10984,7 +10987,7 @@
       <c r="R351" s="51"/>
       <c r="S351" s="51"/>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" s="51"/>
       <c r="B352" s="51"/>
       <c r="C352" s="51"/>
@@ -11005,7 +11008,7 @@
       <c r="R352" s="51"/>
       <c r="S352" s="51"/>
     </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" s="51"/>
       <c r="B353" s="51"/>
       <c r="C353" s="51"/>
@@ -11026,7 +11029,7 @@
       <c r="R353" s="51"/>
       <c r="S353" s="51"/>
     </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" s="51"/>
       <c r="B354" s="51"/>
       <c r="C354" s="51"/>
@@ -11047,7 +11050,7 @@
       <c r="R354" s="51"/>
       <c r="S354" s="51"/>
     </row>
-    <row r="355" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" s="51"/>
       <c r="B355" s="51"/>
       <c r="C355" s="51"/>
@@ -11068,7 +11071,7 @@
       <c r="R355" s="51"/>
       <c r="S355" s="51"/>
     </row>
-    <row r="356" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" s="51"/>
       <c r="B356" s="51"/>
       <c r="C356" s="51"/>
@@ -11089,7 +11092,7 @@
       <c r="R356" s="51"/>
       <c r="S356" s="51"/>
     </row>
-    <row r="357" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" s="51"/>
       <c r="B357" s="51"/>
       <c r="C357" s="51"/>
@@ -11110,7 +11113,7 @@
       <c r="R357" s="51"/>
       <c r="S357" s="51"/>
     </row>
-    <row r="358" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" s="51"/>
       <c r="B358" s="51"/>
       <c r="C358" s="51"/>
@@ -11131,7 +11134,7 @@
       <c r="R358" s="51"/>
       <c r="S358" s="51"/>
     </row>
-    <row r="359" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" s="51"/>
       <c r="B359" s="51"/>
       <c r="C359" s="51"/>
@@ -11152,7 +11155,7 @@
       <c r="R359" s="51"/>
       <c r="S359" s="51"/>
     </row>
-    <row r="360" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" s="51"/>
       <c r="B360" s="51"/>
       <c r="C360" s="51"/>
@@ -11173,7 +11176,7 @@
       <c r="R360" s="51"/>
       <c r="S360" s="51"/>
     </row>
-    <row r="361" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" s="51"/>
       <c r="B361" s="51"/>
       <c r="C361" s="51"/>
@@ -11194,7 +11197,7 @@
       <c r="R361" s="51"/>
       <c r="S361" s="51"/>
     </row>
-    <row r="362" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" s="51"/>
       <c r="B362" s="51"/>
       <c r="C362" s="51"/>
@@ -11215,7 +11218,7 @@
       <c r="R362" s="51"/>
       <c r="S362" s="51"/>
     </row>
-    <row r="363" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" s="51"/>
       <c r="B363" s="51"/>
       <c r="C363" s="51"/>
@@ -11236,7 +11239,7 @@
       <c r="R363" s="51"/>
       <c r="S363" s="51"/>
     </row>
-    <row r="364" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" s="51"/>
       <c r="B364" s="51"/>
       <c r="C364" s="51"/>
@@ -11257,7 +11260,7 @@
       <c r="R364" s="51"/>
       <c r="S364" s="51"/>
     </row>
-    <row r="365" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" s="51"/>
       <c r="B365" s="51"/>
       <c r="C365" s="51"/>
@@ -11278,7 +11281,7 @@
       <c r="R365" s="51"/>
       <c r="S365" s="51"/>
     </row>
-    <row r="366" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" s="51"/>
       <c r="B366" s="51"/>
       <c r="C366" s="51"/>
@@ -11299,7 +11302,7 @@
       <c r="R366" s="51"/>
       <c r="S366" s="51"/>
     </row>
-    <row r="367" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" s="51"/>
       <c r="B367" s="51"/>
       <c r="C367" s="51"/>
@@ -11320,7 +11323,7 @@
       <c r="R367" s="51"/>
       <c r="S367" s="51"/>
     </row>
-    <row r="368" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" s="51"/>
       <c r="B368" s="51"/>
       <c r="C368" s="51"/>
@@ -11341,7 +11344,7 @@
       <c r="R368" s="51"/>
       <c r="S368" s="51"/>
     </row>
-    <row r="369" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" s="51"/>
       <c r="B369" s="51"/>
       <c r="C369" s="51"/>
@@ -11362,7 +11365,7 @@
       <c r="R369" s="51"/>
       <c r="S369" s="51"/>
     </row>
-    <row r="370" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" s="51"/>
       <c r="B370" s="51"/>
       <c r="C370" s="51"/>
@@ -11383,7 +11386,7 @@
       <c r="R370" s="51"/>
       <c r="S370" s="51"/>
     </row>
-    <row r="371" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" s="51"/>
       <c r="B371" s="51"/>
       <c r="C371" s="51"/>
@@ -11404,7 +11407,7 @@
       <c r="R371" s="51"/>
       <c r="S371" s="51"/>
     </row>
-    <row r="372" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" s="51"/>
       <c r="B372" s="51"/>
       <c r="C372" s="51"/>
@@ -11425,7 +11428,7 @@
       <c r="R372" s="51"/>
       <c r="S372" s="51"/>
     </row>
-    <row r="373" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" s="51"/>
       <c r="B373" s="51"/>
       <c r="C373" s="51"/>
@@ -11446,7 +11449,7 @@
       <c r="R373" s="51"/>
       <c r="S373" s="51"/>
     </row>
-    <row r="374" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" s="51"/>
       <c r="B374" s="51"/>
       <c r="C374" s="51"/>
@@ -11467,7 +11470,7 @@
       <c r="R374" s="51"/>
       <c r="S374" s="51"/>
     </row>
-    <row r="375" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" s="51"/>
       <c r="B375" s="51"/>
       <c r="C375" s="51"/>
@@ -11488,7 +11491,7 @@
       <c r="R375" s="51"/>
       <c r="S375" s="51"/>
     </row>
-    <row r="376" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" s="51"/>
       <c r="B376" s="51"/>
       <c r="C376" s="51"/>
@@ -11509,7 +11512,7 @@
       <c r="R376" s="51"/>
       <c r="S376" s="51"/>
     </row>
-    <row r="377" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" s="51"/>
       <c r="B377" s="51"/>
       <c r="C377" s="51"/>
@@ -11530,7 +11533,7 @@
       <c r="R377" s="51"/>
       <c r="S377" s="51"/>
     </row>
-    <row r="378" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" s="51"/>
       <c r="B378" s="51"/>
       <c r="C378" s="51"/>
@@ -11551,7 +11554,7 @@
       <c r="R378" s="51"/>
       <c r="S378" s="51"/>
     </row>
-    <row r="379" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" s="51"/>
       <c r="B379" s="51"/>
       <c r="C379" s="51"/>
@@ -11572,7 +11575,7 @@
       <c r="R379" s="51"/>
       <c r="S379" s="51"/>
     </row>
-    <row r="380" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" s="51"/>
       <c r="B380" s="51"/>
       <c r="C380" s="51"/>
@@ -11593,7 +11596,7 @@
       <c r="R380" s="51"/>
       <c r="S380" s="51"/>
     </row>
-    <row r="381" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" s="51"/>
       <c r="B381" s="51"/>
       <c r="C381" s="51"/>
@@ -11614,7 +11617,7 @@
       <c r="R381" s="51"/>
       <c r="S381" s="51"/>
     </row>
-    <row r="382" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" s="51"/>
       <c r="B382" s="51"/>
       <c r="C382" s="51"/>
@@ -11635,7 +11638,7 @@
       <c r="R382" s="51"/>
       <c r="S382" s="51"/>
     </row>
-    <row r="383" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" s="51"/>
       <c r="B383" s="51"/>
       <c r="C383" s="51"/>
@@ -11656,7 +11659,7 @@
       <c r="R383" s="51"/>
       <c r="S383" s="51"/>
     </row>
-    <row r="384" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" s="51"/>
       <c r="B384" s="51"/>
       <c r="C384" s="51"/>
@@ -11677,7 +11680,7 @@
       <c r="R384" s="51"/>
       <c r="S384" s="51"/>
     </row>
-    <row r="385" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" s="51"/>
       <c r="B385" s="51"/>
       <c r="C385" s="51"/>
@@ -11698,7 +11701,7 @@
       <c r="R385" s="51"/>
       <c r="S385" s="51"/>
     </row>
-    <row r="386" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" s="51"/>
       <c r="B386" s="51"/>
       <c r="C386" s="51"/>
@@ -11719,7 +11722,7 @@
       <c r="R386" s="51"/>
       <c r="S386" s="51"/>
     </row>
-    <row r="387" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" s="51"/>
       <c r="B387" s="51"/>
       <c r="C387" s="51"/>
@@ -11740,7 +11743,7 @@
       <c r="R387" s="51"/>
       <c r="S387" s="51"/>
     </row>
-    <row r="388" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" s="51"/>
       <c r="B388" s="51"/>
       <c r="C388" s="51"/>
@@ -11761,7 +11764,7 @@
       <c r="R388" s="51"/>
       <c r="S388" s="51"/>
     </row>
-    <row r="389" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" s="51"/>
       <c r="B389" s="51"/>
       <c r="C389" s="51"/>
@@ -11782,7 +11785,7 @@
       <c r="R389" s="51"/>
       <c r="S389" s="51"/>
     </row>
-    <row r="390" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" s="51"/>
       <c r="B390" s="51"/>
       <c r="C390" s="51"/>
@@ -11803,7 +11806,7 @@
       <c r="R390" s="51"/>
       <c r="S390" s="51"/>
     </row>
-    <row r="391" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" s="51"/>
       <c r="B391" s="51"/>
       <c r="C391" s="51"/>
@@ -11824,7 +11827,7 @@
       <c r="R391" s="51"/>
       <c r="S391" s="51"/>
     </row>
-    <row r="392" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" s="51"/>
       <c r="B392" s="51"/>
       <c r="C392" s="51"/>
@@ -11845,7 +11848,7 @@
       <c r="R392" s="51"/>
       <c r="S392" s="51"/>
     </row>
-    <row r="393" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" s="51"/>
       <c r="B393" s="51"/>
       <c r="C393" s="51"/>
@@ -11866,7 +11869,7 @@
       <c r="R393" s="51"/>
       <c r="S393" s="51"/>
     </row>
-    <row r="394" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" s="51"/>
       <c r="B394" s="51"/>
       <c r="C394" s="51"/>
@@ -11887,7 +11890,7 @@
       <c r="R394" s="51"/>
       <c r="S394" s="51"/>
     </row>
-    <row r="395" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" s="51"/>
       <c r="B395" s="51"/>
       <c r="C395" s="51"/>
@@ -11908,7 +11911,7 @@
       <c r="R395" s="51"/>
       <c r="S395" s="51"/>
     </row>
-    <row r="396" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" s="51"/>
       <c r="B396" s="51"/>
       <c r="C396" s="51"/>
@@ -11929,7 +11932,7 @@
       <c r="R396" s="51"/>
       <c r="S396" s="51"/>
     </row>
-    <row r="397" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" s="51"/>
       <c r="B397" s="51"/>
       <c r="C397" s="51"/>
@@ -11950,7 +11953,7 @@
       <c r="R397" s="51"/>
       <c r="S397" s="51"/>
     </row>
-    <row r="398" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" s="51"/>
       <c r="B398" s="51"/>
       <c r="C398" s="51"/>
@@ -11971,7 +11974,7 @@
       <c r="R398" s="51"/>
       <c r="S398" s="51"/>
     </row>
-    <row r="399" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" s="51"/>
       <c r="B399" s="51"/>
       <c r="C399" s="51"/>
@@ -11992,7 +11995,7 @@
       <c r="R399" s="51"/>
       <c r="S399" s="51"/>
     </row>
-    <row r="400" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" s="51"/>
       <c r="B400" s="51"/>
       <c r="C400" s="51"/>
@@ -12013,7 +12016,7 @@
       <c r="R400" s="51"/>
       <c r="S400" s="51"/>
     </row>
-    <row r="401" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" s="51"/>
       <c r="B401" s="51"/>
       <c r="C401" s="51"/>
@@ -12034,7 +12037,7 @@
       <c r="R401" s="51"/>
       <c r="S401" s="51"/>
     </row>
-    <row r="402" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" s="51"/>
       <c r="B402" s="51"/>
       <c r="C402" s="51"/>
@@ -12055,7 +12058,7 @@
       <c r="R402" s="51"/>
       <c r="S402" s="51"/>
     </row>
-    <row r="403" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" s="51"/>
       <c r="B403" s="51"/>
       <c r="C403" s="51"/>
@@ -12076,7 +12079,7 @@
       <c r="R403" s="51"/>
       <c r="S403" s="51"/>
     </row>
-    <row r="404" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" s="51"/>
       <c r="B404" s="51"/>
       <c r="C404" s="51"/>
@@ -12097,7 +12100,7 @@
       <c r="R404" s="51"/>
       <c r="S404" s="51"/>
     </row>
-    <row r="405" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" s="51"/>
       <c r="B405" s="51"/>
       <c r="C405" s="51"/>
@@ -12118,7 +12121,7 @@
       <c r="R405" s="51"/>
       <c r="S405" s="51"/>
     </row>
-    <row r="406" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" s="51"/>
       <c r="B406" s="51"/>
       <c r="C406" s="51"/>
@@ -12139,7 +12142,7 @@
       <c r="R406" s="51"/>
       <c r="S406" s="51"/>
     </row>
-    <row r="407" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" s="51"/>
       <c r="B407" s="51"/>
       <c r="C407" s="51"/>
@@ -12160,7 +12163,7 @@
       <c r="R407" s="51"/>
       <c r="S407" s="51"/>
     </row>
-    <row r="408" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" s="51"/>
       <c r="B408" s="51"/>
       <c r="C408" s="51"/>
@@ -12181,7 +12184,7 @@
       <c r="R408" s="51"/>
       <c r="S408" s="51"/>
     </row>
-    <row r="409" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" s="51"/>
       <c r="B409" s="51"/>
       <c r="C409" s="51"/>
@@ -12202,7 +12205,7 @@
       <c r="R409" s="51"/>
       <c r="S409" s="51"/>
     </row>
-    <row r="410" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" s="51"/>
       <c r="B410" s="51"/>
       <c r="C410" s="51"/>
@@ -12223,7 +12226,7 @@
       <c r="R410" s="51"/>
       <c r="S410" s="51"/>
     </row>
-    <row r="411" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" s="51"/>
       <c r="B411" s="51"/>
       <c r="C411" s="51"/>
@@ -12244,7 +12247,7 @@
       <c r="R411" s="51"/>
       <c r="S411" s="51"/>
     </row>
-    <row r="412" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" s="51"/>
       <c r="B412" s="51"/>
       <c r="C412" s="51"/>
@@ -12265,7 +12268,7 @@
       <c r="R412" s="51"/>
       <c r="S412" s="51"/>
     </row>
-    <row r="413" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" s="51"/>
       <c r="B413" s="51"/>
       <c r="C413" s="51"/>
@@ -12286,7 +12289,7 @@
       <c r="R413" s="51"/>
       <c r="S413" s="51"/>
     </row>
-    <row r="414" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" s="51"/>
       <c r="B414" s="51"/>
       <c r="C414" s="51"/>
@@ -12307,7 +12310,7 @@
       <c r="R414" s="51"/>
       <c r="S414" s="51"/>
     </row>
-    <row r="415" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" s="51"/>
       <c r="B415" s="51"/>
       <c r="C415" s="51"/>
@@ -12328,7 +12331,7 @@
       <c r="R415" s="51"/>
       <c r="S415" s="51"/>
     </row>
-    <row r="416" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" s="51"/>
       <c r="B416" s="51"/>
       <c r="C416" s="51"/>
@@ -12349,7 +12352,7 @@
       <c r="R416" s="51"/>
       <c r="S416" s="51"/>
     </row>
-    <row r="417" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" s="51"/>
       <c r="B417" s="51"/>
       <c r="C417" s="51"/>
@@ -12370,7 +12373,7 @@
       <c r="R417" s="51"/>
       <c r="S417" s="51"/>
     </row>
-    <row r="418" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" s="51"/>
       <c r="B418" s="51"/>
       <c r="C418" s="51"/>
@@ -12391,7 +12394,7 @@
       <c r="R418" s="51"/>
       <c r="S418" s="51"/>
     </row>
-    <row r="419" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" s="51"/>
       <c r="B419" s="51"/>
       <c r="C419" s="51"/>
@@ -12412,7 +12415,7 @@
       <c r="R419" s="51"/>
       <c r="S419" s="51"/>
     </row>
-    <row r="420" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" s="51"/>
       <c r="B420" s="51"/>
       <c r="C420" s="51"/>
@@ -12433,7 +12436,7 @@
       <c r="R420" s="51"/>
       <c r="S420" s="51"/>
     </row>
-    <row r="421" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" s="51"/>
       <c r="B421" s="51"/>
       <c r="C421" s="51"/>
@@ -12454,7 +12457,7 @@
       <c r="R421" s="51"/>
       <c r="S421" s="51"/>
     </row>
-    <row r="422" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" s="51"/>
       <c r="B422" s="51"/>
       <c r="C422" s="51"/>
@@ -12475,7 +12478,7 @@
       <c r="R422" s="51"/>
       <c r="S422" s="51"/>
     </row>
-    <row r="423" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" s="51"/>
       <c r="B423" s="51"/>
       <c r="C423" s="51"/>
@@ -12496,7 +12499,7 @@
       <c r="R423" s="51"/>
       <c r="S423" s="51"/>
     </row>
-    <row r="424" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" s="51"/>
       <c r="B424" s="51"/>
       <c r="C424" s="51"/>
@@ -12517,7 +12520,7 @@
       <c r="R424" s="51"/>
       <c r="S424" s="51"/>
     </row>
-    <row r="425" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" s="51"/>
       <c r="B425" s="51"/>
       <c r="C425" s="51"/>
@@ -12538,7 +12541,7 @@
       <c r="R425" s="51"/>
       <c r="S425" s="51"/>
     </row>
-    <row r="426" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" s="51"/>
       <c r="B426" s="51"/>
       <c r="C426" s="51"/>
@@ -12559,7 +12562,7 @@
       <c r="R426" s="51"/>
       <c r="S426" s="51"/>
     </row>
-    <row r="427" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" s="51"/>
       <c r="B427" s="51"/>
       <c r="C427" s="51"/>
@@ -12580,7 +12583,7 @@
       <c r="R427" s="51"/>
       <c r="S427" s="51"/>
     </row>
-    <row r="428" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" s="51"/>
       <c r="B428" s="51"/>
       <c r="C428" s="51"/>
@@ -12601,7 +12604,7 @@
       <c r="R428" s="51"/>
       <c r="S428" s="51"/>
     </row>
-    <row r="429" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" s="51"/>
       <c r="B429" s="51"/>
       <c r="C429" s="51"/>
@@ -12622,7 +12625,7 @@
       <c r="R429" s="51"/>
       <c r="S429" s="51"/>
     </row>
-    <row r="430" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" s="51"/>
       <c r="B430" s="51"/>
       <c r="C430" s="51"/>
@@ -12643,7 +12646,7 @@
       <c r="R430" s="51"/>
       <c r="S430" s="51"/>
     </row>
-    <row r="431" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" s="51"/>
       <c r="B431" s="51"/>
       <c r="C431" s="51"/>
@@ -12664,7 +12667,7 @@
       <c r="R431" s="51"/>
       <c r="S431" s="51"/>
     </row>
-    <row r="432" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" s="51"/>
       <c r="B432" s="51"/>
       <c r="C432" s="51"/>
@@ -12685,7 +12688,7 @@
       <c r="R432" s="51"/>
       <c r="S432" s="51"/>
     </row>
-    <row r="433" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" s="51"/>
       <c r="B433" s="51"/>
       <c r="C433" s="51"/>
@@ -12706,7 +12709,7 @@
       <c r="R433" s="51"/>
       <c r="S433" s="51"/>
     </row>
-    <row r="434" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" s="51"/>
       <c r="B434" s="51"/>
       <c r="C434" s="51"/>
@@ -12727,7 +12730,7 @@
       <c r="R434" s="51"/>
       <c r="S434" s="51"/>
     </row>
-    <row r="435" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" s="51"/>
       <c r="B435" s="51"/>
       <c r="C435" s="51"/>
@@ -12748,7 +12751,7 @@
       <c r="R435" s="51"/>
       <c r="S435" s="51"/>
     </row>
-    <row r="436" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" s="51"/>
       <c r="B436" s="51"/>
       <c r="C436" s="51"/>
@@ -12769,7 +12772,7 @@
       <c r="R436" s="51"/>
       <c r="S436" s="51"/>
     </row>
-    <row r="437" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" s="51"/>
       <c r="B437" s="51"/>
       <c r="C437" s="51"/>
@@ -12790,7 +12793,7 @@
       <c r="R437" s="51"/>
       <c r="S437" s="51"/>
     </row>
-    <row r="438" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" s="51"/>
       <c r="B438" s="51"/>
       <c r="C438" s="51"/>
@@ -12811,7 +12814,7 @@
       <c r="R438" s="51"/>
       <c r="S438" s="51"/>
     </row>
-    <row r="439" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" s="51"/>
       <c r="B439" s="51"/>
       <c r="C439" s="51"/>
@@ -12832,7 +12835,7 @@
       <c r="R439" s="51"/>
       <c r="S439" s="51"/>
     </row>
-    <row r="440" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" s="51"/>
       <c r="B440" s="51"/>
       <c r="C440" s="51"/>
@@ -12853,7 +12856,7 @@
       <c r="R440" s="51"/>
       <c r="S440" s="51"/>
     </row>
-    <row r="441" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" s="51"/>
       <c r="B441" s="51"/>
       <c r="C441" s="51"/>
@@ -12874,7 +12877,7 @@
       <c r="R441" s="51"/>
       <c r="S441" s="51"/>
     </row>
-    <row r="442" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" s="51"/>
       <c r="B442" s="51"/>
       <c r="C442" s="51"/>
@@ -12895,7 +12898,7 @@
       <c r="R442" s="51"/>
       <c r="S442" s="51"/>
     </row>
-    <row r="443" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" s="51"/>
       <c r="B443" s="51"/>
       <c r="C443" s="51"/>
@@ -12916,7 +12919,7 @@
       <c r="R443" s="51"/>
       <c r="S443" s="51"/>
     </row>
-    <row r="444" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" s="51"/>
       <c r="B444" s="51"/>
       <c r="C444" s="51"/>
@@ -12937,7 +12940,7 @@
       <c r="R444" s="51"/>
       <c r="S444" s="51"/>
     </row>
-    <row r="445" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" s="51"/>
       <c r="B445" s="51"/>
       <c r="C445" s="51"/>
@@ -12958,7 +12961,7 @@
       <c r="R445" s="51"/>
       <c r="S445" s="51"/>
     </row>
-    <row r="446" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" s="51"/>
       <c r="B446" s="51"/>
       <c r="C446" s="51"/>
@@ -12979,7 +12982,7 @@
       <c r="R446" s="51"/>
       <c r="S446" s="51"/>
     </row>
-    <row r="447" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" s="51"/>
       <c r="B447" s="51"/>
       <c r="C447" s="51"/>
@@ -13000,7 +13003,7 @@
       <c r="R447" s="51"/>
       <c r="S447" s="51"/>
     </row>
-    <row r="448" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" s="51"/>
       <c r="B448" s="51"/>
       <c r="C448" s="51"/>
@@ -13021,7 +13024,7 @@
       <c r="R448" s="51"/>
       <c r="S448" s="51"/>
     </row>
-    <row r="449" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" s="51"/>
       <c r="B449" s="51"/>
       <c r="C449" s="51"/>
@@ -13042,7 +13045,7 @@
       <c r="R449" s="51"/>
       <c r="S449" s="51"/>
     </row>
-    <row r="450" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" s="51"/>
       <c r="B450" s="51"/>
       <c r="C450" s="51"/>
@@ -13063,7 +13066,7 @@
       <c r="R450" s="51"/>
       <c r="S450" s="51"/>
     </row>
-    <row r="451" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" s="51"/>
       <c r="B451" s="51"/>
       <c r="C451" s="51"/>
@@ -13116,18 +13119,18 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5546875" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.89453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5234375" customWidth="1"/>
+    <col min="3" max="3" width="10.3125" customWidth="1"/>
+    <col min="4" max="4" width="9.41796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="39" t="s">
         <v>67</v>
       </c>
@@ -13139,7 +13142,7 @@
       <c r="G1" s="40"/>
       <c r="H1" s="40"/>
     </row>
-    <row r="2" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="41" t="s">
         <v>68</v>
       </c>
@@ -13151,7 +13154,7 @@
       <c r="G2" s="42"/>
       <c r="H2" s="42"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="41"/>
       <c r="B3" s="42"/>
       <c r="C3" s="43" t="s">
@@ -13171,7 +13174,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="44" t="s">
         <v>57</v>
       </c>
@@ -13193,23 +13196,23 @@
         <v>98.63</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="98" t="s">
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="99"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H5" s="101"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="46"/>
       <c r="B6" s="43"/>
       <c r="C6" s="43" t="s">
@@ -13231,7 +13234,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="47"/>
       <c r="B7" s="47" t="s">
         <v>79</v>
@@ -13259,7 +13262,7 @@
         <v>98.63</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="42"/>
       <c r="B8" s="42" t="s">
         <v>80</v>
@@ -13287,23 +13290,23 @@
         <v>98.63</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="98" t="s">
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="99"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H9" s="101"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="46"/>
       <c r="B10" s="43"/>
       <c r="C10" s="43" t="s">
@@ -13325,7 +13328,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="40"/>
       <c r="B11" s="42" t="s">
         <v>83</v>
@@ -13353,7 +13356,7 @@
         <v>98.63</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="40"/>
       <c r="B12" s="42" t="s">
         <v>84</v>
@@ -13381,7 +13384,7 @@
         <v>98.63</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="40"/>
       <c r="B13" s="42" t="s">
         <v>85</v>
@@ -13409,7 +13412,7 @@
         <v>96.87</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="40"/>
       <c r="B14" s="42" t="s">
         <v>86</v>
@@ -13437,7 +13440,7 @@
         <v>86.53</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="40"/>
       <c r="B15" s="40"/>
       <c r="C15" s="40"/>
@@ -13447,7 +13450,7 @@
       <c r="G15" s="40"/>
       <c r="H15" s="40"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="39" t="s">
         <v>87</v>
       </c>
@@ -13459,7 +13462,7 @@
       <c r="G16" s="40"/>
       <c r="H16" s="40"/>
     </row>
-    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="41" t="s">
         <v>88</v>
       </c>
@@ -13471,7 +13474,7 @@
       <c r="G17" s="42"/>
       <c r="H17" s="42"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="41"/>
       <c r="B18" s="42"/>
       <c r="C18" s="42"/>
@@ -13485,7 +13488,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="44" t="s">
         <v>57</v>
       </c>
@@ -13501,23 +13504,23 @@
         <v>96.34</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="98" t="s">
+      <c r="B20" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="98" t="s">
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="H20" s="99"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H20" s="101"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="46" t="s">
         <v>89</v>
       </c>
@@ -13539,7 +13542,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="42"/>
       <c r="B22" s="42" t="s">
         <v>79</v>
@@ -13557,7 +13560,7 @@
       </c>
       <c r="H22" s="42"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="42"/>
       <c r="B23" s="42" t="s">
         <v>80</v>
@@ -13575,23 +13578,23 @@
       </c>
       <c r="H23" s="42"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="98" t="s">
+      <c r="B24" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="98" t="s">
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="H24" s="99"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H24" s="101"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="46"/>
       <c r="B25" s="43"/>
       <c r="C25" s="43" t="s">
@@ -13611,7 +13614,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="40"/>
       <c r="B26" s="42" t="s">
         <v>83</v>
@@ -13633,7 +13636,7 @@
         <v>96.28</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="40"/>
       <c r="B27" s="42" t="s">
         <v>84</v>
@@ -13655,7 +13658,7 @@
         <v>89.63</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="40"/>
       <c r="B28" s="42" t="s">
         <v>85</v>
@@ -13677,7 +13680,7 @@
         <v>96.27</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="40"/>
       <c r="B29" s="42" t="s">
         <v>86</v>
@@ -13699,7 +13702,7 @@
         <v>88.73</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="40"/>
       <c r="B30" s="43" t="s">
         <v>92</v>
@@ -13715,7 +13718,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="40"/>
       <c r="B31" s="43"/>
       <c r="C31" s="43" t="s">
@@ -13733,7 +13736,7 @@
         <v>99.183000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="40"/>
       <c r="B32" s="42" t="s">
         <v>83</v>
@@ -13753,7 +13756,7 @@
       </c>
       <c r="H32" s="40"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="40"/>
       <c r="B33" s="42" t="s">
         <v>84</v>
@@ -13773,7 +13776,7 @@
       </c>
       <c r="H33" s="40"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="40"/>
       <c r="B34" s="42" t="s">
         <v>85</v>
@@ -13795,7 +13798,7 @@
         <v>95.816000000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="40"/>
       <c r="B35" s="42" t="s">
         <v>86</v>
@@ -13840,33 +13843,33 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.21875" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.20703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1015625" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.5546875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="25.21875" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.5234375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="25.20703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.20703125" style="17" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="17" customWidth="1"/>
-    <col min="9" max="9" width="4.44140625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="4.41796875" style="17" customWidth="1"/>
     <col min="10" max="10" width="11" style="17" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.77734375" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.21875" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.109375" style="17" customWidth="1"/>
-    <col min="15" max="15" width="14.21875" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.77734375" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.21875" style="17" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.109375" style="17" customWidth="1"/>
-    <col min="19" max="19" width="23.21875" style="17" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.88671875" style="17" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.21875" style="17" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.88671875" style="17"/>
+    <col min="11" max="11" width="15.1015625" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7890625" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.20703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.1015625" style="17" customWidth="1"/>
+    <col min="15" max="15" width="14.20703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7890625" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.20703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.1015625" style="17" customWidth="1"/>
+    <col min="19" max="19" width="23.20703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.89453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.20703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.89453125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="C1" s="30" t="s">
         <v>41</v>
       </c>
@@ -13876,7 +13879,7 @@
       </c>
       <c r="O1" s="12"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="12" t="s">
         <v>30</v>
       </c>
@@ -13933,7 +13936,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="12" t="s">
         <v>15</v>
       </c>
@@ -13991,7 +13994,7 @@
         <v>0.102040816326531</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="12" t="s">
         <v>16</v>
       </c>
@@ -14049,7 +14052,7 @@
         <v>6.2555066079295099</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="12" t="s">
         <v>17</v>
       </c>
@@ -14107,7 +14110,7 @@
         <v>9.68992248062015E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="12" t="s">
         <v>18</v>
       </c>
@@ -14165,7 +14168,7 @@
         <v>22.574257425742498</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="12" t="s">
         <v>19</v>
       </c>
@@ -14223,7 +14226,7 @@
         <v>0.10183299389002</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="12" t="s">
         <v>20</v>
       </c>
@@ -14281,7 +14284,7 @@
         <v>13.677130044843015</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="12" t="s">
         <v>21</v>
       </c>
@@ -14339,7 +14342,7 @@
         <v>3.9665970772442525</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="12" t="s">
         <v>22</v>
       </c>
@@ -14397,7 +14400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="12" t="s">
         <v>23</v>
       </c>
@@ -14455,7 +14458,7 @@
         <v>1.2320328542094401</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="12" t="s">
         <v>24</v>
       </c>
@@ -14513,7 +14516,7 @@
         <v>9.9108027750247699E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="19"/>
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
@@ -14530,7 +14533,7 @@
       <c r="P13" s="24"/>
       <c r="Q13" s="24"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" s="30" t="s">
         <v>39</v>
       </c>
@@ -14539,7 +14542,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="12" t="s">
         <v>30</v>
       </c>
@@ -14595,7 +14598,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="12" t="s">
         <v>15</v>
       </c>
@@ -14654,7 +14657,7 @@
         <v>31.530612244897963</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="12" t="s">
         <v>16</v>
       </c>
@@ -14713,7 +14716,7 @@
         <v>96.387665198237883</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="12" t="s">
         <v>17</v>
       </c>
@@ -14772,7 +14775,7 @@
         <v>47.965116279069768</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="12" t="s">
         <v>18</v>
       </c>
@@ -14831,7 +14834,7 @@
         <v>90.297029702970306</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="12" t="s">
         <v>19</v>
       </c>
@@ -14890,7 +14893,7 @@
         <v>97.250509164969458</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="12" t="s">
         <v>20</v>
       </c>
@@ -14949,7 +14952,7 @@
         <v>94.843049327354265</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="12" t="s">
         <v>21</v>
       </c>
@@ -15008,7 +15011,7 @@
         <v>69.51983298538623</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="12" t="s">
         <v>22</v>
       </c>
@@ -15067,7 +15070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="12" t="s">
         <v>23</v>
       </c>
@@ -15126,7 +15129,7 @@
         <v>94.969199178644757</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="12" t="s">
         <v>24</v>
       </c>
@@ -15185,7 +15188,7 @@
         <v>85.926660059464822</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="L29" s="22"/>
       <c r="S29" s="13" t="s">
         <v>38</v>
@@ -15197,7 +15200,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="L30" s="22"/>
       <c r="S30" s="18">
         <v>0.10204081632653</v>
@@ -15210,7 +15213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="L31" s="22"/>
       <c r="S31" s="18">
         <v>0</v>
@@ -15223,7 +15226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="L32" s="22"/>
       <c r="S32" s="18">
         <v>0</v>
@@ -15236,7 +15239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="12:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="12:21" x14ac:dyDescent="0.55000000000000004">
       <c r="L33" s="22"/>
       <c r="S33" s="18">
         <v>0</v>
@@ -15249,7 +15252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="12:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="12:21" x14ac:dyDescent="0.55000000000000004">
       <c r="L34" s="22"/>
       <c r="S34" s="18">
         <v>0.10183299389002</v>
@@ -15262,7 +15265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="12:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="12:21" x14ac:dyDescent="0.55000000000000004">
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
@@ -15281,7 +15284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="12:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="12:21" x14ac:dyDescent="0.55000000000000004">
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
@@ -15300,7 +15303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="12:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="12:21" x14ac:dyDescent="0.55000000000000004">
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
@@ -15319,7 +15322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="12:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="12:21" x14ac:dyDescent="0.55000000000000004">
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
@@ -15338,7 +15341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="12:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="12:21" x14ac:dyDescent="0.55000000000000004">
       <c r="S39" s="18">
         <v>0</v>
       </c>
@@ -15364,18 +15367,18 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="34" style="17" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="28"/>
+    <col min="2" max="16384" width="8.89453125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A1" s="31" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="26" t="s">
         <v>46</v>
       </c>
@@ -15413,7 +15416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="17">
         <v>0</v>
       </c>
@@ -15451,7 +15454,7 @@
         <v>99.510383251730545</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="17">
         <f>A3+1</f>
         <v>1</v>
@@ -15490,7 +15493,7 @@
         <v>98.516760605161664</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="17">
         <f t="shared" ref="A5:A12" si="0">A4+1</f>
         <v>2</v>
@@ -15529,7 +15532,7 @@
         <v>97.029204431017121</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="17">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -15568,7 +15571,7 @@
         <v>95.85711955635297</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -15607,7 +15610,7 @@
         <v>92.622389592605273</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -15646,7 +15649,7 @@
         <v>97.933960523888587</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="17">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -15685,7 +15688,7 @@
         <v>93.088881378844206</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="17">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -15724,7 +15727,7 @@
         <v>89.130087789305662</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="17">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -15763,7 +15766,7 @@
         <v>84.566740728080674</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="17">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -15802,7 +15805,7 @@
         <v>98.083711548159357</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="19"/>
       <c r="B13" s="3"/>
       <c r="C13" s="8"/>
@@ -15816,13 +15819,13 @@
       <c r="K13" s="8"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A14" s="31" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="26" t="s">
         <v>47</v>
       </c>
@@ -15870,7 +15873,7 @@
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="17">
         <v>0</v>
       </c>
@@ -15918,7 +15921,7 @@
       <c r="V16" s="8"/>
       <c r="W16" s="8"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="17">
         <f>A16+1</f>
         <v>1</v>
@@ -15967,7 +15970,7 @@
       <c r="V17" s="8"/>
       <c r="W17" s="8"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="17">
         <f t="shared" ref="A18:A25" si="1">A17+1</f>
         <v>2</v>
@@ -16016,7 +16019,7 @@
       <c r="V18" s="8"/>
       <c r="W18" s="8"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="17">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -16065,7 +16068,7 @@
       <c r="V19" s="8"/>
       <c r="W19" s="8"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="17">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -16114,7 +16117,7 @@
       <c r="V20" s="8"/>
       <c r="W20" s="8"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="17">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -16163,7 +16166,7 @@
       <c r="V21" s="8"/>
       <c r="W21" s="8"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="17">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -16212,7 +16215,7 @@
       <c r="V22" s="8"/>
       <c r="W22" s="8"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="17">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -16261,7 +16264,7 @@
       <c r="V23" s="8"/>
       <c r="W23" s="8"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="17">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -16310,7 +16313,7 @@
       <c r="V24" s="8"/>
       <c r="W24" s="8"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="17">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -16359,7 +16362,7 @@
       <c r="V25" s="8"/>
       <c r="W25" s="8"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
@@ -16371,7 +16374,7 @@
       <c r="V26" s="8"/>
       <c r="W26" s="8"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
@@ -16383,7 +16386,7 @@
       <c r="V27" s="8"/>
       <c r="W27" s="8"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
@@ -16395,7 +16398,7 @@
       <c r="V28" s="8"/>
       <c r="W28" s="8"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
       <c r="P29" s="8"/>
@@ -16407,7 +16410,7 @@
       <c r="V29" s="8"/>
       <c r="W29" s="8"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
@@ -16419,7 +16422,7 @@
       <c r="V30" s="8"/>
       <c r="W30" s="8"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
       <c r="P31" s="8"/>
@@ -16431,7 +16434,7 @@
       <c r="V31" s="8"/>
       <c r="W31" s="8"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
@@ -16443,7 +16446,7 @@
       <c r="V32" s="8"/>
       <c r="W32" s="8"/>
     </row>
-    <row r="33" spans="14:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="14:23" x14ac:dyDescent="0.55000000000000004">
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
       <c r="P33" s="8"/>
@@ -16455,7 +16458,7 @@
       <c r="V33" s="8"/>
       <c r="W33" s="8"/>
     </row>
-    <row r="34" spans="14:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="14:23" x14ac:dyDescent="0.55000000000000004">
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
@@ -16467,7 +16470,7 @@
       <c r="V34" s="8"/>
       <c r="W34" s="8"/>
     </row>
-    <row r="35" spans="14:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="14:23" x14ac:dyDescent="0.55000000000000004">
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
       <c r="P35" s="8"/>
@@ -16493,18 +16496,18 @@
       <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" style="17" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="28"/>
+    <col min="1" max="1" width="33.68359375" style="17" customWidth="1"/>
+    <col min="2" max="16384" width="8.89453125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A1" s="31" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="25" t="s">
         <v>44</v>
       </c>
@@ -16545,7 +16548,7 @@
       <c r="N2" s="4"/>
       <c r="O2" s="29"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="17">
         <v>0</v>
       </c>
@@ -16595,7 +16598,7 @@
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="17">
         <f>A3+1</f>
         <v>1</v>
@@ -16646,7 +16649,7 @@
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="17">
         <f t="shared" ref="A5:A12" si="0">A4+1</f>
         <v>2</v>
@@ -16697,7 +16700,7 @@
       <c r="W5" s="8"/>
       <c r="X5" s="8"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="17">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -16748,7 +16751,7 @@
       <c r="W6" s="8"/>
       <c r="X6" s="8"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -16799,7 +16802,7 @@
       <c r="W7" s="8"/>
       <c r="X7" s="8"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -16850,7 +16853,7 @@
       <c r="W8" s="8"/>
       <c r="X8" s="8"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="17">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -16901,7 +16904,7 @@
       <c r="W9" s="8"/>
       <c r="X9" s="8"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="17">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -16952,7 +16955,7 @@
       <c r="W10" s="8"/>
       <c r="X10" s="8"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="17">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -17003,7 +17006,7 @@
       <c r="W11" s="8"/>
       <c r="X11" s="8"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="17">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -17054,7 +17057,7 @@
       <c r="W12" s="8"/>
       <c r="X12" s="8"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="3"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -17079,7 +17082,7 @@
       <c r="W13" s="8"/>
       <c r="X13" s="8"/>
     </row>
-    <row r="14" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A14" s="31" t="s">
         <v>40</v>
       </c>
@@ -17107,7 +17110,7 @@
       <c r="W14" s="8"/>
       <c r="X14" s="8"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="25" t="s">
         <v>44</v>
       </c>
@@ -17157,7 +17160,7 @@
       <c r="W15" s="8"/>
       <c r="X15" s="8"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="17">
         <v>0</v>
       </c>
@@ -17207,7 +17210,7 @@
       <c r="W16" s="8"/>
       <c r="X16" s="8"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="17">
         <f>A16+1</f>
         <v>1</v>
@@ -17258,7 +17261,7 @@
       <c r="W17" s="8"/>
       <c r="X17" s="8"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="17">
         <f t="shared" ref="A18:A25" si="1">A17+1</f>
         <v>2</v>
@@ -17309,7 +17312,7 @@
       <c r="W18" s="8"/>
       <c r="X18" s="8"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="17">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -17360,7 +17363,7 @@
       <c r="W19" s="8"/>
       <c r="X19" s="8"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="17">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -17411,7 +17414,7 @@
       <c r="W20" s="8"/>
       <c r="X20" s="8"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="17">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -17462,7 +17465,7 @@
       <c r="W21" s="8"/>
       <c r="X21" s="8"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="17">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -17513,7 +17516,7 @@
       <c r="W22" s="8"/>
       <c r="X22" s="8"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="17">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -17564,7 +17567,7 @@
       <c r="W23" s="8"/>
       <c r="X23" s="8"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="17">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -17615,7 +17618,7 @@
       <c r="W24" s="8"/>
       <c r="X24" s="8"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="17">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -17666,7 +17669,7 @@
       <c r="W25" s="8"/>
       <c r="X25" s="8"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="20"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -17692,7 +17695,7 @@
       <c r="W26" s="8"/>
       <c r="X26" s="8"/>
     </row>
-    <row r="27" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A27" s="31" t="s">
         <v>66</v>
       </c>
@@ -17709,7 +17712,7 @@
       <c r="L27" s="29"/>
       <c r="M27" s="29"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="25" t="s">
         <v>43</v>
       </c>
@@ -17748,7 +17751,7 @@
       </c>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="17">
         <v>0</v>
       </c>
@@ -17787,7 +17790,7 @@
       </c>
       <c r="M29" s="5"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="17">
         <f>A29+1</f>
         <v>1</v>
@@ -17827,7 +17830,7 @@
       </c>
       <c r="M30" s="6"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="17">
         <f t="shared" ref="A31:A38" si="2">A30+1</f>
         <v>2</v>
@@ -17867,7 +17870,7 @@
       </c>
       <c r="M31" s="6"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="17">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -17907,7 +17910,7 @@
       </c>
       <c r="M32" s="6"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="17">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -17947,7 +17950,7 @@
       </c>
       <c r="M33" s="6"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="17">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -17987,7 +17990,7 @@
       </c>
       <c r="M34" s="6"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="17">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -18027,7 +18030,7 @@
       </c>
       <c r="M35" s="6"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="17">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -18067,7 +18070,7 @@
       </c>
       <c r="M36" s="5"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="17">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -18107,7 +18110,7 @@
       </c>
       <c r="M37" s="6"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="17">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -18147,7 +18150,7 @@
       </c>
       <c r="M38" s="6"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="19"/>
       <c r="B39" s="29"/>
       <c r="N39" s="8"/>
@@ -18161,7 +18164,7 @@
       <c r="V39" s="8"/>
       <c r="W39" s="8"/>
     </row>
-    <row r="40" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A40" s="35" t="s">
         <v>40</v>
       </c>
@@ -18189,7 +18192,7 @@
       <c r="V40" s="8"/>
       <c r="W40" s="8"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="25" t="s">
         <v>43</v>
       </c>
@@ -18237,7 +18240,7 @@
       <c r="V41" s="8"/>
       <c r="W41" s="8"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="17">
         <v>0</v>
       </c>
@@ -18285,7 +18288,7 @@
       <c r="V42" s="8"/>
       <c r="W42" s="8"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="17">
         <f>A42+1</f>
         <v>1</v>
@@ -18334,7 +18337,7 @@
       <c r="V43" s="8"/>
       <c r="W43" s="8"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="17">
         <f t="shared" ref="A44:A51" si="3">A43+1</f>
         <v>2</v>
@@ -18383,7 +18386,7 @@
       <c r="V44" s="7"/>
       <c r="W44" s="7"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="17">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -18432,7 +18435,7 @@
       <c r="V45" s="8"/>
       <c r="W45" s="8"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="17">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -18481,7 +18484,7 @@
       <c r="V46" s="8"/>
       <c r="W46" s="8"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="17">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -18530,7 +18533,7 @@
       <c r="V47" s="8"/>
       <c r="W47" s="8"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="17">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -18579,7 +18582,7 @@
       <c r="V48" s="8"/>
       <c r="W48" s="8"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="17">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -18618,7 +18621,7 @@
         <v>40.931615460852328</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="17">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -18657,7 +18660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="17">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -18710,18 +18713,18 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="8.88671875" style="17"/>
-    <col min="14" max="14" width="14.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" style="17" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="17"/>
+    <col min="1" max="1" width="15.3125" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.68359375" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5234375" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="8.89453125" style="17"/>
+    <col min="14" max="14" width="14.68359375" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.68359375" style="17" customWidth="1"/>
+    <col min="16" max="16384" width="8.89453125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="23" t="s">
         <v>33</v>
       </c>
@@ -18768,7 +18771,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="12" t="s">
         <v>57</v>
       </c>
@@ -18812,7 +18815,7 @@
         <v>10.38</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="12">
         <v>5</v>
       </c>
@@ -18862,7 +18865,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="12">
         <v>10</v>
       </c>
@@ -18915,7 +18918,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="12">
         <v>15</v>
       </c>
@@ -18971,7 +18974,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="12">
         <v>20</v>
       </c>
@@ -19030,7 +19033,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="12">
         <v>30</v>
       </c>
@@ -19092,12 +19095,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" s="37" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="37" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="12" t="s">
         <v>57</v>
       </c>
@@ -19139,7 +19142,7 @@
         <v>98.99</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="12" t="s">
         <v>61</v>
       </c>
@@ -19181,7 +19184,7 @@
         <v>99.05</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="12" t="s">
         <v>29</v>
       </c>
@@ -19232,7 +19235,7 @@
         <v>6.0000000000002274E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -19248,7 +19251,7 @@
       <c r="M12" s="34"/>
       <c r="N12" s="34"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="12" t="s">
         <v>62</v>
       </c>
@@ -19290,7 +19293,7 @@
         <v>98.63</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="12" t="s">
         <v>61</v>
       </c>
@@ -19332,7 +19335,7 @@
         <v>98.35</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="12" t="s">
         <v>29</v>
       </c>
@@ -19383,7 +19386,7 @@
         <v>-0.28000000000000114</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -19399,7 +19402,7 @@
       <c r="M16" s="34"/>
       <c r="N16" s="32"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="12" t="s">
         <v>57</v>
       </c>
@@ -19441,7 +19444,7 @@
         <v>10.38</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="12" t="s">
         <v>61</v>
       </c>
@@ -19483,7 +19486,7 @@
         <v>44.99</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="12" t="s">
         <v>29</v>
       </c>
@@ -19532,62 +19535,62 @@
         <v>34.61</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -19606,29 +19609,29 @@
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" style="51" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="51" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5234375" style="51" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7890625" style="51" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.68359375" style="51" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="51" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.88671875" style="51" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="51"/>
-    <col min="7" max="7" width="30.5546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" style="51" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="51" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.89453125" style="51" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.89453125" style="51"/>
+    <col min="7" max="7" width="30.5234375" style="51" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7890625" style="51" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.68359375" style="51" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" style="51" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.88671875" style="51" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="51"/>
-    <col min="13" max="13" width="30.5546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.77734375" style="51" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" style="51" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.89453125" style="51" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.89453125" style="51"/>
+    <col min="13" max="13" width="30.5234375" style="51" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7890625" style="51" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.68359375" style="51" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" style="51" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.88671875" style="51" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="51"/>
+    <col min="17" max="17" width="6.89453125" style="51" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.89453125" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="55" t="s">
         <v>98</v>
       </c>
@@ -19653,7 +19656,7 @@
       <c r="P1" s="55"/>
       <c r="Q1" s="55"/>
     </row>
-    <row r="2" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="56" t="s">
         <v>94</v>
       </c>
@@ -19702,7 +19705,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="57">
         <v>0</v>
       </c>
@@ -19751,7 +19754,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="57">
         <v>1</v>
       </c>
@@ -19800,7 +19803,7 @@
         <v>20.46</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="57">
         <v>2</v>
       </c>
@@ -19849,7 +19852,7 @@
         <v>18.29</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="57">
         <v>3</v>
       </c>
@@ -19898,7 +19901,7 @@
         <v>17.760000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="57">
         <v>4</v>
       </c>
@@ -19947,7 +19950,7 @@
         <v>18.149999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="57">
         <v>5</v>
       </c>
@@ -19996,7 +19999,7 @@
         <v>16.77</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="57">
         <v>6</v>
       </c>
@@ -20045,7 +20048,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="57">
         <v>8</v>
       </c>
@@ -20094,7 +20097,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="57">
         <v>9</v>
       </c>
@@ -20143,7 +20146,7 @@
         <v>19.68</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="57" t="s">
         <v>97</v>
       </c>
@@ -20174,7 +20177,7 @@
       <c r="P12" s="57"/>
       <c r="Q12" s="57"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="62" t="s">
         <v>109</v>
       </c>
@@ -20205,7 +20208,7 @@
       <c r="P13" s="57"/>
       <c r="Q13" s="57"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="62" t="s">
         <v>110</v>
       </c>
@@ -20236,7 +20239,7 @@
       <c r="P14" s="57"/>
       <c r="Q14" s="57"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="62" t="s">
         <v>105</v>
       </c>
@@ -20267,7 +20270,7 @@
       <c r="P15" s="57"/>
       <c r="Q15" s="57"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="62" t="s">
         <v>111</v>
       </c>
@@ -20298,7 +20301,7 @@
       <c r="P16" s="57"/>
       <c r="Q16" s="57"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="57" t="s">
         <v>112</v>
       </c>
@@ -20329,7 +20332,7 @@
       <c r="P17" s="57"/>
       <c r="Q17" s="57"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="60"/>
       <c r="B18" s="60"/>
       <c r="C18" s="60"/>
@@ -20348,7 +20351,7 @@
       <c r="P18" s="61"/>
       <c r="Q18" s="60"/>
     </row>
-    <row r="19" spans="1:17" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" s="52" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="55" t="s">
         <v>101</v>
       </c>
@@ -20371,7 +20374,7 @@
       <c r="P19" s="53"/>
       <c r="Q19" s="53"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="56" t="s">
         <v>94</v>
       </c>
@@ -20410,7 +20413,7 @@
       <c r="P20" s="53"/>
       <c r="Q20" s="53"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="57">
         <v>0</v>
       </c>
@@ -20449,7 +20452,7 @@
       <c r="P21" s="53"/>
       <c r="Q21" s="53"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="57">
         <v>1</v>
       </c>
@@ -20488,7 +20491,7 @@
       <c r="P22" s="53"/>
       <c r="Q22" s="53"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="57">
         <v>2</v>
       </c>
@@ -20527,7 +20530,7 @@
       <c r="P23" s="53"/>
       <c r="Q23" s="53"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="57">
         <v>3</v>
       </c>
@@ -20566,7 +20569,7 @@
       <c r="P24" s="53"/>
       <c r="Q24" s="53"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="57">
         <v>4</v>
       </c>
@@ -20605,7 +20608,7 @@
       <c r="P25" s="53"/>
       <c r="Q25" s="53"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="57">
         <v>5</v>
       </c>
@@ -20644,7 +20647,7 @@
       <c r="P26" s="53"/>
       <c r="Q26" s="53"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="57">
         <v>6</v>
       </c>
@@ -20683,7 +20686,7 @@
       <c r="P27" s="53"/>
       <c r="Q27" s="53"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="57">
         <v>7</v>
       </c>
@@ -20722,7 +20725,7 @@
       <c r="P28" s="53"/>
       <c r="Q28" s="53"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="57">
         <v>8</v>
       </c>
@@ -20761,7 +20764,7 @@
       <c r="P29" s="53"/>
       <c r="Q29" s="53"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="57">
         <v>9</v>
       </c>
@@ -20800,7 +20803,7 @@
       <c r="P30" s="53"/>
       <c r="Q30" s="53"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="57" t="s">
         <v>97</v>
       </c>
@@ -20827,7 +20830,7 @@
       <c r="P31" s="53"/>
       <c r="Q31" s="53"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="62" t="s">
         <v>109</v>
       </c>
@@ -20854,7 +20857,7 @@
       <c r="P32" s="53"/>
       <c r="Q32" s="53"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="62" t="s">
         <v>110</v>
       </c>
@@ -20875,7 +20878,7 @@
       <c r="J33" s="57"/>
       <c r="K33" s="57"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="62" t="s">
         <v>105</v>
       </c>
@@ -20896,7 +20899,7 @@
       <c r="J34" s="57"/>
       <c r="K34" s="57"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="62" t="s">
         <v>111</v>
       </c>
@@ -20917,7 +20920,7 @@
       <c r="J35" s="57"/>
       <c r="K35" s="57"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="57" t="s">
         <v>112</v>
       </c>
@@ -20947,22 +20950,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02550D39-0834-49AB-9810-9D5EA2ED264D}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="53" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.68359375" style="53" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="53" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.88671875" style="53"/>
-    <col min="7" max="7" width="26.88671875" style="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.68359375" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.89453125" style="53"/>
+    <col min="7" max="7" width="26.89453125" style="53" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="53" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="53"/>
+    <col min="9" max="16384" width="8.89453125" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="55" t="s">
         <v>101</v>
       </c>
@@ -20980,7 +20983,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="56" t="s">
         <v>94</v>
       </c>
@@ -21013,7 +21016,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="57">
         <v>0</v>
       </c>
@@ -21047,7 +21050,7 @@
         <v>94.79</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="57">
         <v>1</v>
       </c>
@@ -21081,7 +21084,7 @@
         <v>85.88</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="57">
         <v>2</v>
       </c>
@@ -21115,7 +21118,7 @@
         <v>94.95</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="57">
         <v>3</v>
       </c>
@@ -21149,7 +21152,7 @@
         <v>76.88</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="57">
         <v>4</v>
       </c>
@@ -21183,7 +21186,7 @@
         <v>94.08</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="57">
         <v>5</v>
       </c>
@@ -21217,7 +21220,7 @@
         <v>85.85</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="57">
         <v>6</v>
       </c>
@@ -21251,7 +21254,7 @@
         <v>96.02</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="57">
         <v>7</v>
       </c>
@@ -21285,7 +21288,7 @@
         <v>93.81</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="57">
         <v>8</v>
       </c>
@@ -21319,7 +21322,7 @@
         <v>94.78</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="57">
         <v>9</v>
       </c>
@@ -21353,7 +21356,7 @@
         <v>86.79</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="57" t="s">
         <v>97</v>
       </c>
@@ -21373,7 +21376,7 @@
       <c r="J13" s="57"/>
       <c r="K13" s="57"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="62" t="s">
         <v>109</v>
       </c>
@@ -21393,7 +21396,7 @@
       <c r="J14" s="57"/>
       <c r="K14" s="57"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="62" t="s">
         <v>110</v>
       </c>
@@ -21413,12 +21416,12 @@
       <c r="J15" s="57"/>
       <c r="K15" s="57"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="62" t="s">
         <v>111</v>
       </c>
       <c r="B16" s="62"/>
-      <c r="C16" s="101">
+      <c r="C16" s="91">
         <v>93.74</v>
       </c>
       <c r="D16" s="57"/>
@@ -21427,13 +21430,13 @@
         <v>111</v>
       </c>
       <c r="H16" s="62"/>
-      <c r="I16" s="101">
+      <c r="I16" s="91">
         <v>93.85</v>
       </c>
       <c r="J16" s="57"/>
       <c r="K16" s="57"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="57" t="s">
         <v>112</v>
       </c>
@@ -21453,7 +21456,7 @@
       <c r="J17" s="57"/>
       <c r="K17" s="57"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="55" t="s">
         <v>101</v>
       </c>
@@ -21471,7 +21474,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="56" t="s">
         <v>94</v>
       </c>
@@ -21504,7 +21507,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="57">
         <v>0</v>
       </c>
@@ -21538,7 +21541,7 @@
         <v>86.76</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="57">
         <v>1</v>
       </c>
@@ -21572,7 +21575,7 @@
         <v>85.43</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="57">
         <v>2</v>
       </c>
@@ -21606,7 +21609,7 @@
         <v>82.81</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="57">
         <v>3</v>
       </c>
@@ -21640,7 +21643,7 @@
         <v>80.239999999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="57">
         <v>4</v>
       </c>
@@ -21674,7 +21677,7 @@
         <v>93.86</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="57">
         <v>5</v>
       </c>
@@ -21708,7 +21711,7 @@
         <v>89.99</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="57">
         <v>6</v>
       </c>
@@ -21742,7 +21745,7 @@
         <v>96.32</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="57">
         <v>7</v>
       </c>
@@ -21776,7 +21779,7 @@
         <v>95.61</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="57">
         <v>8</v>
       </c>
@@ -21810,7 +21813,7 @@
         <v>95.26</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="57">
         <v>9</v>
       </c>
@@ -21844,7 +21847,7 @@
         <v>86.05</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="57" t="s">
         <v>97</v>
       </c>
@@ -21864,7 +21867,7 @@
       <c r="J30" s="57"/>
       <c r="K30" s="57"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="62" t="s">
         <v>109</v>
       </c>
@@ -21884,7 +21887,7 @@
       <c r="J31" s="57"/>
       <c r="K31" s="57"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="62" t="s">
         <v>110</v>
       </c>
@@ -21904,12 +21907,12 @@
       <c r="J32" s="57"/>
       <c r="K32" s="57"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="62" t="s">
         <v>111</v>
       </c>
       <c r="B33" s="62"/>
-      <c r="C33" s="101">
+      <c r="C33" s="91">
         <v>90.54</v>
       </c>
       <c r="D33" s="57"/>
@@ -21924,7 +21927,7 @@
       <c r="J33" s="57"/>
       <c r="K33" s="57"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="57" t="s">
         <v>112</v>
       </c>
@@ -21951,32 +21954,34 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D7289A-AD87-4C65-A0E6-C1477866C64C}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="53"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="53"/>
+    <col min="1" max="1" width="14.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.89453125" style="53"/>
+    <col min="7" max="7" width="14.68359375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7890625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.89453125" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="55" t="s">
         <v>142</v>
       </c>
       <c r="B1" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="55"/>
+      <c r="C1" s="55">
+        <v>0.05</v>
+      </c>
       <c r="D1" s="55"/>
       <c r="E1" s="55"/>
       <c r="G1" s="55" t="s">
@@ -21985,11 +21990,13 @@
       <c r="H1" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="I1" s="55"/>
+      <c r="I1" s="55">
+        <v>0.05</v>
+      </c>
       <c r="J1" s="55"/>
       <c r="K1" s="54"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="56" t="s">
         <v>94</v>
       </c>
@@ -22021,7 +22028,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="57">
         <v>0</v>
       </c>
@@ -22055,7 +22062,7 @@
         <v>30.93</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="57">
         <v>1</v>
       </c>
@@ -22089,7 +22096,7 @@
         <v>35.909999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="57">
         <v>2</v>
       </c>
@@ -22123,7 +22130,7 @@
         <v>21.74</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="57">
         <v>3</v>
       </c>
@@ -22137,7 +22144,7 @@
         <f t="shared" si="0"/>
         <v>41.98</v>
       </c>
-      <c r="E6" s="100">
+      <c r="E6" s="90">
         <v>28.52</v>
       </c>
       <c r="G6" s="57">
@@ -22157,7 +22164,7 @@
         <v>28.04</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="57">
         <v>4</v>
       </c>
@@ -22191,7 +22198,7 @@
         <v>32.78</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="57">
         <v>5</v>
       </c>
@@ -22225,7 +22232,7 @@
         <v>30.63</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="57">
         <v>6</v>
       </c>
@@ -22259,7 +22266,7 @@
         <v>30.69</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="57">
         <v>7</v>
       </c>
@@ -22293,7 +22300,7 @@
         <v>30.25</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="57">
         <v>8</v>
       </c>
@@ -22327,7 +22334,7 @@
         <v>27.63</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="57">
         <v>9</v>
       </c>
@@ -22361,7 +22368,7 @@
         <v>28.78</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="57" t="s">
         <v>97</v>
       </c>
@@ -22381,7 +22388,7 @@
       <c r="J13" s="57"/>
       <c r="K13" s="57"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="62" t="s">
         <v>109</v>
       </c>
@@ -22401,7 +22408,7 @@
       <c r="J14" s="62"/>
       <c r="K14" s="57"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="62" t="s">
         <v>110</v>
       </c>
@@ -22421,7 +22428,7 @@
       <c r="J15" s="62"/>
       <c r="K15" s="57"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="62" t="s">
         <v>111</v>
       </c>
@@ -22441,12 +22448,12 @@
       <c r="J16" s="62"/>
       <c r="K16" s="57"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="57" t="s">
         <v>112</v>
       </c>
       <c r="B17" s="57"/>
-      <c r="C17" s="101">
+      <c r="C17" s="91">
         <v>48.59</v>
       </c>
       <c r="D17" s="62"/>
@@ -22460,6 +22467,519 @@
       </c>
       <c r="J17" s="57"/>
       <c r="K17" s="57"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="55">
+        <v>0.1</v>
+      </c>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="H19" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="I19" s="55">
+        <v>0.2</v>
+      </c>
+      <c r="J19" s="55"/>
+      <c r="K19" s="54"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="53"/>
+      <c r="G20" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="H20" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="I20" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="J20" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="57">
+        <v>0</v>
+      </c>
+      <c r="B21" s="57">
+        <v>1.22</v>
+      </c>
+      <c r="C21" s="58">
+        <v>99.8</v>
+      </c>
+      <c r="D21" s="59">
+        <f>C21-B21</f>
+        <v>98.58</v>
+      </c>
+      <c r="E21" s="57">
+        <v>9.81</v>
+      </c>
+      <c r="F21" s="53"/>
+      <c r="G21" s="57">
+        <v>0</v>
+      </c>
+      <c r="H21" s="57">
+        <v>0.2</v>
+      </c>
+      <c r="I21" s="57">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="J21" s="56">
+        <f>I21-H21</f>
+        <v>64.7</v>
+      </c>
+      <c r="K21" s="36">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="57">
+        <v>1</v>
+      </c>
+      <c r="B22" s="57">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C22" s="58">
+        <v>100</v>
+      </c>
+      <c r="D22" s="59">
+        <f t="shared" ref="D22:D30" si="2">C22-B22</f>
+        <v>98.85</v>
+      </c>
+      <c r="E22" s="57">
+        <v>11.37</v>
+      </c>
+      <c r="F22" s="53"/>
+      <c r="G22" s="57">
+        <v>1</v>
+      </c>
+      <c r="H22" s="57">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="I22" s="57">
+        <v>100</v>
+      </c>
+      <c r="J22" s="56">
+        <f t="shared" ref="J22:J30" si="3">I22-H22</f>
+        <v>98.85</v>
+      </c>
+      <c r="K22" s="58">
+        <v>11.38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="57">
+        <v>2</v>
+      </c>
+      <c r="B23" s="57">
+        <v>9.69</v>
+      </c>
+      <c r="C23" s="58">
+        <v>99.71</v>
+      </c>
+      <c r="D23" s="59">
+        <f t="shared" si="2"/>
+        <v>90.02</v>
+      </c>
+      <c r="E23" s="57">
+        <v>10.3</v>
+      </c>
+      <c r="F23" s="53"/>
+      <c r="G23" s="57">
+        <v>2</v>
+      </c>
+      <c r="H23" s="57">
+        <v>3.88</v>
+      </c>
+      <c r="I23" s="57">
+        <v>98.35</v>
+      </c>
+      <c r="J23" s="56">
+        <f t="shared" si="3"/>
+        <v>94.47</v>
+      </c>
+      <c r="K23" s="58">
+        <v>10.15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="57">
+        <v>3</v>
+      </c>
+      <c r="B24" s="57">
+        <v>2.38</v>
+      </c>
+      <c r="C24" s="58">
+        <v>98.61</v>
+      </c>
+      <c r="D24" s="59">
+        <f t="shared" si="2"/>
+        <v>96.23</v>
+      </c>
+      <c r="E24" s="90">
+        <v>10.19</v>
+      </c>
+      <c r="F24" s="53"/>
+      <c r="G24" s="57">
+        <v>3</v>
+      </c>
+      <c r="H24" s="57">
+        <v>1.49</v>
+      </c>
+      <c r="I24" s="57">
+        <v>99.9</v>
+      </c>
+      <c r="J24" s="56">
+        <f t="shared" si="3"/>
+        <v>98.410000000000011</v>
+      </c>
+      <c r="K24" s="58">
+        <v>10.119999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="57">
+        <v>4</v>
+      </c>
+      <c r="B25" s="57">
+        <v>2.75</v>
+      </c>
+      <c r="C25" s="58">
+        <v>93.686000000000007</v>
+      </c>
+      <c r="D25" s="59">
+        <f t="shared" si="2"/>
+        <v>90.936000000000007</v>
+      </c>
+      <c r="E25" s="57">
+        <v>9.9</v>
+      </c>
+      <c r="F25" s="53"/>
+      <c r="G25" s="57">
+        <v>4</v>
+      </c>
+      <c r="H25" s="57">
+        <v>1.73</v>
+      </c>
+      <c r="I25" s="57">
+        <v>13.44</v>
+      </c>
+      <c r="J25" s="56">
+        <f t="shared" si="3"/>
+        <v>11.709999999999999</v>
+      </c>
+      <c r="K25" s="58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="57">
+        <v>5</v>
+      </c>
+      <c r="B26" s="57">
+        <v>4.26</v>
+      </c>
+      <c r="C26" s="58">
+        <v>99.55</v>
+      </c>
+      <c r="D26" s="59">
+        <f t="shared" si="2"/>
+        <v>95.289999999999992</v>
+      </c>
+      <c r="E26" s="57">
+        <v>8.92</v>
+      </c>
+      <c r="F26" s="53"/>
+      <c r="G26" s="57">
+        <v>5</v>
+      </c>
+      <c r="H26" s="57">
+        <v>1.91</v>
+      </c>
+      <c r="I26" s="57">
+        <v>98.43</v>
+      </c>
+      <c r="J26" s="56">
+        <f t="shared" si="3"/>
+        <v>96.52000000000001</v>
+      </c>
+      <c r="K26" s="58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="57">
+        <v>6</v>
+      </c>
+      <c r="B27" s="57">
+        <v>7.93</v>
+      </c>
+      <c r="C27" s="58">
+        <v>99.06</v>
+      </c>
+      <c r="D27" s="59">
+        <f t="shared" si="2"/>
+        <v>91.13</v>
+      </c>
+      <c r="E27" s="57">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="F27" s="53"/>
+      <c r="G27" s="57">
+        <v>6</v>
+      </c>
+      <c r="H27" s="57">
+        <v>5.95</v>
+      </c>
+      <c r="I27" s="57">
+        <v>100</v>
+      </c>
+      <c r="J27" s="56">
+        <f t="shared" si="3"/>
+        <v>94.05</v>
+      </c>
+      <c r="K27" s="58">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="57">
+        <v>7</v>
+      </c>
+      <c r="B28" s="57">
+        <v>2.52</v>
+      </c>
+      <c r="C28" s="58">
+        <v>75.97</v>
+      </c>
+      <c r="D28" s="59">
+        <f t="shared" si="2"/>
+        <v>73.45</v>
+      </c>
+      <c r="E28" s="57">
+        <v>10.27</v>
+      </c>
+      <c r="F28" s="53"/>
+      <c r="G28" s="57">
+        <v>7</v>
+      </c>
+      <c r="H28" s="57">
+        <v>2.63</v>
+      </c>
+      <c r="I28" s="57">
+        <v>98.74</v>
+      </c>
+      <c r="J28" s="56">
+        <f t="shared" si="3"/>
+        <v>96.11</v>
+      </c>
+      <c r="K28" s="58">
+        <v>10.36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="57">
+        <v>8</v>
+      </c>
+      <c r="B29" s="57">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="C29" s="58">
+        <v>55.03</v>
+      </c>
+      <c r="D29" s="59">
+        <f t="shared" si="2"/>
+        <v>52.980000000000004</v>
+      </c>
+      <c r="E29" s="57">
+        <v>7.6</v>
+      </c>
+      <c r="F29" s="53"/>
+      <c r="G29" s="57">
+        <v>8</v>
+      </c>
+      <c r="H29" s="57">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="I29" s="57">
+        <v>79.16</v>
+      </c>
+      <c r="J29" s="56">
+        <f t="shared" si="3"/>
+        <v>78.03</v>
+      </c>
+      <c r="K29" s="36">
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="57">
+        <v>9</v>
+      </c>
+      <c r="B30" s="57">
+        <v>1.39</v>
+      </c>
+      <c r="C30" s="58">
+        <v>97.72</v>
+      </c>
+      <c r="D30" s="59">
+        <f t="shared" si="2"/>
+        <v>96.33</v>
+      </c>
+      <c r="E30" s="57">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="F30" s="53"/>
+      <c r="G30" s="57">
+        <v>9</v>
+      </c>
+      <c r="H30" s="57">
+        <v>1.29</v>
+      </c>
+      <c r="I30" s="57">
+        <v>97.72</v>
+      </c>
+      <c r="J30" s="56">
+        <f t="shared" si="3"/>
+        <v>96.429999999999993</v>
+      </c>
+      <c r="K30" s="58">
+        <v>10.01</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="57">
+        <v>3.5</v>
+      </c>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="H31" s="57">
+        <v>2.12</v>
+      </c>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62">
+        <v>3.5</v>
+      </c>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="H32" s="62"/>
+      <c r="I32" s="57">
+        <v>2.12</v>
+      </c>
+      <c r="J32" s="62"/>
+      <c r="K32" s="57"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62">
+        <v>9.49</v>
+      </c>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="H33" s="62"/>
+      <c r="I33" s="56">
+        <v>19.95</v>
+      </c>
+      <c r="J33" s="62"/>
+      <c r="K33" s="57"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="62"/>
+      <c r="C34" s="91">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="H34" s="62"/>
+      <c r="I34" s="57">
+        <v>19.21</v>
+      </c>
+      <c r="J34" s="62"/>
+      <c r="K34" s="57"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="57"/>
+      <c r="C35" s="102">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="H35" s="57"/>
+      <c r="I35" s="90">
+        <v>15.7</v>
+      </c>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22475,14 +22995,14 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1015625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>93</v>
       </c>
@@ -22505,7 +23025,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="12" t="s">
         <v>15</v>
       </c>
@@ -22530,7 +23050,7 @@
         <v>97.73</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="12" t="s">
         <v>16</v>
       </c>
@@ -22555,7 +23075,7 @@
         <v>82.43</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="12" t="s">
         <v>17</v>
       </c>
@@ -22580,7 +23100,7 @@
         <v>90.11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="12" t="s">
         <v>18</v>
       </c>
@@ -22605,7 +23125,7 @@
         <v>95.69</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="12" t="s">
         <v>19</v>
       </c>
@@ -22630,7 +23150,7 @@
         <v>71.12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="12" t="s">
         <v>20</v>
       </c>
@@ -22655,7 +23175,7 @@
         <v>65.89</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="12" t="s">
         <v>21</v>
       </c>
@@ -22680,7 +23200,7 @@
         <v>81.44</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="12" t="s">
         <v>23</v>
       </c>
@@ -22705,7 +23225,7 @@
         <v>95.63</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="12" t="s">
         <v>24</v>
       </c>
@@ -22743,14 +23263,14 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.7890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.20703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.20703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.75">
       <c r="A1" s="85" t="s">
         <v>126</v>
       </c>
@@ -22759,7 +23279,7 @@
       <c r="D1" s="40"/>
       <c r="E1" s="40"/>
     </row>
-    <row r="2" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="86" t="s">
         <v>135</v>
       </c>
@@ -22768,18 +23288,18 @@
       <c r="D2" s="40"/>
       <c r="E2" s="40"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="53"/>
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="96" t="s">
+      <c r="C3" s="99"/>
+      <c r="D3" s="98" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="97"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E3" s="99"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="87"/>
       <c r="B4" s="50" t="s">
         <v>5</v>
@@ -22794,7 +23314,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="86" t="s">
         <v>136</v>
       </c>
@@ -22811,7 +23331,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="88" t="s">
         <v>137</v>
       </c>
@@ -22828,11 +23348,11 @@
         <v>10.45</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="53"/>
       <c r="B7" s="53"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="54" t="s">
         <v>138</v>
       </c>
@@ -22840,17 +23360,17 @@
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="53"/>
       <c r="B9" s="53"/>
     </row>
-    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.75">
       <c r="A10" s="85" t="s">
         <v>140</v>
       </c>
       <c r="B10" s="53"/>
     </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="89" t="s">
         <v>141</v>
       </c>

--- a/experiments/Consolidated Results from different techniques.xlsx
+++ b/experiments/Consolidated Results from different techniques.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\musman\Desktop\DNN-Repair\experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgopinat\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E590677-2896-4887-BA20-C85553B89C63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD2293B-194F-4C00-B1EE-9508D702D285}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="1000" firstSheet="2" activeTab="3" xr2:uid="{6E851A2A-318E-4F15-AEB0-BD2CB026064A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="1000" firstSheet="2" activeTab="2" xr2:uid="{6E851A2A-318E-4F15-AEB0-BD2CB026064A}"/>
   </bookViews>
   <sheets>
     <sheet name="Pattern Based Repair" sheetId="18" state="hidden" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="159">
   <si>
     <t>LABEL 7</t>
   </si>
@@ -530,12 +530,15 @@
   <si>
     <t>Attribution with Math.abs and with Correct attr</t>
   </si>
+  <si>
+    <t>F1-based</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -727,6 +730,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -842,7 +852,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1195,51 +1205,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1274,6 +1239,93 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1633,21 +1685,21 @@
       <c r="A2" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="160" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="133" t="s">
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="160" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
       <c r="M2" s="51"/>
       <c r="N2" s="51"/>
       <c r="O2" s="51"/>
@@ -2208,11 +2260,11 @@
       <c r="G15" s="51"/>
       <c r="H15" s="51"/>
       <c r="I15" s="51"/>
-      <c r="J15" s="135" t="s">
+      <c r="J15" s="161" t="s">
         <v>121</v>
       </c>
-      <c r="K15" s="136"/>
-      <c r="L15" s="137"/>
+      <c r="K15" s="162"/>
+      <c r="L15" s="163"/>
       <c r="M15" s="51"/>
       <c r="N15" s="51"/>
       <c r="O15" s="51"/>
@@ -2396,14 +2448,14 @@
       <c r="A23" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="B23" s="133" t="s">
+      <c r="B23" s="160" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="133"/>
-      <c r="D23" s="133" t="s">
+      <c r="C23" s="160"/>
+      <c r="D23" s="160" t="s">
         <v>90</v>
       </c>
-      <c r="E23" s="133"/>
+      <c r="E23" s="160"/>
       <c r="F23" s="51"/>
       <c r="G23" s="51"/>
       <c r="H23" s="55"/>
@@ -2548,26 +2600,26 @@
       <c r="A29" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="B29" s="133" t="s">
+      <c r="B29" s="160" t="s">
         <v>115</v>
       </c>
-      <c r="C29" s="133"/>
-      <c r="D29" s="133"/>
-      <c r="E29" s="133"/>
-      <c r="F29" s="133"/>
-      <c r="G29" s="133"/>
-      <c r="H29" s="133"/>
-      <c r="I29" s="134"/>
-      <c r="J29" s="133" t="s">
+      <c r="C29" s="160"/>
+      <c r="D29" s="160"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="160"/>
+      <c r="G29" s="160"/>
+      <c r="H29" s="160"/>
+      <c r="I29" s="165"/>
+      <c r="J29" s="160" t="s">
         <v>128</v>
       </c>
-      <c r="K29" s="133"/>
-      <c r="L29" s="133"/>
-      <c r="M29" s="133" t="s">
+      <c r="K29" s="160"/>
+      <c r="L29" s="160"/>
+      <c r="M29" s="160" t="s">
         <v>90</v>
       </c>
-      <c r="N29" s="133"/>
-      <c r="O29" s="133"/>
+      <c r="N29" s="160"/>
+      <c r="O29" s="160"/>
       <c r="P29" s="51"/>
       <c r="Q29" s="51"/>
       <c r="R29" s="51"/>
@@ -3213,16 +3265,16 @@
       <c r="G42" s="51"/>
       <c r="H42" s="51"/>
       <c r="I42" s="51"/>
-      <c r="J42" s="135" t="s">
+      <c r="J42" s="161" t="s">
         <v>121</v>
       </c>
-      <c r="K42" s="136"/>
-      <c r="L42" s="137"/>
-      <c r="M42" s="135" t="s">
+      <c r="K42" s="162"/>
+      <c r="L42" s="163"/>
+      <c r="M42" s="161" t="s">
         <v>121</v>
       </c>
-      <c r="N42" s="136"/>
-      <c r="O42" s="137"/>
+      <c r="N42" s="162"/>
+      <c r="O42" s="163"/>
       <c r="P42" s="51"/>
       <c r="Q42" s="51"/>
       <c r="R42" s="51"/>
@@ -3439,15 +3491,15 @@
       <c r="S48" s="51"/>
     </row>
     <row r="49" spans="1:19" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A49" s="138" t="s">
+      <c r="A49" s="164" t="s">
         <v>129</v>
       </c>
-      <c r="B49" s="138"/>
-      <c r="C49" s="138"/>
-      <c r="D49" s="138"/>
-      <c r="E49" s="138"/>
-      <c r="F49" s="138"/>
-      <c r="G49" s="138"/>
+      <c r="B49" s="164"/>
+      <c r="C49" s="164"/>
+      <c r="D49" s="164"/>
+      <c r="E49" s="164"/>
+      <c r="F49" s="164"/>
+      <c r="G49" s="164"/>
       <c r="H49" s="55"/>
       <c r="I49" s="55"/>
       <c r="J49" s="55"/>
@@ -3465,14 +3517,14 @@
       <c r="A50" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="B50" s="133" t="s">
+      <c r="B50" s="160" t="s">
         <v>115</v>
       </c>
-      <c r="C50" s="133"/>
-      <c r="D50" s="133" t="s">
+      <c r="C50" s="160"/>
+      <c r="D50" s="160" t="s">
         <v>128</v>
       </c>
-      <c r="E50" s="133"/>
+      <c r="E50" s="160"/>
       <c r="F50" s="43" t="s">
         <v>131</v>
       </c>
@@ -3600,14 +3652,14 @@
     </row>
     <row r="55" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="65"/>
-      <c r="B55" s="133" t="s">
+      <c r="B55" s="160" t="s">
         <v>115</v>
       </c>
-      <c r="C55" s="133"/>
-      <c r="D55" s="133" t="s">
+      <c r="C55" s="160"/>
+      <c r="D55" s="160" t="s">
         <v>128</v>
       </c>
-      <c r="E55" s="133"/>
+      <c r="E55" s="160"/>
       <c r="F55" s="43" t="s">
         <v>131</v>
       </c>
@@ -3718,14 +3770,14 @@
       <c r="A59" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="B59" s="133" t="s">
+      <c r="B59" s="160" t="s">
         <v>115</v>
       </c>
-      <c r="C59" s="133"/>
-      <c r="D59" s="133" t="s">
+      <c r="C59" s="160"/>
+      <c r="D59" s="160" t="s">
         <v>128</v>
       </c>
-      <c r="E59" s="133"/>
+      <c r="E59" s="160"/>
       <c r="F59" s="43" t="s">
         <v>131</v>
       </c>
@@ -13376,6 +13428,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="B59:C59"/>
@@ -13388,11 +13445,6 @@
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="B29:I29"/>
     <mergeCell ref="J29:L29"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15744,14 +15796,14 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="53"/>
-      <c r="B3" s="145" t="s">
+      <c r="B3" s="172" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="146"/>
-      <c r="D3" s="145" t="s">
+      <c r="C3" s="173"/>
+      <c r="D3" s="172" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="146"/>
+      <c r="E3" s="173"/>
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="87"/>
@@ -15928,17 +15980,17 @@
       <c r="A5" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="147" t="s">
+      <c r="B5" s="174" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="148"/>
-      <c r="D5" s="148"/>
-      <c r="E5" s="148"/>
-      <c r="F5" s="148"/>
-      <c r="G5" s="147" t="s">
+      <c r="C5" s="175"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="175"/>
+      <c r="F5" s="175"/>
+      <c r="G5" s="174" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="148"/>
+      <c r="H5" s="175"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="46"/>
@@ -16022,17 +16074,17 @@
       <c r="A9" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="147" t="s">
+      <c r="B9" s="174" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="148"/>
-      <c r="D9" s="148"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="147" t="s">
+      <c r="C9" s="175"/>
+      <c r="D9" s="175"/>
+      <c r="E9" s="175"/>
+      <c r="F9" s="175"/>
+      <c r="G9" s="174" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="148"/>
+      <c r="H9" s="175"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="46"/>
@@ -16236,17 +16288,17 @@
       <c r="A20" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="147" t="s">
+      <c r="B20" s="174" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="148"/>
-      <c r="D20" s="148"/>
-      <c r="E20" s="148"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="147" t="s">
+      <c r="C20" s="175"/>
+      <c r="D20" s="175"/>
+      <c r="E20" s="175"/>
+      <c r="F20" s="175"/>
+      <c r="G20" s="174" t="s">
         <v>76</v>
       </c>
-      <c r="H20" s="148"/>
+      <c r="H20" s="175"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="46" t="s">
@@ -16310,17 +16362,17 @@
       <c r="A24" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="147" t="s">
+      <c r="B24" s="174" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="148"/>
-      <c r="D24" s="148"/>
-      <c r="E24" s="148"/>
-      <c r="F24" s="148"/>
-      <c r="G24" s="147" t="s">
+      <c r="C24" s="175"/>
+      <c r="D24" s="175"/>
+      <c r="E24" s="175"/>
+      <c r="F24" s="175"/>
+      <c r="G24" s="174" t="s">
         <v>76</v>
       </c>
-      <c r="H24" s="148"/>
+      <c r="H24" s="175"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="46"/>
@@ -18128,21 +18180,21 @@
       <c r="A2" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="160" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="133" t="s">
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="160" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="66" t="s">
@@ -18604,11 +18656,11 @@
       <c r="G15" s="51"/>
       <c r="H15" s="51"/>
       <c r="I15" s="51"/>
-      <c r="J15" s="135" t="s">
+      <c r="J15" s="161" t="s">
         <v>121</v>
       </c>
-      <c r="K15" s="136"/>
-      <c r="L15" s="137"/>
+      <c r="K15" s="162"/>
+      <c r="L15" s="163"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="55"/>
@@ -18750,21 +18802,21 @@
       <c r="A23" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="133" t="s">
+      <c r="B23" s="160" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="133"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="133"/>
-      <c r="G23" s="133"/>
-      <c r="H23" s="133"/>
-      <c r="I23" s="134"/>
-      <c r="J23" s="133" t="s">
+      <c r="C23" s="160"/>
+      <c r="D23" s="160"/>
+      <c r="E23" s="160"/>
+      <c r="F23" s="160"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="160"/>
+      <c r="I23" s="165"/>
+      <c r="J23" s="160" t="s">
         <v>90</v>
       </c>
-      <c r="K23" s="133"/>
-      <c r="L23" s="133"/>
+      <c r="K23" s="160"/>
+      <c r="L23" s="160"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="66" t="s">
@@ -19234,11 +19286,11 @@
       <c r="G36" s="51"/>
       <c r="H36" s="51"/>
       <c r="I36" s="51"/>
-      <c r="J36" s="135" t="s">
+      <c r="J36" s="161" t="s">
         <v>121</v>
       </c>
-      <c r="K36" s="136"/>
-      <c r="L36" s="137"/>
+      <c r="K36" s="162"/>
+      <c r="L36" s="163"/>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A37" s="55"/>
@@ -19364,14 +19416,14 @@
       <c r="A44" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="B44" s="133" t="s">
+      <c r="B44" s="160" t="s">
         <v>115</v>
       </c>
-      <c r="C44" s="133"/>
-      <c r="D44" s="133" t="s">
+      <c r="C44" s="160"/>
+      <c r="D44" s="160" t="s">
         <v>90</v>
       </c>
-      <c r="E44" s="133"/>
+      <c r="E44" s="160"/>
       <c r="F44" s="51"/>
       <c r="G44" s="51"/>
       <c r="H44" s="55"/>
@@ -19594,26 +19646,26 @@
       <c r="A50" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="B50" s="133" t="s">
+      <c r="B50" s="160" t="s">
         <v>115</v>
       </c>
-      <c r="C50" s="133"/>
-      <c r="D50" s="133"/>
-      <c r="E50" s="133"/>
-      <c r="F50" s="133"/>
-      <c r="G50" s="133"/>
-      <c r="H50" s="133"/>
-      <c r="I50" s="134"/>
-      <c r="J50" s="133" t="s">
+      <c r="C50" s="160"/>
+      <c r="D50" s="160"/>
+      <c r="E50" s="160"/>
+      <c r="F50" s="160"/>
+      <c r="G50" s="160"/>
+      <c r="H50" s="160"/>
+      <c r="I50" s="165"/>
+      <c r="J50" s="160" t="s">
         <v>128</v>
       </c>
-      <c r="K50" s="133"/>
-      <c r="L50" s="133"/>
-      <c r="M50" s="133" t="s">
+      <c r="K50" s="160"/>
+      <c r="L50" s="160"/>
+      <c r="M50" s="160" t="s">
         <v>90</v>
       </c>
-      <c r="N50" s="133"/>
-      <c r="O50" s="133"/>
+      <c r="N50" s="160"/>
+      <c r="O50" s="160"/>
       <c r="P50" s="51"/>
       <c r="Q50" s="51"/>
       <c r="R50" s="51"/>
@@ -20428,16 +20480,16 @@
       <c r="G63" s="51"/>
       <c r="H63" s="51"/>
       <c r="I63" s="51"/>
-      <c r="J63" s="135" t="s">
+      <c r="J63" s="161" t="s">
         <v>121</v>
       </c>
-      <c r="K63" s="136"/>
-      <c r="L63" s="137"/>
-      <c r="M63" s="135" t="s">
+      <c r="K63" s="162"/>
+      <c r="L63" s="163"/>
+      <c r="M63" s="161" t="s">
         <v>121</v>
       </c>
-      <c r="N63" s="136"/>
-      <c r="O63" s="137"/>
+      <c r="N63" s="162"/>
+      <c r="O63" s="163"/>
       <c r="P63" s="51"/>
       <c r="Q63" s="51"/>
       <c r="R63" s="51"/>
@@ -20745,15 +20797,15 @@
       <c r="AF69" s="53"/>
     </row>
     <row r="70" spans="1:32" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A70" s="138" t="s">
+      <c r="A70" s="164" t="s">
         <v>129</v>
       </c>
-      <c r="B70" s="138"/>
-      <c r="C70" s="138"/>
-      <c r="D70" s="138"/>
-      <c r="E70" s="138"/>
-      <c r="F70" s="138"/>
-      <c r="G70" s="138"/>
+      <c r="B70" s="164"/>
+      <c r="C70" s="164"/>
+      <c r="D70" s="164"/>
+      <c r="E70" s="164"/>
+      <c r="F70" s="164"/>
+      <c r="G70" s="164"/>
       <c r="H70" s="55"/>
       <c r="I70" s="55"/>
       <c r="J70" s="55"/>
@@ -20784,14 +20836,14 @@
       <c r="A71" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="B71" s="133" t="s">
+      <c r="B71" s="160" t="s">
         <v>115</v>
       </c>
-      <c r="C71" s="133"/>
-      <c r="D71" s="133" t="s">
+      <c r="C71" s="160"/>
+      <c r="D71" s="160" t="s">
         <v>128</v>
       </c>
-      <c r="E71" s="133"/>
+      <c r="E71" s="160"/>
       <c r="F71" s="91" t="s">
         <v>131</v>
       </c>
@@ -20984,14 +21036,14 @@
     </row>
     <row r="76" spans="1:32" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="65"/>
-      <c r="B76" s="133" t="s">
+      <c r="B76" s="160" t="s">
         <v>115</v>
       </c>
-      <c r="C76" s="133"/>
-      <c r="D76" s="133" t="s">
+      <c r="C76" s="160"/>
+      <c r="D76" s="160" t="s">
         <v>128</v>
       </c>
-      <c r="E76" s="133"/>
+      <c r="E76" s="160"/>
       <c r="F76" s="91" t="s">
         <v>131</v>
       </c>
@@ -21154,14 +21206,14 @@
       <c r="A80" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="B80" s="133" t="s">
+      <c r="B80" s="160" t="s">
         <v>115</v>
       </c>
-      <c r="C80" s="133"/>
-      <c r="D80" s="133" t="s">
+      <c r="C80" s="160"/>
+      <c r="D80" s="160" t="s">
         <v>128</v>
       </c>
-      <c r="E80" s="133"/>
+      <c r="E80" s="160"/>
       <c r="F80" s="91" t="s">
         <v>131</v>
       </c>
@@ -35479,6 +35531,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="J63:L63"/>
+    <mergeCell ref="M63:O63"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J36:L36"/>
     <mergeCell ref="B80:C80"/>
     <mergeCell ref="D80:E80"/>
     <mergeCell ref="B44:C44"/>
@@ -35489,16 +35551,6 @@
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="D76:E76"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="J63:L63"/>
-    <mergeCell ref="M63:O63"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="J36:L36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35506,10 +35558,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE8D7233-46EF-473C-979A-BA5549BBC72F}">
-  <dimension ref="A1:L453"/>
+  <dimension ref="A1:O455"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="B63" workbookViewId="0">
+      <selection activeCell="J88" sqref="J88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35526,6 +35578,9 @@
     <col min="10" max="10" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.77734375" customWidth="1"/>
+    <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
@@ -35548,21 +35603,21 @@
       <c r="A2" s="102" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="166" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="139" t="s">
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="166" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="103" t="s">
@@ -36024,11 +36079,11 @@
       <c r="G15" s="101"/>
       <c r="H15" s="101"/>
       <c r="I15" s="101"/>
-      <c r="J15" s="141" t="s">
+      <c r="J15" s="169" t="s">
         <v>121</v>
       </c>
-      <c r="K15" s="142"/>
-      <c r="L15" s="143"/>
+      <c r="K15" s="170"/>
+      <c r="L15" s="171"/>
     </row>
     <row r="16" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="115"/>
@@ -36186,21 +36241,21 @@
       <c r="A24" s="102" t="s">
         <v>114</v>
       </c>
-      <c r="B24" s="139" t="s">
+      <c r="B24" s="166" t="s">
         <v>115</v>
       </c>
-      <c r="C24" s="139"/>
-      <c r="D24" s="139"/>
-      <c r="E24" s="139"/>
-      <c r="F24" s="139"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="139"/>
-      <c r="I24" s="140"/>
-      <c r="J24" s="139" t="s">
+      <c r="C24" s="166"/>
+      <c r="D24" s="166"/>
+      <c r="E24" s="166"/>
+      <c r="F24" s="166"/>
+      <c r="G24" s="166"/>
+      <c r="H24" s="166"/>
+      <c r="I24" s="168"/>
+      <c r="J24" s="166" t="s">
         <v>90</v>
       </c>
-      <c r="K24" s="139"/>
-      <c r="L24" s="139"/>
+      <c r="K24" s="166"/>
+      <c r="L24" s="166"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="103" t="s">
@@ -36670,11 +36725,11 @@
       <c r="G37" s="101"/>
       <c r="H37" s="101"/>
       <c r="I37" s="101"/>
-      <c r="J37" s="141" t="s">
+      <c r="J37" s="169" t="s">
         <v>121</v>
       </c>
-      <c r="K37" s="142"/>
-      <c r="L37" s="143"/>
+      <c r="K37" s="170"/>
+      <c r="L37" s="171"/>
     </row>
     <row r="38" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="115"/>
@@ -36826,18 +36881,18 @@
       <c r="K45" s="120"/>
       <c r="L45" s="120"/>
     </row>
-    <row r="46" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="B46" s="139" t="s">
+      <c r="B46" s="166" t="s">
         <v>115</v>
       </c>
-      <c r="C46" s="139"/>
-      <c r="D46" s="139" t="s">
+      <c r="C46" s="166"/>
+      <c r="D46" s="166" t="s">
         <v>90</v>
       </c>
-      <c r="E46" s="139"/>
+      <c r="E46" s="166"/>
       <c r="F46" s="101"/>
       <c r="G46" s="101"/>
       <c r="H46" s="115"/>
@@ -36892,7 +36947,7 @@
       <c r="K48" s="101"/>
       <c r="L48" s="101"/>
     </row>
-    <row r="49" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="121"/>
       <c r="B49" s="115"/>
       <c r="C49" s="101"/>
@@ -36906,7 +36961,7 @@
       <c r="K49" s="101"/>
       <c r="L49" s="101"/>
     </row>
-    <row r="50" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="121"/>
       <c r="B50" s="115"/>
       <c r="C50" s="101"/>
@@ -36920,7 +36975,7 @@
       <c r="K50" s="101"/>
       <c r="L50" s="101"/>
     </row>
-    <row r="51" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A51" s="100" t="s">
         <v>126</v>
       </c>
@@ -36936,27 +36991,32 @@
       <c r="K51" s="101"/>
       <c r="L51" s="101"/>
     </row>
-    <row r="52" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A52" s="102" t="s">
         <v>127</v>
       </c>
-      <c r="B52" s="139" t="s">
+      <c r="B52" s="166" t="s">
         <v>115</v>
       </c>
-      <c r="C52" s="139"/>
-      <c r="D52" s="139"/>
-      <c r="E52" s="139"/>
-      <c r="F52" s="139"/>
-      <c r="G52" s="139"/>
-      <c r="H52" s="139"/>
-      <c r="I52" s="140"/>
-      <c r="J52" s="139" t="s">
+      <c r="C52" s="166"/>
+      <c r="D52" s="166"/>
+      <c r="E52" s="166"/>
+      <c r="F52" s="166"/>
+      <c r="G52" s="166"/>
+      <c r="H52" s="166"/>
+      <c r="I52" s="168"/>
+      <c r="J52" s="166" t="s">
         <v>128</v>
       </c>
-      <c r="K52" s="139"/>
-      <c r="L52" s="139"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K52" s="166"/>
+      <c r="L52" s="166"/>
+      <c r="M52" s="160" t="s">
+        <v>90</v>
+      </c>
+      <c r="N52" s="160"/>
+      <c r="O52" s="160"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="103" t="s">
         <v>116</v>
       </c>
@@ -36993,9 +37053,18 @@
       <c r="L53" s="104" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="112">
+      <c r="M53" s="69" t="s">
+        <v>116</v>
+      </c>
+      <c r="N53" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="O53" s="67" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" s="159">
         <v>0</v>
       </c>
       <c r="B54" s="122">
@@ -37031,8 +37100,17 @@
       <c r="L54" s="112">
         <v>0.30609999999999998</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M54" s="42">
+        <v>0</v>
+      </c>
+      <c r="N54" s="75">
+        <v>99.387755102040799</v>
+      </c>
+      <c r="O54" s="42">
+        <v>99.387749999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="112">
         <f>A54+1</f>
         <v>1</v>
@@ -37072,10 +37150,20 @@
       <c r="L55" s="112">
         <v>0.26430999999999999</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M55" s="42">
+        <f t="shared" ref="M55:M63" si="6">M54+1</f>
+        <v>1</v>
+      </c>
+      <c r="N55" s="75">
+        <v>99.4713656387665</v>
+      </c>
+      <c r="O55" s="42">
+        <v>99.647499999999994</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="112">
-        <f t="shared" ref="A56:A63" si="6">A55+1</f>
+        <f t="shared" ref="A56:A63" si="7">A55+1</f>
         <v>2</v>
       </c>
       <c r="B56" s="122">
@@ -37104,7 +37192,7 @@
         <v>99.830335934849003</v>
       </c>
       <c r="J56" s="112">
-        <f t="shared" ref="J56:J63" si="7">J55+1</f>
+        <f t="shared" ref="J56:J63" si="8">J55+1</f>
         <v>2</v>
       </c>
       <c r="K56" s="122">
@@ -37113,10 +37201,20 @@
       <c r="L56" s="112">
         <v>9.6890000000000004E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M56" s="42">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="N56" s="75">
+        <v>97.868217054263496</v>
+      </c>
+      <c r="O56" s="42">
+        <v>97.868200000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="112">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="B57" s="122">
@@ -37145,7 +37243,7 @@
         <v>98.731501057082454</v>
       </c>
       <c r="J57" s="112">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="K57" s="122">
@@ -37154,10 +37252,20 @@
       <c r="L57" s="112">
         <v>3.8614000000000002</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M57" s="42">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="N57" s="75">
+        <v>98.811881188118804</v>
+      </c>
+      <c r="O57" s="42">
+        <v>99.108900000000006</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="112">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="B58" s="122">
@@ -37186,7 +37294,7 @@
         <v>99.930795847750858</v>
       </c>
       <c r="J58" s="112">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="K58" s="122">
@@ -37195,213 +37303,273 @@
       <c r="L58" s="112">
         <v>0.20366000000000001</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M58" s="42">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="N58" s="75">
+        <v>98.778004073319707</v>
+      </c>
+      <c r="O58" s="42">
+        <v>98.778000000000006</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="112">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="B59" s="122">
+        <v>98.985427042981001</v>
+      </c>
+      <c r="C59" s="113">
+        <v>98.947999999999993</v>
+      </c>
+      <c r="D59" s="113">
+        <v>98.936000000000007</v>
+      </c>
+      <c r="E59" s="113">
+        <v>12</v>
+      </c>
+      <c r="F59" s="113">
+        <v>5364</v>
+      </c>
+      <c r="G59" s="113">
+        <v>57</v>
+      </c>
+      <c r="H59" s="113">
+        <v>53998</v>
+      </c>
+      <c r="I59" s="116">
+        <f t="shared" ref="I59:I63" si="9">(F59/(F59+E59))*100</f>
+        <v>99.776785714285708</v>
+      </c>
+      <c r="J59" s="112">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="K59" s="122">
+        <v>0.112107623318385</v>
+      </c>
+      <c r="L59" s="112">
+        <v>6.2780199999999997</v>
+      </c>
+      <c r="M59" s="42">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="B59" s="122">
-        <v>98.985427042981001</v>
-      </c>
-      <c r="C59" s="113">
-        <v>98.947999999999993</v>
-      </c>
-      <c r="D59" s="113">
-        <v>98.936000000000007</v>
-      </c>
-      <c r="E59" s="113">
-        <v>12</v>
-      </c>
-      <c r="F59" s="113">
-        <v>5364</v>
-      </c>
-      <c r="G59" s="113">
+      <c r="N59" s="75">
+        <v>98.654708520179298</v>
+      </c>
+      <c r="O59" s="42">
+        <v>98.654700000000005</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A60" s="112">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="B60" s="122">
+        <v>99.036836769178706</v>
+      </c>
+      <c r="C60" s="113">
+        <v>99.036799999999999</v>
+      </c>
+      <c r="D60" s="113">
+        <v>98.97</v>
+      </c>
+      <c r="E60" s="113">
+        <v>10</v>
+      </c>
+      <c r="F60" s="113">
+        <v>5861</v>
+      </c>
+      <c r="G60" s="113">
         <v>57</v>
       </c>
-      <c r="H59" s="113">
-        <v>53998</v>
-      </c>
-      <c r="I59" s="116">
-        <f t="shared" ref="I59:I63" si="8">(F59/(F59+E59))*100</f>
-        <v>99.776785714285708</v>
-      </c>
-      <c r="J59" s="112">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="K59" s="122">
-        <v>0.112107623318385</v>
-      </c>
-      <c r="L59" s="112">
-        <v>6.2780199999999997</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" s="112">
+      <c r="H60" s="113">
+        <v>53521</v>
+      </c>
+      <c r="I60" s="116">
+        <f t="shared" si="9"/>
+        <v>99.829671265542501</v>
+      </c>
+      <c r="J60" s="112">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="K60" s="122">
+        <v>0.73068893528183698</v>
+      </c>
+      <c r="L60" s="112">
+        <v>3.8622100000000001</v>
+      </c>
+      <c r="M60" s="42">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="B60" s="122">
-        <v>99.036836769178706</v>
-      </c>
-      <c r="C60" s="113">
-        <v>99.036799999999999</v>
-      </c>
-      <c r="D60" s="113">
-        <v>98.97</v>
-      </c>
-      <c r="E60" s="113">
-        <v>10</v>
-      </c>
-      <c r="F60" s="113">
-        <v>5861</v>
-      </c>
-      <c r="G60" s="113">
-        <v>57</v>
-      </c>
-      <c r="H60" s="113">
-        <v>53521</v>
-      </c>
-      <c r="I60" s="116">
+      <c r="N60" s="75">
+        <v>98.643006263047994</v>
+      </c>
+      <c r="O60" s="42">
+        <v>98.851699999999994</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A61" s="159">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="B61" s="122">
+        <v>99.984038308060605</v>
+      </c>
+      <c r="C61" s="113">
+        <v>100</v>
+      </c>
+      <c r="D61" s="113">
+        <v>98.984999999999999</v>
+      </c>
+      <c r="E61" s="113">
+        <v>558</v>
+      </c>
+      <c r="F61" s="113">
+        <v>6265</v>
+      </c>
+      <c r="G61" s="113">
+        <v>0</v>
+      </c>
+      <c r="H61" s="113">
+        <v>53126</v>
+      </c>
+      <c r="I61" s="116">
+        <f t="shared" si="9"/>
+        <v>91.821779275978315</v>
+      </c>
+      <c r="J61" s="112">
         <f t="shared" si="8"/>
-        <v>99.829671265542501</v>
-      </c>
-      <c r="J60" s="112">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="K60" s="122">
-        <v>0.73068893528183698</v>
-      </c>
-      <c r="L60" s="112">
-        <v>3.8622100000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61" s="112">
+        <v>7</v>
+      </c>
+      <c r="K61" s="122">
+        <v>100</v>
+      </c>
+      <c r="L61" s="112">
+        <v>100</v>
+      </c>
+      <c r="M61" s="42">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="B61" s="122">
-        <v>99.984038308060605</v>
-      </c>
-      <c r="C61" s="113">
-        <v>100</v>
-      </c>
-      <c r="D61" s="113">
-        <v>98.984999999999999</v>
-      </c>
-      <c r="E61" s="113">
-        <v>558</v>
-      </c>
-      <c r="F61" s="113">
-        <v>6265</v>
-      </c>
-      <c r="G61" s="113">
+      <c r="N61" s="75">
+        <v>98.7354085603112</v>
+      </c>
+      <c r="O61" s="42">
+        <v>98.735399999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62" s="159">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="B62" s="122">
+        <v>99.025807554264205</v>
+      </c>
+      <c r="C62" s="113">
+        <v>99.077079999999995</v>
+      </c>
+      <c r="D62" s="113">
+        <v>98.99</v>
+      </c>
+      <c r="E62" s="113">
+        <v>14</v>
+      </c>
+      <c r="F62" s="113">
+        <v>5797</v>
+      </c>
+      <c r="G62" s="113">
+        <v>54</v>
+      </c>
+      <c r="H62" s="113">
+        <v>53597</v>
+      </c>
+      <c r="I62" s="116">
+        <f t="shared" si="9"/>
+        <v>99.759077611426605</v>
+      </c>
+      <c r="J62" s="112">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="K62" s="122">
         <v>0</v>
       </c>
-      <c r="H61" s="113">
-        <v>53126</v>
-      </c>
-      <c r="I61" s="116">
-        <f t="shared" si="8"/>
-        <v>91.821779275978315</v>
-      </c>
-      <c r="J61" s="112">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="K61" s="122">
-        <v>100</v>
-      </c>
-      <c r="L61" s="112">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" s="112">
+      <c r="L62" s="112">
+        <v>0.41066999999999998</v>
+      </c>
+      <c r="M62" s="42">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="B62" s="122">
-        <v>99.025807554264205</v>
-      </c>
-      <c r="C62" s="113">
-        <v>99.077079999999995</v>
-      </c>
-      <c r="D62" s="113">
-        <v>98.99</v>
-      </c>
-      <c r="E62" s="113">
-        <v>14</v>
-      </c>
-      <c r="F62" s="113">
-        <v>5797</v>
-      </c>
-      <c r="G62" s="113">
-        <v>54</v>
-      </c>
-      <c r="H62" s="113">
-        <v>53597</v>
-      </c>
-      <c r="I62" s="116">
+      <c r="N62" s="75">
+        <v>98.665297741273093</v>
+      </c>
+      <c r="O62" s="42">
+        <v>98.665000000000006</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A63" s="112">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="B63" s="122">
+        <v>98.554378887207903</v>
+      </c>
+      <c r="C63" s="113">
+        <v>98.705600000000004</v>
+      </c>
+      <c r="D63" s="113">
+        <v>98.94</v>
+      </c>
+      <c r="E63" s="113">
+        <v>25</v>
+      </c>
+      <c r="F63" s="113">
+        <v>5872</v>
+      </c>
+      <c r="G63" s="113">
+        <v>77</v>
+      </c>
+      <c r="H63" s="113">
+        <v>53492</v>
+      </c>
+      <c r="I63" s="116">
+        <f t="shared" si="9"/>
+        <v>99.576055621502462</v>
+      </c>
+      <c r="J63" s="112">
         <f t="shared" si="8"/>
-        <v>99.759077611426605</v>
-      </c>
-      <c r="J62" s="112">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="K62" s="122">
+        <v>9</v>
+      </c>
+      <c r="K63" s="122">
         <v>0</v>
       </c>
-      <c r="L62" s="112">
-        <v>0.41066999999999998</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63" s="112">
+      <c r="L63" s="112">
+        <v>0</v>
+      </c>
+      <c r="M63" s="42">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="B63" s="122">
-        <v>98.554378887207903</v>
-      </c>
-      <c r="C63" s="113">
-        <v>98.705600000000004</v>
-      </c>
-      <c r="D63" s="113">
-        <v>98.94</v>
-      </c>
-      <c r="E63" s="113">
-        <v>25</v>
-      </c>
-      <c r="F63" s="113">
-        <v>5872</v>
-      </c>
-      <c r="G63" s="113">
-        <v>77</v>
-      </c>
-      <c r="H63" s="113">
-        <v>53492</v>
-      </c>
-      <c r="I63" s="116">
-        <f t="shared" si="8"/>
-        <v>99.576055621502462</v>
-      </c>
-      <c r="J63" s="112">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="K63" s="122">
-        <v>0</v>
-      </c>
-      <c r="L63" s="112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N63" s="75">
+        <v>97.224975222992995</v>
+      </c>
+      <c r="O63" s="42">
+        <v>97.720500000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="107" t="s">
         <v>118</v>
       </c>
@@ -37422,8 +37590,15 @@
         <v>10.38</v>
       </c>
       <c r="L64" s="112"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M64" s="133" t="s">
+        <v>118</v>
+      </c>
+      <c r="N64" s="133">
+        <v>98.63</v>
+      </c>
+      <c r="O64" s="42"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="115"/>
       <c r="B65" s="115"/>
       <c r="C65" s="101"/>
@@ -37433,13 +37608,18 @@
       <c r="G65" s="101"/>
       <c r="H65" s="101"/>
       <c r="I65" s="101"/>
-      <c r="J65" s="141" t="s">
+      <c r="J65" s="169" t="s">
         <v>121</v>
       </c>
-      <c r="K65" s="142"/>
-      <c r="L65" s="143"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K65" s="170"/>
+      <c r="L65" s="171"/>
+      <c r="M65" s="161" t="s">
+        <v>121</v>
+      </c>
+      <c r="N65" s="162"/>
+      <c r="O65" s="163"/>
+    </row>
+    <row r="66" spans="1:15" s="135" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="115"/>
       <c r="B66" s="115"/>
       <c r="C66" s="101"/>
@@ -37449,18 +37629,18 @@
       <c r="G66" s="101"/>
       <c r="H66" s="101"/>
       <c r="I66" s="101"/>
-      <c r="J66" s="107" t="s">
-        <v>112</v>
-      </c>
-      <c r="K66" s="107">
-        <v>11.73</v>
-      </c>
-      <c r="L66" s="107">
-        <f>((K66-K64)/K64)*100</f>
-        <v>13.005780346820806</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J66" s="156"/>
+      <c r="K66" s="157"/>
+      <c r="L66" s="158" t="s">
+        <v>158</v>
+      </c>
+      <c r="M66" s="153"/>
+      <c r="N66" s="154"/>
+      <c r="O66" s="155" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="115"/>
       <c r="B67" s="115"/>
       <c r="C67" s="101"/>
@@ -37471,17 +37651,25 @@
       <c r="H67" s="101"/>
       <c r="I67" s="101"/>
       <c r="J67" s="107" t="s">
-        <v>109</v>
-      </c>
-      <c r="K67" s="112">
-        <v>10.38</v>
-      </c>
-      <c r="L67" s="112">
-        <f>((K67-K64)/K64)*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="K67" s="107">
+        <v>11.73</v>
+      </c>
+      <c r="L67" s="107">
+        <v>10.43</v>
+      </c>
+      <c r="M67" s="133" t="s">
+        <v>112</v>
+      </c>
+      <c r="N67" s="152">
+        <v>98.58</v>
+      </c>
+      <c r="O67" s="42">
+        <v>98.619900000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="115"/>
       <c r="B68" s="115"/>
       <c r="C68" s="101"/>
@@ -37492,17 +37680,23 @@
       <c r="H68" s="101"/>
       <c r="I68" s="101"/>
       <c r="J68" s="107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K68" s="112">
-        <v>10.73</v>
-      </c>
-      <c r="L68" s="112">
-        <f>((K68-K64)/K64)*100</f>
-        <v>3.371868978805391</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+        <v>10.38</v>
+      </c>
+      <c r="L68" s="112"/>
+      <c r="M68" s="133" t="s">
+        <v>109</v>
+      </c>
+      <c r="N68" s="42">
+        <v>98.619900000000001</v>
+      </c>
+      <c r="O68" s="42">
+        <v>98.619900000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="115"/>
       <c r="B69" s="115"/>
       <c r="C69" s="101"/>
@@ -37513,17 +37707,23 @@
       <c r="H69" s="101"/>
       <c r="I69" s="101"/>
       <c r="J69" s="107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K69" s="112">
-        <v>10.51</v>
-      </c>
-      <c r="L69" s="112">
-        <f>((K69-K64)/K64)*100</f>
-        <v>1.2524084778419942</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+        <v>10.73</v>
+      </c>
+      <c r="L69" s="112"/>
+      <c r="M69" s="133" t="s">
+        <v>110</v>
+      </c>
+      <c r="N69" s="42">
+        <v>98.619999999999905</v>
+      </c>
+      <c r="O69" s="42">
+        <v>98.619900000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="115"/>
       <c r="B70" s="115"/>
       <c r="C70" s="101"/>
@@ -37534,118 +37734,124 @@
       <c r="H70" s="101"/>
       <c r="I70" s="101"/>
       <c r="J70" s="107" t="s">
+        <v>111</v>
+      </c>
+      <c r="K70" s="112">
+        <v>10.51</v>
+      </c>
+      <c r="L70" s="112"/>
+      <c r="M70" s="133" t="s">
+        <v>111</v>
+      </c>
+      <c r="N70" s="42">
+        <v>98.619900000000001</v>
+      </c>
+      <c r="O70" s="42">
+        <v>98.619900000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A71" s="115"/>
+      <c r="B71" s="115"/>
+      <c r="C71" s="101"/>
+      <c r="D71" s="101"/>
+      <c r="E71" s="101"/>
+      <c r="F71" s="101"/>
+      <c r="G71" s="101"/>
+      <c r="H71" s="101"/>
+      <c r="I71" s="101"/>
+      <c r="J71" s="107" t="s">
         <v>122</v>
       </c>
-      <c r="K70" s="112">
+      <c r="K71" s="112">
         <v>10.68</v>
       </c>
-      <c r="L70" s="112">
-        <f>((K70-K64)/K64)*100</f>
-        <v>2.8901734104046137</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A71" s="123"/>
-      <c r="B71" s="115"/>
-      <c r="C71" s="115"/>
-      <c r="D71" s="115"/>
-      <c r="E71" s="115"/>
-      <c r="F71" s="115"/>
-      <c r="G71" s="115"/>
-      <c r="H71" s="115"/>
-      <c r="I71" s="115"/>
-      <c r="J71" s="107" t="s">
-        <v>123</v>
-      </c>
-      <c r="K71" s="112">
-        <v>10.74</v>
-      </c>
-      <c r="L71" s="112">
-        <f>((K71-K64)/K64)*100</f>
-        <v>3.4682080924855434</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A72" s="144" t="s">
-        <v>129</v>
-      </c>
-      <c r="B72" s="144"/>
-      <c r="C72" s="144"/>
-      <c r="D72" s="144"/>
-      <c r="E72" s="144"/>
-      <c r="F72" s="144"/>
-      <c r="G72" s="144"/>
+      <c r="L71" s="112"/>
+      <c r="M71" s="133" t="s">
+        <v>122</v>
+      </c>
+      <c r="N71" s="42">
+        <v>98.61</v>
+      </c>
+      <c r="O71" s="42">
+        <v>98.619900000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A72" s="123"/>
+      <c r="B72" s="115"/>
+      <c r="C72" s="115"/>
+      <c r="D72" s="115"/>
+      <c r="E72" s="115"/>
+      <c r="F72" s="115"/>
+      <c r="G72" s="115"/>
       <c r="H72" s="115"/>
       <c r="I72" s="115"/>
-      <c r="J72" s="115"/>
-      <c r="K72" s="101"/>
-      <c r="L72" s="101"/>
-    </row>
-    <row r="73" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A73" s="102" t="s">
-        <v>130</v>
-      </c>
-      <c r="B73" s="139" t="s">
-        <v>115</v>
-      </c>
-      <c r="C73" s="139"/>
-      <c r="D73" s="139" t="s">
-        <v>128</v>
-      </c>
-      <c r="E73" s="139"/>
-      <c r="F73" s="107" t="s">
-        <v>131</v>
-      </c>
-      <c r="G73" s="107"/>
+      <c r="J72" s="107" t="s">
+        <v>123</v>
+      </c>
+      <c r="K72" s="112">
+        <v>10.74</v>
+      </c>
+      <c r="L72" s="112"/>
+      <c r="M72" s="133" t="s">
+        <v>123</v>
+      </c>
+      <c r="N72" s="147">
+        <v>98.619999999999905</v>
+      </c>
+      <c r="O72" s="42">
+        <v>98.619900000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" s="135" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="123"/>
+      <c r="B73" s="115"/>
+      <c r="C73" s="115"/>
+      <c r="D73" s="115"/>
+      <c r="E73" s="115"/>
+      <c r="F73" s="115"/>
+      <c r="G73" s="115"/>
       <c r="H73" s="115"/>
       <c r="I73" s="115"/>
-      <c r="J73" s="115"/>
-      <c r="K73" s="115"/>
-      <c r="L73" s="115"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A74" s="112"/>
-      <c r="B74" s="107" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" s="107" t="s">
-        <v>125</v>
-      </c>
-      <c r="D74" s="107" t="s">
-        <v>5</v>
-      </c>
-      <c r="E74" s="107" t="s">
-        <v>125</v>
-      </c>
-      <c r="F74" s="107" t="s">
-        <v>5</v>
-      </c>
-      <c r="G74" s="107" t="s">
-        <v>125</v>
-      </c>
+      <c r="J73" s="148"/>
+      <c r="K73" s="149"/>
+      <c r="L73" s="149"/>
+      <c r="M73" s="150"/>
+      <c r="N73" s="151"/>
+      <c r="O73" s="151"/>
+    </row>
+    <row r="74" spans="1:15" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A74" s="167" t="s">
+        <v>129</v>
+      </c>
+      <c r="B74" s="167"/>
+      <c r="C74" s="167"/>
+      <c r="D74" s="167"/>
+      <c r="E74" s="167"/>
+      <c r="F74" s="167"/>
+      <c r="G74" s="167"/>
       <c r="H74" s="115"/>
       <c r="I74" s="115"/>
       <c r="J74" s="115"/>
-      <c r="K74" s="115"/>
-      <c r="L74" s="115"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A75" s="107" t="s">
-        <v>118</v>
-      </c>
-      <c r="B75" s="112">
-        <v>96.578000000000003</v>
-      </c>
-      <c r="C75" s="112">
-        <v>93.915999999999997</v>
-      </c>
-      <c r="D75" s="112">
-        <v>10.38</v>
-      </c>
-      <c r="E75" s="112">
-        <v>10.88</v>
-      </c>
-      <c r="F75" s="107"/>
+      <c r="K74" s="101"/>
+      <c r="L74" s="101"/>
+    </row>
+    <row r="75" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A75" s="102" t="s">
+        <v>130</v>
+      </c>
+      <c r="B75" s="166" t="s">
+        <v>115</v>
+      </c>
+      <c r="C75" s="166"/>
+      <c r="D75" s="166" t="s">
+        <v>128</v>
+      </c>
+      <c r="E75" s="166"/>
+      <c r="F75" s="107" t="s">
+        <v>131</v>
+      </c>
       <c r="G75" s="107"/>
       <c r="H75" s="115"/>
       <c r="I75" s="115"/>
@@ -37653,188 +37859,190 @@
       <c r="K75" s="115"/>
       <c r="L75" s="115"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="112"/>
-      <c r="B76" s="112"/>
-      <c r="C76" s="112"/>
-      <c r="D76" s="112"/>
-      <c r="E76" s="112"/>
-      <c r="F76" s="112"/>
-      <c r="G76" s="112"/>
-      <c r="H76" s="101"/>
-      <c r="I76" s="101"/>
-      <c r="J76" s="101"/>
-      <c r="K76" s="101"/>
-      <c r="L76" s="101"/>
-    </row>
-    <row r="77" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A77" s="102" t="s">
-        <v>132</v>
-      </c>
-      <c r="B77" s="102"/>
-      <c r="C77" s="110"/>
-      <c r="D77" s="117"/>
-      <c r="E77" s="117"/>
-      <c r="F77" s="117"/>
-      <c r="G77" s="117"/>
-      <c r="H77" s="124"/>
-      <c r="I77" s="124"/>
-      <c r="J77" s="124"/>
-      <c r="K77" s="124"/>
-      <c r="L77" s="124"/>
-    </row>
-    <row r="78" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="102"/>
-      <c r="B78" s="139" t="s">
-        <v>115</v>
-      </c>
-      <c r="C78" s="139"/>
-      <c r="D78" s="139" t="s">
-        <v>128</v>
-      </c>
-      <c r="E78" s="139"/>
-      <c r="F78" s="107" t="s">
-        <v>131</v>
-      </c>
-      <c r="G78" s="107"/>
-      <c r="H78" s="124"/>
-      <c r="I78" s="125"/>
-      <c r="J78" s="126"/>
+      <c r="B76" s="107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="107" t="s">
+        <v>125</v>
+      </c>
+      <c r="D76" s="107" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="107" t="s">
+        <v>125</v>
+      </c>
+      <c r="F76" s="107" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" s="107" t="s">
+        <v>125</v>
+      </c>
+      <c r="H76" s="115"/>
+      <c r="I76" s="115"/>
+      <c r="J76" s="115"/>
+      <c r="K76" s="115"/>
+      <c r="L76" s="115"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A77" s="107" t="s">
+        <v>118</v>
+      </c>
+      <c r="B77" s="112">
+        <v>96.578000000000003</v>
+      </c>
+      <c r="C77" s="112">
+        <v>93.915999999999997</v>
+      </c>
+      <c r="D77" s="112">
+        <v>10.38</v>
+      </c>
+      <c r="E77" s="112">
+        <v>10.88</v>
+      </c>
+      <c r="F77" s="107"/>
+      <c r="G77" s="107"/>
+      <c r="H77" s="115"/>
+      <c r="I77" s="115"/>
+      <c r="J77" s="115"/>
+      <c r="K77" s="115"/>
+      <c r="L77" s="115"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A78" s="112"/>
+      <c r="B78" s="112"/>
+      <c r="C78" s="112"/>
+      <c r="D78" s="112"/>
+      <c r="E78" s="112"/>
+      <c r="F78" s="112"/>
+      <c r="G78" s="112"/>
+      <c r="H78" s="101"/>
+      <c r="I78" s="101"/>
+      <c r="J78" s="101"/>
       <c r="K78" s="101"/>
       <c r="L78" s="101"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A79" s="112"/>
-      <c r="B79" s="107" t="s">
-        <v>5</v>
-      </c>
-      <c r="C79" s="107" t="s">
-        <v>125</v>
-      </c>
-      <c r="D79" s="107" t="s">
-        <v>5</v>
-      </c>
-      <c r="E79" s="107" t="s">
-        <v>125</v>
-      </c>
-      <c r="F79" s="107" t="s">
-        <v>5</v>
-      </c>
-      <c r="G79" s="107" t="s">
-        <v>125</v>
-      </c>
+    <row r="79" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A79" s="102" t="s">
+        <v>132</v>
+      </c>
+      <c r="B79" s="102"/>
+      <c r="C79" s="110"/>
+      <c r="D79" s="117"/>
+      <c r="E79" s="117"/>
+      <c r="F79" s="117"/>
+      <c r="G79" s="117"/>
       <c r="H79" s="124"/>
       <c r="I79" s="124"/>
       <c r="J79" s="124"/>
-      <c r="K79" s="101"/>
-      <c r="L79" s="101"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A80" s="107" t="s">
-        <v>118</v>
-      </c>
-      <c r="B80" s="112">
-        <v>98.988299999999995</v>
-      </c>
-      <c r="C80" s="112">
-        <v>98.971599999999995</v>
-      </c>
-      <c r="D80" s="112">
-        <v>10.38</v>
-      </c>
-      <c r="E80" s="112">
-        <v>10.86</v>
-      </c>
-      <c r="F80" s="117">
-        <v>98.63</v>
-      </c>
-      <c r="G80" s="117">
-        <v>98.58</v>
-      </c>
+      <c r="K79" s="124"/>
+      <c r="L79" s="124"/>
+    </row>
+    <row r="80" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="102"/>
+      <c r="B80" s="166" t="s">
+        <v>115</v>
+      </c>
+      <c r="C80" s="166"/>
+      <c r="D80" s="166" t="s">
+        <v>128</v>
+      </c>
+      <c r="E80" s="166"/>
+      <c r="F80" s="107" t="s">
+        <v>131</v>
+      </c>
+      <c r="G80" s="107"/>
       <c r="H80" s="124"/>
-      <c r="I80" s="124"/>
-      <c r="J80" s="124"/>
+      <c r="I80" s="125"/>
+      <c r="J80" s="126"/>
       <c r="K80" s="101"/>
       <c r="L80" s="101"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="112"/>
-      <c r="B81" s="122"/>
-      <c r="C81" s="117"/>
-      <c r="D81" s="117"/>
-      <c r="E81" s="117"/>
-      <c r="F81" s="117"/>
-      <c r="G81" s="117"/>
+      <c r="B81" s="107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="107" t="s">
+        <v>125</v>
+      </c>
+      <c r="D81" s="107" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="107" t="s">
+        <v>125</v>
+      </c>
+      <c r="F81" s="107" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="107" t="s">
+        <v>125</v>
+      </c>
       <c r="H81" s="124"/>
       <c r="I81" s="124"/>
-      <c r="J81" s="125"/>
-      <c r="K81" s="124"/>
-      <c r="L81" s="124"/>
-    </row>
-    <row r="82" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="102" t="s">
-        <v>133</v>
-      </c>
-      <c r="B82" s="139" t="s">
-        <v>115</v>
-      </c>
-      <c r="C82" s="139"/>
-      <c r="D82" s="139" t="s">
-        <v>128</v>
-      </c>
-      <c r="E82" s="139"/>
-      <c r="F82" s="107" t="s">
-        <v>131</v>
-      </c>
-      <c r="G82" s="107"/>
+      <c r="J81" s="124"/>
+      <c r="K81" s="101"/>
+      <c r="L81" s="101"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82" s="107" t="s">
+        <v>118</v>
+      </c>
+      <c r="B82" s="112">
+        <v>98.988299999999995</v>
+      </c>
+      <c r="C82" s="112">
+        <v>98.971599999999995</v>
+      </c>
+      <c r="D82" s="112">
+        <v>10.38</v>
+      </c>
+      <c r="E82" s="112">
+        <v>10.86</v>
+      </c>
+      <c r="F82" s="117">
+        <v>98.63</v>
+      </c>
+      <c r="G82" s="117">
+        <v>98.58</v>
+      </c>
       <c r="H82" s="124"/>
       <c r="I82" s="124"/>
       <c r="J82" s="124"/>
-      <c r="K82" s="124"/>
-      <c r="L82" s="124"/>
+      <c r="K82" s="101"/>
+      <c r="L82" s="101"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="112"/>
-      <c r="B83" s="107" t="s">
-        <v>5</v>
-      </c>
-      <c r="C83" s="107" t="s">
-        <v>125</v>
-      </c>
-      <c r="D83" s="107" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="107" t="s">
-        <v>125</v>
-      </c>
-      <c r="F83" s="107" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="107" t="s">
-        <v>125</v>
-      </c>
+      <c r="B83" s="122"/>
+      <c r="C83" s="117"/>
+      <c r="D83" s="117"/>
+      <c r="E83" s="117"/>
+      <c r="F83" s="117"/>
+      <c r="G83" s="117"/>
       <c r="H83" s="124"/>
       <c r="I83" s="124"/>
-      <c r="J83" s="124"/>
+      <c r="J83" s="125"/>
       <c r="K83" s="124"/>
-      <c r="L83" s="125"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A84" s="112"/>
-      <c r="B84" s="112">
-        <v>98.988299999999995</v>
-      </c>
-      <c r="C84" s="112">
-        <v>93.325000000000003</v>
-      </c>
-      <c r="D84" s="112">
-        <v>10.38</v>
-      </c>
-      <c r="E84" s="117">
-        <v>11.74</v>
-      </c>
-      <c r="F84" s="117"/>
-      <c r="G84" s="117"/>
+      <c r="L83" s="124"/>
+    </row>
+    <row r="84" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="102" t="s">
+        <v>133</v>
+      </c>
+      <c r="B84" s="166" t="s">
+        <v>115</v>
+      </c>
+      <c r="C84" s="166"/>
+      <c r="D84" s="166" t="s">
+        <v>128</v>
+      </c>
+      <c r="E84" s="166"/>
+      <c r="F84" s="107" t="s">
+        <v>131</v>
+      </c>
+      <c r="G84" s="107"/>
       <c r="H84" s="124"/>
       <c r="I84" s="124"/>
       <c r="J84" s="124"/>
@@ -37842,27 +38050,47 @@
       <c r="L84" s="124"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A85" s="101"/>
-      <c r="B85" s="126"/>
-      <c r="C85" s="124"/>
-      <c r="D85" s="124"/>
-      <c r="E85" s="124"/>
-      <c r="F85" s="124"/>
-      <c r="G85" s="124"/>
+      <c r="A85" s="112"/>
+      <c r="B85" s="107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="107" t="s">
+        <v>125</v>
+      </c>
+      <c r="D85" s="107" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" s="107" t="s">
+        <v>125</v>
+      </c>
+      <c r="F85" s="107" t="s">
+        <v>5</v>
+      </c>
+      <c r="G85" s="107" t="s">
+        <v>125</v>
+      </c>
       <c r="H85" s="124"/>
       <c r="I85" s="124"/>
       <c r="J85" s="124"/>
       <c r="K85" s="124"/>
-      <c r="L85" s="124"/>
+      <c r="L85" s="125"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A86" s="101"/>
-      <c r="B86" s="126"/>
-      <c r="C86" s="124"/>
-      <c r="D86" s="124"/>
-      <c r="E86" s="124"/>
-      <c r="F86" s="124"/>
-      <c r="G86" s="124"/>
+      <c r="A86" s="112"/>
+      <c r="B86" s="112">
+        <v>98.988299999999995</v>
+      </c>
+      <c r="C86" s="112">
+        <v>93.325000000000003</v>
+      </c>
+      <c r="D86" s="112">
+        <v>10.38</v>
+      </c>
+      <c r="E86" s="117">
+        <v>11.74</v>
+      </c>
+      <c r="F86" s="117"/>
+      <c r="G86" s="117"/>
       <c r="H86" s="124"/>
       <c r="I86" s="124"/>
       <c r="J86" s="124"/>
@@ -37875,8 +38103,8 @@
       <c r="C87" s="124"/>
       <c r="D87" s="124"/>
       <c r="E87" s="124"/>
-      <c r="F87" s="101"/>
-      <c r="G87" s="101"/>
+      <c r="F87" s="124"/>
+      <c r="G87" s="124"/>
       <c r="H87" s="124"/>
       <c r="I87" s="124"/>
       <c r="J87" s="124"/>
@@ -37884,1907 +38112,1857 @@
       <c r="L87" s="124"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A88" s="115" t="s">
+      <c r="A88" s="101"/>
+      <c r="B88" s="126"/>
+      <c r="C88" s="124"/>
+      <c r="D88" s="124"/>
+      <c r="E88" s="124"/>
+      <c r="F88" s="124"/>
+      <c r="G88" s="124"/>
+      <c r="H88" s="124"/>
+      <c r="I88" s="124"/>
+      <c r="J88" s="124"/>
+      <c r="K88" s="124"/>
+      <c r="L88" s="124"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89" s="101"/>
+      <c r="B89" s="126"/>
+      <c r="C89" s="124"/>
+      <c r="D89" s="124"/>
+      <c r="E89" s="124"/>
+      <c r="F89" s="101"/>
+      <c r="G89" s="101"/>
+      <c r="H89" s="124"/>
+      <c r="I89" s="124"/>
+      <c r="J89" s="124"/>
+      <c r="K89" s="124"/>
+      <c r="L89" s="124"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90" s="115" t="s">
         <v>134</v>
       </c>
-      <c r="B88" s="101"/>
-      <c r="C88" s="101"/>
-      <c r="D88" s="101"/>
-      <c r="E88" s="101"/>
-      <c r="F88" s="127"/>
-      <c r="G88" s="127"/>
-      <c r="H88" s="101"/>
-      <c r="I88" s="101"/>
-      <c r="J88" s="101"/>
-      <c r="K88" s="101"/>
-      <c r="L88" s="101"/>
-    </row>
-    <row r="89" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="128" t="s">
+      <c r="B90" s="101"/>
+      <c r="C90" s="101"/>
+      <c r="D90" s="101"/>
+      <c r="E90" s="101"/>
+      <c r="F90" s="127"/>
+      <c r="G90" s="127"/>
+      <c r="H90" s="101"/>
+      <c r="I90" s="101"/>
+      <c r="J90" s="101"/>
+      <c r="K90" s="101"/>
+      <c r="L90" s="101"/>
+    </row>
+    <row r="91" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="128" t="s">
         <v>45</v>
       </c>
-      <c r="B89" s="127"/>
-      <c r="C89" s="127"/>
-      <c r="D89" s="127"/>
-      <c r="E89" s="127"/>
-      <c r="F89" s="127"/>
-      <c r="G89" s="127"/>
-      <c r="H89" s="127"/>
-      <c r="I89" s="127"/>
-      <c r="J89" s="127"/>
-      <c r="K89" s="127"/>
-      <c r="L89" s="127"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A90" s="129" t="s">
+      <c r="B91" s="127"/>
+      <c r="C91" s="127"/>
+      <c r="D91" s="127"/>
+      <c r="E91" s="127"/>
+      <c r="F91" s="127"/>
+      <c r="G91" s="127"/>
+      <c r="H91" s="127"/>
+      <c r="I91" s="127"/>
+      <c r="J91" s="127"/>
+      <c r="K91" s="127"/>
+      <c r="L91" s="127"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="B90" s="127" t="s">
+      <c r="B92" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="C90" s="127" t="s">
+      <c r="C92" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="D90" s="127" t="s">
+      <c r="D92" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="E90" s="127"/>
-      <c r="F90" s="130"/>
-      <c r="G90" s="130"/>
-      <c r="H90" s="127" t="s">
-        <v>7</v>
-      </c>
-      <c r="I90" s="127" t="s">
-        <v>8</v>
-      </c>
-      <c r="J90" s="127" t="s">
-        <v>2</v>
-      </c>
-      <c r="K90" s="127" t="s">
-        <v>9</v>
-      </c>
-      <c r="L90" s="127" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A91" s="127">
-        <v>0</v>
-      </c>
-      <c r="B91" s="130">
-        <v>98.919466486577704</v>
-      </c>
-      <c r="C91" s="130">
-        <v>99.375316562552698</v>
-      </c>
-      <c r="D91" s="130">
-        <v>98.716866452811004</v>
-      </c>
-      <c r="E91" s="130"/>
-      <c r="F91" s="130"/>
-      <c r="G91" s="130"/>
-      <c r="H91" s="130">
-        <v>85.801114300185702</v>
-      </c>
-      <c r="I91" s="130">
-        <v>98.936349822724907</v>
-      </c>
-      <c r="J91" s="130">
-        <v>96.758399459733198</v>
-      </c>
-      <c r="K91" s="130">
-        <v>99.105183184197202</v>
-      </c>
-      <c r="L91" s="130">
-        <v>98.328549721424906</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A92" s="127">
-        <f>A91+1</f>
-        <v>1</v>
-      </c>
-      <c r="B92" s="130">
-        <v>97.923464847226299</v>
-      </c>
-      <c r="C92" s="130">
-        <v>97.982794423019797</v>
-      </c>
-      <c r="D92" s="130">
-        <v>99.406704242064606</v>
-      </c>
-      <c r="E92" s="130"/>
+      <c r="E92" s="127"/>
       <c r="F92" s="130"/>
       <c r="G92" s="130"/>
-      <c r="H92" s="130">
-        <v>97.967962029071401</v>
-      </c>
-      <c r="I92" s="130">
-        <v>97.893800059329493</v>
-      </c>
-      <c r="J92" s="130">
-        <v>96.366063482646098</v>
-      </c>
-      <c r="K92" s="130">
-        <v>97.745476119845705</v>
-      </c>
-      <c r="L92" s="130">
-        <v>97.893800059329493</v>
+      <c r="H92" s="127" t="s">
+        <v>7</v>
+      </c>
+      <c r="I92" s="127" t="s">
+        <v>8</v>
+      </c>
+      <c r="J92" s="127" t="s">
+        <v>2</v>
+      </c>
+      <c r="K92" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="L92" s="127" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="127">
-        <f t="shared" ref="A93:A100" si="9">A92+1</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B93" s="130">
-        <v>97.784491440080501</v>
+        <v>98.919466486577704</v>
       </c>
       <c r="C93" s="130">
-        <v>97.549513259483007</v>
+        <v>99.375316562552698</v>
       </c>
       <c r="D93" s="130">
-        <v>87.495803961060702</v>
+        <v>98.716866452811004</v>
       </c>
       <c r="E93" s="130"/>
       <c r="F93" s="130"/>
       <c r="G93" s="130"/>
       <c r="H93" s="130">
-        <v>98.841893252769296</v>
+        <v>85.801114300185702</v>
       </c>
       <c r="I93" s="130">
-        <v>97.985901309164106</v>
+        <v>98.936349822724907</v>
       </c>
       <c r="J93" s="130">
-        <v>97.062772742530996</v>
+        <v>96.758399459733198</v>
       </c>
       <c r="K93" s="130">
-        <v>96.760657938905595</v>
+        <v>99.105183184197202</v>
       </c>
       <c r="L93" s="130">
-        <v>97.515944947969103</v>
+        <v>98.328549721424906</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="127">
-        <f t="shared" si="9"/>
-        <v>3</v>
+        <f>A93+1</f>
+        <v>1</v>
       </c>
       <c r="B94" s="130">
-        <v>95.840809003425207</v>
+        <v>97.923464847226299</v>
       </c>
       <c r="C94" s="130">
-        <v>95.090523568748907</v>
+        <v>97.982794423019797</v>
       </c>
       <c r="D94" s="130">
-        <v>95.481976839014806</v>
+        <v>99.406704242064606</v>
       </c>
       <c r="E94" s="130"/>
       <c r="F94" s="130"/>
       <c r="G94" s="130"/>
       <c r="H94" s="130">
-        <v>91.4858913717175</v>
+        <v>97.967962029071401</v>
       </c>
       <c r="I94" s="130">
-        <v>97.080411025933699</v>
+        <v>97.893800059329493</v>
       </c>
       <c r="J94" s="130">
-        <v>93.965095416734599</v>
+        <v>96.366063482646098</v>
       </c>
       <c r="K94" s="130">
-        <v>92.790735605937002</v>
+        <v>97.745476119845705</v>
       </c>
       <c r="L94" s="130">
-        <v>96.167020061980097</v>
+        <v>97.893800059329493</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="127">
-        <f t="shared" si="9"/>
-        <v>4</v>
+        <f t="shared" ref="A95:A102" si="10">A94+1</f>
+        <v>2</v>
       </c>
       <c r="B95" s="130">
-        <v>98.322492297158504</v>
+        <v>97.784491440080501</v>
       </c>
       <c r="C95" s="130">
-        <v>95.686408764121794</v>
+        <v>97.549513259483007</v>
       </c>
       <c r="D95" s="130">
-        <v>98.151318041766501</v>
+        <v>87.495803961060702</v>
       </c>
       <c r="E95" s="130"/>
       <c r="F95" s="130"/>
       <c r="G95" s="130"/>
       <c r="H95" s="130">
-        <v>97.466621020198502</v>
+        <v>98.841893252769296</v>
       </c>
       <c r="I95" s="130">
-        <v>97.997261211913695</v>
+        <v>97.985901309164106</v>
       </c>
       <c r="J95" s="130">
-        <v>99.486477233824004</v>
+        <v>97.062772742530996</v>
       </c>
       <c r="K95" s="130">
-        <v>98.271140020540898</v>
+        <v>96.760657938905595</v>
       </c>
       <c r="L95" s="130">
-        <v>97.911674084217694</v>
+        <v>97.515944947969103</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="127">
-        <f t="shared" si="9"/>
-        <v>5</v>
+        <f t="shared" si="10"/>
+        <v>3</v>
       </c>
       <c r="B96" s="130">
-        <v>98.247555801512604</v>
+        <v>95.840809003425207</v>
       </c>
       <c r="C96" s="130">
-        <v>98.302896144622693</v>
+        <v>95.090523568748907</v>
       </c>
       <c r="D96" s="130">
-        <v>88.230953698579597</v>
+        <v>95.481976839014806</v>
       </c>
       <c r="E96" s="130"/>
       <c r="F96" s="130"/>
       <c r="G96" s="130"/>
       <c r="H96" s="130">
-        <v>98.671831765356899</v>
+        <v>91.4858913717175</v>
       </c>
       <c r="I96" s="130">
-        <v>97.546578122117694</v>
+        <v>97.080411025933699</v>
       </c>
       <c r="J96" s="130">
-        <v>89.3193137797454</v>
+        <v>93.965095416734599</v>
       </c>
       <c r="K96" s="130">
-        <v>98.837852794687294</v>
+        <v>92.790735605937002</v>
       </c>
       <c r="L96" s="130">
-        <v>98.063087991145494</v>
+        <v>96.167020061980097</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="127">
-        <f t="shared" si="9"/>
-        <v>6</v>
+        <f t="shared" si="10"/>
+        <v>4</v>
       </c>
       <c r="B97" s="130">
-        <v>96.620479891855297</v>
+        <v>98.322492297158504</v>
       </c>
       <c r="C97" s="130">
-        <v>97.347076715106397</v>
+        <v>95.686408764121794</v>
       </c>
       <c r="D97" s="130">
-        <v>87.546468401486905</v>
+        <v>98.151318041766501</v>
       </c>
       <c r="E97" s="130"/>
       <c r="F97" s="130"/>
       <c r="G97" s="130"/>
       <c r="H97" s="130">
-        <v>82.527881040892197</v>
+        <v>97.466621020198502</v>
       </c>
       <c r="I97" s="130">
-        <v>97.482257519432196</v>
+        <v>97.997261211913695</v>
       </c>
       <c r="J97" s="130">
-        <v>78.996282527880993</v>
+        <v>99.486477233824004</v>
       </c>
       <c r="K97" s="130">
-        <v>97.397769516728602</v>
+        <v>98.271140020540898</v>
       </c>
       <c r="L97" s="130">
-        <v>97.668131125380199</v>
+        <v>97.911674084217694</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="127">
-        <f t="shared" si="9"/>
-        <v>7</v>
+        <f t="shared" si="10"/>
+        <v>5</v>
       </c>
       <c r="B98" s="130">
-        <v>95.802075019952099</v>
+        <v>98.247555801512604</v>
       </c>
       <c r="C98" s="130">
-        <v>96.871508379888198</v>
+        <v>98.302896144622693</v>
       </c>
       <c r="D98" s="130">
-        <v>94.620909816440502</v>
+        <v>88.230953698579597</v>
       </c>
       <c r="E98" s="130"/>
       <c r="F98" s="130"/>
       <c r="G98" s="130"/>
       <c r="H98" s="130">
-        <v>98.244213886671901</v>
+        <v>98.671831765356899</v>
       </c>
       <c r="I98" s="130">
-        <v>95.786113328012704</v>
+        <v>97.546578122117694</v>
       </c>
       <c r="J98" s="130">
-        <v>90.534716679968</v>
+        <v>89.3193137797454</v>
       </c>
       <c r="K98" s="130">
-        <v>92.529928172386207</v>
+        <v>98.837852794687294</v>
       </c>
       <c r="L98" s="130">
-        <v>96.233040702314398</v>
+        <v>98.063087991145494</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="127">
-        <f t="shared" si="9"/>
-        <v>8</v>
+        <f t="shared" si="10"/>
+        <v>6</v>
       </c>
       <c r="B99" s="130">
-        <v>90.753717313279694</v>
+        <v>96.620479891855297</v>
       </c>
       <c r="C99" s="130">
-        <v>89.027516663818105</v>
+        <v>97.347076715106397</v>
       </c>
       <c r="D99" s="130">
-        <v>90.155528969406902</v>
+        <v>87.546468401486905</v>
       </c>
       <c r="E99" s="130"/>
       <c r="F99" s="130"/>
       <c r="G99" s="130"/>
       <c r="H99" s="130">
-        <v>75.423004614595797</v>
+        <v>82.527881040892197</v>
       </c>
       <c r="I99" s="130">
-        <v>91.215176892838798</v>
+        <v>97.482257519432196</v>
       </c>
       <c r="J99" s="130">
-        <v>54.999145445223</v>
+        <v>78.996282527880993</v>
       </c>
       <c r="K99" s="130">
-        <v>86.241668090924605</v>
+        <v>97.397769516728602</v>
       </c>
       <c r="L99" s="130">
-        <v>90.309348829259903</v>
+        <v>97.668131125380199</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="127">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="B100" s="130">
+        <v>95.802075019952099</v>
+      </c>
+      <c r="C100" s="130">
+        <v>96.871508379888198</v>
+      </c>
+      <c r="D100" s="130">
+        <v>94.620909816440502</v>
+      </c>
+      <c r="E100" s="130"/>
+      <c r="F100" s="130"/>
+      <c r="G100" s="130"/>
+      <c r="H100" s="130">
+        <v>98.244213886671901</v>
+      </c>
+      <c r="I100" s="130">
+        <v>95.786113328012704</v>
+      </c>
+      <c r="J100" s="130">
+        <v>90.534716679968</v>
+      </c>
+      <c r="K100" s="130">
+        <v>92.529928172386207</v>
+      </c>
+      <c r="L100" s="130">
+        <v>96.233040702314398</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A101" s="127">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="B101" s="130">
+        <v>90.753717313279694</v>
+      </c>
+      <c r="C101" s="130">
+        <v>89.027516663818105</v>
+      </c>
+      <c r="D101" s="130">
+        <v>90.155528969406902</v>
+      </c>
+      <c r="E101" s="130"/>
+      <c r="F101" s="130"/>
+      <c r="G101" s="130"/>
+      <c r="H101" s="130">
+        <v>75.423004614595797</v>
+      </c>
+      <c r="I101" s="130">
+        <v>91.215176892838798</v>
+      </c>
+      <c r="J101" s="130">
+        <v>54.999145445223</v>
+      </c>
+      <c r="K101" s="130">
+        <v>86.241668090924605</v>
+      </c>
+      <c r="L101" s="130">
+        <v>90.309348829259903</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A102" s="127">
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
-      <c r="B100" s="130">
+      <c r="B102" s="130">
         <v>95.545469826861606</v>
       </c>
-      <c r="C100" s="130">
+      <c r="C102" s="130">
         <v>95.948898974617506</v>
       </c>
-      <c r="D100" s="130">
+      <c r="D102" s="130">
         <v>95.730374852916398</v>
       </c>
-      <c r="E100" s="130"/>
-      <c r="F100" s="127"/>
-      <c r="G100" s="127"/>
-      <c r="H100" s="130">
-        <v>62.464279710875701</v>
-      </c>
-      <c r="I100" s="130">
-        <v>95.528660279038405</v>
-      </c>
-      <c r="J100" s="130">
-        <v>94.402420574886506</v>
-      </c>
-      <c r="K100" s="130">
-        <v>95.175659774752006</v>
-      </c>
-      <c r="L100" s="130">
-        <v>94.973945200874098</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A101" s="127"/>
-      <c r="B101" s="127"/>
-      <c r="C101" s="127"/>
-      <c r="D101" s="127"/>
-      <c r="E101" s="127"/>
-      <c r="F101" s="127"/>
-      <c r="G101" s="127"/>
-      <c r="H101" s="127"/>
-      <c r="I101" s="127"/>
-      <c r="J101" s="127"/>
-      <c r="K101" s="127"/>
-      <c r="L101" s="127"/>
-    </row>
-    <row r="102" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A102" s="128" t="s">
-        <v>42</v>
-      </c>
-      <c r="B102" s="127"/>
-      <c r="C102" s="127"/>
-      <c r="D102" s="127"/>
-      <c r="E102" s="127"/>
+      <c r="E102" s="130"/>
       <c r="F102" s="127"/>
       <c r="G102" s="127"/>
-      <c r="H102" s="127"/>
-      <c r="I102" s="127"/>
-      <c r="J102" s="127"/>
-      <c r="K102" s="127"/>
-      <c r="L102" s="127"/>
+      <c r="H102" s="130">
+        <v>62.464279710875701</v>
+      </c>
+      <c r="I102" s="130">
+        <v>95.528660279038405</v>
+      </c>
+      <c r="J102" s="130">
+        <v>94.402420574886506</v>
+      </c>
+      <c r="K102" s="130">
+        <v>95.175659774752006</v>
+      </c>
+      <c r="L102" s="130">
+        <v>94.973945200874098</v>
+      </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A103" s="129" t="s">
+      <c r="A103" s="127"/>
+      <c r="B103" s="127"/>
+      <c r="C103" s="127"/>
+      <c r="D103" s="127"/>
+      <c r="E103" s="127"/>
+      <c r="F103" s="127"/>
+      <c r="G103" s="127"/>
+      <c r="H103" s="127"/>
+      <c r="I103" s="127"/>
+      <c r="J103" s="127"/>
+      <c r="K103" s="127"/>
+      <c r="L103" s="127"/>
+    </row>
+    <row r="104" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A104" s="128" t="s">
+        <v>42</v>
+      </c>
+      <c r="B104" s="127"/>
+      <c r="C104" s="127"/>
+      <c r="D104" s="127"/>
+      <c r="E104" s="127"/>
+      <c r="F104" s="127"/>
+      <c r="G104" s="127"/>
+      <c r="H104" s="127"/>
+      <c r="I104" s="127"/>
+      <c r="J104" s="127"/>
+      <c r="K104" s="127"/>
+      <c r="L104" s="127"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A105" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="B103" s="127" t="s">
+      <c r="B105" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="C103" s="127" t="s">
+      <c r="C105" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="D103" s="127" t="s">
+      <c r="D105" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="E103" s="127"/>
-      <c r="F103" s="130"/>
-      <c r="G103" s="130"/>
-      <c r="H103" s="127" t="s">
-        <v>7</v>
-      </c>
-      <c r="I103" s="127" t="s">
-        <v>8</v>
-      </c>
-      <c r="J103" s="127" t="s">
-        <v>12</v>
-      </c>
-      <c r="K103" s="127" t="s">
-        <v>13</v>
-      </c>
-      <c r="L103" s="127" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A104" s="127">
-        <v>0</v>
-      </c>
-      <c r="B104" s="131">
-        <v>98.970116495019397</v>
-      </c>
-      <c r="C104" s="130">
-        <v>98.9869998311666</v>
-      </c>
-      <c r="D104" s="130">
-        <v>98.868816478135997</v>
-      </c>
-      <c r="E104" s="130"/>
-      <c r="F104" s="130"/>
-      <c r="G104" s="130"/>
-      <c r="H104" s="130">
-        <v>98.936349822724907</v>
-      </c>
-      <c r="I104" s="130">
-        <v>97.568799594799899</v>
-      </c>
-      <c r="J104" s="130">
-        <v>97.703866283977703</v>
-      </c>
-      <c r="K104" s="130">
-        <v>98.159716359952697</v>
-      </c>
-      <c r="L104" s="130">
-        <v>98.294783049130501</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A105" s="127">
-        <f>A104+1</f>
-        <v>1</v>
-      </c>
-      <c r="B105" s="131">
-        <v>98.709581726490597</v>
-      </c>
-      <c r="C105" s="130">
-        <v>98.739246514387403</v>
-      </c>
-      <c r="D105" s="130">
-        <v>98.872738059922796</v>
-      </c>
-      <c r="E105" s="130"/>
+      <c r="E105" s="127"/>
       <c r="F105" s="130"/>
       <c r="G105" s="130"/>
-      <c r="H105" s="130">
-        <v>98.531592999110003</v>
-      </c>
-      <c r="I105" s="130">
-        <v>98.398101453574597</v>
-      </c>
-      <c r="J105" s="130">
-        <v>98.605754968851898</v>
-      </c>
-      <c r="K105" s="130">
-        <v>98.739246514387403</v>
-      </c>
-      <c r="L105" s="131">
-        <v>98.427766241471303</v>
+      <c r="H105" s="127" t="s">
+        <v>7</v>
+      </c>
+      <c r="I105" s="127" t="s">
+        <v>8</v>
+      </c>
+      <c r="J105" s="127" t="s">
+        <v>12</v>
+      </c>
+      <c r="K105" s="127" t="s">
+        <v>13</v>
+      </c>
+      <c r="L105" s="127" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="127">
-        <f t="shared" ref="A106:A113" si="10">A105+1</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B106" s="131">
-        <v>98.774756629741503</v>
+        <v>98.970116495019397</v>
       </c>
       <c r="C106" s="130">
-        <v>98.657267539442699</v>
+        <v>98.9869998311666</v>
       </c>
       <c r="D106" s="130">
-        <v>98.606915072171802</v>
+        <v>98.868816478135997</v>
       </c>
       <c r="E106" s="130"/>
       <c r="F106" s="130"/>
       <c r="G106" s="130"/>
       <c r="H106" s="130">
-        <v>98.858677408526304</v>
+        <v>98.936349822724907</v>
       </c>
       <c r="I106" s="130">
-        <v>89.610607586438405</v>
+        <v>97.568799594799899</v>
       </c>
       <c r="J106" s="130">
-        <v>98.774756629741503</v>
+        <v>97.703866283977703</v>
       </c>
       <c r="K106" s="130">
-        <v>94.528365223229201</v>
+        <v>98.159716359952697</v>
       </c>
       <c r="L106" s="130">
-        <v>98.539778449143995</v>
+        <v>98.294783049130501</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="127">
-        <f t="shared" si="10"/>
-        <v>3</v>
+        <f>A106+1</f>
+        <v>1</v>
       </c>
       <c r="B107" s="131">
-        <v>98.956124612624293</v>
+        <v>98.709581726490597</v>
       </c>
       <c r="C107" s="130">
-        <v>98.874571847985607</v>
+        <v>98.739246514387403</v>
       </c>
       <c r="D107" s="130">
-        <v>98.939814059696602</v>
+        <v>98.872738059922796</v>
       </c>
       <c r="E107" s="130"/>
       <c r="F107" s="130"/>
       <c r="G107" s="130"/>
       <c r="H107" s="130">
-        <v>98.874571847985607</v>
+        <v>98.531592999110003</v>
       </c>
       <c r="I107" s="130">
-        <v>99.217093459468202</v>
+        <v>98.398101453574597</v>
       </c>
       <c r="J107" s="130">
-        <v>98.711466318708204</v>
+        <v>98.605754968851898</v>
       </c>
       <c r="K107" s="130">
-        <v>98.059044201598397</v>
-      </c>
-      <c r="L107" s="130">
-        <v>98.662534659924901</v>
+        <v>98.739246514387403</v>
+      </c>
+      <c r="L107" s="131">
+        <v>98.427766241471303</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="127">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f t="shared" ref="A108:A115" si="11">A107+1</f>
+        <v>2</v>
       </c>
       <c r="B108" s="131">
-        <v>98.870249914412796</v>
+        <v>98.774756629741503</v>
       </c>
       <c r="C108" s="130">
-        <v>98.699075659020806</v>
+        <v>98.657267539442699</v>
       </c>
       <c r="D108" s="130">
-        <v>98.733310510099201</v>
+        <v>98.606915072171802</v>
       </c>
       <c r="E108" s="130"/>
       <c r="F108" s="130"/>
       <c r="G108" s="130"/>
       <c r="H108" s="130">
-        <v>98.801780212256006</v>
+        <v>98.858677408526304</v>
       </c>
       <c r="I108" s="130">
-        <v>98.818897637795203</v>
+        <v>89.610607586438405</v>
       </c>
       <c r="J108" s="130">
-        <v>98.921602191030402</v>
+        <v>98.774756629741503</v>
       </c>
       <c r="K108" s="130">
-        <v>98.288257446080095</v>
+        <v>94.528365223229201</v>
       </c>
       <c r="L108" s="130">
-        <v>98.476549127011296</v>
+        <v>98.539778449143995</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="127">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="11"/>
+        <v>3</v>
       </c>
       <c r="B109" s="131">
-        <v>98.985427042981001</v>
+        <v>98.956124612624293</v>
       </c>
       <c r="C109" s="130">
-        <v>98.468917173953102</v>
+        <v>98.874571847985607</v>
       </c>
       <c r="D109" s="130">
-        <v>98.9485334809075</v>
+        <v>98.939814059696602</v>
       </c>
       <c r="E109" s="130"/>
       <c r="F109" s="130"/>
       <c r="G109" s="130"/>
       <c r="H109" s="130">
-        <v>98.985427042981001</v>
+        <v>98.874571847985607</v>
       </c>
       <c r="I109" s="130">
-        <v>97.509684560044207</v>
+        <v>99.217093459468202</v>
       </c>
       <c r="J109" s="130">
-        <v>98.985427042981001</v>
+        <v>98.711466318708204</v>
       </c>
       <c r="K109" s="130">
-        <v>98.966980261944201</v>
+        <v>98.059044201598397</v>
       </c>
       <c r="L109" s="130">
-        <v>98.985427042981001</v>
+        <v>98.662534659924901</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="127">
-        <f t="shared" si="10"/>
-        <v>6</v>
+        <f t="shared" si="11"/>
+        <v>4</v>
       </c>
       <c r="B110" s="131">
-        <v>99.036836769178706</v>
+        <v>98.870249914412796</v>
       </c>
       <c r="C110" s="130">
-        <v>99.053734369719507</v>
+        <v>98.699075659020806</v>
       </c>
       <c r="D110" s="130">
-        <v>99.036836769178706</v>
+        <v>98.733310510099201</v>
       </c>
       <c r="E110" s="130"/>
-      <c r="F110" s="131"/>
-      <c r="G110" s="131"/>
+      <c r="F110" s="130"/>
+      <c r="G110" s="130"/>
       <c r="H110" s="130">
-        <v>99.019939168638004</v>
+        <v>98.801780212256006</v>
       </c>
       <c r="I110" s="130">
-        <v>98.698884758364301</v>
+        <v>98.818897637795203</v>
       </c>
       <c r="J110" s="130">
-        <v>99.036836769178706</v>
+        <v>98.921602191030402</v>
       </c>
       <c r="K110" s="130">
-        <v>95.2010814464346</v>
+        <v>98.288257446080095</v>
       </c>
       <c r="L110" s="130">
-        <v>99.070631970260195</v>
+        <v>98.476549127011296</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="127">
-        <f t="shared" si="10"/>
-        <v>7</v>
+        <f t="shared" si="11"/>
+        <v>5</v>
       </c>
       <c r="B111" s="131">
-        <v>99.984038308060605</v>
+        <v>98.985427042981001</v>
       </c>
       <c r="C111" s="130">
-        <v>99.728651237031102</v>
-      </c>
-      <c r="D111" s="131">
-        <v>98.595371109337506</v>
-      </c>
-      <c r="E111" s="131"/>
+        <v>98.468917173953102</v>
+      </c>
+      <c r="D111" s="130">
+        <v>98.9485334809075</v>
+      </c>
+      <c r="E111" s="130"/>
       <c r="F111" s="130"/>
       <c r="G111" s="130"/>
       <c r="H111" s="130">
-        <v>99.824421388667105</v>
+        <v>98.985427042981001</v>
       </c>
       <c r="I111" s="130">
-        <v>98.786911412609697</v>
+        <v>97.509684560044207</v>
       </c>
       <c r="J111" s="130">
-        <v>98.292098962490002</v>
+        <v>98.985427042981001</v>
       </c>
       <c r="K111" s="130">
-        <v>99.680766161213</v>
+        <v>98.966980261944201</v>
       </c>
       <c r="L111" s="130">
-        <v>99.824421388667105</v>
+        <v>98.985427042981001</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="127">
-        <f t="shared" si="10"/>
-        <v>8</v>
+        <f t="shared" si="11"/>
+        <v>6</v>
       </c>
       <c r="B112" s="131">
-        <v>99.025807554264205</v>
+        <v>99.036836769178706</v>
       </c>
       <c r="C112" s="130">
-        <v>98.991625363185705</v>
+        <v>99.053734369719507</v>
       </c>
       <c r="D112" s="130">
-        <v>98.906169885489604</v>
+        <v>99.036836769178706</v>
       </c>
       <c r="E112" s="130"/>
-      <c r="F112" s="130"/>
-      <c r="G112" s="130"/>
+      <c r="F112" s="131"/>
+      <c r="G112" s="131"/>
       <c r="H112" s="130">
-        <v>99.008716458725004</v>
+        <v>99.019939168638004</v>
       </c>
       <c r="I112" s="130">
-        <v>98.427619210391299</v>
+        <v>98.698884758364301</v>
       </c>
       <c r="J112" s="130">
-        <v>97.624337720047805</v>
+        <v>99.036836769178706</v>
       </c>
       <c r="K112" s="130">
-        <v>81.063066142539697</v>
+        <v>95.2010814464346</v>
       </c>
       <c r="L112" s="130">
-        <v>97.555973337890904</v>
+        <v>99.070631970260195</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="127">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="B113" s="131">
+        <v>99.984038308060605</v>
+      </c>
+      <c r="C113" s="130">
+        <v>99.728651237031102</v>
+      </c>
+      <c r="D113" s="131">
+        <v>98.595371109337506</v>
+      </c>
+      <c r="E113" s="131"/>
+      <c r="F113" s="130"/>
+      <c r="G113" s="130"/>
+      <c r="H113" s="130">
+        <v>99.824421388667105</v>
+      </c>
+      <c r="I113" s="130">
+        <v>98.786911412609697</v>
+      </c>
+      <c r="J113" s="130">
+        <v>98.292098962490002</v>
+      </c>
+      <c r="K113" s="130">
+        <v>99.680766161213</v>
+      </c>
+      <c r="L113" s="130">
+        <v>99.824421388667105</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A114" s="127">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="B114" s="131">
+        <v>99.025807554264205</v>
+      </c>
+      <c r="C114" s="130">
+        <v>98.991625363185705</v>
+      </c>
+      <c r="D114" s="130">
+        <v>98.906169885489604</v>
+      </c>
+      <c r="E114" s="130"/>
+      <c r="F114" s="130"/>
+      <c r="G114" s="130"/>
+      <c r="H114" s="130">
+        <v>99.008716458725004</v>
+      </c>
+      <c r="I114" s="130">
+        <v>98.427619210391299</v>
+      </c>
+      <c r="J114" s="130">
+        <v>97.624337720047805</v>
+      </c>
+      <c r="K114" s="130">
+        <v>81.063066142539697</v>
+      </c>
+      <c r="L114" s="130">
+        <v>97.555973337890904</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A115" s="127">
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
-      <c r="B113" s="131">
+      <c r="B115" s="131">
         <v>98.554378887207903</v>
       </c>
-      <c r="C113" s="130">
+      <c r="C115" s="130">
         <v>98.369473861153097</v>
       </c>
-      <c r="D113" s="130">
+      <c r="D115" s="130">
         <v>97.579425113464396</v>
       </c>
-      <c r="E113" s="130"/>
-      <c r="F113" s="101"/>
-      <c r="G113" s="101"/>
-      <c r="H113" s="130">
-        <v>98.352664313329896</v>
-      </c>
-      <c r="I113" s="130">
-        <v>97.663472852580199</v>
-      </c>
-      <c r="J113" s="130">
-        <v>97.528996469994894</v>
-      </c>
-      <c r="K113" s="130">
-        <v>98.167759287275103</v>
-      </c>
-      <c r="L113" s="130">
-        <v>98.050092452512999</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A114" s="101"/>
-      <c r="B114" s="101"/>
-      <c r="C114" s="101"/>
-      <c r="D114" s="101"/>
-      <c r="E114" s="101"/>
-      <c r="F114" s="101"/>
-      <c r="G114" s="101"/>
-      <c r="H114" s="101"/>
-      <c r="I114" s="101"/>
-      <c r="J114" s="101"/>
-      <c r="K114" s="101"/>
-      <c r="L114" s="101"/>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A115" s="115" t="s">
-        <v>134</v>
-      </c>
-      <c r="B115" s="101"/>
-      <c r="C115" s="101"/>
-      <c r="D115" s="101"/>
-      <c r="E115" s="101"/>
+      <c r="E115" s="130"/>
       <c r="F115" s="101"/>
       <c r="G115" s="101"/>
-      <c r="H115" s="101"/>
-      <c r="I115" s="101"/>
-      <c r="J115" s="101"/>
-      <c r="K115" s="101"/>
-      <c r="L115" s="101"/>
-    </row>
-    <row r="116" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A116" s="128" t="s">
+      <c r="H115" s="130">
+        <v>98.352664313329896</v>
+      </c>
+      <c r="I115" s="130">
+        <v>97.663472852580199</v>
+      </c>
+      <c r="J115" s="130">
+        <v>97.528996469994894</v>
+      </c>
+      <c r="K115" s="130">
+        <v>98.167759287275103</v>
+      </c>
+      <c r="L115" s="130">
+        <v>98.050092452512999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A116" s="101"/>
+      <c r="B116" s="101"/>
+      <c r="C116" s="101"/>
+      <c r="D116" s="101"/>
+      <c r="E116" s="101"/>
+      <c r="F116" s="101"/>
+      <c r="G116" s="101"/>
+      <c r="H116" s="101"/>
+      <c r="I116" s="101"/>
+      <c r="J116" s="101"/>
+      <c r="K116" s="101"/>
+      <c r="L116" s="101"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A117" s="115" t="s">
+        <v>134</v>
+      </c>
+      <c r="B117" s="101"/>
+      <c r="C117" s="101"/>
+      <c r="D117" s="101"/>
+      <c r="E117" s="101"/>
+      <c r="F117" s="101"/>
+      <c r="G117" s="101"/>
+      <c r="H117" s="101"/>
+      <c r="I117" s="101"/>
+      <c r="J117" s="101"/>
+      <c r="K117" s="101"/>
+      <c r="L117" s="101"/>
+    </row>
+    <row r="118" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A118" s="128" t="s">
         <v>45</v>
       </c>
-      <c r="B116" s="132"/>
-      <c r="C116" s="132"/>
-      <c r="D116" s="132"/>
-      <c r="E116" s="132"/>
-      <c r="F116" s="132"/>
-      <c r="G116" s="132"/>
-      <c r="H116" s="132"/>
-      <c r="I116" s="132"/>
-      <c r="J116" s="132"/>
-      <c r="K116" s="132"/>
-      <c r="L116" s="132"/>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A117" s="132" t="s">
+      <c r="B118" s="132"/>
+      <c r="C118" s="132"/>
+      <c r="D118" s="132"/>
+      <c r="E118" s="132"/>
+      <c r="F118" s="132"/>
+      <c r="G118" s="132"/>
+      <c r="H118" s="132"/>
+      <c r="I118" s="132"/>
+      <c r="J118" s="132"/>
+      <c r="K118" s="132"/>
+      <c r="L118" s="132"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A119" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="B117" s="127" t="s">
+      <c r="B119" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="C117" s="127" t="s">
+      <c r="C119" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="D117" s="127" t="s">
+      <c r="D119" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="E117" s="127" t="s">
+      <c r="E119" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="F117" s="127" t="s">
+      <c r="F119" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="G117" s="127" t="s">
+      <c r="G119" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="H117" s="127" t="s">
+      <c r="H119" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="I117" s="127" t="s">
+      <c r="I119" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="J117" s="127" t="s">
+      <c r="J119" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="K117" s="127" t="s">
+      <c r="K119" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="L117" s="127" t="s">
+      <c r="L119" s="127" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A118" s="127">
-        <v>0</v>
-      </c>
-      <c r="B118" s="130">
-        <v>99.183673469387699</v>
-      </c>
-      <c r="C118" s="130">
-        <v>99.183673469387699</v>
-      </c>
-      <c r="D118" s="130">
-        <v>99.183673469387699</v>
-      </c>
-      <c r="E118" s="130">
-        <v>85.408163265306101</v>
-      </c>
-      <c r="F118" s="130">
-        <v>99.183673469387699</v>
-      </c>
-      <c r="G118" s="130">
-        <v>97.040816326530603</v>
-      </c>
-      <c r="H118" s="130">
-        <v>99.183673469387699</v>
-      </c>
-      <c r="I118" s="130">
-        <v>98.877551020408106</v>
-      </c>
-      <c r="J118" s="130">
-        <v>98.265306122448905</v>
-      </c>
-      <c r="K118" s="130">
-        <v>98.877551020408106</v>
-      </c>
-      <c r="L118" s="130">
-        <v>98.469387755102005</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A119" s="127">
-        <f>A118+1</f>
-        <v>1</v>
-      </c>
-      <c r="B119" s="130">
-        <v>98.590308370043999</v>
-      </c>
-      <c r="C119" s="130">
-        <v>98.678414096916299</v>
-      </c>
-      <c r="D119" s="130">
-        <v>99.4713656387665</v>
-      </c>
-      <c r="E119" s="130">
-        <v>98.678414096916299</v>
-      </c>
-      <c r="F119" s="130">
-        <v>98.590308370043999</v>
-      </c>
-      <c r="G119" s="130">
-        <v>97.621145374449299</v>
-      </c>
-      <c r="H119" s="130">
-        <v>98.325991189427299</v>
-      </c>
-      <c r="I119" s="130">
-        <v>98.502202643171799</v>
-      </c>
-      <c r="J119" s="130">
-        <v>95.682819383259897</v>
-      </c>
-      <c r="K119" s="130">
-        <v>94.449339207048396</v>
-      </c>
-      <c r="L119" s="130">
-        <v>98.414096916299499</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="127">
-        <f t="shared" ref="A120:A127" si="11">A119+1</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B120" s="130">
-        <v>97.286821705426306</v>
+        <v>99.183673469387699</v>
       </c>
       <c r="C120" s="130">
-        <v>96.802325581395294</v>
+        <v>99.183673469387699</v>
       </c>
       <c r="D120" s="130">
-        <v>84.883720930232499</v>
+        <v>99.183673469387699</v>
       </c>
       <c r="E120" s="130">
-        <v>98.837209302325505</v>
+        <v>85.408163265306101</v>
       </c>
       <c r="F120" s="130">
-        <v>97.480620155038693</v>
+        <v>99.183673469387699</v>
       </c>
       <c r="G120" s="130">
-        <v>96.802325581395294</v>
+        <v>97.040816326530603</v>
       </c>
       <c r="H120" s="130">
-        <v>96.414728682170505</v>
+        <v>99.183673469387699</v>
       </c>
       <c r="I120" s="130">
-        <v>96.899224806201502</v>
+        <v>98.877551020408106</v>
       </c>
       <c r="J120" s="130">
-        <v>94.573643410852696</v>
+        <v>98.265306122448905</v>
       </c>
       <c r="K120" s="130">
-        <v>88.3720930232558</v>
+        <v>98.877551020408106</v>
       </c>
       <c r="L120" s="130">
-        <v>97.383720930232499</v>
+        <v>98.469387755102005</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="127">
-        <f t="shared" si="11"/>
-        <v>3</v>
+        <f>A120+1</f>
+        <v>1</v>
       </c>
       <c r="B121" s="130">
-        <v>95.841584158415799</v>
+        <v>98.590308370043999</v>
       </c>
       <c r="C121" s="130">
-        <v>94.455445544554394</v>
+        <v>98.678414096916299</v>
       </c>
       <c r="D121" s="130">
-        <v>97.128712871287107</v>
+        <v>99.4713656387665</v>
       </c>
       <c r="E121" s="130">
-        <v>90.693069306930695</v>
+        <v>98.678414096916299</v>
       </c>
       <c r="F121" s="130">
-        <v>96.8316831683168</v>
+        <v>98.590308370043999</v>
       </c>
       <c r="G121" s="130">
-        <v>93.762376237623698</v>
+        <v>97.621145374449299</v>
       </c>
       <c r="H121" s="130">
-        <v>91.683168316831598</v>
+        <v>98.325991189427299</v>
       </c>
       <c r="I121" s="130">
-        <v>96.039603960395993</v>
+        <v>98.502202643171799</v>
       </c>
       <c r="J121" s="130">
-        <v>88.811881188118804</v>
+        <v>95.682819383259897</v>
       </c>
       <c r="K121" s="130">
-        <v>97.623762376237593</v>
+        <v>94.449339207048396</v>
       </c>
       <c r="L121" s="130">
-        <v>93.267326732673197</v>
+        <v>98.414096916299499</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="127">
-        <f t="shared" si="11"/>
-        <v>4</v>
+        <f t="shared" ref="A122:A129" si="12">A121+1</f>
+        <v>2</v>
       </c>
       <c r="B122" s="130">
-        <v>98.370672097759595</v>
+        <v>97.286821705426306</v>
       </c>
       <c r="C122" s="130">
-        <v>96.435845213849205</v>
+        <v>96.802325581395294</v>
       </c>
       <c r="D122" s="130">
-        <v>98.472505091649694</v>
+        <v>84.883720930232499</v>
       </c>
       <c r="E122" s="130">
-        <v>98.370672097759595</v>
+        <v>98.837209302325505</v>
       </c>
       <c r="F122" s="130">
-        <v>98.065173116089596</v>
+        <v>97.480620155038693</v>
       </c>
       <c r="G122" s="130">
-        <v>99.694501018329902</v>
+        <v>96.802325581395294</v>
       </c>
       <c r="H122" s="130">
-        <v>98.268839103869595</v>
+        <v>96.414728682170505</v>
       </c>
       <c r="I122" s="130">
-        <v>97.759674134419498</v>
+        <v>96.899224806201502</v>
       </c>
       <c r="J122" s="130">
-        <v>80.549898167006106</v>
+        <v>94.573643410852696</v>
       </c>
       <c r="K122" s="130">
-        <v>98.472505091649694</v>
+        <v>88.3720930232558</v>
       </c>
       <c r="L122" s="130">
-        <v>97.3523421588594</v>
+        <v>97.383720930232499</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="127">
-        <f t="shared" si="11"/>
-        <v>5</v>
+        <f t="shared" si="12"/>
+        <v>3</v>
       </c>
       <c r="B123" s="130">
-        <v>98.991031390134495</v>
+        <v>95.841584158415799</v>
       </c>
       <c r="C123" s="130">
-        <v>98.766816143497707</v>
+        <v>94.455445544554394</v>
       </c>
       <c r="D123" s="130">
-        <v>88.677130044842997</v>
+        <v>97.128712871287107</v>
       </c>
       <c r="E123" s="130">
-        <v>99.439461883408001</v>
+        <v>90.693069306930695</v>
       </c>
       <c r="F123" s="130">
-        <v>98.206278026905807</v>
+        <v>96.8316831683168</v>
       </c>
       <c r="G123" s="130">
-        <v>89.461883408071699</v>
+        <v>93.762376237623698</v>
       </c>
       <c r="H123" s="130">
-        <v>99.103139013452903</v>
+        <v>91.683168316831598</v>
       </c>
       <c r="I123" s="130">
-        <v>98.542600896860904</v>
+        <v>96.039603960395993</v>
       </c>
       <c r="J123" s="130">
-        <v>99.439461883408001</v>
+        <v>88.811881188118804</v>
       </c>
       <c r="K123" s="130">
-        <v>64.013452914798194</v>
+        <v>97.623762376237593</v>
       </c>
       <c r="L123" s="130">
-        <v>99.103139013452903</v>
+        <v>93.267326732673197</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="127">
-        <f t="shared" si="11"/>
-        <v>6</v>
+        <f t="shared" si="12"/>
+        <v>4</v>
       </c>
       <c r="B124" s="130">
-        <v>95.720250521920605</v>
+        <v>98.370672097759595</v>
       </c>
       <c r="C124" s="130">
-        <v>96.242171189979103</v>
+        <v>96.435845213849205</v>
       </c>
       <c r="D124" s="130">
-        <v>87.787056367432101</v>
+        <v>98.472505091649694</v>
       </c>
       <c r="E124" s="130">
-        <v>80.793319415448806</v>
+        <v>98.370672097759595</v>
       </c>
       <c r="F124" s="130">
-        <v>96.555323590814197</v>
+        <v>98.065173116089596</v>
       </c>
       <c r="G124" s="130">
-        <v>75.365344467640895</v>
+        <v>99.694501018329902</v>
       </c>
       <c r="H124" s="130">
-        <v>96.6597077244258</v>
+        <v>98.268839103869595</v>
       </c>
       <c r="I124" s="130">
-        <v>96.764091858037503</v>
+        <v>97.759674134419498</v>
       </c>
       <c r="J124" s="130">
-        <v>69.415448851774499</v>
+        <v>80.549898167006106</v>
       </c>
       <c r="K124" s="130">
-        <v>92.066805845511396</v>
+        <v>98.472505091649694</v>
       </c>
       <c r="L124" s="130">
-        <v>93.945720250521902</v>
+        <v>97.3523421588594</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="127">
-        <f t="shared" si="11"/>
-        <v>7</v>
+        <f t="shared" si="12"/>
+        <v>5</v>
       </c>
       <c r="B125" s="130">
-        <v>94.747081712062197</v>
+        <v>98.991031390134495</v>
       </c>
       <c r="C125" s="130">
-        <v>95.719844357976598</v>
+        <v>98.766816143497707</v>
       </c>
       <c r="D125" s="130">
-        <v>93.287937743190597</v>
+        <v>88.677130044842997</v>
       </c>
       <c r="E125" s="130">
-        <v>96.498054474708098</v>
+        <v>99.439461883408001</v>
       </c>
       <c r="F125" s="130">
-        <v>94.552529182879297</v>
+        <v>98.206278026905807</v>
       </c>
       <c r="G125" s="130">
-        <v>90.077821011673095</v>
+        <v>89.461883408071699</v>
       </c>
       <c r="H125" s="130">
-        <v>91.926070038910495</v>
+        <v>99.103139013452903</v>
       </c>
       <c r="I125" s="130">
-        <v>94.844357976653697</v>
+        <v>98.542600896860904</v>
       </c>
       <c r="J125" s="130">
-        <v>99.124513618677</v>
+        <v>99.439461883408001</v>
       </c>
       <c r="K125" s="130">
-        <v>94.649805447470797</v>
+        <v>64.013452914798194</v>
       </c>
       <c r="L125" s="130">
-        <v>95.428015564202298</v>
+        <v>99.103139013452903</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="127">
-        <f t="shared" si="11"/>
-        <v>8</v>
+        <f t="shared" si="12"/>
+        <v>6</v>
       </c>
       <c r="B126" s="130">
-        <v>89.630390143737102</v>
+        <v>95.720250521920605</v>
       </c>
       <c r="C126" s="130">
-        <v>87.4743326488706</v>
+        <v>96.242171189979103</v>
       </c>
       <c r="D126" s="130">
-        <v>91.170431211498894</v>
+        <v>87.787056367432101</v>
       </c>
       <c r="E126" s="130">
-        <v>75.256673511293599</v>
+        <v>80.793319415448806</v>
       </c>
       <c r="F126" s="130">
-        <v>90.657084188911696</v>
+        <v>96.555323590814197</v>
       </c>
       <c r="G126" s="130">
-        <v>52.874743326488698</v>
+        <v>75.365344467640895</v>
       </c>
       <c r="H126" s="130">
-        <v>84.496919917864403</v>
+        <v>96.6597077244258</v>
       </c>
       <c r="I126" s="130">
-        <v>89.835728952772001</v>
+        <v>96.764091858037503</v>
       </c>
       <c r="J126" s="130">
-        <v>87.4743326488706</v>
+        <v>69.415448851774499</v>
       </c>
       <c r="K126" s="130">
-        <v>91</v>
+        <v>92.066805845511396</v>
       </c>
       <c r="L126" s="130">
-        <v>87.268993839835701</v>
+        <v>93.945720250521902</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="127">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="B127" s="130">
+        <v>94.747081712062197</v>
+      </c>
+      <c r="C127" s="130">
+        <v>95.719844357976598</v>
+      </c>
+      <c r="D127" s="130">
+        <v>93.287937743190597</v>
+      </c>
+      <c r="E127" s="130">
+        <v>96.498054474708098</v>
+      </c>
+      <c r="F127" s="130">
+        <v>94.552529182879297</v>
+      </c>
+      <c r="G127" s="130">
+        <v>90.077821011673095</v>
+      </c>
+      <c r="H127" s="130">
+        <v>91.926070038910495</v>
+      </c>
+      <c r="I127" s="130">
+        <v>94.844357976653697</v>
+      </c>
+      <c r="J127" s="130">
+        <v>99.124513618677</v>
+      </c>
+      <c r="K127" s="130">
+        <v>94.649805447470797</v>
+      </c>
+      <c r="L127" s="130">
+        <v>95.428015564202298</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A128" s="127">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="B128" s="130">
+        <v>89.630390143737102</v>
+      </c>
+      <c r="C128" s="130">
+        <v>87.4743326488706</v>
+      </c>
+      <c r="D128" s="130">
+        <v>91.170431211498894</v>
+      </c>
+      <c r="E128" s="130">
+        <v>75.256673511293599</v>
+      </c>
+      <c r="F128" s="130">
+        <v>90.657084188911696</v>
+      </c>
+      <c r="G128" s="130">
+        <v>52.874743326488698</v>
+      </c>
+      <c r="H128" s="130">
+        <v>84.496919917864403</v>
+      </c>
+      <c r="I128" s="130">
+        <v>89.835728952772001</v>
+      </c>
+      <c r="J128" s="130">
+        <v>87.4743326488706</v>
+      </c>
+      <c r="K128" s="130">
+        <v>91</v>
+      </c>
+      <c r="L128" s="130">
+        <v>87.268993839835701</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A129" s="127">
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
-      <c r="B127" s="130">
+      <c r="B129" s="130">
         <v>94.9454905847373</v>
       </c>
-      <c r="C127" s="130">
+      <c r="C129" s="130">
         <v>95.441030723488595</v>
       </c>
-      <c r="D127" s="130">
+      <c r="D129" s="130">
         <v>95.143706640237795</v>
       </c>
-      <c r="E127" s="130">
+      <c r="E129" s="130">
         <v>63.429137760158497</v>
       </c>
-      <c r="F127" s="130">
+      <c r="F129" s="130">
         <v>94.846382556987095</v>
       </c>
-      <c r="G127" s="130">
+      <c r="G129" s="130">
         <v>94.3508424182358</v>
       </c>
-      <c r="H127" s="130">
+      <c r="H129" s="130">
         <v>94.846382556987095</v>
       </c>
-      <c r="I127" s="130">
+      <c r="I129" s="130">
         <v>94.846382556987095</v>
       </c>
-      <c r="J127" s="130">
+      <c r="J129" s="130">
         <v>58.077304261645097</v>
       </c>
-      <c r="K127" s="130">
+      <c r="K129" s="130">
         <v>80.872150644202094</v>
       </c>
-      <c r="L127" s="130">
+      <c r="L129" s="130">
         <v>95</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A128" s="127"/>
-      <c r="B128" s="130"/>
-      <c r="C128" s="130"/>
-      <c r="D128" s="130"/>
-      <c r="E128" s="130"/>
-      <c r="F128" s="130"/>
-      <c r="G128" s="130"/>
-      <c r="H128" s="130"/>
-      <c r="I128" s="130"/>
-      <c r="J128" s="130"/>
-      <c r="K128" s="130"/>
-      <c r="L128" s="130"/>
-    </row>
-    <row r="129" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A129" s="128" t="s">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A130" s="127"/>
+      <c r="B130" s="130"/>
+      <c r="C130" s="130"/>
+      <c r="D130" s="130"/>
+      <c r="E130" s="130"/>
+      <c r="F130" s="130"/>
+      <c r="G130" s="130"/>
+      <c r="H130" s="130"/>
+      <c r="I130" s="130"/>
+      <c r="J130" s="130"/>
+      <c r="K130" s="130"/>
+      <c r="L130" s="130"/>
+    </row>
+    <row r="131" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A131" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="B129" s="127"/>
-      <c r="C129" s="127"/>
-      <c r="D129" s="127"/>
-      <c r="E129" s="127"/>
-      <c r="F129" s="127"/>
-      <c r="G129" s="127"/>
-      <c r="H129" s="127"/>
-      <c r="I129" s="127"/>
-      <c r="J129" s="127"/>
-      <c r="K129" s="127"/>
-      <c r="L129" s="127"/>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A130" s="132" t="s">
+      <c r="B131" s="127"/>
+      <c r="C131" s="127"/>
+      <c r="D131" s="127"/>
+      <c r="E131" s="127"/>
+      <c r="F131" s="127"/>
+      <c r="G131" s="127"/>
+      <c r="H131" s="127"/>
+      <c r="I131" s="127"/>
+      <c r="J131" s="127"/>
+      <c r="K131" s="127"/>
+      <c r="L131" s="127"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A132" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="B130" s="127" t="s">
+      <c r="B132" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="C130" s="127" t="s">
+      <c r="C132" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="D130" s="127" t="s">
+      <c r="D132" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="E130" s="127" t="s">
+      <c r="E132" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="F130" s="127" t="s">
+      <c r="F132" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="G130" s="127" t="s">
+      <c r="G132" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="H130" s="127" t="s">
+      <c r="H132" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="I130" s="127" t="s">
+      <c r="I132" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="J130" s="127" t="s">
+      <c r="J132" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="K130" s="127" t="s">
+      <c r="K132" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="L130" s="127" t="s">
+      <c r="L132" s="127" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A131" s="127">
-        <v>0</v>
-      </c>
-      <c r="B131" s="131">
-        <v>99.387755102040799</v>
-      </c>
-      <c r="C131" s="130">
-        <v>99.5918367346938</v>
-      </c>
-      <c r="D131" s="130">
-        <v>99.183673469387699</v>
-      </c>
-      <c r="E131" s="130">
-        <v>99.285714285714207</v>
-      </c>
-      <c r="F131" s="130">
-        <v>97.448979591836704</v>
-      </c>
-      <c r="G131" s="130">
-        <v>98.367346938775498</v>
-      </c>
-      <c r="H131" s="130">
-        <v>98.571428571428498</v>
-      </c>
-      <c r="I131" s="130">
-        <v>98.673469387755006</v>
-      </c>
-      <c r="J131" s="130">
-        <v>99.387755102040799</v>
-      </c>
-      <c r="K131" s="130">
-        <v>98.673469387755006</v>
-      </c>
-      <c r="L131" s="130">
-        <v>99.5918367346938</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A132" s="127">
-        <f>A131+1</f>
-        <v>1</v>
-      </c>
-      <c r="B132" s="131">
-        <v>99.4713656387665</v>
-      </c>
-      <c r="C132" s="130">
-        <v>99.2070484581497</v>
-      </c>
-      <c r="D132" s="130">
-        <v>99.647577092511</v>
-      </c>
-      <c r="E132" s="130">
-        <v>98.766519823788499</v>
-      </c>
-      <c r="F132" s="130">
-        <v>99.2070484581497</v>
-      </c>
-      <c r="G132" s="130">
-        <v>99.3832599118942</v>
-      </c>
-      <c r="H132" s="130">
-        <v>99.647577092511</v>
-      </c>
-      <c r="I132" s="130">
-        <v>98.678414096916299</v>
-      </c>
-      <c r="J132" s="130">
-        <v>99.4713656387665</v>
-      </c>
-      <c r="K132" s="130">
-        <v>98.678414096916299</v>
-      </c>
-      <c r="L132" s="130">
-        <v>99.647577092511</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="127">
-        <f t="shared" ref="A133:A140" si="12">A132+1</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B133" s="131">
-        <v>97.868217054263496</v>
+        <v>99.387755102040799</v>
       </c>
       <c r="C133" s="130">
-        <v>97.480620155038693</v>
+        <v>99.5918367346938</v>
       </c>
       <c r="D133" s="130">
-        <v>97.771317829457303</v>
+        <v>99.183673469387699</v>
       </c>
       <c r="E133" s="130">
-        <v>98.546511627906895</v>
+        <v>99.285714285714207</v>
       </c>
       <c r="F133" s="130">
-        <v>86.143410852713103</v>
+        <v>97.448979591836704</v>
       </c>
       <c r="G133" s="130">
-        <v>98.643410852713103</v>
+        <v>98.367346938775498</v>
       </c>
       <c r="H133" s="130">
-        <v>92.054263565891404</v>
+        <v>98.571428571428498</v>
       </c>
       <c r="I133" s="130">
-        <v>98.158914728682106</v>
+        <v>98.673469387755006</v>
       </c>
       <c r="J133" s="130">
-        <v>97.965116279069704</v>
+        <v>99.387755102040799</v>
       </c>
       <c r="K133" s="130">
-        <v>97.383720930232499</v>
+        <v>98.673469387755006</v>
       </c>
       <c r="L133" s="130">
-        <v>97.965116279069704</v>
+        <v>99.5918367346938</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="127">
-        <f t="shared" si="12"/>
-        <v>3</v>
+        <f>A133+1</f>
+        <v>1</v>
       </c>
       <c r="B134" s="131">
-        <v>98.811881188118804</v>
+        <v>99.4713656387665</v>
       </c>
       <c r="C134" s="130">
-        <v>98.811881188118804</v>
+        <v>99.2070484581497</v>
       </c>
       <c r="D134" s="130">
-        <v>98.613861386138595</v>
+        <v>99.647577092511</v>
       </c>
       <c r="E134" s="130">
-        <v>99.009900990098998</v>
+        <v>98.766519823788499</v>
       </c>
       <c r="F134" s="130">
-        <v>99.405940594059402</v>
+        <v>99.2070484581497</v>
       </c>
       <c r="G134" s="130">
-        <v>98.4158415841584</v>
+        <v>99.3832599118942</v>
       </c>
       <c r="H134" s="130">
-        <v>97.524752475247496</v>
+        <v>99.647577092511</v>
       </c>
       <c r="I134" s="130">
-        <v>98.514851485148498</v>
+        <v>98.678414096916299</v>
       </c>
       <c r="J134" s="130">
-        <v>98.910891089108901</v>
+        <v>99.4713656387665</v>
       </c>
       <c r="K134" s="130">
-        <v>98.712871287128706</v>
+        <v>98.678414096916299</v>
       </c>
       <c r="L134" s="130">
-        <v>99.306930693069305</v>
+        <v>99.647577092511</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="127">
-        <f t="shared" si="12"/>
-        <v>4</v>
+        <f t="shared" ref="A135:A142" si="13">A134+1</f>
+        <v>2</v>
       </c>
       <c r="B135" s="131">
-        <v>98.778004073319707</v>
+        <v>97.868217054263496</v>
       </c>
       <c r="C135" s="130">
-        <v>98.981670061099706</v>
+        <v>97.480620155038693</v>
       </c>
       <c r="D135" s="130">
-        <v>98.879837067209706</v>
+        <v>97.771317829457303</v>
       </c>
       <c r="E135" s="130">
-        <v>98.778004073319707</v>
+        <v>98.546511627906895</v>
       </c>
       <c r="F135" s="130">
-        <v>98.981670061099706</v>
+        <v>86.143410852713103</v>
       </c>
       <c r="G135" s="130">
-        <v>99.694501018329902</v>
+        <v>98.643410852713103</v>
       </c>
       <c r="H135" s="130">
-        <v>98.370672097759595</v>
+        <v>92.054263565891404</v>
       </c>
       <c r="I135" s="130">
-        <v>98.676171079429693</v>
+        <v>98.158914728682106</v>
       </c>
       <c r="J135" s="130">
-        <v>98.778004073319707</v>
+        <v>97.965116279069704</v>
       </c>
       <c r="K135" s="130">
-        <v>98.676171079429693</v>
+        <v>97.383720930232499</v>
       </c>
       <c r="L135" s="130">
-        <v>98.574338085539694</v>
+        <v>97.965116279069704</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="127">
-        <f t="shared" si="12"/>
-        <v>5</v>
+        <f t="shared" si="13"/>
+        <v>3</v>
       </c>
       <c r="B136" s="131">
-        <v>98.654708520179298</v>
+        <v>98.811881188118804</v>
       </c>
       <c r="C136" s="130">
-        <v>97.645739910313907</v>
+        <v>98.811881188118804</v>
       </c>
       <c r="D136" s="130">
-        <v>98.430493273542595</v>
+        <v>98.613861386138595</v>
       </c>
       <c r="E136" s="130">
-        <v>98.542600896860904</v>
+        <v>99.009900990098998</v>
       </c>
       <c r="F136" s="130">
-        <v>96.300448430493205</v>
+        <v>99.405940594059402</v>
       </c>
       <c r="G136" s="130">
-        <v>98.654708520179298</v>
+        <v>98.4158415841584</v>
       </c>
       <c r="H136" s="130">
-        <v>99.327354260089606</v>
+        <v>97.524752475247496</v>
       </c>
       <c r="I136" s="130">
-        <v>98.654708520179298</v>
+        <v>98.514851485148498</v>
       </c>
       <c r="J136" s="130">
-        <v>98.654708520179298</v>
+        <v>98.910891089108901</v>
       </c>
       <c r="K136" s="130">
-        <v>96.188340807174797</v>
+        <v>98.712871287128706</v>
       </c>
       <c r="L136" s="130">
-        <v>97.645739910313907</v>
+        <v>99.306930693069305</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="127">
-        <f t="shared" si="12"/>
-        <v>6</v>
+        <f t="shared" si="13"/>
+        <v>4</v>
       </c>
       <c r="B137" s="131">
-        <v>98.643006263047994</v>
+        <v>98.778004073319707</v>
       </c>
       <c r="C137" s="130">
-        <v>99.060542797494705</v>
+        <v>98.981670061099706</v>
       </c>
       <c r="D137" s="130">
-        <v>98.434237995824603</v>
+        <v>98.879837067209706</v>
       </c>
       <c r="E137" s="130">
-        <v>98.956158663883002</v>
+        <v>98.778004073319707</v>
       </c>
       <c r="F137" s="130">
-        <v>97.807933194154401</v>
+        <v>98.981670061099706</v>
       </c>
       <c r="G137" s="130">
-        <v>98.747390396659696</v>
+        <v>99.694501018329902</v>
       </c>
       <c r="H137" s="130">
-        <v>93.736951983298496</v>
+        <v>98.370672097759595</v>
       </c>
       <c r="I137" s="130">
-        <v>99.373695198329798</v>
+        <v>98.676171079429693</v>
       </c>
       <c r="J137" s="130">
-        <v>98.643006263047994</v>
+        <v>98.778004073319707</v>
       </c>
       <c r="K137" s="130">
-        <v>98.538622129436305</v>
+        <v>98.676171079429693</v>
       </c>
       <c r="L137" s="130">
-        <v>98.3298538622129</v>
+        <v>98.574338085539694</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="127">
-        <f t="shared" si="12"/>
-        <v>7</v>
+        <f t="shared" si="13"/>
+        <v>5</v>
       </c>
       <c r="B138" s="131">
-        <v>98.7354085603112</v>
+        <v>98.654708520179298</v>
       </c>
       <c r="C138" s="130">
-        <v>98.054474708171199</v>
+        <v>97.645739910313907</v>
       </c>
       <c r="D138" s="130">
-        <v>97.081712062256798</v>
+        <v>98.430493273542595</v>
       </c>
       <c r="E138" s="130">
-        <v>98.346303501945499</v>
+        <v>98.542600896860904</v>
       </c>
       <c r="F138" s="130">
-        <v>97.568093385213999</v>
+        <v>96.300448430493205</v>
       </c>
       <c r="G138" s="130">
-        <v>96.984435797665299</v>
+        <v>98.654708520179298</v>
       </c>
       <c r="H138" s="130">
-        <v>97.762645914396799</v>
+        <v>99.327354260089606</v>
       </c>
       <c r="I138" s="130">
-        <v>98.443579766536899</v>
+        <v>98.654708520179298</v>
       </c>
       <c r="J138" s="130">
-        <v>98.7354085603112</v>
+        <v>98.654708520179298</v>
       </c>
       <c r="K138" s="130">
-        <v>97.762645914396799</v>
+        <v>96.188340807174797</v>
       </c>
       <c r="L138" s="130">
-        <v>97.276264591439599</v>
+        <v>97.645739910313907</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="127">
-        <f t="shared" si="12"/>
-        <v>8</v>
+        <f t="shared" si="13"/>
+        <v>6</v>
       </c>
       <c r="B139" s="131">
-        <v>98.665297741273093</v>
+        <v>98.643006263047994</v>
       </c>
       <c r="C139" s="130">
-        <v>98.459958932238195</v>
+        <v>99.060542797494705</v>
       </c>
       <c r="D139" s="130">
-        <v>98.562628336755594</v>
+        <v>98.434237995824603</v>
       </c>
       <c r="E139" s="130">
-        <v>98.254620123203196</v>
+        <v>98.956158663883002</v>
       </c>
       <c r="F139" s="130">
-        <v>97.5359342915811</v>
+        <v>97.807933194154401</v>
       </c>
       <c r="G139" s="130">
-        <v>97.433264887063601</v>
+        <v>98.747390396659696</v>
       </c>
       <c r="H139" s="130">
-        <v>81.930184804928103</v>
+        <v>93.736951983298496</v>
       </c>
       <c r="I139" s="130">
-        <v>96.611909650924005</v>
+        <v>99.373695198329798</v>
       </c>
       <c r="J139" s="130">
-        <v>98.254620123203196</v>
+        <v>98.643006263047994</v>
       </c>
       <c r="K139" s="130">
-        <v>99.178644763860305</v>
+        <v>98.538622129436305</v>
       </c>
       <c r="L139" s="130">
-        <v>97.741273100615999</v>
+        <v>98.3298538622129</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="127">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="B140" s="131">
+        <v>98.7354085603112</v>
+      </c>
+      <c r="C140" s="130">
+        <v>98.054474708171199</v>
+      </c>
+      <c r="D140" s="130">
+        <v>97.081712062256798</v>
+      </c>
+      <c r="E140" s="130">
+        <v>98.346303501945499</v>
+      </c>
+      <c r="F140" s="130">
+        <v>97.568093385213999</v>
+      </c>
+      <c r="G140" s="130">
+        <v>96.984435797665299</v>
+      </c>
+      <c r="H140" s="130">
+        <v>97.762645914396799</v>
+      </c>
+      <c r="I140" s="130">
+        <v>98.443579766536899</v>
+      </c>
+      <c r="J140" s="130">
+        <v>98.7354085603112</v>
+      </c>
+      <c r="K140" s="130">
+        <v>97.762645914396799</v>
+      </c>
+      <c r="L140" s="130">
+        <v>97.276264591439599</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A141" s="127">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="B141" s="131">
+        <v>98.665297741273093</v>
+      </c>
+      <c r="C141" s="130">
+        <v>98.459958932238195</v>
+      </c>
+      <c r="D141" s="130">
+        <v>98.562628336755594</v>
+      </c>
+      <c r="E141" s="130">
+        <v>98.254620123203196</v>
+      </c>
+      <c r="F141" s="130">
+        <v>97.5359342915811</v>
+      </c>
+      <c r="G141" s="130">
+        <v>97.433264887063601</v>
+      </c>
+      <c r="H141" s="130">
+        <v>81.930184804928103</v>
+      </c>
+      <c r="I141" s="130">
+        <v>96.611909650924005</v>
+      </c>
+      <c r="J141" s="130">
+        <v>98.254620123203196</v>
+      </c>
+      <c r="K141" s="130">
+        <v>99.178644763860305</v>
+      </c>
+      <c r="L141" s="130">
+        <v>97.741273100615999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A142" s="127">
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
-      <c r="B140" s="131">
+      <c r="B142" s="131">
         <v>97.224975222992995</v>
       </c>
-      <c r="C140" s="130">
+      <c r="C142" s="130">
         <v>96.630327056491495</v>
       </c>
-      <c r="D140" s="130">
+      <c r="D142" s="130">
         <v>96.630327056491495</v>
       </c>
-      <c r="E140" s="130">
+      <c r="E142" s="130">
         <v>97.125867195242805</v>
       </c>
-      <c r="F140" s="130">
+      <c r="F142" s="130">
         <v>96.1347869177403</v>
       </c>
-      <c r="G140" s="130">
+      <c r="G142" s="130">
         <v>96.630327056491495</v>
       </c>
-      <c r="H140" s="130">
+      <c r="H142" s="130">
         <v>97.522299306243795</v>
       </c>
-      <c r="I140" s="130">
+      <c r="I142" s="130">
         <v>96.333002973240795</v>
       </c>
-      <c r="J140" s="130">
+      <c r="J142" s="130">
         <v>95.738354806739295</v>
       </c>
-      <c r="K140" s="130">
+      <c r="K142" s="130">
         <v>95.639246778989005</v>
       </c>
-      <c r="L140" s="127">
+      <c r="L142" s="127">
         <v>97.720515361744305</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A141" s="127"/>
-      <c r="B141" s="127"/>
-      <c r="C141" s="127"/>
-      <c r="D141" s="127"/>
-      <c r="E141" s="127"/>
-      <c r="F141" s="127"/>
-      <c r="G141" s="127"/>
-      <c r="H141" s="127"/>
-      <c r="I141" s="127"/>
-      <c r="J141" s="127"/>
-      <c r="K141" s="127"/>
-      <c r="L141" s="127"/>
-    </row>
-    <row r="142" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A142" s="128" t="s">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A143" s="127"/>
+      <c r="B143" s="127"/>
+      <c r="C143" s="127"/>
+      <c r="D143" s="127"/>
+      <c r="E143" s="127"/>
+      <c r="F143" s="127"/>
+      <c r="G143" s="127"/>
+      <c r="H143" s="127"/>
+      <c r="I143" s="127"/>
+      <c r="J143" s="127"/>
+      <c r="K143" s="127"/>
+      <c r="L143" s="127"/>
+    </row>
+    <row r="144" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A144" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="B142" s="127"/>
-      <c r="C142" s="127"/>
-      <c r="D142" s="127"/>
-      <c r="E142" s="127"/>
-      <c r="F142" s="127"/>
-      <c r="G142" s="127"/>
-      <c r="H142" s="127"/>
-      <c r="I142" s="127"/>
-      <c r="J142" s="127"/>
-      <c r="K142" s="127"/>
-      <c r="L142" s="127"/>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A143" s="132" t="s">
+      <c r="B144" s="127"/>
+      <c r="C144" s="127"/>
+      <c r="D144" s="127"/>
+      <c r="E144" s="127"/>
+      <c r="F144" s="127"/>
+      <c r="G144" s="127"/>
+      <c r="H144" s="127"/>
+      <c r="I144" s="127"/>
+      <c r="J144" s="127"/>
+      <c r="K144" s="127"/>
+      <c r="L144" s="127"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A145" s="132" t="s">
         <v>43</v>
       </c>
-      <c r="B143" s="127" t="s">
+      <c r="B145" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="C143" s="127" t="s">
+      <c r="C145" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="D143" s="127" t="s">
+      <c r="D145" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="E143" s="127" t="s">
+      <c r="E145" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="F143" s="127" t="s">
+      <c r="F145" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="G143" s="127" t="s">
+      <c r="G145" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="H143" s="127" t="s">
+      <c r="H145" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="I143" s="127" t="s">
+      <c r="I145" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="J143" s="127" t="s">
+      <c r="J145" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="K143" s="127" t="s">
+      <c r="K145" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="L143" s="127" t="s">
+      <c r="L145" s="127" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A144" s="127">
-        <v>0</v>
-      </c>
-      <c r="B144" s="131">
-        <v>0.10204081632653</v>
-      </c>
-      <c r="C144" s="130">
-        <v>0.20408163265306101</v>
-      </c>
-      <c r="D144" s="130">
-        <v>0.10204081632653</v>
-      </c>
-      <c r="E144" s="130">
-        <v>0</v>
-      </c>
-      <c r="F144" s="130">
-        <v>0.10204081632653</v>
-      </c>
-      <c r="G144" s="130">
-        <v>0.10204081632653</v>
-      </c>
-      <c r="H144" s="130">
-        <v>0.10204081632653</v>
-      </c>
-      <c r="I144" s="130">
-        <v>0.10204081632653</v>
-      </c>
-      <c r="J144" s="130">
-        <v>0.10204081632653</v>
-      </c>
-      <c r="K144" s="130">
-        <v>0.10204081632653</v>
-      </c>
-      <c r="L144" s="130">
-        <v>0.10204081632653</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A145" s="127">
-        <f>A144+1</f>
-        <v>1</v>
-      </c>
-      <c r="B145" s="131">
-        <v>0</v>
-      </c>
-      <c r="C145" s="130">
-        <v>0</v>
-      </c>
-      <c r="D145" s="130">
-        <v>6.2555066079295099</v>
-      </c>
-      <c r="E145" s="130">
-        <v>0</v>
-      </c>
-      <c r="F145" s="130">
-        <v>0</v>
-      </c>
-      <c r="G145" s="130">
-        <v>0</v>
-      </c>
-      <c r="H145" s="130">
-        <v>0</v>
-      </c>
-      <c r="I145" s="130">
-        <v>0</v>
-      </c>
-      <c r="J145" s="130">
-        <v>0</v>
-      </c>
-      <c r="K145" s="130">
-        <v>0</v>
-      </c>
-      <c r="L145" s="130">
-        <v>8.8105726872246701E-2</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="127">
-        <f t="shared" ref="A146:A153" si="13">A145+1</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B146" s="131">
+        <v>0.10204081632653</v>
+      </c>
+      <c r="C146" s="130">
+        <v>0.20408163265306101</v>
+      </c>
+      <c r="D146" s="130">
+        <v>0.10204081632653</v>
+      </c>
+      <c r="E146" s="130">
         <v>0</v>
       </c>
-      <c r="C146" s="130">
-        <v>9.68992248062015E-2</v>
-      </c>
-      <c r="D146" s="130">
-        <v>9.68992248062015E-2</v>
-      </c>
-      <c r="E146" s="130">
-        <v>9.68992248062015E-2</v>
-      </c>
       <c r="F146" s="130">
-        <v>9.68992248062015E-2</v>
+        <v>0.10204081632653</v>
       </c>
       <c r="G146" s="130">
-        <v>0.290697674418604</v>
+        <v>0.10204081632653</v>
       </c>
       <c r="H146" s="130">
-        <v>0</v>
+        <v>0.10204081632653</v>
       </c>
       <c r="I146" s="130">
-        <v>0</v>
+        <v>0.10204081632653</v>
       </c>
       <c r="J146" s="130">
-        <v>0</v>
+        <v>0.10204081632653</v>
       </c>
       <c r="K146" s="130">
-        <v>9.68992248062015E-2</v>
+        <v>0.10204081632653</v>
       </c>
       <c r="L146" s="130">
-        <v>0.775193798449612</v>
+        <v>0.10204081632653</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="127">
-        <f t="shared" si="13"/>
-        <v>3</v>
+        <f>A146+1</f>
+        <v>1</v>
       </c>
       <c r="B147" s="131">
         <v>0</v>
@@ -39793,294 +39971,344 @@
         <v>0</v>
       </c>
       <c r="D147" s="130">
-        <v>0</v>
+        <v>6.2555066079295099</v>
       </c>
       <c r="E147" s="130">
         <v>0</v>
       </c>
       <c r="F147" s="130">
-        <v>22.574257425742498</v>
+        <v>0</v>
       </c>
       <c r="G147" s="130">
-        <v>0.29702970297029702</v>
+        <v>0</v>
       </c>
       <c r="H147" s="130">
-        <v>1.58415841584158</v>
+        <v>0</v>
       </c>
       <c r="I147" s="130">
-        <v>9.9009900990099001E-2</v>
+        <v>0</v>
       </c>
       <c r="J147" s="130">
         <v>0</v>
       </c>
       <c r="K147" s="130">
-        <v>0.198019801980198</v>
+        <v>0</v>
       </c>
       <c r="L147" s="130">
-        <v>0.49504950495049499</v>
+        <v>8.8105726872246701E-2</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="127">
-        <f t="shared" si="13"/>
-        <v>4</v>
+        <f t="shared" ref="A148:A155" si="14">A147+1</f>
+        <v>2</v>
       </c>
       <c r="B148" s="131">
-        <v>0.10183299389002</v>
+        <v>0</v>
       </c>
       <c r="C148" s="130">
-        <v>0.10183299389002</v>
+        <v>9.68992248062015E-2</v>
       </c>
       <c r="D148" s="130">
-        <v>0.10183299389002</v>
+        <v>9.68992248062015E-2</v>
       </c>
       <c r="E148" s="130">
-        <v>0.10183299389002</v>
+        <v>9.68992248062015E-2</v>
       </c>
       <c r="F148" s="130">
-        <v>0.20366598778004</v>
+        <v>9.68992248062015E-2</v>
       </c>
       <c r="G148" s="130">
-        <v>0.20366598778004</v>
+        <v>0.290697674418604</v>
       </c>
       <c r="H148" s="130">
-        <v>0.10183299389002</v>
+        <v>0</v>
       </c>
       <c r="I148" s="130">
-        <v>0.10183299389002</v>
+        <v>0</v>
       </c>
       <c r="J148" s="130">
-        <v>0.10183299389002</v>
+        <v>0</v>
       </c>
       <c r="K148" s="130">
-        <v>0.10183299389002</v>
+        <v>9.68992248062015E-2</v>
       </c>
       <c r="L148" s="130">
-        <v>0.20366598778004</v>
+        <v>0.775193798449612</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="127">
-        <f t="shared" si="13"/>
-        <v>5</v>
+        <f t="shared" si="14"/>
+        <v>3</v>
       </c>
       <c r="B149" s="131">
-        <v>0.112107623318385</v>
+        <v>0</v>
       </c>
       <c r="C149" s="130">
-        <v>0.224215246636771</v>
+        <v>0</v>
       </c>
       <c r="D149" s="130">
-        <v>0.112107623318385</v>
+        <v>0</v>
       </c>
       <c r="E149" s="130">
-        <v>0.112107623318385</v>
+        <v>0</v>
       </c>
       <c r="F149" s="130">
-        <v>4.9327354260089598</v>
+        <v>22.574257425742498</v>
       </c>
       <c r="G149" s="130">
-        <v>1.12107623318385</v>
+        <v>0.29702970297029702</v>
       </c>
       <c r="H149" s="130">
-        <v>13.7892376681614</v>
+        <v>1.58415841584158</v>
       </c>
       <c r="I149" s="130">
-        <v>0.56053811659192798</v>
+        <v>9.9009900990099001E-2</v>
       </c>
       <c r="J149" s="130">
-        <v>0.112107623318385</v>
+        <v>0</v>
       </c>
       <c r="K149" s="130">
-        <v>0.224215246636771</v>
+        <v>0.198019801980198</v>
       </c>
       <c r="L149" s="130">
-        <v>1.12107623318385</v>
+        <v>0.49504950495049499</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="127">
-        <f t="shared" si="13"/>
-        <v>6</v>
+        <f t="shared" si="14"/>
+        <v>4</v>
       </c>
       <c r="B150" s="131">
-        <v>0.73068893528183698</v>
+        <v>0.10183299389002</v>
       </c>
       <c r="C150" s="130">
-        <v>3.2359081419624198</v>
+        <v>0.10183299389002</v>
       </c>
       <c r="D150" s="130">
-        <v>0.83507306889352795</v>
+        <v>0.10183299389002</v>
       </c>
       <c r="E150" s="130">
-        <v>1.7745302713987401</v>
+        <v>0.10183299389002</v>
       </c>
       <c r="F150" s="130">
-        <v>0.93945720250521902</v>
+        <v>0.20366598778004</v>
       </c>
       <c r="G150" s="130">
-        <v>0.62630480167014602</v>
+        <v>0.20366598778004</v>
       </c>
       <c r="H150" s="130">
-        <v>0.93945720250521902</v>
+        <v>0.10183299389002</v>
       </c>
       <c r="I150" s="130">
-        <v>4.6972860125260896</v>
+        <v>0.10183299389002</v>
       </c>
       <c r="J150" s="130">
-        <v>0.73068893528183698</v>
+        <v>0.10183299389002</v>
       </c>
       <c r="K150" s="130">
-        <v>1.25260960334029</v>
+        <v>0.10183299389002</v>
       </c>
       <c r="L150" s="130">
-        <v>2.0876826722338202</v>
+        <v>0.20366598778004</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="127">
-        <f t="shared" si="13"/>
-        <v>7</v>
+        <f t="shared" si="14"/>
+        <v>5</v>
       </c>
       <c r="B151" s="131">
-        <v>100</v>
+        <v>0.112107623318385</v>
       </c>
       <c r="C151" s="130">
-        <v>100</v>
+        <v>0.224215246636771</v>
       </c>
       <c r="D151" s="130">
-        <v>100</v>
+        <v>0.112107623318385</v>
       </c>
       <c r="E151" s="130">
-        <v>100</v>
+        <v>0.112107623318385</v>
       </c>
       <c r="F151" s="130">
-        <v>100</v>
+        <v>4.9327354260089598</v>
       </c>
       <c r="G151" s="130">
-        <v>100</v>
+        <v>1.12107623318385</v>
       </c>
       <c r="H151" s="130">
-        <v>100</v>
+        <v>13.7892376681614</v>
       </c>
       <c r="I151" s="130">
-        <v>100</v>
+        <v>0.56053811659192798</v>
       </c>
       <c r="J151" s="130">
-        <v>100</v>
+        <v>0.112107623318385</v>
       </c>
       <c r="K151" s="130">
-        <v>100</v>
+        <v>0.224215246636771</v>
       </c>
       <c r="L151" s="130">
-        <v>100</v>
+        <v>1.12107623318385</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="127">
-        <f t="shared" si="13"/>
-        <v>8</v>
+        <f t="shared" si="14"/>
+        <v>6</v>
       </c>
       <c r="B152" s="131">
-        <v>0</v>
+        <v>0.73068893528183698</v>
       </c>
       <c r="C152" s="130">
-        <v>0</v>
+        <v>3.2359081419624198</v>
       </c>
       <c r="D152" s="130">
-        <v>0.102669404517453</v>
+        <v>0.83507306889352795</v>
       </c>
       <c r="E152" s="130">
-        <v>0.102669404517453</v>
+        <v>1.7745302713987401</v>
       </c>
       <c r="F152" s="130">
-        <v>1.84804928131416</v>
+        <v>0.93945720250521902</v>
       </c>
       <c r="G152" s="130">
-        <v>0</v>
+        <v>0.62630480167014602</v>
       </c>
       <c r="H152" s="130">
-        <v>0</v>
+        <v>0.93945720250521902</v>
       </c>
       <c r="I152" s="130">
-        <v>0</v>
+        <v>4.6972860125260896</v>
       </c>
       <c r="J152" s="130">
-        <v>0</v>
+        <v>0.73068893528183698</v>
       </c>
       <c r="K152" s="130">
-        <v>1.2320328542094401</v>
+        <v>1.25260960334029</v>
       </c>
       <c r="L152" s="130">
-        <v>0.102669404517453</v>
+        <v>2.0876826722338202</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="127">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B153" s="131">
+        <v>100</v>
+      </c>
+      <c r="C153" s="130">
+        <v>100</v>
+      </c>
+      <c r="D153" s="130">
+        <v>100</v>
+      </c>
+      <c r="E153" s="130">
+        <v>100</v>
+      </c>
+      <c r="F153" s="130">
+        <v>100</v>
+      </c>
+      <c r="G153" s="130">
+        <v>100</v>
+      </c>
+      <c r="H153" s="130">
+        <v>100</v>
+      </c>
+      <c r="I153" s="130">
+        <v>100</v>
+      </c>
+      <c r="J153" s="130">
+        <v>100</v>
+      </c>
+      <c r="K153" s="130">
+        <v>100</v>
+      </c>
+      <c r="L153" s="130">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A154" s="127">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="B154" s="131">
+        <v>0</v>
+      </c>
+      <c r="C154" s="130">
+        <v>0</v>
+      </c>
+      <c r="D154" s="130">
+        <v>0.102669404517453</v>
+      </c>
+      <c r="E154" s="130">
+        <v>0.102669404517453</v>
+      </c>
+      <c r="F154" s="130">
+        <v>1.84804928131416</v>
+      </c>
+      <c r="G154" s="130">
+        <v>0</v>
+      </c>
+      <c r="H154" s="130">
+        <v>0</v>
+      </c>
+      <c r="I154" s="130">
+        <v>0</v>
+      </c>
+      <c r="J154" s="130">
+        <v>0</v>
+      </c>
+      <c r="K154" s="130">
+        <v>1.2320328542094401</v>
+      </c>
+      <c r="L154" s="130">
+        <v>0.102669404517453</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A155" s="127">
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
-      <c r="B153" s="131">
+      <c r="B155" s="131">
         <v>0</v>
       </c>
-      <c r="C153" s="130">
+      <c r="C155" s="130">
         <v>0</v>
       </c>
-      <c r="D153" s="130">
+      <c r="D155" s="130">
         <v>0</v>
       </c>
-      <c r="E153" s="130">
+      <c r="E155" s="130">
         <v>0</v>
       </c>
-      <c r="F153" s="130">
+      <c r="F155" s="130">
         <v>9.9108027750247699E-2</v>
       </c>
-      <c r="G153" s="130">
+      <c r="G155" s="130">
         <v>0</v>
       </c>
-      <c r="H153" s="130">
+      <c r="H155" s="130">
         <v>0</v>
       </c>
-      <c r="I153" s="130">
+      <c r="I155" s="130">
         <v>0</v>
       </c>
-      <c r="J153" s="130">
+      <c r="J155" s="130">
         <v>0</v>
       </c>
-      <c r="K153" s="130">
+      <c r="K155" s="130">
         <v>0</v>
       </c>
-      <c r="L153" s="130">
+      <c r="L155" s="130">
         <v>9.9108027750247699E-2</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A154" s="101"/>
-      <c r="B154" s="101"/>
-      <c r="C154" s="101"/>
-      <c r="D154" s="101"/>
-      <c r="E154" s="101"/>
-      <c r="F154" s="101"/>
-      <c r="G154" s="101"/>
-      <c r="H154" s="101"/>
-      <c r="I154" s="101"/>
-      <c r="J154" s="101"/>
-      <c r="K154" s="101"/>
-      <c r="L154" s="101"/>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A155" s="101"/>
-      <c r="B155" s="101"/>
-      <c r="C155" s="101"/>
-      <c r="D155" s="101"/>
-      <c r="E155" s="101"/>
-      <c r="F155" s="101"/>
-      <c r="G155" s="101"/>
-      <c r="H155" s="101"/>
-      <c r="I155" s="101"/>
-      <c r="J155" s="101"/>
-      <c r="K155" s="101"/>
-      <c r="L155" s="101"/>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="101"/>
@@ -44254,9 +44482,45 @@
       <c r="K453" s="101"/>
       <c r="L453" s="101"/>
     </row>
+    <row r="454" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A454" s="101"/>
+      <c r="B454" s="101"/>
+      <c r="C454" s="101"/>
+      <c r="D454" s="101"/>
+      <c r="E454" s="101"/>
+      <c r="F454" s="101"/>
+      <c r="G454" s="101"/>
+      <c r="H454" s="101"/>
+      <c r="I454" s="101"/>
+      <c r="J454" s="101"/>
+      <c r="K454" s="101"/>
+      <c r="L454" s="101"/>
+    </row>
+    <row r="455" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A455" s="101"/>
+      <c r="B455" s="101"/>
+      <c r="C455" s="101"/>
+      <c r="D455" s="101"/>
+      <c r="E455" s="101"/>
+      <c r="F455" s="101"/>
+      <c r="G455" s="101"/>
+      <c r="H455" s="101"/>
+      <c r="I455" s="101"/>
+      <c r="J455" s="101"/>
+      <c r="K455" s="101"/>
+      <c r="L455" s="101"/>
+    </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A72:G72"/>
+  <mergeCells count="20">
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="M65:O65"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="A74:G74"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="J15:L15"/>
@@ -44268,14 +44532,9 @@
     <mergeCell ref="B52:I52"/>
     <mergeCell ref="J52:L52"/>
     <mergeCell ref="J65:L65"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:E82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -44283,13 +44542,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467EE65D-CE7D-4C37-9525-A7D6AAF2D1FF}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="150" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" style="135" customWidth="1"/>
     <col min="2" max="2" width="47.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.109375" customWidth="1"/>
     <col min="5" max="5" width="26.6640625" bestFit="1" customWidth="1"/>
@@ -44307,1360 +44566,1360 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="151"/>
-      <c r="B1" s="154" t="s">
+      <c r="A1" s="136"/>
+      <c r="B1" s="139" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
-      <c r="M1" s="155"/>
-      <c r="N1" s="155"/>
-      <c r="O1" s="155"/>
-      <c r="P1" s="155"/>
-      <c r="Q1" s="155"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
+      <c r="L1" s="140"/>
+      <c r="M1" s="140"/>
+      <c r="N1" s="140"/>
+      <c r="O1" s="140"/>
+      <c r="P1" s="140"/>
+      <c r="Q1" s="140"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="151"/>
-      <c r="B2" s="158"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="159" t="s">
+      <c r="A2" s="136"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="144" t="s">
         <v>150</v>
       </c>
-      <c r="F2" s="159">
+      <c r="F2" s="144">
         <v>10</v>
       </c>
-      <c r="G2" s="159"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159" t="s">
+      <c r="G2" s="144"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144" t="s">
         <v>150</v>
       </c>
-      <c r="K2" s="159">
+      <c r="K2" s="144">
         <v>5</v>
       </c>
-      <c r="L2" s="159"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="159" t="s">
+      <c r="L2" s="144"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="144" t="s">
         <v>150</v>
       </c>
-      <c r="O2" s="159">
+      <c r="O2" s="144">
         <v>5</v>
       </c>
-      <c r="P2" s="158"/>
-      <c r="Q2" s="155"/>
+      <c r="P2" s="143"/>
+      <c r="Q2" s="140"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="151"/>
-      <c r="B3" s="158"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="159" t="s">
+      <c r="A3" s="136"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="144" t="s">
         <v>151</v>
       </c>
-      <c r="F3" s="159">
+      <c r="F3" s="144">
         <v>10</v>
       </c>
-      <c r="G3" s="159"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159" t="s">
+      <c r="G3" s="144"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144" t="s">
         <v>151</v>
       </c>
-      <c r="K3" s="159">
+      <c r="K3" s="144">
         <v>10</v>
       </c>
-      <c r="L3" s="159"/>
-      <c r="M3" s="154"/>
-      <c r="N3" s="159" t="s">
+      <c r="L3" s="144"/>
+      <c r="M3" s="139"/>
+      <c r="N3" s="144" t="s">
         <v>151</v>
       </c>
-      <c r="O3" s="159">
+      <c r="O3" s="144">
         <v>5</v>
       </c>
-      <c r="P3" s="158"/>
-      <c r="Q3" s="155"/>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="140"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="151"/>
-      <c r="B4" s="158"/>
-      <c r="C4" s="155"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="159" t="s">
+      <c r="A4" s="136"/>
+      <c r="B4" s="143"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="144" t="s">
         <v>152</v>
       </c>
-      <c r="F4" s="159">
+      <c r="F4" s="144">
         <v>10</v>
       </c>
-      <c r="G4" s="159"/>
-      <c r="H4" s="154"/>
-      <c r="I4" s="159"/>
-      <c r="J4" s="159" t="s">
+      <c r="G4" s="144"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="144"/>
+      <c r="J4" s="144" t="s">
         <v>152</v>
       </c>
-      <c r="K4" s="159">
+      <c r="K4" s="144">
         <v>10</v>
       </c>
-      <c r="L4" s="159"/>
-      <c r="M4" s="154"/>
-      <c r="N4" s="159" t="s">
+      <c r="L4" s="144"/>
+      <c r="M4" s="139"/>
+      <c r="N4" s="144" t="s">
         <v>152</v>
       </c>
-      <c r="O4" s="159">
+      <c r="O4" s="144">
         <v>0</v>
       </c>
-      <c r="P4" s="158"/>
-      <c r="Q4" s="155"/>
+      <c r="P4" s="143"/>
+      <c r="Q4" s="140"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="151"/>
-      <c r="B5" s="158"/>
-      <c r="C5" s="155"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="159" t="s">
+      <c r="A5" s="136"/>
+      <c r="B5" s="143"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="144" t="s">
         <v>153</v>
       </c>
-      <c r="F5" s="159">
+      <c r="F5" s="144">
         <v>30</v>
       </c>
-      <c r="G5" s="159"/>
-      <c r="H5" s="154"/>
-      <c r="I5" s="159"/>
-      <c r="J5" s="159" t="s">
+      <c r="G5" s="144"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="144" t="s">
         <v>153</v>
       </c>
-      <c r="K5" s="159">
+      <c r="K5" s="144">
         <v>25</v>
       </c>
-      <c r="L5" s="159"/>
-      <c r="M5" s="154"/>
-      <c r="N5" s="159" t="s">
+      <c r="L5" s="144"/>
+      <c r="M5" s="139"/>
+      <c r="N5" s="144" t="s">
         <v>153</v>
       </c>
-      <c r="O5" s="159">
+      <c r="O5" s="144">
         <v>10</v>
       </c>
-      <c r="P5" s="158"/>
-      <c r="Q5" s="155"/>
+      <c r="P5" s="143"/>
+      <c r="Q5" s="140"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="151"/>
-      <c r="B6" s="155"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="155"/>
-      <c r="I6" s="155"/>
-      <c r="J6" s="155"/>
-      <c r="K6" s="155"/>
-      <c r="L6" s="155"/>
-      <c r="M6" s="155"/>
-      <c r="N6" s="155"/>
-      <c r="O6" s="155"/>
-      <c r="P6" s="155"/>
-      <c r="Q6" s="155"/>
+      <c r="A6" s="136"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="140"/>
+      <c r="O6" s="140"/>
+      <c r="P6" s="140"/>
+      <c r="Q6" s="140"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="151"/>
-      <c r="B7" s="150"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="157" t="s">
+      <c r="A7" s="136"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="142" t="s">
         <v>154</v>
       </c>
-      <c r="E7" s="157" t="s">
+      <c r="E7" s="142" t="s">
         <v>117</v>
       </c>
-      <c r="F7" s="157" t="s">
+      <c r="F7" s="142" t="s">
         <v>118</v>
       </c>
-      <c r="G7" s="157" t="s">
+      <c r="G7" s="142" t="s">
         <v>155</v>
       </c>
-      <c r="H7" s="155"/>
-      <c r="I7" s="157" t="s">
+      <c r="H7" s="140"/>
+      <c r="I7" s="142" t="s">
         <v>154</v>
       </c>
-      <c r="J7" s="157" t="s">
+      <c r="J7" s="142" t="s">
         <v>117</v>
       </c>
-      <c r="K7" s="157" t="s">
+      <c r="K7" s="142" t="s">
         <v>118</v>
       </c>
-      <c r="L7" s="157" t="s">
+      <c r="L7" s="142" t="s">
         <v>155</v>
       </c>
-      <c r="M7" s="155"/>
-      <c r="N7" s="157" t="s">
+      <c r="M7" s="140"/>
+      <c r="N7" s="142" t="s">
         <v>117</v>
       </c>
-      <c r="O7" s="157" t="s">
+      <c r="O7" s="142" t="s">
         <v>118</v>
       </c>
-      <c r="P7" s="157" t="s">
+      <c r="P7" s="142" t="s">
         <v>155</v>
       </c>
-      <c r="Q7" s="155"/>
+      <c r="Q7" s="140"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="151"/>
-      <c r="B8" s="150"/>
-      <c r="C8" s="155"/>
-      <c r="D8" s="157">
+      <c r="A8" s="136"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="142">
         <v>0</v>
       </c>
-      <c r="E8" s="153">
+      <c r="E8" s="138">
         <v>100</v>
       </c>
-      <c r="F8" s="153">
+      <c r="F8" s="138">
         <v>10.59</v>
       </c>
-      <c r="G8" s="153">
+      <c r="G8" s="138">
         <v>9.8790320000000005</v>
       </c>
-      <c r="H8" s="155"/>
-      <c r="I8" s="157">
+      <c r="H8" s="140"/>
+      <c r="I8" s="142">
         <v>0</v>
       </c>
-      <c r="J8" s="153">
+      <c r="J8" s="138">
         <v>99.79</v>
       </c>
-      <c r="K8" s="153">
+      <c r="K8" s="138">
         <v>16.11</v>
       </c>
-      <c r="L8" s="153">
+      <c r="L8" s="138">
         <v>9.65</v>
       </c>
-      <c r="M8" s="155"/>
-      <c r="N8" s="153">
+      <c r="M8" s="140"/>
+      <c r="N8" s="138">
         <v>99.8</v>
       </c>
-      <c r="O8" s="153">
+      <c r="O8" s="138">
         <v>16.11</v>
       </c>
-      <c r="P8" s="153">
+      <c r="P8" s="138">
         <v>10.46</v>
       </c>
-      <c r="Q8" s="155"/>
+      <c r="Q8" s="140"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="151"/>
-      <c r="B9" s="150"/>
-      <c r="C9" s="155"/>
-      <c r="D9" s="157">
+      <c r="A9" s="136"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="142">
         <v>1</v>
       </c>
-      <c r="E9" s="153">
+      <c r="E9" s="138">
         <v>100</v>
       </c>
-      <c r="F9" s="153">
+      <c r="F9" s="138">
         <v>11.52</v>
       </c>
-      <c r="G9" s="153">
+      <c r="G9" s="138">
         <v>11.369327999999999</v>
       </c>
-      <c r="H9" s="155"/>
-      <c r="I9" s="157">
+      <c r="H9" s="140"/>
+      <c r="I9" s="142">
         <v>1</v>
       </c>
-      <c r="J9" s="153">
+      <c r="J9" s="138">
         <v>84.67</v>
       </c>
-      <c r="K9" s="153">
+      <c r="K9" s="138">
         <v>9.92</v>
       </c>
-      <c r="L9" s="153">
+      <c r="L9" s="138">
         <v>9.81</v>
       </c>
-      <c r="M9" s="155"/>
-      <c r="N9" s="153">
+      <c r="M9" s="140"/>
+      <c r="N9" s="138">
         <v>84.67</v>
       </c>
-      <c r="O9" s="153">
+      <c r="O9" s="138">
         <v>9.92</v>
       </c>
-      <c r="P9" s="153">
+      <c r="P9" s="138">
         <v>9.81</v>
       </c>
-      <c r="Q9" s="155"/>
+      <c r="Q9" s="140"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="151"/>
-      <c r="B10" s="150"/>
-      <c r="C10" s="155"/>
-      <c r="D10" s="157">
+      <c r="A10" s="136"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="142">
         <v>2</v>
       </c>
-      <c r="E10" s="153">
+      <c r="E10" s="138">
         <v>66.86</v>
       </c>
-      <c r="F10" s="153">
+      <c r="F10" s="138">
         <v>27.22</v>
       </c>
-      <c r="G10" s="153">
+      <c r="G10" s="138">
         <v>9.5488510000000009</v>
       </c>
-      <c r="H10" s="155"/>
-      <c r="I10" s="157">
+      <c r="H10" s="140"/>
+      <c r="I10" s="142">
         <v>2</v>
       </c>
-      <c r="J10" s="153">
+      <c r="J10" s="138">
         <v>2.4300000000000002</v>
       </c>
-      <c r="K10" s="153">
+      <c r="K10" s="138">
         <v>28.49</v>
       </c>
-      <c r="L10" s="153">
+      <c r="L10" s="138">
         <v>0.43</v>
       </c>
-      <c r="M10" s="155"/>
-      <c r="N10" s="153">
+      <c r="M10" s="140"/>
+      <c r="N10" s="138">
         <v>100</v>
       </c>
-      <c r="O10" s="153">
+      <c r="O10" s="138">
         <v>11.19</v>
       </c>
-      <c r="P10" s="153">
+      <c r="P10" s="138">
         <v>10.42</v>
       </c>
-      <c r="Q10" s="155"/>
+      <c r="Q10" s="140"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="151"/>
-      <c r="B11" s="150"/>
-      <c r="C11" s="155"/>
-      <c r="D11" s="157">
+      <c r="A11" s="136"/>
+      <c r="B11" s="135"/>
+      <c r="C11" s="140"/>
+      <c r="D11" s="142">
         <v>3</v>
       </c>
-      <c r="E11" s="153">
+      <c r="E11" s="138">
         <v>100</v>
       </c>
-      <c r="F11" s="153">
+      <c r="F11" s="138">
         <v>21.45</v>
       </c>
-      <c r="G11" s="153">
+      <c r="G11" s="138">
         <v>11.430510999999999</v>
       </c>
-      <c r="H11" s="155"/>
-      <c r="I11" s="157">
+      <c r="H11" s="140"/>
+      <c r="I11" s="142">
         <v>3</v>
       </c>
-      <c r="J11" s="153">
+      <c r="J11" s="138">
         <v>100</v>
       </c>
-      <c r="K11" s="153">
+      <c r="K11" s="138">
         <v>21.38</v>
       </c>
-      <c r="L11" s="153">
+      <c r="L11" s="138">
         <v>11.41</v>
       </c>
-      <c r="M11" s="155"/>
-      <c r="N11" s="153">
+      <c r="M11" s="140"/>
+      <c r="N11" s="138">
         <v>100</v>
       </c>
-      <c r="O11" s="153">
+      <c r="O11" s="138">
         <v>10.54</v>
       </c>
-      <c r="P11" s="153">
+      <c r="P11" s="138">
         <v>10.14</v>
       </c>
-      <c r="Q11" s="155"/>
+      <c r="Q11" s="140"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="151"/>
-      <c r="B12" s="156" t="s">
+      <c r="A12" s="136"/>
+      <c r="B12" s="141" t="s">
         <v>156</v>
       </c>
-      <c r="C12" s="155"/>
-      <c r="D12" s="157">
+      <c r="C12" s="140"/>
+      <c r="D12" s="142">
         <v>4</v>
       </c>
-      <c r="E12" s="153">
+      <c r="E12" s="138">
         <v>86.25</v>
       </c>
-      <c r="F12" s="153">
+      <c r="F12" s="138">
         <v>25.06</v>
       </c>
-      <c r="G12" s="153">
+      <c r="G12" s="138">
         <v>10.423332</v>
       </c>
-      <c r="H12" s="155"/>
-      <c r="I12" s="157">
+      <c r="H12" s="140"/>
+      <c r="I12" s="142">
         <v>4</v>
       </c>
-      <c r="J12" s="153">
+      <c r="J12" s="138">
         <v>31.16</v>
       </c>
-      <c r="K12" s="153">
+      <c r="K12" s="138">
         <v>19.68</v>
       </c>
-      <c r="L12" s="153">
+      <c r="L12" s="138">
         <v>4.05</v>
       </c>
-      <c r="M12" s="155"/>
-      <c r="N12" s="153">
+      <c r="M12" s="140"/>
+      <c r="N12" s="138">
         <v>87.68</v>
       </c>
-      <c r="O12" s="153">
+      <c r="O12" s="138">
         <v>23.41</v>
       </c>
-      <c r="P12" s="153">
+      <c r="P12" s="138">
         <v>10.31</v>
       </c>
-      <c r="Q12" s="155"/>
+      <c r="Q12" s="140"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="151"/>
-      <c r="B13" s="150"/>
-      <c r="C13" s="155"/>
-      <c r="D13" s="157">
+      <c r="A13" s="136"/>
+      <c r="B13" s="135"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="142">
         <v>5</v>
       </c>
-      <c r="E13" s="153">
+      <c r="E13" s="138">
         <v>100</v>
       </c>
-      <c r="F13" s="153">
+      <c r="F13" s="138">
         <v>9.85</v>
       </c>
-      <c r="G13" s="153">
+      <c r="G13" s="138">
         <v>9.0046429999999997</v>
       </c>
-      <c r="H13" s="155"/>
-      <c r="I13" s="157">
+      <c r="H13" s="140"/>
+      <c r="I13" s="142">
         <v>5</v>
       </c>
-      <c r="J13" s="153">
+      <c r="J13" s="138">
         <v>100</v>
       </c>
-      <c r="K13" s="153">
+      <c r="K13" s="138">
         <v>16.2</v>
       </c>
-      <c r="L13" s="153">
+      <c r="L13" s="138">
         <v>9.65</v>
       </c>
-      <c r="M13" s="155"/>
-      <c r="N13" s="153">
+      <c r="M13" s="140"/>
+      <c r="N13" s="138">
         <v>100</v>
       </c>
-      <c r="O13" s="153">
+      <c r="O13" s="138">
         <v>9.8699999999999992</v>
       </c>
-      <c r="P13" s="153">
+      <c r="P13" s="138">
         <v>9</v>
       </c>
-      <c r="Q13" s="155"/>
+      <c r="Q13" s="140"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="151"/>
-      <c r="B14" s="150"/>
-      <c r="C14" s="155"/>
-      <c r="D14" s="157">
+      <c r="A14" s="136"/>
+      <c r="B14" s="135"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="142">
         <v>6</v>
       </c>
-      <c r="E14" s="153">
+      <c r="E14" s="138">
         <v>99.58</v>
       </c>
-      <c r="F14" s="153">
+      <c r="F14" s="138">
         <v>16.600000000000001</v>
       </c>
-      <c r="G14" s="153">
+      <c r="G14" s="138">
         <v>10.296816</v>
       </c>
-      <c r="H14" s="155"/>
-      <c r="I14" s="157">
+      <c r="H14" s="140"/>
+      <c r="I14" s="142">
         <v>6</v>
       </c>
-      <c r="J14" s="153">
+      <c r="J14" s="138">
         <v>93.32</v>
       </c>
-      <c r="K14" s="153">
+      <c r="K14" s="138">
         <v>16.86</v>
       </c>
-      <c r="L14" s="153">
+      <c r="L14" s="138">
         <v>9.8000000000000007</v>
       </c>
-      <c r="M14" s="155"/>
-      <c r="N14" s="153">
+      <c r="M14" s="140"/>
+      <c r="N14" s="138">
         <v>93.32</v>
       </c>
-      <c r="O14" s="153">
+      <c r="O14" s="138">
         <v>16.87</v>
       </c>
-      <c r="P14" s="153">
+      <c r="P14" s="138">
         <v>9.8000000000000007</v>
       </c>
-      <c r="Q14" s="155"/>
+      <c r="Q14" s="140"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="151"/>
-      <c r="B15" s="150"/>
-      <c r="C15" s="155"/>
-      <c r="D15" s="157">
+      <c r="A15" s="136"/>
+      <c r="B15" s="135"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="142">
         <v>7</v>
       </c>
-      <c r="E15" s="153">
+      <c r="E15" s="138">
         <v>99.51</v>
       </c>
-      <c r="F15" s="153">
+      <c r="F15" s="138">
         <v>19.68</v>
       </c>
-      <c r="G15" s="153">
+      <c r="G15" s="138">
         <v>11.365404</v>
       </c>
-      <c r="H15" s="155"/>
-      <c r="I15" s="157">
+      <c r="H15" s="140"/>
+      <c r="I15" s="142">
         <v>7</v>
       </c>
-      <c r="J15" s="153">
+      <c r="J15" s="138">
         <v>99.51</v>
       </c>
-      <c r="K15" s="153">
+      <c r="K15" s="138">
         <v>19.82</v>
       </c>
-      <c r="L15" s="153">
+      <c r="L15" s="138">
         <v>11.38</v>
       </c>
-      <c r="M15" s="155"/>
-      <c r="N15" s="153">
+      <c r="M15" s="140"/>
+      <c r="N15" s="138">
         <v>96.21</v>
       </c>
-      <c r="O15" s="153">
+      <c r="O15" s="138">
         <v>40.93</v>
       </c>
-      <c r="P15" s="153">
+      <c r="P15" s="138">
         <v>14.7</v>
       </c>
-      <c r="Q15" s="155"/>
+      <c r="Q15" s="140"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="151"/>
-      <c r="B16" s="150"/>
-      <c r="C16" s="155"/>
-      <c r="D16" s="157">
+      <c r="A16" s="136"/>
+      <c r="B16" s="135"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="142">
         <v>8</v>
       </c>
-      <c r="E16" s="153">
+      <c r="E16" s="138">
         <v>99.18</v>
       </c>
-      <c r="F16" s="153">
+      <c r="F16" s="138">
         <v>17.75</v>
       </c>
-      <c r="G16" s="153">
+      <c r="G16" s="138">
         <v>10.557377000000001</v>
       </c>
-      <c r="H16" s="155"/>
-      <c r="I16" s="157">
+      <c r="H16" s="140"/>
+      <c r="I16" s="142">
         <v>8</v>
       </c>
-      <c r="J16" s="153">
+      <c r="J16" s="138">
         <v>76.08</v>
       </c>
-      <c r="K16" s="153">
+      <c r="K16" s="138">
         <v>29.54</v>
       </c>
-      <c r="L16" s="153">
+      <c r="L16" s="138">
         <v>9.93</v>
       </c>
-      <c r="M16" s="155"/>
-      <c r="N16" s="153">
+      <c r="M16" s="140"/>
+      <c r="N16" s="138">
         <v>97.54</v>
       </c>
-      <c r="O16" s="153">
+      <c r="O16" s="138">
         <v>20.87</v>
       </c>
-      <c r="P16" s="153">
+      <c r="P16" s="138">
         <v>10.79</v>
       </c>
-      <c r="Q16" s="155"/>
+      <c r="Q16" s="140"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="151"/>
-      <c r="B17" s="150"/>
-      <c r="C17" s="155"/>
-      <c r="D17" s="157">
+      <c r="A17" s="136"/>
+      <c r="B17" s="135"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="142">
         <v>9</v>
       </c>
-      <c r="E17" s="153">
+      <c r="E17" s="138">
         <v>73.64</v>
       </c>
-      <c r="F17" s="153">
+      <c r="F17" s="138">
         <v>23.06</v>
       </c>
-      <c r="G17" s="153">
+      <c r="G17" s="138">
         <v>9.1502470000000002</v>
       </c>
-      <c r="H17" s="155"/>
-      <c r="I17" s="157">
+      <c r="H17" s="140"/>
+      <c r="I17" s="142">
         <v>9</v>
       </c>
-      <c r="J17" s="153">
+      <c r="J17" s="138">
         <v>69.38</v>
       </c>
-      <c r="K17" s="153">
+      <c r="K17" s="138">
         <v>23.47</v>
       </c>
-      <c r="L17" s="153">
+      <c r="L17" s="138">
         <v>8.7799999999999994</v>
       </c>
-      <c r="M17" s="155"/>
-      <c r="N17" s="153">
+      <c r="M17" s="140"/>
+      <c r="N17" s="138">
         <v>99.91</v>
       </c>
-      <c r="O17" s="153">
+      <c r="O17" s="138">
         <v>12.51</v>
       </c>
-      <c r="P17" s="153">
+      <c r="P17" s="138">
         <v>10.34</v>
       </c>
-      <c r="Q17" s="155"/>
+      <c r="Q17" s="140"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="151"/>
-      <c r="B18" s="150"/>
-      <c r="C18" s="155"/>
-      <c r="D18" s="152"/>
-      <c r="E18" s="157" t="s">
+      <c r="A18" s="136"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="142" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="149">
+      <c r="F18" s="134">
         <v>10.16</v>
       </c>
-      <c r="G18" s="152"/>
-      <c r="H18" s="155"/>
-      <c r="I18" s="152"/>
-      <c r="J18" s="157" t="s">
+      <c r="G18" s="137"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="142" t="s">
         <v>112</v>
       </c>
-      <c r="K18" s="149">
+      <c r="K18" s="134">
         <v>10.26</v>
       </c>
-      <c r="L18" s="152"/>
-      <c r="M18" s="155"/>
-      <c r="N18" s="157" t="s">
+      <c r="L18" s="137"/>
+      <c r="M18" s="140"/>
+      <c r="N18" s="142" t="s">
         <v>112</v>
       </c>
-      <c r="O18" s="149">
+      <c r="O18" s="134">
         <v>14.06</v>
       </c>
-      <c r="P18" s="152"/>
-      <c r="Q18" s="155"/>
+      <c r="P18" s="137"/>
+      <c r="Q18" s="140"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="151"/>
-      <c r="B19" s="150"/>
-      <c r="C19" s="155"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="157" t="s">
+      <c r="A19" s="136"/>
+      <c r="B19" s="135"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="142" t="s">
         <v>109</v>
       </c>
-      <c r="F19" s="153">
+      <c r="F19" s="138">
         <v>96.34</v>
       </c>
-      <c r="G19" s="152"/>
-      <c r="H19" s="155"/>
-      <c r="I19" s="152"/>
-      <c r="J19" s="157" t="s">
+      <c r="G19" s="137"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="142" t="s">
         <v>109</v>
       </c>
-      <c r="K19" s="153">
+      <c r="K19" s="138">
         <v>96.34</v>
       </c>
-      <c r="L19" s="152"/>
-      <c r="M19" s="155"/>
-      <c r="N19" s="157" t="s">
+      <c r="L19" s="137"/>
+      <c r="M19" s="140"/>
+      <c r="N19" s="142" t="s">
         <v>109</v>
       </c>
-      <c r="O19" s="153">
+      <c r="O19" s="138">
         <v>96.34</v>
       </c>
-      <c r="P19" s="152"/>
-      <c r="Q19" s="155"/>
+      <c r="P19" s="137"/>
+      <c r="Q19" s="140"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="151"/>
-      <c r="B20" s="150"/>
-      <c r="C20" s="155"/>
-      <c r="D20" s="152"/>
-      <c r="E20" s="157" t="s">
+      <c r="A20" s="136"/>
+      <c r="B20" s="135"/>
+      <c r="C20" s="140"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="142" t="s">
         <v>110</v>
       </c>
-      <c r="F20" s="153">
+      <c r="F20" s="138">
         <v>18.03</v>
       </c>
-      <c r="G20" s="152"/>
-      <c r="H20" s="155"/>
-      <c r="I20" s="152"/>
-      <c r="J20" s="157" t="s">
+      <c r="G20" s="137"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="137"/>
+      <c r="J20" s="142" t="s">
         <v>110</v>
       </c>
-      <c r="K20" s="153">
+      <c r="K20" s="138">
         <v>5.52</v>
       </c>
-      <c r="L20" s="152"/>
-      <c r="M20" s="155"/>
-      <c r="N20" s="157" t="s">
+      <c r="L20" s="137"/>
+      <c r="M20" s="140"/>
+      <c r="N20" s="142" t="s">
         <v>110</v>
       </c>
-      <c r="O20" s="153">
+      <c r="O20" s="138">
         <v>13.85</v>
       </c>
-      <c r="P20" s="152"/>
-      <c r="Q20" s="155"/>
+      <c r="P20" s="137"/>
+      <c r="Q20" s="140"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="151"/>
-      <c r="B21" s="150"/>
-      <c r="C21" s="155"/>
-      <c r="D21" s="152"/>
-      <c r="E21" s="157" t="s">
+      <c r="A21" s="136"/>
+      <c r="B21" s="135"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="142" t="s">
         <v>111</v>
       </c>
-      <c r="F21" s="161">
+      <c r="F21" s="146">
         <v>21.37</v>
       </c>
-      <c r="G21" s="152"/>
-      <c r="H21" s="155"/>
-      <c r="I21" s="152"/>
-      <c r="J21" s="157" t="s">
+      <c r="G21" s="137"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="137"/>
+      <c r="J21" s="142" t="s">
         <v>111</v>
       </c>
-      <c r="K21" s="161">
+      <c r="K21" s="146">
         <v>16.25</v>
       </c>
-      <c r="L21" s="152"/>
-      <c r="M21" s="155"/>
-      <c r="N21" s="157" t="s">
+      <c r="L21" s="137"/>
+      <c r="M21" s="140"/>
+      <c r="N21" s="142" t="s">
         <v>111</v>
       </c>
-      <c r="O21" s="161">
+      <c r="O21" s="146">
         <v>33.1</v>
       </c>
-      <c r="P21" s="152"/>
-      <c r="Q21" s="155"/>
+      <c r="P21" s="137"/>
+      <c r="Q21" s="140"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="151"/>
-      <c r="B22" s="155"/>
-      <c r="C22" s="155"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="155"/>
-      <c r="I22" s="155"/>
-      <c r="J22" s="155"/>
-      <c r="K22" s="155"/>
-      <c r="L22" s="155"/>
-      <c r="M22" s="155"/>
-      <c r="N22" s="155"/>
-      <c r="O22" s="155"/>
-      <c r="P22" s="155"/>
-      <c r="Q22" s="155"/>
+      <c r="A22" s="136"/>
+      <c r="B22" s="140"/>
+      <c r="C22" s="140"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="140"/>
+      <c r="G22" s="140"/>
+      <c r="H22" s="140"/>
+      <c r="I22" s="140"/>
+      <c r="J22" s="140"/>
+      <c r="K22" s="140"/>
+      <c r="L22" s="140"/>
+      <c r="M22" s="140"/>
+      <c r="N22" s="140"/>
+      <c r="O22" s="140"/>
+      <c r="P22" s="140"/>
+      <c r="Q22" s="140"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="151"/>
-      <c r="B23" s="150"/>
-      <c r="C23" s="155"/>
-      <c r="D23" s="157" t="s">
+      <c r="A23" s="136"/>
+      <c r="B23" s="135"/>
+      <c r="C23" s="140"/>
+      <c r="D23" s="142" t="s">
         <v>154</v>
       </c>
-      <c r="E23" s="157" t="s">
+      <c r="E23" s="142" t="s">
         <v>117</v>
       </c>
-      <c r="F23" s="157" t="s">
+      <c r="F23" s="142" t="s">
         <v>118</v>
       </c>
-      <c r="G23" s="157" t="s">
+      <c r="G23" s="142" t="s">
         <v>155</v>
       </c>
-      <c r="H23" s="155"/>
-      <c r="I23" s="157" t="s">
+      <c r="H23" s="140"/>
+      <c r="I23" s="142" t="s">
         <v>154</v>
       </c>
-      <c r="J23" s="157" t="s">
+      <c r="J23" s="142" t="s">
         <v>117</v>
       </c>
-      <c r="K23" s="157" t="s">
+      <c r="K23" s="142" t="s">
         <v>118</v>
       </c>
-      <c r="L23" s="157" t="s">
+      <c r="L23" s="142" t="s">
         <v>155</v>
       </c>
-      <c r="M23" s="155"/>
-      <c r="N23" s="157" t="s">
+      <c r="M23" s="140"/>
+      <c r="N23" s="142" t="s">
         <v>117</v>
       </c>
-      <c r="O23" s="157" t="s">
+      <c r="O23" s="142" t="s">
         <v>118</v>
       </c>
-      <c r="P23" s="157" t="s">
+      <c r="P23" s="142" t="s">
         <v>155</v>
       </c>
-      <c r="Q23" s="155"/>
+      <c r="Q23" s="140"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="151"/>
-      <c r="B24" s="150"/>
-      <c r="C24" s="155"/>
-      <c r="D24" s="157">
+      <c r="A24" s="136"/>
+      <c r="B24" s="135"/>
+      <c r="C24" s="140"/>
+      <c r="D24" s="142">
         <v>0</v>
       </c>
-      <c r="E24" s="153">
+      <c r="E24" s="138">
         <v>100</v>
       </c>
-      <c r="F24" s="153">
+      <c r="F24" s="138">
         <v>11.72</v>
       </c>
-      <c r="G24" s="153">
+      <c r="G24" s="138">
         <v>10</v>
       </c>
-      <c r="H24" s="155"/>
-      <c r="I24" s="157">
+      <c r="H24" s="140"/>
+      <c r="I24" s="142">
         <v>0</v>
       </c>
-      <c r="J24" s="153">
+      <c r="J24" s="138">
         <v>100</v>
       </c>
-      <c r="K24" s="153">
+      <c r="K24" s="138">
         <v>13.27</v>
       </c>
-      <c r="L24" s="153">
+      <c r="L24" s="138">
         <v>10.16</v>
       </c>
-      <c r="M24" s="155"/>
-      <c r="N24" s="153">
+      <c r="M24" s="140"/>
+      <c r="N24" s="138">
         <v>92.14</v>
       </c>
-      <c r="O24" s="153">
+      <c r="O24" s="138">
         <v>22.64</v>
       </c>
-      <c r="P24" s="153">
+      <c r="P24" s="138">
         <v>10.61</v>
       </c>
-      <c r="Q24" s="155"/>
+      <c r="Q24" s="140"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="151"/>
-      <c r="B25" s="150"/>
-      <c r="C25" s="155"/>
-      <c r="D25" s="157">
+      <c r="A25" s="136"/>
+      <c r="B25" s="135"/>
+      <c r="C25" s="140"/>
+      <c r="D25" s="142">
         <v>1</v>
       </c>
-      <c r="E25" s="153">
+      <c r="E25" s="138">
         <v>100</v>
       </c>
-      <c r="F25" s="153">
+      <c r="F25" s="138">
         <v>12.06</v>
       </c>
-      <c r="G25" s="153">
+      <c r="G25" s="138">
         <v>11.43</v>
       </c>
-      <c r="H25" s="155"/>
-      <c r="I25" s="157">
+      <c r="H25" s="140"/>
+      <c r="I25" s="142">
         <v>1</v>
       </c>
-      <c r="J25" s="153">
+      <c r="J25" s="138">
         <v>100</v>
       </c>
-      <c r="K25" s="153">
+      <c r="K25" s="138">
         <v>12.66</v>
       </c>
-      <c r="L25" s="153">
+      <c r="L25" s="138">
         <v>11.5</v>
       </c>
-      <c r="M25" s="155"/>
-      <c r="N25" s="153">
+      <c r="M25" s="140"/>
+      <c r="N25" s="138">
         <v>99.74</v>
       </c>
-      <c r="O25" s="153">
+      <c r="O25" s="138">
         <v>12.13</v>
       </c>
-      <c r="P25" s="153">
+      <c r="P25" s="138">
         <v>11.42</v>
       </c>
-      <c r="Q25" s="155"/>
+      <c r="Q25" s="140"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="151"/>
-      <c r="B26" s="150"/>
-      <c r="C26" s="155"/>
-      <c r="D26" s="157">
+      <c r="A26" s="136"/>
+      <c r="B26" s="135"/>
+      <c r="C26" s="140"/>
+      <c r="D26" s="142">
         <v>2</v>
       </c>
-      <c r="E26" s="153">
+      <c r="E26" s="138">
         <v>88.86</v>
       </c>
-      <c r="F26" s="153">
+      <c r="F26" s="138">
         <v>21.8</v>
       </c>
-      <c r="G26" s="153">
+      <c r="G26" s="138">
         <v>10.69</v>
       </c>
-      <c r="H26" s="155"/>
-      <c r="I26" s="157">
+      <c r="H26" s="140"/>
+      <c r="I26" s="142">
         <v>2</v>
       </c>
-      <c r="J26" s="153">
+      <c r="J26" s="138">
         <v>12.89</v>
       </c>
-      <c r="K26" s="153">
+      <c r="K26" s="138">
         <v>18.36</v>
       </c>
-      <c r="L26" s="153">
+      <c r="L26" s="138">
         <v>1.86</v>
       </c>
-      <c r="M26" s="155"/>
-      <c r="N26" s="153">
+      <c r="M26" s="140"/>
+      <c r="N26" s="138">
         <v>99.81</v>
       </c>
-      <c r="O26" s="153">
+      <c r="O26" s="138">
         <v>13.66</v>
       </c>
-      <c r="P26" s="153">
+      <c r="P26" s="138">
         <v>10.7</v>
       </c>
-      <c r="Q26" s="155"/>
+      <c r="Q26" s="140"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="151"/>
-      <c r="B27" s="150"/>
-      <c r="C27" s="155"/>
-      <c r="D27" s="157">
+      <c r="A27" s="136"/>
+      <c r="B27" s="135"/>
+      <c r="C27" s="140"/>
+      <c r="D27" s="142">
         <v>3</v>
       </c>
-      <c r="E27" s="153">
+      <c r="E27" s="138">
         <v>90.1</v>
       </c>
-      <c r="F27" s="153">
+      <c r="F27" s="138">
         <v>36.96</v>
       </c>
-      <c r="G27" s="153">
+      <c r="G27" s="138">
         <v>12.96</v>
       </c>
-      <c r="H27" s="155"/>
-      <c r="I27" s="157">
+      <c r="H27" s="140"/>
+      <c r="I27" s="142">
         <v>3</v>
       </c>
-      <c r="J27" s="153">
+      <c r="J27" s="138">
         <v>94.95</v>
       </c>
-      <c r="K27" s="153">
+      <c r="K27" s="138">
         <v>23.99</v>
       </c>
-      <c r="L27" s="153">
+      <c r="L27" s="138">
         <v>11.32</v>
       </c>
-      <c r="M27" s="155"/>
-      <c r="N27" s="153">
+      <c r="M27" s="140"/>
+      <c r="N27" s="138">
         <v>99.8</v>
       </c>
-      <c r="O27" s="153">
+      <c r="O27" s="138">
         <v>10.75</v>
       </c>
-      <c r="P27" s="153">
+      <c r="P27" s="138">
         <v>10.15</v>
       </c>
-      <c r="Q27" s="155"/>
+      <c r="Q27" s="140"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="151"/>
-      <c r="B28" s="150"/>
-      <c r="C28" s="155"/>
-      <c r="D28" s="157">
+      <c r="A28" s="136"/>
+      <c r="B28" s="135"/>
+      <c r="C28" s="140"/>
+      <c r="D28" s="142">
         <v>4</v>
       </c>
-      <c r="E28" s="153">
+      <c r="E28" s="138">
         <v>93.28</v>
       </c>
-      <c r="F28" s="153">
+      <c r="F28" s="138">
         <v>14.91</v>
       </c>
-      <c r="G28" s="153">
+      <c r="G28" s="138">
         <v>9.84</v>
       </c>
-      <c r="H28" s="155"/>
-      <c r="I28" s="157">
+      <c r="H28" s="140"/>
+      <c r="I28" s="142">
         <v>4</v>
       </c>
-      <c r="J28" s="153">
+      <c r="J28" s="138">
         <v>54.18</v>
       </c>
-      <c r="K28" s="153">
+      <c r="K28" s="138">
         <v>21.48</v>
       </c>
-      <c r="L28" s="153">
+      <c r="L28" s="138">
         <v>6.84</v>
       </c>
-      <c r="M28" s="155"/>
-      <c r="N28" s="153">
+      <c r="M28" s="140"/>
+      <c r="N28" s="138">
         <v>97.56</v>
       </c>
-      <c r="O28" s="153">
+      <c r="O28" s="138">
         <v>13.1</v>
       </c>
-      <c r="P28" s="153">
+      <c r="P28" s="138">
         <v>9.9600000000000009</v>
       </c>
-      <c r="Q28" s="155"/>
+      <c r="Q28" s="140"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="151"/>
-      <c r="B29" s="150"/>
-      <c r="C29" s="155"/>
-      <c r="D29" s="157">
+      <c r="A29" s="136"/>
+      <c r="B29" s="135"/>
+      <c r="C29" s="140"/>
+      <c r="D29" s="142">
         <v>5</v>
       </c>
-      <c r="E29" s="153">
+      <c r="E29" s="138">
         <v>100</v>
       </c>
-      <c r="F29" s="153">
+      <c r="F29" s="138">
         <v>11.45</v>
       </c>
-      <c r="G29" s="153">
+      <c r="G29" s="138">
         <v>9.15</v>
       </c>
-      <c r="H29" s="155"/>
-      <c r="I29" s="157">
+      <c r="H29" s="140"/>
+      <c r="I29" s="142">
         <v>5</v>
       </c>
-      <c r="J29" s="153">
+      <c r="J29" s="138">
         <v>99.78</v>
       </c>
-      <c r="K29" s="153">
+      <c r="K29" s="138">
         <v>27.31</v>
       </c>
-      <c r="L29" s="153">
+      <c r="L29" s="138">
         <v>11</v>
       </c>
-      <c r="M29" s="155"/>
-      <c r="N29" s="153">
+      <c r="M29" s="140"/>
+      <c r="N29" s="138">
         <v>99.78</v>
       </c>
-      <c r="O29" s="153">
+      <c r="O29" s="138">
         <v>26.97</v>
       </c>
-      <c r="P29" s="153">
+      <c r="P29" s="138">
         <v>10.95</v>
       </c>
-      <c r="Q29" s="155"/>
+      <c r="Q29" s="140"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="151"/>
-      <c r="B30" s="156" t="s">
+      <c r="A30" s="136"/>
+      <c r="B30" s="141" t="s">
         <v>157</v>
       </c>
-      <c r="C30" s="155"/>
-      <c r="D30" s="157">
+      <c r="C30" s="140"/>
+      <c r="D30" s="142">
         <v>6</v>
       </c>
-      <c r="E30" s="153">
+      <c r="E30" s="138">
         <v>100</v>
       </c>
-      <c r="F30" s="153">
+      <c r="F30" s="138">
         <v>22.42</v>
       </c>
-      <c r="G30" s="153">
+      <c r="G30" s="138">
         <v>11.05</v>
       </c>
-      <c r="H30" s="155"/>
-      <c r="I30" s="157">
+      <c r="H30" s="140"/>
+      <c r="I30" s="142">
         <v>6</v>
       </c>
-      <c r="J30" s="153">
+      <c r="J30" s="138">
         <v>100</v>
       </c>
-      <c r="K30" s="153">
+      <c r="K30" s="138">
         <v>22.42</v>
       </c>
-      <c r="L30" s="153">
+      <c r="L30" s="138">
         <v>11.05</v>
       </c>
-      <c r="M30" s="155"/>
-      <c r="N30" s="153">
+      <c r="M30" s="140"/>
+      <c r="N30" s="138">
         <v>100</v>
       </c>
-      <c r="O30" s="153">
+      <c r="O30" s="138">
         <v>34.99</v>
       </c>
-      <c r="P30" s="153">
+      <c r="P30" s="138">
         <v>12.98</v>
       </c>
-      <c r="Q30" s="155"/>
+      <c r="Q30" s="140"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="151"/>
-      <c r="B31" s="150"/>
-      <c r="C31" s="155"/>
-      <c r="D31" s="157">
+      <c r="A31" s="136"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="140"/>
+      <c r="D31" s="142">
         <v>7</v>
       </c>
-      <c r="E31" s="153">
+      <c r="E31" s="138">
         <v>99.51</v>
       </c>
-      <c r="F31" s="153">
+      <c r="F31" s="138">
         <v>20.39</v>
       </c>
-      <c r="G31" s="153">
+      <c r="G31" s="138">
         <v>11.44</v>
       </c>
-      <c r="H31" s="155"/>
-      <c r="I31" s="157">
+      <c r="H31" s="140"/>
+      <c r="I31" s="142">
         <v>7</v>
       </c>
-      <c r="J31" s="153">
+      <c r="J31" s="138">
         <v>99.42</v>
       </c>
-      <c r="K31" s="153">
+      <c r="K31" s="138">
         <v>23.18</v>
       </c>
-      <c r="L31" s="153">
+      <c r="L31" s="138">
         <v>11.8</v>
       </c>
-      <c r="M31" s="155"/>
-      <c r="N31" s="153">
+      <c r="M31" s="140"/>
+      <c r="N31" s="138">
         <v>99.42</v>
       </c>
-      <c r="O31" s="153">
+      <c r="O31" s="138">
         <v>23.18</v>
       </c>
-      <c r="P31" s="153">
+      <c r="P31" s="138">
         <v>11.8</v>
       </c>
-      <c r="Q31" s="155"/>
+      <c r="Q31" s="140"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="151"/>
-      <c r="B32" s="150"/>
-      <c r="C32" s="155"/>
-      <c r="D32" s="157">
+      <c r="A32" s="136"/>
+      <c r="B32" s="135"/>
+      <c r="C32" s="140"/>
+      <c r="D32" s="142">
         <v>8</v>
       </c>
-      <c r="E32" s="153">
+      <c r="E32" s="138">
         <v>99.9</v>
       </c>
-      <c r="F32" s="153">
+      <c r="F32" s="138">
         <v>20.9</v>
       </c>
-      <c r="G32" s="153">
+      <c r="G32" s="138">
         <v>10.99</v>
       </c>
-      <c r="H32" s="155"/>
-      <c r="I32" s="157">
+      <c r="H32" s="140"/>
+      <c r="I32" s="142">
         <v>8</v>
       </c>
-      <c r="J32" s="153">
+      <c r="J32" s="138">
         <v>99.79</v>
       </c>
-      <c r="K32" s="153">
+      <c r="K32" s="138">
         <v>17.57</v>
       </c>
-      <c r="L32" s="153">
+      <c r="L32" s="138">
         <v>10.57</v>
       </c>
-      <c r="M32" s="155"/>
-      <c r="N32" s="153">
+      <c r="M32" s="140"/>
+      <c r="N32" s="138">
         <v>99.79</v>
       </c>
-      <c r="O32" s="153">
+      <c r="O32" s="138">
         <v>17.57</v>
       </c>
-      <c r="P32" s="153">
+      <c r="P32" s="138">
         <v>10.57</v>
       </c>
-      <c r="Q32" s="155"/>
+      <c r="Q32" s="140"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="151"/>
-      <c r="B33" s="150"/>
-      <c r="C33" s="155"/>
-      <c r="D33" s="157">
+      <c r="A33" s="136"/>
+      <c r="B33" s="135"/>
+      <c r="C33" s="140"/>
+      <c r="D33" s="142">
         <v>9</v>
       </c>
-      <c r="E33" s="153">
+      <c r="E33" s="138">
         <v>92.27</v>
       </c>
-      <c r="F33" s="153">
+      <c r="F33" s="138">
         <v>23.01</v>
       </c>
-      <c r="G33" s="153">
+      <c r="G33" s="138">
         <v>10.97</v>
       </c>
-      <c r="H33" s="155"/>
-      <c r="I33" s="157">
+      <c r="H33" s="140"/>
+      <c r="I33" s="142">
         <v>9</v>
       </c>
-      <c r="J33" s="153">
+      <c r="J33" s="138">
         <v>19.82</v>
       </c>
-      <c r="K33" s="153">
+      <c r="K33" s="138">
         <v>20.11</v>
       </c>
-      <c r="L33" s="153">
+      <c r="L33" s="138">
         <v>2.72</v>
       </c>
-      <c r="M33" s="155"/>
-      <c r="N33" s="153">
+      <c r="M33" s="140"/>
+      <c r="N33" s="138">
         <v>100</v>
       </c>
-      <c r="O33" s="153">
+      <c r="O33" s="138">
         <v>10.28</v>
       </c>
-      <c r="P33" s="153">
+      <c r="P33" s="138">
         <v>10.11</v>
       </c>
-      <c r="Q33" s="155"/>
+      <c r="Q33" s="140"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="151"/>
-      <c r="B34" s="150"/>
-      <c r="C34" s="155"/>
-      <c r="D34" s="152"/>
-      <c r="E34" s="157" t="s">
+      <c r="A34" s="136"/>
+      <c r="B34" s="135"/>
+      <c r="C34" s="140"/>
+      <c r="D34" s="137"/>
+      <c r="E34" s="142" t="s">
         <v>112</v>
       </c>
-      <c r="F34" s="160"/>
-      <c r="G34" s="153">
+      <c r="F34" s="145"/>
+      <c r="G34" s="138">
         <v>9.83</v>
       </c>
-      <c r="H34" s="155"/>
-      <c r="I34" s="152"/>
-      <c r="J34" s="157" t="s">
+      <c r="H34" s="140"/>
+      <c r="I34" s="137"/>
+      <c r="J34" s="142" t="s">
         <v>112</v>
       </c>
-      <c r="K34" s="149">
+      <c r="K34" s="134">
         <v>13.3</v>
       </c>
-      <c r="L34" s="152"/>
-      <c r="M34" s="155"/>
-      <c r="N34" s="157" t="s">
+      <c r="L34" s="137"/>
+      <c r="M34" s="140"/>
+      <c r="N34" s="142" t="s">
         <v>112</v>
       </c>
-      <c r="O34" s="149">
+      <c r="O34" s="134">
         <v>16.28</v>
       </c>
-      <c r="P34" s="152"/>
-      <c r="Q34" s="155"/>
+      <c r="P34" s="137"/>
+      <c r="Q34" s="140"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="151"/>
-      <c r="B35" s="150"/>
-      <c r="C35" s="155"/>
-      <c r="D35" s="152"/>
-      <c r="E35" s="157" t="s">
+      <c r="A35" s="136"/>
+      <c r="B35" s="135"/>
+      <c r="C35" s="140"/>
+      <c r="D35" s="137"/>
+      <c r="E35" s="142" t="s">
         <v>109</v>
       </c>
-      <c r="F35" s="152"/>
-      <c r="G35" s="153">
+      <c r="F35" s="137"/>
+      <c r="G35" s="138">
         <v>96.34</v>
       </c>
-      <c r="H35" s="155"/>
-      <c r="I35" s="152"/>
-      <c r="J35" s="157" t="s">
+      <c r="H35" s="140"/>
+      <c r="I35" s="137"/>
+      <c r="J35" s="142" t="s">
         <v>109</v>
       </c>
-      <c r="K35" s="153">
+      <c r="K35" s="138">
         <v>96.34</v>
       </c>
-      <c r="L35" s="152"/>
-      <c r="M35" s="155"/>
-      <c r="N35" s="157" t="s">
+      <c r="L35" s="137"/>
+      <c r="M35" s="140"/>
+      <c r="N35" s="142" t="s">
         <v>109</v>
       </c>
-      <c r="O35" s="153">
+      <c r="O35" s="138">
         <v>96.34</v>
       </c>
-      <c r="P35" s="152"/>
-      <c r="Q35" s="155"/>
+      <c r="P35" s="137"/>
+      <c r="Q35" s="140"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="151"/>
-      <c r="B36" s="150"/>
-      <c r="C36" s="155"/>
-      <c r="D36" s="152"/>
-      <c r="E36" s="157" t="s">
+      <c r="A36" s="136"/>
+      <c r="B36" s="135"/>
+      <c r="C36" s="140"/>
+      <c r="D36" s="137"/>
+      <c r="E36" s="142" t="s">
         <v>110</v>
       </c>
-      <c r="F36" s="152"/>
-      <c r="G36" s="153">
+      <c r="F36" s="137"/>
+      <c r="G36" s="138">
         <v>20.95</v>
       </c>
-      <c r="H36" s="155"/>
-      <c r="I36" s="152"/>
-      <c r="J36" s="157" t="s">
+      <c r="H36" s="140"/>
+      <c r="I36" s="137"/>
+      <c r="J36" s="142" t="s">
         <v>110</v>
       </c>
-      <c r="K36" s="153">
+      <c r="K36" s="138">
         <v>15.63</v>
       </c>
-      <c r="L36" s="152"/>
-      <c r="M36" s="155"/>
-      <c r="N36" s="157" t="s">
+      <c r="L36" s="137"/>
+      <c r="M36" s="140"/>
+      <c r="N36" s="142" t="s">
         <v>110</v>
       </c>
-      <c r="O36" s="153">
+      <c r="O36" s="138">
         <v>16.34</v>
       </c>
-      <c r="P36" s="152"/>
-      <c r="Q36" s="155"/>
+      <c r="P36" s="137"/>
+      <c r="Q36" s="140"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="151"/>
-      <c r="B37" s="150"/>
-      <c r="C37" s="155"/>
-      <c r="D37" s="152"/>
-      <c r="E37" s="157" t="s">
+      <c r="A37" s="136"/>
+      <c r="B37" s="135"/>
+      <c r="C37" s="140"/>
+      <c r="D37" s="137"/>
+      <c r="E37" s="142" t="s">
         <v>111</v>
       </c>
-      <c r="F37" s="152"/>
-      <c r="G37" s="161">
+      <c r="F37" s="137"/>
+      <c r="G37" s="146">
         <v>28.94</v>
       </c>
-      <c r="H37" s="155"/>
-      <c r="I37" s="152"/>
-      <c r="J37" s="157" t="s">
+      <c r="H37" s="140"/>
+      <c r="I37" s="137"/>
+      <c r="J37" s="142" t="s">
         <v>111</v>
       </c>
-      <c r="K37" s="161">
+      <c r="K37" s="146">
         <v>21.88</v>
       </c>
-      <c r="L37" s="152"/>
-      <c r="M37" s="155"/>
-      <c r="N37" s="157" t="s">
+      <c r="L37" s="137"/>
+      <c r="M37" s="140"/>
+      <c r="N37" s="142" t="s">
         <v>111</v>
       </c>
-      <c r="O37" s="161">
+      <c r="O37" s="146">
         <v>31.03</v>
       </c>
-      <c r="P37" s="152"/>
-      <c r="Q37" s="155"/>
+      <c r="P37" s="137"/>
+      <c r="Q37" s="140"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="151"/>
-      <c r="B38" s="155"/>
-      <c r="C38" s="155"/>
-      <c r="D38" s="155"/>
-      <c r="E38" s="155"/>
-      <c r="F38" s="155"/>
-      <c r="G38" s="155"/>
-      <c r="H38" s="155"/>
-      <c r="I38" s="155"/>
-      <c r="J38" s="155"/>
-      <c r="K38" s="155"/>
-      <c r="L38" s="155"/>
-      <c r="M38" s="155"/>
-      <c r="N38" s="155"/>
-      <c r="O38" s="155"/>
-      <c r="P38" s="155"/>
-      <c r="Q38" s="155"/>
+      <c r="A38" s="136"/>
+      <c r="B38" s="140"/>
+      <c r="C38" s="140"/>
+      <c r="D38" s="140"/>
+      <c r="E38" s="140"/>
+      <c r="F38" s="140"/>
+      <c r="G38" s="140"/>
+      <c r="H38" s="140"/>
+      <c r="I38" s="140"/>
+      <c r="J38" s="140"/>
+      <c r="K38" s="140"/>
+      <c r="L38" s="140"/>
+      <c r="M38" s="140"/>
+      <c r="N38" s="140"/>
+      <c r="O38" s="140"/>
+      <c r="P38" s="140"/>
+      <c r="Q38" s="140"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/experiments/Consolidated Results from different techniques.xlsx
+++ b/experiments/Consolidated Results from different techniques.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgopinat\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD2293B-194F-4C00-B1EE-9508D702D285}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB57694-6400-4129-AD34-1CF1A420B733}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="1000" firstSheet="2" activeTab="2" xr2:uid="{6E851A2A-318E-4F15-AEB0-BD2CB026064A}"/>
+    <workbookView xWindow="9804" yWindow="816" windowWidth="12240" windowHeight="11892" tabRatio="1000" firstSheet="2" activeTab="2" xr2:uid="{6E851A2A-318E-4F15-AEB0-BD2CB026064A}"/>
   </bookViews>
   <sheets>
     <sheet name="Pattern Based Repair" sheetId="18" state="hidden" r:id="rId1"/>
@@ -852,7 +852,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1282,6 +1282,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1293,9 +1302,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1685,21 +1691,21 @@
       <c r="A2" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="162" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="160" t="s">
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="162" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
       <c r="M2" s="51"/>
       <c r="N2" s="51"/>
       <c r="O2" s="51"/>
@@ -2260,11 +2266,11 @@
       <c r="G15" s="51"/>
       <c r="H15" s="51"/>
       <c r="I15" s="51"/>
-      <c r="J15" s="161" t="s">
+      <c r="J15" s="164" t="s">
         <v>121</v>
       </c>
-      <c r="K15" s="162"/>
-      <c r="L15" s="163"/>
+      <c r="K15" s="165"/>
+      <c r="L15" s="166"/>
       <c r="M15" s="51"/>
       <c r="N15" s="51"/>
       <c r="O15" s="51"/>
@@ -2448,14 +2454,14 @@
       <c r="A23" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="B23" s="160" t="s">
+      <c r="B23" s="162" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="160"/>
-      <c r="D23" s="160" t="s">
+      <c r="C23" s="162"/>
+      <c r="D23" s="162" t="s">
         <v>90</v>
       </c>
-      <c r="E23" s="160"/>
+      <c r="E23" s="162"/>
       <c r="F23" s="51"/>
       <c r="G23" s="51"/>
       <c r="H23" s="55"/>
@@ -2600,26 +2606,26 @@
       <c r="A29" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="B29" s="160" t="s">
+      <c r="B29" s="162" t="s">
         <v>115</v>
       </c>
-      <c r="C29" s="160"/>
-      <c r="D29" s="160"/>
-      <c r="E29" s="160"/>
-      <c r="F29" s="160"/>
-      <c r="G29" s="160"/>
-      <c r="H29" s="160"/>
-      <c r="I29" s="165"/>
-      <c r="J29" s="160" t="s">
+      <c r="C29" s="162"/>
+      <c r="D29" s="162"/>
+      <c r="E29" s="162"/>
+      <c r="F29" s="162"/>
+      <c r="G29" s="162"/>
+      <c r="H29" s="162"/>
+      <c r="I29" s="163"/>
+      <c r="J29" s="162" t="s">
         <v>128</v>
       </c>
-      <c r="K29" s="160"/>
-      <c r="L29" s="160"/>
-      <c r="M29" s="160" t="s">
+      <c r="K29" s="162"/>
+      <c r="L29" s="162"/>
+      <c r="M29" s="162" t="s">
         <v>90</v>
       </c>
-      <c r="N29" s="160"/>
-      <c r="O29" s="160"/>
+      <c r="N29" s="162"/>
+      <c r="O29" s="162"/>
       <c r="P29" s="51"/>
       <c r="Q29" s="51"/>
       <c r="R29" s="51"/>
@@ -3265,16 +3271,16 @@
       <c r="G42" s="51"/>
       <c r="H42" s="51"/>
       <c r="I42" s="51"/>
-      <c r="J42" s="161" t="s">
+      <c r="J42" s="164" t="s">
         <v>121</v>
       </c>
-      <c r="K42" s="162"/>
-      <c r="L42" s="163"/>
-      <c r="M42" s="161" t="s">
+      <c r="K42" s="165"/>
+      <c r="L42" s="166"/>
+      <c r="M42" s="164" t="s">
         <v>121</v>
       </c>
-      <c r="N42" s="162"/>
-      <c r="O42" s="163"/>
+      <c r="N42" s="165"/>
+      <c r="O42" s="166"/>
       <c r="P42" s="51"/>
       <c r="Q42" s="51"/>
       <c r="R42" s="51"/>
@@ -3491,15 +3497,15 @@
       <c r="S48" s="51"/>
     </row>
     <row r="49" spans="1:19" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A49" s="164" t="s">
+      <c r="A49" s="167" t="s">
         <v>129</v>
       </c>
-      <c r="B49" s="164"/>
-      <c r="C49" s="164"/>
-      <c r="D49" s="164"/>
-      <c r="E49" s="164"/>
-      <c r="F49" s="164"/>
-      <c r="G49" s="164"/>
+      <c r="B49" s="167"/>
+      <c r="C49" s="167"/>
+      <c r="D49" s="167"/>
+      <c r="E49" s="167"/>
+      <c r="F49" s="167"/>
+      <c r="G49" s="167"/>
       <c r="H49" s="55"/>
       <c r="I49" s="55"/>
       <c r="J49" s="55"/>
@@ -3517,14 +3523,14 @@
       <c r="A50" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="B50" s="160" t="s">
+      <c r="B50" s="162" t="s">
         <v>115</v>
       </c>
-      <c r="C50" s="160"/>
-      <c r="D50" s="160" t="s">
+      <c r="C50" s="162"/>
+      <c r="D50" s="162" t="s">
         <v>128</v>
       </c>
-      <c r="E50" s="160"/>
+      <c r="E50" s="162"/>
       <c r="F50" s="43" t="s">
         <v>131</v>
       </c>
@@ -3652,14 +3658,14 @@
     </row>
     <row r="55" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="65"/>
-      <c r="B55" s="160" t="s">
+      <c r="B55" s="162" t="s">
         <v>115</v>
       </c>
-      <c r="C55" s="160"/>
-      <c r="D55" s="160" t="s">
+      <c r="C55" s="162"/>
+      <c r="D55" s="162" t="s">
         <v>128</v>
       </c>
-      <c r="E55" s="160"/>
+      <c r="E55" s="162"/>
       <c r="F55" s="43" t="s">
         <v>131</v>
       </c>
@@ -3770,14 +3776,14 @@
       <c r="A59" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="B59" s="160" t="s">
+      <c r="B59" s="162" t="s">
         <v>115</v>
       </c>
-      <c r="C59" s="160"/>
-      <c r="D59" s="160" t="s">
+      <c r="C59" s="162"/>
+      <c r="D59" s="162" t="s">
         <v>128</v>
       </c>
-      <c r="E59" s="160"/>
+      <c r="E59" s="162"/>
       <c r="F59" s="43" t="s">
         <v>131</v>
       </c>
@@ -13428,11 +13434,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="B59:C59"/>
@@ -13445,6 +13446,11 @@
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="B29:I29"/>
     <mergeCell ref="J29:L29"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15796,14 +15802,14 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="53"/>
-      <c r="B3" s="172" t="s">
+      <c r="B3" s="174" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="173"/>
-      <c r="D3" s="172" t="s">
+      <c r="C3" s="175"/>
+      <c r="D3" s="174" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="173"/>
+      <c r="E3" s="175"/>
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="87"/>
@@ -15980,17 +15986,17 @@
       <c r="A5" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="174" t="s">
+      <c r="B5" s="176" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="175"/>
-      <c r="D5" s="175"/>
-      <c r="E5" s="175"/>
-      <c r="F5" s="175"/>
-      <c r="G5" s="174" t="s">
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="176" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="175"/>
+      <c r="H5" s="177"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="46"/>
@@ -16074,17 +16080,17 @@
       <c r="A9" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="174" t="s">
+      <c r="B9" s="176" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="175"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="175"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="174" t="s">
+      <c r="C9" s="177"/>
+      <c r="D9" s="177"/>
+      <c r="E9" s="177"/>
+      <c r="F9" s="177"/>
+      <c r="G9" s="176" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="175"/>
+      <c r="H9" s="177"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="46"/>
@@ -16288,17 +16294,17 @@
       <c r="A20" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="174" t="s">
+      <c r="B20" s="176" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="175"/>
-      <c r="D20" s="175"/>
-      <c r="E20" s="175"/>
-      <c r="F20" s="175"/>
-      <c r="G20" s="174" t="s">
+      <c r="C20" s="177"/>
+      <c r="D20" s="177"/>
+      <c r="E20" s="177"/>
+      <c r="F20" s="177"/>
+      <c r="G20" s="176" t="s">
         <v>76</v>
       </c>
-      <c r="H20" s="175"/>
+      <c r="H20" s="177"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="46" t="s">
@@ -16362,17 +16368,17 @@
       <c r="A24" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="174" t="s">
+      <c r="B24" s="176" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="175"/>
-      <c r="D24" s="175"/>
-      <c r="E24" s="175"/>
-      <c r="F24" s="175"/>
-      <c r="G24" s="174" t="s">
+      <c r="C24" s="177"/>
+      <c r="D24" s="177"/>
+      <c r="E24" s="177"/>
+      <c r="F24" s="177"/>
+      <c r="G24" s="176" t="s">
         <v>76</v>
       </c>
-      <c r="H24" s="175"/>
+      <c r="H24" s="177"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="46"/>
@@ -18180,21 +18186,21 @@
       <c r="A2" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="162" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="160" t="s">
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="162" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="66" t="s">
@@ -18656,11 +18662,11 @@
       <c r="G15" s="51"/>
       <c r="H15" s="51"/>
       <c r="I15" s="51"/>
-      <c r="J15" s="161" t="s">
+      <c r="J15" s="164" t="s">
         <v>121</v>
       </c>
-      <c r="K15" s="162"/>
-      <c r="L15" s="163"/>
+      <c r="K15" s="165"/>
+      <c r="L15" s="166"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="55"/>
@@ -18802,21 +18808,21 @@
       <c r="A23" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="160" t="s">
+      <c r="B23" s="162" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="160"/>
-      <c r="D23" s="160"/>
-      <c r="E23" s="160"/>
-      <c r="F23" s="160"/>
-      <c r="G23" s="160"/>
-      <c r="H23" s="160"/>
-      <c r="I23" s="165"/>
-      <c r="J23" s="160" t="s">
+      <c r="C23" s="162"/>
+      <c r="D23" s="162"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="162"/>
+      <c r="G23" s="162"/>
+      <c r="H23" s="162"/>
+      <c r="I23" s="163"/>
+      <c r="J23" s="162" t="s">
         <v>90</v>
       </c>
-      <c r="K23" s="160"/>
-      <c r="L23" s="160"/>
+      <c r="K23" s="162"/>
+      <c r="L23" s="162"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="66" t="s">
@@ -19286,11 +19292,11 @@
       <c r="G36" s="51"/>
       <c r="H36" s="51"/>
       <c r="I36" s="51"/>
-      <c r="J36" s="161" t="s">
+      <c r="J36" s="164" t="s">
         <v>121</v>
       </c>
-      <c r="K36" s="162"/>
-      <c r="L36" s="163"/>
+      <c r="K36" s="165"/>
+      <c r="L36" s="166"/>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A37" s="55"/>
@@ -19416,14 +19422,14 @@
       <c r="A44" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="B44" s="160" t="s">
+      <c r="B44" s="162" t="s">
         <v>115</v>
       </c>
-      <c r="C44" s="160"/>
-      <c r="D44" s="160" t="s">
+      <c r="C44" s="162"/>
+      <c r="D44" s="162" t="s">
         <v>90</v>
       </c>
-      <c r="E44" s="160"/>
+      <c r="E44" s="162"/>
       <c r="F44" s="51"/>
       <c r="G44" s="51"/>
       <c r="H44" s="55"/>
@@ -19646,26 +19652,26 @@
       <c r="A50" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="B50" s="160" t="s">
+      <c r="B50" s="162" t="s">
         <v>115</v>
       </c>
-      <c r="C50" s="160"/>
-      <c r="D50" s="160"/>
-      <c r="E50" s="160"/>
-      <c r="F50" s="160"/>
-      <c r="G50" s="160"/>
-      <c r="H50" s="160"/>
-      <c r="I50" s="165"/>
-      <c r="J50" s="160" t="s">
+      <c r="C50" s="162"/>
+      <c r="D50" s="162"/>
+      <c r="E50" s="162"/>
+      <c r="F50" s="162"/>
+      <c r="G50" s="162"/>
+      <c r="H50" s="162"/>
+      <c r="I50" s="163"/>
+      <c r="J50" s="162" t="s">
         <v>128</v>
       </c>
-      <c r="K50" s="160"/>
-      <c r="L50" s="160"/>
-      <c r="M50" s="160" t="s">
+      <c r="K50" s="162"/>
+      <c r="L50" s="162"/>
+      <c r="M50" s="162" t="s">
         <v>90</v>
       </c>
-      <c r="N50" s="160"/>
-      <c r="O50" s="160"/>
+      <c r="N50" s="162"/>
+      <c r="O50" s="162"/>
       <c r="P50" s="51"/>
       <c r="Q50" s="51"/>
       <c r="R50" s="51"/>
@@ -20480,16 +20486,16 @@
       <c r="G63" s="51"/>
       <c r="H63" s="51"/>
       <c r="I63" s="51"/>
-      <c r="J63" s="161" t="s">
+      <c r="J63" s="164" t="s">
         <v>121</v>
       </c>
-      <c r="K63" s="162"/>
-      <c r="L63" s="163"/>
-      <c r="M63" s="161" t="s">
+      <c r="K63" s="165"/>
+      <c r="L63" s="166"/>
+      <c r="M63" s="164" t="s">
         <v>121</v>
       </c>
-      <c r="N63" s="162"/>
-      <c r="O63" s="163"/>
+      <c r="N63" s="165"/>
+      <c r="O63" s="166"/>
       <c r="P63" s="51"/>
       <c r="Q63" s="51"/>
       <c r="R63" s="51"/>
@@ -20797,15 +20803,15 @@
       <c r="AF69" s="53"/>
     </row>
     <row r="70" spans="1:32" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A70" s="164" t="s">
+      <c r="A70" s="167" t="s">
         <v>129</v>
       </c>
-      <c r="B70" s="164"/>
-      <c r="C70" s="164"/>
-      <c r="D70" s="164"/>
-      <c r="E70" s="164"/>
-      <c r="F70" s="164"/>
-      <c r="G70" s="164"/>
+      <c r="B70" s="167"/>
+      <c r="C70" s="167"/>
+      <c r="D70" s="167"/>
+      <c r="E70" s="167"/>
+      <c r="F70" s="167"/>
+      <c r="G70" s="167"/>
       <c r="H70" s="55"/>
       <c r="I70" s="55"/>
       <c r="J70" s="55"/>
@@ -20836,14 +20842,14 @@
       <c r="A71" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="B71" s="160" t="s">
+      <c r="B71" s="162" t="s">
         <v>115</v>
       </c>
-      <c r="C71" s="160"/>
-      <c r="D71" s="160" t="s">
+      <c r="C71" s="162"/>
+      <c r="D71" s="162" t="s">
         <v>128</v>
       </c>
-      <c r="E71" s="160"/>
+      <c r="E71" s="162"/>
       <c r="F71" s="91" t="s">
         <v>131</v>
       </c>
@@ -21036,14 +21042,14 @@
     </row>
     <row r="76" spans="1:32" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="65"/>
-      <c r="B76" s="160" t="s">
+      <c r="B76" s="162" t="s">
         <v>115</v>
       </c>
-      <c r="C76" s="160"/>
-      <c r="D76" s="160" t="s">
+      <c r="C76" s="162"/>
+      <c r="D76" s="162" t="s">
         <v>128</v>
       </c>
-      <c r="E76" s="160"/>
+      <c r="E76" s="162"/>
       <c r="F76" s="91" t="s">
         <v>131</v>
       </c>
@@ -21206,14 +21212,14 @@
       <c r="A80" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="B80" s="160" t="s">
+      <c r="B80" s="162" t="s">
         <v>115</v>
       </c>
-      <c r="C80" s="160"/>
-      <c r="D80" s="160" t="s">
+      <c r="C80" s="162"/>
+      <c r="D80" s="162" t="s">
         <v>128</v>
       </c>
-      <c r="E80" s="160"/>
+      <c r="E80" s="162"/>
       <c r="F80" s="91" t="s">
         <v>131</v>
       </c>
@@ -35531,6 +35537,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="A70:G70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
     <mergeCell ref="J50:L50"/>
     <mergeCell ref="M50:O50"/>
     <mergeCell ref="J63:L63"/>
@@ -35541,16 +35557,6 @@
     <mergeCell ref="B23:I23"/>
     <mergeCell ref="J23:L23"/>
     <mergeCell ref="J36:L36"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="A70:G70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:E76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35560,8 +35566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE8D7233-46EF-473C-979A-BA5549BBC72F}">
   <dimension ref="A1:O455"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B63" workbookViewId="0">
-      <selection activeCell="J88" sqref="J88"/>
+    <sheetView tabSelected="1" topLeftCell="J53" workbookViewId="0">
+      <selection activeCell="L71" sqref="L71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35603,21 +35609,21 @@
       <c r="A2" s="102" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="168" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="166" t="s">
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="168" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="103" t="s">
@@ -36079,11 +36085,11 @@
       <c r="G15" s="101"/>
       <c r="H15" s="101"/>
       <c r="I15" s="101"/>
-      <c r="J15" s="169" t="s">
+      <c r="J15" s="171" t="s">
         <v>121</v>
       </c>
-      <c r="K15" s="170"/>
-      <c r="L15" s="171"/>
+      <c r="K15" s="172"/>
+      <c r="L15" s="173"/>
     </row>
     <row r="16" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="115"/>
@@ -36241,21 +36247,21 @@
       <c r="A24" s="102" t="s">
         <v>114</v>
       </c>
-      <c r="B24" s="166" t="s">
+      <c r="B24" s="168" t="s">
         <v>115</v>
       </c>
-      <c r="C24" s="166"/>
-      <c r="D24" s="166"/>
-      <c r="E24" s="166"/>
-      <c r="F24" s="166"/>
-      <c r="G24" s="166"/>
-      <c r="H24" s="166"/>
-      <c r="I24" s="168"/>
-      <c r="J24" s="166" t="s">
+      <c r="C24" s="168"/>
+      <c r="D24" s="168"/>
+      <c r="E24" s="168"/>
+      <c r="F24" s="168"/>
+      <c r="G24" s="168"/>
+      <c r="H24" s="168"/>
+      <c r="I24" s="170"/>
+      <c r="J24" s="168" t="s">
         <v>90</v>
       </c>
-      <c r="K24" s="166"/>
-      <c r="L24" s="166"/>
+      <c r="K24" s="168"/>
+      <c r="L24" s="168"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="103" t="s">
@@ -36725,11 +36731,11 @@
       <c r="G37" s="101"/>
       <c r="H37" s="101"/>
       <c r="I37" s="101"/>
-      <c r="J37" s="169" t="s">
+      <c r="J37" s="171" t="s">
         <v>121</v>
       </c>
-      <c r="K37" s="170"/>
-      <c r="L37" s="171"/>
+      <c r="K37" s="172"/>
+      <c r="L37" s="173"/>
     </row>
     <row r="38" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="115"/>
@@ -36885,14 +36891,14 @@
       <c r="A46" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="B46" s="166" t="s">
+      <c r="B46" s="168" t="s">
         <v>115</v>
       </c>
-      <c r="C46" s="166"/>
-      <c r="D46" s="166" t="s">
+      <c r="C46" s="168"/>
+      <c r="D46" s="168" t="s">
         <v>90</v>
       </c>
-      <c r="E46" s="166"/>
+      <c r="E46" s="168"/>
       <c r="F46" s="101"/>
       <c r="G46" s="101"/>
       <c r="H46" s="115"/>
@@ -36995,26 +37001,26 @@
       <c r="A52" s="102" t="s">
         <v>127</v>
       </c>
-      <c r="B52" s="166" t="s">
+      <c r="B52" s="168" t="s">
         <v>115</v>
       </c>
-      <c r="C52" s="166"/>
-      <c r="D52" s="166"/>
-      <c r="E52" s="166"/>
-      <c r="F52" s="166"/>
-      <c r="G52" s="166"/>
-      <c r="H52" s="166"/>
-      <c r="I52" s="168"/>
-      <c r="J52" s="166" t="s">
+      <c r="C52" s="168"/>
+      <c r="D52" s="168"/>
+      <c r="E52" s="168"/>
+      <c r="F52" s="168"/>
+      <c r="G52" s="168"/>
+      <c r="H52" s="168"/>
+      <c r="I52" s="170"/>
+      <c r="J52" s="168" t="s">
         <v>128</v>
       </c>
-      <c r="K52" s="166"/>
-      <c r="L52" s="166"/>
-      <c r="M52" s="160" t="s">
+      <c r="K52" s="168"/>
+      <c r="L52" s="168"/>
+      <c r="M52" s="162" t="s">
         <v>90</v>
       </c>
-      <c r="N52" s="160"/>
-      <c r="O52" s="160"/>
+      <c r="N52" s="162"/>
+      <c r="O52" s="162"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="103" t="s">
@@ -37608,16 +37614,16 @@
       <c r="G65" s="101"/>
       <c r="H65" s="101"/>
       <c r="I65" s="101"/>
-      <c r="J65" s="169" t="s">
+      <c r="J65" s="171" t="s">
         <v>121</v>
       </c>
-      <c r="K65" s="170"/>
-      <c r="L65" s="171"/>
-      <c r="M65" s="161" t="s">
+      <c r="K65" s="172"/>
+      <c r="L65" s="173"/>
+      <c r="M65" s="164" t="s">
         <v>121</v>
       </c>
-      <c r="N65" s="162"/>
-      <c r="O65" s="163"/>
+      <c r="N65" s="165"/>
+      <c r="O65" s="166"/>
     </row>
     <row r="66" spans="1:15" s="135" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="115"/>
@@ -37656,7 +37662,7 @@
       <c r="K67" s="107">
         <v>11.73</v>
       </c>
-      <c r="L67" s="107">
+      <c r="L67" s="161">
         <v>10.43</v>
       </c>
       <c r="M67" s="133" t="s">
@@ -37665,7 +37671,7 @@
       <c r="N67" s="152">
         <v>98.58</v>
       </c>
-      <c r="O67" s="42">
+      <c r="O67" s="160">
         <v>98.619900000000001</v>
       </c>
     </row>
@@ -37685,7 +37691,9 @@
       <c r="K68" s="112">
         <v>10.38</v>
       </c>
-      <c r="L68" s="112"/>
+      <c r="L68" s="112">
+        <v>10.37</v>
+      </c>
       <c r="M68" s="133" t="s">
         <v>109</v>
       </c>
@@ -37712,7 +37720,9 @@
       <c r="K69" s="112">
         <v>10.73</v>
       </c>
-      <c r="L69" s="112"/>
+      <c r="L69" s="112">
+        <v>10.37</v>
+      </c>
       <c r="M69" s="133" t="s">
         <v>110</v>
       </c>
@@ -37739,7 +37749,9 @@
       <c r="K70" s="112">
         <v>10.51</v>
       </c>
-      <c r="L70" s="112"/>
+      <c r="L70" s="112">
+        <v>10.37</v>
+      </c>
       <c r="M70" s="133" t="s">
         <v>111</v>
       </c>
@@ -37766,7 +37778,9 @@
       <c r="K71" s="112">
         <v>10.68</v>
       </c>
-      <c r="L71" s="112"/>
+      <c r="L71" s="112">
+        <v>10.68</v>
+      </c>
       <c r="M71" s="133" t="s">
         <v>122</v>
       </c>
@@ -37793,7 +37807,9 @@
       <c r="K72" s="112">
         <v>10.74</v>
       </c>
-      <c r="L72" s="112"/>
+      <c r="L72" s="112">
+        <v>10.37</v>
+      </c>
       <c r="M72" s="133" t="s">
         <v>123</v>
       </c>
@@ -37822,15 +37838,15 @@
       <c r="O73" s="151"/>
     </row>
     <row r="74" spans="1:15" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A74" s="167" t="s">
+      <c r="A74" s="169" t="s">
         <v>129</v>
       </c>
-      <c r="B74" s="167"/>
-      <c r="C74" s="167"/>
-      <c r="D74" s="167"/>
-      <c r="E74" s="167"/>
-      <c r="F74" s="167"/>
-      <c r="G74" s="167"/>
+      <c r="B74" s="169"/>
+      <c r="C74" s="169"/>
+      <c r="D74" s="169"/>
+      <c r="E74" s="169"/>
+      <c r="F74" s="169"/>
+      <c r="G74" s="169"/>
       <c r="H74" s="115"/>
       <c r="I74" s="115"/>
       <c r="J74" s="115"/>
@@ -37841,14 +37857,14 @@
       <c r="A75" s="102" t="s">
         <v>130</v>
       </c>
-      <c r="B75" s="166" t="s">
+      <c r="B75" s="168" t="s">
         <v>115</v>
       </c>
-      <c r="C75" s="166"/>
-      <c r="D75" s="166" t="s">
+      <c r="C75" s="168"/>
+      <c r="D75" s="168" t="s">
         <v>128</v>
       </c>
-      <c r="E75" s="166"/>
+      <c r="E75" s="168"/>
       <c r="F75" s="107" t="s">
         <v>131</v>
       </c>
@@ -37941,14 +37957,14 @@
     </row>
     <row r="80" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="102"/>
-      <c r="B80" s="166" t="s">
+      <c r="B80" s="168" t="s">
         <v>115</v>
       </c>
-      <c r="C80" s="166"/>
-      <c r="D80" s="166" t="s">
+      <c r="C80" s="168"/>
+      <c r="D80" s="168" t="s">
         <v>128</v>
       </c>
-      <c r="E80" s="166"/>
+      <c r="E80" s="168"/>
       <c r="F80" s="107" t="s">
         <v>131</v>
       </c>
@@ -38031,14 +38047,14 @@
       <c r="A84" s="102" t="s">
         <v>133</v>
       </c>
-      <c r="B84" s="166" t="s">
+      <c r="B84" s="168" t="s">
         <v>115</v>
       </c>
-      <c r="C84" s="166"/>
-      <c r="D84" s="166" t="s">
+      <c r="C84" s="168"/>
+      <c r="D84" s="168" t="s">
         <v>128</v>
       </c>
-      <c r="E84" s="166"/>
+      <c r="E84" s="168"/>
       <c r="F84" s="107" t="s">
         <v>131</v>
       </c>
@@ -44512,12 +44528,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="M65:O65"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
     <mergeCell ref="B84:C84"/>
     <mergeCell ref="D84:E84"/>
     <mergeCell ref="A74:G74"/>
@@ -44532,6 +44542,12 @@
     <mergeCell ref="B52:I52"/>
     <mergeCell ref="J52:L52"/>
     <mergeCell ref="J65:L65"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="M65:O65"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/experiments/Consolidated Results from different techniques.xlsx
+++ b/experiments/Consolidated Results from different techniques.xlsx
@@ -5,29 +5,30 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgopinat\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\musman\Desktop\DNN-Repair\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB57694-6400-4129-AD34-1CF1A420B733}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B03266-C528-4728-94F3-9E162E0EDB5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9804" yWindow="816" windowWidth="12240" windowHeight="11892" tabRatio="1000" firstSheet="2" activeTab="2" xr2:uid="{6E851A2A-318E-4F15-AEB0-BD2CB026064A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="1000" firstSheet="2" activeTab="4" xr2:uid="{6E851A2A-318E-4F15-AEB0-BD2CB026064A}"/>
   </bookViews>
   <sheets>
     <sheet name="Pattern Based Repair" sheetId="18" state="hidden" r:id="rId1"/>
     <sheet name="Pattern-rep" sheetId="22" state="hidden" r:id="rId2"/>
     <sheet name="Pattern-based Repair" sheetId="24" r:id="rId3"/>
     <sheet name="Pattern+Last-07-09-20" sheetId="25" r:id="rId4"/>
-    <sheet name="Mutation-Train" sheetId="12" r:id="rId5"/>
-    <sheet name="Mutation-Test" sheetId="13" r:id="rId6"/>
-    <sheet name="Last-Layer" sheetId="14" r:id="rId7"/>
-    <sheet name="Last_Layer 5-28-2020" sheetId="16" r:id="rId8"/>
-    <sheet name="Last-Layer N Attributions" sheetId="21" r:id="rId9"/>
-    <sheet name="Adversial" sheetId="20" r:id="rId10"/>
-    <sheet name="Adversial 2" sheetId="23" r:id="rId11"/>
-    <sheet name="Analysis" sheetId="17" r:id="rId12"/>
-    <sheet name="CoverageLocalization_SymExec" sheetId="19" r:id="rId13"/>
-    <sheet name="Runtime-Monitor_Patch" sheetId="15" r:id="rId14"/>
-    <sheet name="Summary" sheetId="11" r:id="rId15"/>
+    <sheet name="Sheet2" sheetId="27" r:id="rId5"/>
+    <sheet name="Mutation-Train" sheetId="12" r:id="rId6"/>
+    <sheet name="Mutation-Test" sheetId="13" r:id="rId7"/>
+    <sheet name="Last-Layer" sheetId="14" r:id="rId8"/>
+    <sheet name="Last_Layer 5-28-2020" sheetId="16" r:id="rId9"/>
+    <sheet name="Last-Layer N Attributions" sheetId="21" r:id="rId10"/>
+    <sheet name="Adversial" sheetId="20" r:id="rId11"/>
+    <sheet name="Adversial 2" sheetId="23" r:id="rId12"/>
+    <sheet name="Analysis" sheetId="17" r:id="rId13"/>
+    <sheet name="CoverageLocalization_SymExec" sheetId="19" r:id="rId14"/>
+    <sheet name="Runtime-Monitor_Patch" sheetId="15" r:id="rId15"/>
+    <sheet name="Summary" sheetId="11" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="166">
   <si>
     <t>LABEL 7</t>
   </si>
@@ -533,12 +534,33 @@
   <si>
     <t>F1-based</t>
   </si>
+  <si>
+    <t>Epsilon=0.05</t>
+  </si>
+  <si>
+    <t>Adversarial Dataset</t>
+  </si>
+  <si>
+    <t>TestSet</t>
+  </si>
+  <si>
+    <t>With TestSet Inputs</t>
+  </si>
+  <si>
+    <t>Epsilon=0.1</t>
+  </si>
+  <si>
+    <t>Without TestSet Inputs</t>
+  </si>
+  <si>
+    <t>Epsilon=0.01</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -737,8 +759,25 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -785,6 +824,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE7E6E6"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor rgb="FFB7B7B7"/>
       </patternFill>
     </fill>
   </fills>
@@ -852,7 +903,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1288,9 +1339,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1302,6 +1350,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1332,6 +1383,47 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1700,7 +1792,7 @@
       <c r="F2" s="162"/>
       <c r="G2" s="162"/>
       <c r="H2" s="162"/>
-      <c r="I2" s="163"/>
+      <c r="I2" s="167"/>
       <c r="J2" s="162" t="s">
         <v>90</v>
       </c>
@@ -2266,11 +2358,11 @@
       <c r="G15" s="51"/>
       <c r="H15" s="51"/>
       <c r="I15" s="51"/>
-      <c r="J15" s="164" t="s">
+      <c r="J15" s="163" t="s">
         <v>121</v>
       </c>
-      <c r="K15" s="165"/>
-      <c r="L15" s="166"/>
+      <c r="K15" s="164"/>
+      <c r="L15" s="165"/>
       <c r="M15" s="51"/>
       <c r="N15" s="51"/>
       <c r="O15" s="51"/>
@@ -2615,7 +2707,7 @@
       <c r="F29" s="162"/>
       <c r="G29" s="162"/>
       <c r="H29" s="162"/>
-      <c r="I29" s="163"/>
+      <c r="I29" s="167"/>
       <c r="J29" s="162" t="s">
         <v>128</v>
       </c>
@@ -3271,16 +3363,16 @@
       <c r="G42" s="51"/>
       <c r="H42" s="51"/>
       <c r="I42" s="51"/>
-      <c r="J42" s="164" t="s">
+      <c r="J42" s="163" t="s">
         <v>121</v>
       </c>
-      <c r="K42" s="165"/>
-      <c r="L42" s="166"/>
-      <c r="M42" s="164" t="s">
+      <c r="K42" s="164"/>
+      <c r="L42" s="165"/>
+      <c r="M42" s="163" t="s">
         <v>121</v>
       </c>
-      <c r="N42" s="165"/>
-      <c r="O42" s="166"/>
+      <c r="N42" s="164"/>
+      <c r="O42" s="165"/>
       <c r="P42" s="51"/>
       <c r="Q42" s="51"/>
       <c r="R42" s="51"/>
@@ -3497,15 +3589,15 @@
       <c r="S48" s="51"/>
     </row>
     <row r="49" spans="1:19" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A49" s="167" t="s">
+      <c r="A49" s="166" t="s">
         <v>129</v>
       </c>
-      <c r="B49" s="167"/>
-      <c r="C49" s="167"/>
-      <c r="D49" s="167"/>
-      <c r="E49" s="167"/>
-      <c r="F49" s="167"/>
-      <c r="G49" s="167"/>
+      <c r="B49" s="166"/>
+      <c r="C49" s="166"/>
+      <c r="D49" s="166"/>
+      <c r="E49" s="166"/>
+      <c r="F49" s="166"/>
+      <c r="G49" s="166"/>
       <c r="H49" s="55"/>
       <c r="I49" s="55"/>
       <c r="J49" s="55"/>
@@ -13434,6 +13526,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="B59:C59"/>
@@ -13446,17 +13543,1018 @@
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="B29:I29"/>
     <mergeCell ref="J29:L29"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02550D39-0834-49AB-9810-9D5EA2ED264D}">
+  <dimension ref="A1:K34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.6640625" style="53" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.88671875" style="53"/>
+    <col min="7" max="7" width="26.88671875" style="53" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="53" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="53"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="55"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="55"/>
+      <c r="G2" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="J2" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="57">
+        <v>0</v>
+      </c>
+      <c r="B3" s="57">
+        <v>98.92</v>
+      </c>
+      <c r="C3" s="57">
+        <v>99.83</v>
+      </c>
+      <c r="D3" s="59">
+        <f>C3-B3</f>
+        <v>0.90999999999999659</v>
+      </c>
+      <c r="E3" s="57">
+        <v>95</v>
+      </c>
+      <c r="G3" s="57">
+        <v>0</v>
+      </c>
+      <c r="H3" s="57">
+        <v>99.18</v>
+      </c>
+      <c r="I3" s="57">
+        <v>99.59</v>
+      </c>
+      <c r="J3" s="59">
+        <f>I3-H3</f>
+        <v>0.40999999999999659</v>
+      </c>
+      <c r="K3" s="57">
+        <v>94.79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="57">
+        <v>1</v>
+      </c>
+      <c r="B4" s="57">
+        <v>97.92</v>
+      </c>
+      <c r="C4" s="57">
+        <v>99.66</v>
+      </c>
+      <c r="D4" s="59">
+        <f t="shared" ref="D4:D12" si="0">C4-B4</f>
+        <v>1.7399999999999949</v>
+      </c>
+      <c r="E4" s="57">
+        <v>85.41</v>
+      </c>
+      <c r="G4" s="57">
+        <v>1</v>
+      </c>
+      <c r="H4" s="57">
+        <v>98.59</v>
+      </c>
+      <c r="I4" s="57">
+        <v>99.65</v>
+      </c>
+      <c r="J4" s="59">
+        <f t="shared" ref="J4:J12" si="1">I4-H4</f>
+        <v>1.0600000000000023</v>
+      </c>
+      <c r="K4" s="57">
+        <v>85.88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="57">
+        <v>2</v>
+      </c>
+      <c r="B5" s="57">
+        <v>97.78</v>
+      </c>
+      <c r="C5" s="57">
+        <v>98.96</v>
+      </c>
+      <c r="D5" s="59">
+        <f t="shared" si="0"/>
+        <v>1.1799999999999926</v>
+      </c>
+      <c r="E5" s="57">
+        <v>94.83</v>
+      </c>
+      <c r="G5" s="57">
+        <v>2</v>
+      </c>
+      <c r="H5" s="57">
+        <v>97.29</v>
+      </c>
+      <c r="I5" s="57">
+        <v>99.03</v>
+      </c>
+      <c r="J5" s="59">
+        <f t="shared" si="1"/>
+        <v>1.7399999999999949</v>
+      </c>
+      <c r="K5" s="57">
+        <v>94.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="57">
+        <v>3</v>
+      </c>
+      <c r="B6" s="57">
+        <v>95.84</v>
+      </c>
+      <c r="C6" s="57">
+        <v>99.12</v>
+      </c>
+      <c r="D6" s="59">
+        <f t="shared" si="0"/>
+        <v>3.2800000000000011</v>
+      </c>
+      <c r="E6" s="57">
+        <v>76.77</v>
+      </c>
+      <c r="G6" s="57">
+        <v>3</v>
+      </c>
+      <c r="H6" s="57">
+        <v>95.84</v>
+      </c>
+      <c r="I6" s="57">
+        <v>99.01</v>
+      </c>
+      <c r="J6" s="59">
+        <f t="shared" si="1"/>
+        <v>3.1700000000000017</v>
+      </c>
+      <c r="K6" s="57">
+        <v>76.88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="57">
+        <v>4</v>
+      </c>
+      <c r="B7" s="57">
+        <v>98.32</v>
+      </c>
+      <c r="C7" s="57">
+        <v>99.59</v>
+      </c>
+      <c r="D7" s="59">
+        <f t="shared" si="0"/>
+        <v>1.2700000000000102</v>
+      </c>
+      <c r="E7" s="57">
+        <v>94.22</v>
+      </c>
+      <c r="G7" s="57">
+        <v>4</v>
+      </c>
+      <c r="H7" s="57">
+        <v>98.37</v>
+      </c>
+      <c r="I7" s="57">
+        <v>99.39</v>
+      </c>
+      <c r="J7" s="59">
+        <f t="shared" si="1"/>
+        <v>1.019999999999996</v>
+      </c>
+      <c r="K7" s="57">
+        <v>94.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="57">
+        <v>5</v>
+      </c>
+      <c r="B8" s="57">
+        <v>98.25</v>
+      </c>
+      <c r="C8" s="57">
+        <v>99.54</v>
+      </c>
+      <c r="D8" s="59">
+        <f t="shared" si="0"/>
+        <v>1.2900000000000063</v>
+      </c>
+      <c r="E8" s="57">
+        <v>86.85</v>
+      </c>
+      <c r="G8" s="57">
+        <v>5</v>
+      </c>
+      <c r="H8" s="57">
+        <v>98.99</v>
+      </c>
+      <c r="I8" s="57">
+        <v>99.78</v>
+      </c>
+      <c r="J8" s="59">
+        <f t="shared" si="1"/>
+        <v>0.79000000000000625</v>
+      </c>
+      <c r="K8" s="57">
+        <v>85.85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="57">
+        <v>6</v>
+      </c>
+      <c r="B9" s="57">
+        <v>96.62</v>
+      </c>
+      <c r="C9" s="57">
+        <v>99.05</v>
+      </c>
+      <c r="D9" s="59">
+        <f t="shared" si="0"/>
+        <v>2.4299999999999926</v>
+      </c>
+      <c r="E9" s="57">
+        <v>96.39</v>
+      </c>
+      <c r="G9" s="57">
+        <v>6</v>
+      </c>
+      <c r="H9" s="57">
+        <v>95.72</v>
+      </c>
+      <c r="I9" s="57">
+        <v>98.64</v>
+      </c>
+      <c r="J9" s="59">
+        <f t="shared" si="1"/>
+        <v>2.9200000000000017</v>
+      </c>
+      <c r="K9" s="57">
+        <v>96.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="57">
+        <v>7</v>
+      </c>
+      <c r="B10" s="57">
+        <v>95.81</v>
+      </c>
+      <c r="C10" s="57">
+        <v>99.44</v>
+      </c>
+      <c r="D10" s="59">
+        <f t="shared" si="0"/>
+        <v>3.6299999999999955</v>
+      </c>
+      <c r="E10" s="57">
+        <v>94.27</v>
+      </c>
+      <c r="G10" s="57">
+        <v>7</v>
+      </c>
+      <c r="H10" s="57">
+        <v>94.74</v>
+      </c>
+      <c r="I10" s="57">
+        <v>99.03</v>
+      </c>
+      <c r="J10" s="59">
+        <f t="shared" si="1"/>
+        <v>4.2900000000000063</v>
+      </c>
+      <c r="K10" s="57">
+        <v>93.81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="57">
+        <v>8</v>
+      </c>
+      <c r="B11" s="57">
+        <v>90.75</v>
+      </c>
+      <c r="C11" s="57">
+        <v>98.55</v>
+      </c>
+      <c r="D11" s="59">
+        <f t="shared" si="0"/>
+        <v>7.7999999999999972</v>
+      </c>
+      <c r="E11" s="57">
+        <v>94.98</v>
+      </c>
+      <c r="G11" s="57">
+        <v>8</v>
+      </c>
+      <c r="H11" s="57">
+        <v>89.63</v>
+      </c>
+      <c r="I11" s="57">
+        <v>97.84</v>
+      </c>
+      <c r="J11" s="59">
+        <f t="shared" si="1"/>
+        <v>8.210000000000008</v>
+      </c>
+      <c r="K11" s="57">
+        <v>94.78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="57">
+        <v>9</v>
+      </c>
+      <c r="B12" s="57">
+        <v>95.55</v>
+      </c>
+      <c r="C12" s="57">
+        <v>99.68</v>
+      </c>
+      <c r="D12" s="59">
+        <f t="shared" si="0"/>
+        <v>4.1300000000000097</v>
+      </c>
+      <c r="E12" s="57">
+        <v>86.88</v>
+      </c>
+      <c r="G12" s="57">
+        <v>9</v>
+      </c>
+      <c r="H12" s="57">
+        <v>94.95</v>
+      </c>
+      <c r="I12" s="57">
+        <v>99.5</v>
+      </c>
+      <c r="J12" s="59">
+        <f t="shared" si="1"/>
+        <v>4.5499999999999972</v>
+      </c>
+      <c r="K12" s="57">
+        <v>86.79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="57">
+        <v>96.58</v>
+      </c>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="G13" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" s="57">
+        <v>96.34</v>
+      </c>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62">
+        <v>96.58</v>
+      </c>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="G14" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" s="62"/>
+      <c r="I14" s="57">
+        <v>96.34</v>
+      </c>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62">
+        <v>83.37</v>
+      </c>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="G15" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62">
+        <v>84.14</v>
+      </c>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="62"/>
+      <c r="C16" s="90">
+        <v>93.74</v>
+      </c>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="G16" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" s="62"/>
+      <c r="I16" s="90">
+        <v>93.85</v>
+      </c>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57">
+        <v>85.16</v>
+      </c>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="G17" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57">
+        <v>84.36</v>
+      </c>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="55"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" s="55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="55"/>
+      <c r="G19" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="I19" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="J19" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="57">
+        <v>0</v>
+      </c>
+      <c r="B20" s="57">
+        <v>98.92</v>
+      </c>
+      <c r="C20" s="57">
+        <v>99.88</v>
+      </c>
+      <c r="D20" s="59">
+        <f>C20-B20</f>
+        <v>0.95999999999999375</v>
+      </c>
+      <c r="E20" s="57">
+        <v>86.01</v>
+      </c>
+      <c r="G20" s="57">
+        <v>0</v>
+      </c>
+      <c r="H20" s="57">
+        <v>99.18</v>
+      </c>
+      <c r="I20" s="57">
+        <v>99.69</v>
+      </c>
+      <c r="J20" s="59">
+        <f>I20-H20</f>
+        <v>0.50999999999999091</v>
+      </c>
+      <c r="K20" s="57">
+        <v>86.76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="57">
+        <v>1</v>
+      </c>
+      <c r="B21" s="57">
+        <v>97.92</v>
+      </c>
+      <c r="C21" s="57">
+        <v>99.67</v>
+      </c>
+      <c r="D21" s="59">
+        <f t="shared" ref="D21:D29" si="2">C21-B21</f>
+        <v>1.75</v>
+      </c>
+      <c r="E21" s="57">
+        <v>84.84</v>
+      </c>
+      <c r="G21" s="57">
+        <v>1</v>
+      </c>
+      <c r="H21" s="57">
+        <v>98.59</v>
+      </c>
+      <c r="I21" s="57">
+        <v>99.65</v>
+      </c>
+      <c r="J21" s="59">
+        <f t="shared" ref="J21:J29" si="3">I21-H21</f>
+        <v>1.0600000000000023</v>
+      </c>
+      <c r="K21" s="57">
+        <v>85.43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="57">
+        <v>2</v>
+      </c>
+      <c r="B22" s="57">
+        <v>97.78</v>
+      </c>
+      <c r="C22" s="57">
+        <v>99.53</v>
+      </c>
+      <c r="D22" s="59">
+        <f t="shared" si="2"/>
+        <v>1.75</v>
+      </c>
+      <c r="E22" s="57">
+        <v>81.52</v>
+      </c>
+      <c r="G22" s="57">
+        <v>2</v>
+      </c>
+      <c r="H22" s="57">
+        <v>97.29</v>
+      </c>
+      <c r="I22" s="57">
+        <v>99.42</v>
+      </c>
+      <c r="J22" s="59">
+        <f t="shared" si="3"/>
+        <v>2.1299999999999955</v>
+      </c>
+      <c r="K22" s="57">
+        <v>82.81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="57">
+        <v>3</v>
+      </c>
+      <c r="B23" s="57">
+        <v>95.84</v>
+      </c>
+      <c r="C23" s="57">
+        <v>98.97</v>
+      </c>
+      <c r="D23" s="59">
+        <f t="shared" si="2"/>
+        <v>3.1299999999999955</v>
+      </c>
+      <c r="E23" s="57">
+        <v>79.66</v>
+      </c>
+      <c r="G23" s="57">
+        <v>3</v>
+      </c>
+      <c r="H23" s="57">
+        <v>95.84</v>
+      </c>
+      <c r="I23" s="57">
+        <v>98.81</v>
+      </c>
+      <c r="J23" s="59">
+        <f t="shared" si="3"/>
+        <v>2.9699999999999989</v>
+      </c>
+      <c r="K23" s="57">
+        <v>80.239999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="57">
+        <v>4</v>
+      </c>
+      <c r="B24" s="57">
+        <v>98.32</v>
+      </c>
+      <c r="C24" s="57">
+        <v>99.59</v>
+      </c>
+      <c r="D24" s="59">
+        <f t="shared" si="2"/>
+        <v>1.2700000000000102</v>
+      </c>
+      <c r="E24" s="57">
+        <v>93.95</v>
+      </c>
+      <c r="G24" s="57">
+        <v>4</v>
+      </c>
+      <c r="H24" s="57">
+        <v>98.37</v>
+      </c>
+      <c r="I24" s="57">
+        <v>99.39</v>
+      </c>
+      <c r="J24" s="59">
+        <f t="shared" si="3"/>
+        <v>1.019999999999996</v>
+      </c>
+      <c r="K24" s="57">
+        <v>93.86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="57">
+        <v>5</v>
+      </c>
+      <c r="B25" s="57">
+        <v>98.25</v>
+      </c>
+      <c r="C25" s="57">
+        <v>99.5</v>
+      </c>
+      <c r="D25" s="59">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+      <c r="E25" s="57">
+        <v>90.42</v>
+      </c>
+      <c r="G25" s="57">
+        <v>5</v>
+      </c>
+      <c r="H25" s="57">
+        <v>98.99</v>
+      </c>
+      <c r="I25" s="57">
+        <v>99.66</v>
+      </c>
+      <c r="J25" s="59">
+        <f t="shared" si="3"/>
+        <v>0.67000000000000171</v>
+      </c>
+      <c r="K25" s="57">
+        <v>89.99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="57">
+        <v>6</v>
+      </c>
+      <c r="B26" s="57">
+        <v>96.62</v>
+      </c>
+      <c r="C26" s="57">
+        <v>98.48</v>
+      </c>
+      <c r="D26" s="59">
+        <f t="shared" si="2"/>
+        <v>1.8599999999999994</v>
+      </c>
+      <c r="E26" s="57">
+        <v>96.64</v>
+      </c>
+      <c r="G26" s="57">
+        <v>6</v>
+      </c>
+      <c r="H26" s="57">
+        <v>95.72</v>
+      </c>
+      <c r="I26" s="57">
+        <v>97.49</v>
+      </c>
+      <c r="J26" s="59">
+        <f t="shared" si="3"/>
+        <v>1.769999999999996</v>
+      </c>
+      <c r="K26" s="57">
+        <v>96.32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="57">
+        <v>7</v>
+      </c>
+      <c r="B27" s="57">
+        <v>95.81</v>
+      </c>
+      <c r="C27" s="57">
+        <v>98.18</v>
+      </c>
+      <c r="D27" s="59">
+        <f t="shared" si="2"/>
+        <v>2.3700000000000045</v>
+      </c>
+      <c r="E27" s="58">
+        <v>95.92</v>
+      </c>
+      <c r="G27" s="57">
+        <v>7</v>
+      </c>
+      <c r="H27" s="57">
+        <v>94.74</v>
+      </c>
+      <c r="I27" s="57">
+        <v>98.34</v>
+      </c>
+      <c r="J27" s="59">
+        <f t="shared" si="3"/>
+        <v>3.6000000000000085</v>
+      </c>
+      <c r="K27" s="57">
+        <v>95.61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="57">
+        <v>8</v>
+      </c>
+      <c r="B28" s="57">
+        <v>90.75</v>
+      </c>
+      <c r="C28" s="57">
+        <v>96.55</v>
+      </c>
+      <c r="D28" s="59">
+        <f t="shared" si="2"/>
+        <v>5.7999999999999972</v>
+      </c>
+      <c r="E28" s="57">
+        <v>95.48</v>
+      </c>
+      <c r="G28" s="57">
+        <v>8</v>
+      </c>
+      <c r="H28" s="57">
+        <v>89.63</v>
+      </c>
+      <c r="I28" s="57">
+        <v>96.1</v>
+      </c>
+      <c r="J28" s="59">
+        <f t="shared" si="3"/>
+        <v>6.4699999999999989</v>
+      </c>
+      <c r="K28" s="57">
+        <v>95.26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="57">
+        <v>9</v>
+      </c>
+      <c r="B29" s="57">
+        <v>95.55</v>
+      </c>
+      <c r="C29" s="57">
+        <v>99.83</v>
+      </c>
+      <c r="D29" s="59">
+        <f t="shared" si="2"/>
+        <v>4.2800000000000011</v>
+      </c>
+      <c r="E29" s="57">
+        <v>71.86</v>
+      </c>
+      <c r="G29" s="57">
+        <v>9</v>
+      </c>
+      <c r="H29" s="57">
+        <v>94.95</v>
+      </c>
+      <c r="I29" s="57">
+        <v>98.71</v>
+      </c>
+      <c r="J29" s="59">
+        <f t="shared" si="3"/>
+        <v>3.7599999999999909</v>
+      </c>
+      <c r="K29" s="57">
+        <v>86.05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="57">
+        <v>96.58</v>
+      </c>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="G30" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="H30" s="57">
+        <v>96.34</v>
+      </c>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="62"/>
+      <c r="C31" s="57">
+        <v>96.58</v>
+      </c>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="G31" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="H31" s="62"/>
+      <c r="I31" s="57">
+        <v>96.33</v>
+      </c>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62">
+        <v>77.61</v>
+      </c>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="G32" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62">
+        <v>82.61</v>
+      </c>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="62"/>
+      <c r="C33" s="90">
+        <v>90.54</v>
+      </c>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="G33" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="H33" s="62"/>
+      <c r="I33" s="56">
+        <v>90.91</v>
+      </c>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57">
+        <v>83.84</v>
+      </c>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="G34" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57">
+        <v>84.6</v>
+      </c>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D7289A-AD87-4C65-A0E6-C1477866C64C}">
   <dimension ref="A1:K17"/>
   <sheetViews>
@@ -13978,7 +15076,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3013664-9411-427A-8FE1-5A7633C82FDC}">
   <dimension ref="A1:S35"/>
   <sheetViews>
@@ -15499,7 +16597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F00768-9EA9-4BD5-9CDE-70FEDA72B588}">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -15767,7 +16865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04BCCE8D-309F-4214-9B06-9B172F4F7768}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -15897,7 +16995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C066518F-A604-491F-8ED5-258FF25079BB}">
   <dimension ref="A1:H35"/>
   <sheetViews>
@@ -16621,7 +17719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7C8AE8-68EA-4CD1-89FD-4632DB72F050}">
   <dimension ref="A1:U39"/>
   <sheetViews>
@@ -18195,7 +19293,7 @@
       <c r="F2" s="162"/>
       <c r="G2" s="162"/>
       <c r="H2" s="162"/>
-      <c r="I2" s="163"/>
+      <c r="I2" s="167"/>
       <c r="J2" s="162" t="s">
         <v>90</v>
       </c>
@@ -18662,11 +19760,11 @@
       <c r="G15" s="51"/>
       <c r="H15" s="51"/>
       <c r="I15" s="51"/>
-      <c r="J15" s="164" t="s">
+      <c r="J15" s="163" t="s">
         <v>121</v>
       </c>
-      <c r="K15" s="165"/>
-      <c r="L15" s="166"/>
+      <c r="K15" s="164"/>
+      <c r="L15" s="165"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="55"/>
@@ -18817,7 +19915,7 @@
       <c r="F23" s="162"/>
       <c r="G23" s="162"/>
       <c r="H23" s="162"/>
-      <c r="I23" s="163"/>
+      <c r="I23" s="167"/>
       <c r="J23" s="162" t="s">
         <v>90</v>
       </c>
@@ -19292,11 +20390,11 @@
       <c r="G36" s="51"/>
       <c r="H36" s="51"/>
       <c r="I36" s="51"/>
-      <c r="J36" s="164" t="s">
+      <c r="J36" s="163" t="s">
         <v>121</v>
       </c>
-      <c r="K36" s="165"/>
-      <c r="L36" s="166"/>
+      <c r="K36" s="164"/>
+      <c r="L36" s="165"/>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A37" s="55"/>
@@ -19661,7 +20759,7 @@
       <c r="F50" s="162"/>
       <c r="G50" s="162"/>
       <c r="H50" s="162"/>
-      <c r="I50" s="163"/>
+      <c r="I50" s="167"/>
       <c r="J50" s="162" t="s">
         <v>128</v>
       </c>
@@ -20486,16 +21584,16 @@
       <c r="G63" s="51"/>
       <c r="H63" s="51"/>
       <c r="I63" s="51"/>
-      <c r="J63" s="164" t="s">
+      <c r="J63" s="163" t="s">
         <v>121</v>
       </c>
-      <c r="K63" s="165"/>
-      <c r="L63" s="166"/>
-      <c r="M63" s="164" t="s">
+      <c r="K63" s="164"/>
+      <c r="L63" s="165"/>
+      <c r="M63" s="163" t="s">
         <v>121</v>
       </c>
-      <c r="N63" s="165"/>
-      <c r="O63" s="166"/>
+      <c r="N63" s="164"/>
+      <c r="O63" s="165"/>
       <c r="P63" s="51"/>
       <c r="Q63" s="51"/>
       <c r="R63" s="51"/>
@@ -20803,15 +21901,15 @@
       <c r="AF69" s="53"/>
     </row>
     <row r="70" spans="1:32" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A70" s="167" t="s">
+      <c r="A70" s="166" t="s">
         <v>129</v>
       </c>
-      <c r="B70" s="167"/>
-      <c r="C70" s="167"/>
-      <c r="D70" s="167"/>
-      <c r="E70" s="167"/>
-      <c r="F70" s="167"/>
-      <c r="G70" s="167"/>
+      <c r="B70" s="166"/>
+      <c r="C70" s="166"/>
+      <c r="D70" s="166"/>
+      <c r="E70" s="166"/>
+      <c r="F70" s="166"/>
+      <c r="G70" s="166"/>
       <c r="H70" s="55"/>
       <c r="I70" s="55"/>
       <c r="J70" s="55"/>
@@ -35537,6 +36635,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="J63:L63"/>
+    <mergeCell ref="M63:O63"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J36:L36"/>
     <mergeCell ref="B80:C80"/>
     <mergeCell ref="D80:E80"/>
     <mergeCell ref="B44:C44"/>
@@ -35547,16 +36655,6 @@
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="D76:E76"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="J63:L63"/>
-    <mergeCell ref="M63:O63"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="J36:L36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35566,7 +36664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE8D7233-46EF-473C-979A-BA5549BBC72F}">
   <dimension ref="A1:O455"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J53" workbookViewId="0">
+    <sheetView topLeftCell="J53" workbookViewId="0">
       <selection activeCell="L71" sqref="L71"/>
     </sheetView>
   </sheetViews>
@@ -37619,11 +38717,11 @@
       </c>
       <c r="K65" s="172"/>
       <c r="L65" s="173"/>
-      <c r="M65" s="164" t="s">
+      <c r="M65" s="163" t="s">
         <v>121</v>
       </c>
-      <c r="N65" s="165"/>
-      <c r="O65" s="166"/>
+      <c r="N65" s="164"/>
+      <c r="O65" s="165"/>
     </row>
     <row r="66" spans="1:15" s="135" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="115"/>
@@ -44528,6 +45626,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="M65:O65"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
     <mergeCell ref="B84:C84"/>
     <mergeCell ref="D84:E84"/>
     <mergeCell ref="A74:G74"/>
@@ -44542,12 +45646,6 @@
     <mergeCell ref="B52:I52"/>
     <mergeCell ref="J52:L52"/>
     <mergeCell ref="J65:L65"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="M65:O65"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -45943,6 +47041,2492 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{365DEAEC-D2F2-454C-A334-45220C3F8328}">
+  <dimension ref="A1:S57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="135" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="178" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="178" t="s">
+        <v>164</v>
+      </c>
+      <c r="K1" s="178" t="s">
+        <v>162</v>
+      </c>
+      <c r="P1" s="178" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="179" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="180" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="181"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="179" t="s">
+        <v>161</v>
+      </c>
+      <c r="H2" s="179"/>
+      <c r="I2" s="179"/>
+      <c r="K2" s="179" t="s">
+        <v>159</v>
+      </c>
+      <c r="L2" s="179" t="s">
+        <v>160</v>
+      </c>
+      <c r="M2" s="135"/>
+      <c r="O2" s="179"/>
+      <c r="P2" s="179" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q2" s="179" t="s">
+        <v>161</v>
+      </c>
+      <c r="R2" s="179"/>
+      <c r="S2" s="179"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="182" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="182" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="182" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="182" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="179"/>
+      <c r="F3" s="182" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="182" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="182" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="182" t="s">
+        <v>97</v>
+      </c>
+      <c r="K3" s="182" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" s="182" t="s">
+        <v>95</v>
+      </c>
+      <c r="M3" s="182" t="s">
+        <v>96</v>
+      </c>
+      <c r="N3" s="182" t="s">
+        <v>97</v>
+      </c>
+      <c r="O3" s="179"/>
+      <c r="P3" s="182" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q3" s="182" t="s">
+        <v>95</v>
+      </c>
+      <c r="R3" s="182" t="s">
+        <v>96</v>
+      </c>
+      <c r="S3" s="182" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="183">
+        <v>0</v>
+      </c>
+      <c r="B4" s="183">
+        <v>47.14</v>
+      </c>
+      <c r="C4" s="183">
+        <v>76.73</v>
+      </c>
+      <c r="D4" s="183">
+        <v>32.340000000000003</v>
+      </c>
+      <c r="E4" s="179"/>
+      <c r="F4" s="183">
+        <v>0</v>
+      </c>
+      <c r="G4" s="183">
+        <v>99.39</v>
+      </c>
+      <c r="H4" s="183">
+        <v>99.69</v>
+      </c>
+      <c r="I4" s="183">
+        <v>97.58</v>
+      </c>
+      <c r="K4" s="183">
+        <v>0</v>
+      </c>
+      <c r="L4" s="183">
+        <v>47.14</v>
+      </c>
+      <c r="M4" s="183">
+        <v>76.73</v>
+      </c>
+      <c r="N4" s="183">
+        <v>32.340000000000003</v>
+      </c>
+      <c r="O4" s="135"/>
+      <c r="P4" s="183">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="183">
+        <v>99.39</v>
+      </c>
+      <c r="R4" s="183">
+        <v>99.69</v>
+      </c>
+      <c r="S4" s="183">
+        <v>97.58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="183">
+        <v>1</v>
+      </c>
+      <c r="B5" s="183">
+        <v>4.32</v>
+      </c>
+      <c r="C5" s="183">
+        <v>83.17</v>
+      </c>
+      <c r="D5" s="183">
+        <v>35.840000000000003</v>
+      </c>
+      <c r="E5" s="179"/>
+      <c r="F5" s="183">
+        <v>1</v>
+      </c>
+      <c r="G5" s="183">
+        <v>98.41</v>
+      </c>
+      <c r="H5" s="183">
+        <v>100</v>
+      </c>
+      <c r="I5" s="183">
+        <v>95.33</v>
+      </c>
+      <c r="K5" s="183">
+        <v>1</v>
+      </c>
+      <c r="L5" s="183">
+        <v>4.32</v>
+      </c>
+      <c r="M5" s="183">
+        <v>83.17</v>
+      </c>
+      <c r="N5" s="183">
+        <v>35.840000000000003</v>
+      </c>
+      <c r="O5" s="135"/>
+      <c r="P5" s="183">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="183">
+        <v>98.41</v>
+      </c>
+      <c r="R5" s="183">
+        <v>100</v>
+      </c>
+      <c r="S5" s="183">
+        <v>95.33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="183">
+        <v>2</v>
+      </c>
+      <c r="B6" s="183">
+        <v>54.65</v>
+      </c>
+      <c r="C6" s="183">
+        <v>73.349999999999994</v>
+      </c>
+      <c r="D6" s="183">
+        <v>29.5</v>
+      </c>
+      <c r="E6" s="179"/>
+      <c r="F6" s="183">
+        <v>2</v>
+      </c>
+      <c r="G6" s="183">
+        <v>97.87</v>
+      </c>
+      <c r="H6" s="183">
+        <v>99.13</v>
+      </c>
+      <c r="I6" s="183">
+        <v>94.95</v>
+      </c>
+      <c r="K6" s="183">
+        <v>2</v>
+      </c>
+      <c r="L6" s="183">
+        <v>54.65</v>
+      </c>
+      <c r="M6" s="183">
+        <v>73.349999999999994</v>
+      </c>
+      <c r="N6" s="183">
+        <v>29.5</v>
+      </c>
+      <c r="O6" s="135"/>
+      <c r="P6" s="183">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="183">
+        <v>97.87</v>
+      </c>
+      <c r="R6" s="183">
+        <v>99.13</v>
+      </c>
+      <c r="S6" s="183">
+        <v>94.95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="183">
+        <v>3</v>
+      </c>
+      <c r="B7" s="183">
+        <v>32.869999999999997</v>
+      </c>
+      <c r="C7" s="183">
+        <v>75.150000000000006</v>
+      </c>
+      <c r="D7" s="183">
+        <v>28.5</v>
+      </c>
+      <c r="E7" s="179"/>
+      <c r="F7" s="183">
+        <v>3</v>
+      </c>
+      <c r="G7" s="183">
+        <v>97.72</v>
+      </c>
+      <c r="H7" s="183">
+        <v>99.8</v>
+      </c>
+      <c r="I7" s="183">
+        <v>92.91</v>
+      </c>
+      <c r="K7" s="183">
+        <v>3</v>
+      </c>
+      <c r="L7" s="183">
+        <v>32.869999999999997</v>
+      </c>
+      <c r="M7" s="183">
+        <v>79.5</v>
+      </c>
+      <c r="N7" s="183">
+        <v>28</v>
+      </c>
+      <c r="O7" s="135"/>
+      <c r="P7" s="183">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="183">
+        <v>97.72</v>
+      </c>
+      <c r="R7" s="183">
+        <v>100</v>
+      </c>
+      <c r="S7" s="183">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="183">
+        <v>4</v>
+      </c>
+      <c r="B8" s="183">
+        <v>21.89</v>
+      </c>
+      <c r="C8" s="183">
+        <v>69.14</v>
+      </c>
+      <c r="D8" s="183">
+        <v>33.14</v>
+      </c>
+      <c r="E8" s="179"/>
+      <c r="F8" s="183">
+        <v>4</v>
+      </c>
+      <c r="G8" s="183">
+        <v>98.27</v>
+      </c>
+      <c r="H8" s="183">
+        <v>99.8</v>
+      </c>
+      <c r="I8" s="183">
+        <v>96.63</v>
+      </c>
+      <c r="K8" s="183">
+        <v>4</v>
+      </c>
+      <c r="L8" s="183">
+        <v>21.89</v>
+      </c>
+      <c r="M8" s="183">
+        <v>69.760000000000005</v>
+      </c>
+      <c r="N8" s="183">
+        <v>33.159999999999997</v>
+      </c>
+      <c r="O8" s="135"/>
+      <c r="P8" s="183">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="183">
+        <v>98.27</v>
+      </c>
+      <c r="R8" s="183">
+        <v>99.69</v>
+      </c>
+      <c r="S8" s="183">
+        <v>96.57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="183">
+        <v>5</v>
+      </c>
+      <c r="B9" s="183">
+        <v>37.89</v>
+      </c>
+      <c r="C9" s="183">
+        <v>62.89</v>
+      </c>
+      <c r="D9" s="183">
+        <v>31.01</v>
+      </c>
+      <c r="E9" s="179"/>
+      <c r="F9" s="183">
+        <v>5</v>
+      </c>
+      <c r="G9" s="183">
+        <v>97.09</v>
+      </c>
+      <c r="H9" s="183">
+        <v>98.88</v>
+      </c>
+      <c r="I9" s="183">
+        <v>97.5</v>
+      </c>
+      <c r="K9" s="183">
+        <v>5</v>
+      </c>
+      <c r="L9" s="183">
+        <v>37.89</v>
+      </c>
+      <c r="M9" s="183">
+        <v>63</v>
+      </c>
+      <c r="N9" s="183">
+        <v>31.01</v>
+      </c>
+      <c r="O9" s="135"/>
+      <c r="P9" s="183">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="183">
+        <v>97.09</v>
+      </c>
+      <c r="R9" s="185">
+        <v>98.88</v>
+      </c>
+      <c r="S9" s="185">
+        <v>97.49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="183">
+        <v>6</v>
+      </c>
+      <c r="B10" s="183">
+        <v>44.47</v>
+      </c>
+      <c r="C10" s="183">
+        <v>79.33</v>
+      </c>
+      <c r="D10" s="183">
+        <v>30.1</v>
+      </c>
+      <c r="E10" s="179"/>
+      <c r="F10" s="183">
+        <v>6</v>
+      </c>
+      <c r="G10" s="183">
+        <v>98.01</v>
+      </c>
+      <c r="H10" s="183">
+        <v>99.48</v>
+      </c>
+      <c r="I10" s="183">
+        <v>96.57</v>
+      </c>
+      <c r="K10" s="183">
+        <v>6</v>
+      </c>
+      <c r="L10" s="183">
+        <v>44.47</v>
+      </c>
+      <c r="M10" s="183">
+        <v>71.19</v>
+      </c>
+      <c r="N10" s="183">
+        <v>30.26</v>
+      </c>
+      <c r="O10" s="135"/>
+      <c r="P10" s="183">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="183">
+        <v>98.01</v>
+      </c>
+      <c r="R10" s="183">
+        <v>98.96</v>
+      </c>
+      <c r="S10" s="183">
+        <v>97.36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="183">
+        <v>7</v>
+      </c>
+      <c r="B11" s="183">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="C11" s="183">
+        <v>43.29</v>
+      </c>
+      <c r="D11" s="183">
+        <v>32.33</v>
+      </c>
+      <c r="E11" s="179"/>
+      <c r="F11" s="183">
+        <v>7</v>
+      </c>
+      <c r="G11" s="183">
+        <v>96.11</v>
+      </c>
+      <c r="H11" s="183">
+        <v>99.12</v>
+      </c>
+      <c r="I11" s="183">
+        <v>97.57</v>
+      </c>
+      <c r="K11" s="183">
+        <v>7</v>
+      </c>
+      <c r="L11" s="183">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="M11" s="183">
+        <v>35.99</v>
+      </c>
+      <c r="N11" s="183">
+        <v>31.36</v>
+      </c>
+      <c r="O11" s="135"/>
+      <c r="P11" s="183">
+        <v>7</v>
+      </c>
+      <c r="Q11" s="183">
+        <v>96.11</v>
+      </c>
+      <c r="R11" s="183">
+        <v>98.74</v>
+      </c>
+      <c r="S11" s="183">
+        <v>97.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="183">
+        <v>8</v>
+      </c>
+      <c r="B12" s="183">
+        <v>29.06</v>
+      </c>
+      <c r="C12" s="183">
+        <v>34.090000000000003</v>
+      </c>
+      <c r="D12" s="183">
+        <v>29.48</v>
+      </c>
+      <c r="E12" s="179"/>
+      <c r="F12" s="183">
+        <v>8</v>
+      </c>
+      <c r="G12" s="183">
+        <v>97.53</v>
+      </c>
+      <c r="H12" s="183">
+        <v>98.05</v>
+      </c>
+      <c r="I12" s="183">
+        <v>97.57</v>
+      </c>
+      <c r="K12" s="183">
+        <v>8</v>
+      </c>
+      <c r="L12" s="183">
+        <v>29.06</v>
+      </c>
+      <c r="M12" s="183">
+        <v>39.630000000000003</v>
+      </c>
+      <c r="N12" s="183">
+        <v>29.05</v>
+      </c>
+      <c r="O12" s="135"/>
+      <c r="P12" s="183">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="183">
+        <v>97.53</v>
+      </c>
+      <c r="R12" s="183">
+        <v>98.46</v>
+      </c>
+      <c r="S12" s="183">
+        <v>97.58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="183">
+        <v>9</v>
+      </c>
+      <c r="B13" s="183">
+        <v>22.89</v>
+      </c>
+      <c r="C13" s="183">
+        <v>64.72</v>
+      </c>
+      <c r="D13" s="183">
+        <v>29.43</v>
+      </c>
+      <c r="E13" s="179"/>
+      <c r="F13" s="183">
+        <v>9</v>
+      </c>
+      <c r="G13" s="183">
+        <v>98.21</v>
+      </c>
+      <c r="H13" s="183">
+        <v>99.5</v>
+      </c>
+      <c r="I13" s="183">
+        <v>92.91</v>
+      </c>
+      <c r="K13" s="183">
+        <v>9</v>
+      </c>
+      <c r="L13" s="183">
+        <v>22.89</v>
+      </c>
+      <c r="M13" s="183">
+        <v>57.38</v>
+      </c>
+      <c r="N13" s="183">
+        <v>28.51</v>
+      </c>
+      <c r="O13" s="135"/>
+      <c r="P13" s="183">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="183">
+        <v>98.21</v>
+      </c>
+      <c r="R13" s="183">
+        <v>99.7</v>
+      </c>
+      <c r="S13" s="183">
+        <v>92.24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="183" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="183">
+        <v>29.92</v>
+      </c>
+      <c r="C14" s="183"/>
+      <c r="D14" s="183"/>
+      <c r="E14" s="179"/>
+      <c r="F14" s="183" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="183">
+        <v>97.87</v>
+      </c>
+      <c r="H14" s="183"/>
+      <c r="I14" s="183"/>
+      <c r="K14" s="183" t="s">
+        <v>97</v>
+      </c>
+      <c r="L14" s="183">
+        <v>29.92</v>
+      </c>
+      <c r="M14" s="183"/>
+      <c r="N14" s="183">
+        <v>29.92</v>
+      </c>
+      <c r="O14" s="179"/>
+      <c r="P14" s="183" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q14" s="183">
+        <v>97.87</v>
+      </c>
+      <c r="R14" s="183"/>
+      <c r="S14" s="183"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="183" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="183"/>
+      <c r="C15" s="183"/>
+      <c r="D15" s="183">
+        <v>29.92</v>
+      </c>
+      <c r="E15" s="179"/>
+      <c r="F15" s="183" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="183"/>
+      <c r="H15" s="183"/>
+      <c r="I15" s="183">
+        <v>97.87</v>
+      </c>
+      <c r="K15" s="183" t="s">
+        <v>109</v>
+      </c>
+      <c r="L15" s="183"/>
+      <c r="M15" s="183"/>
+      <c r="N15" s="183">
+        <v>29.91</v>
+      </c>
+      <c r="O15" s="179"/>
+      <c r="P15" s="183" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q15" s="183"/>
+      <c r="R15" s="183"/>
+      <c r="S15" s="183">
+        <v>97.86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="183" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="183"/>
+      <c r="C16" s="183"/>
+      <c r="D16" s="183">
+        <v>38.15</v>
+      </c>
+      <c r="E16" s="179"/>
+      <c r="F16" s="189" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" s="190"/>
+      <c r="H16" s="183"/>
+      <c r="I16" s="183">
+        <v>93.59</v>
+      </c>
+      <c r="K16" s="183" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" s="183"/>
+      <c r="M16" s="183"/>
+      <c r="N16" s="183">
+        <v>37.26</v>
+      </c>
+      <c r="O16" s="179"/>
+      <c r="P16" s="183" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="183"/>
+      <c r="S16" s="183">
+        <v>93.23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="183" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="183"/>
+      <c r="C17" s="183"/>
+      <c r="D17" s="183">
+        <v>33.51</v>
+      </c>
+      <c r="E17" s="179"/>
+      <c r="F17" s="183" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" s="183"/>
+      <c r="H17" s="183"/>
+      <c r="I17" s="182">
+        <v>97.43</v>
+      </c>
+      <c r="K17" s="183" t="s">
+        <v>111</v>
+      </c>
+      <c r="L17" s="183"/>
+      <c r="M17" s="183"/>
+      <c r="N17" s="183">
+        <v>33.03</v>
+      </c>
+      <c r="O17" s="179"/>
+      <c r="P17" s="183" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q17" s="183"/>
+      <c r="R17" s="183"/>
+      <c r="S17" s="182">
+        <v>97.41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="183" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="183"/>
+      <c r="C18" s="182"/>
+      <c r="D18" s="182">
+        <v>48.7</v>
+      </c>
+      <c r="E18" s="179"/>
+      <c r="F18" s="183" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" s="183"/>
+      <c r="H18" s="183"/>
+      <c r="I18" s="183">
+        <v>95.21</v>
+      </c>
+      <c r="K18" s="183" t="s">
+        <v>112</v>
+      </c>
+      <c r="L18" s="183"/>
+      <c r="M18" s="182"/>
+      <c r="N18" s="182">
+        <v>49.19</v>
+      </c>
+      <c r="O18" s="179"/>
+      <c r="P18" s="183" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q18" s="183"/>
+      <c r="R18" s="183"/>
+      <c r="S18" s="183">
+        <v>95.36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" s="136" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="191"/>
+      <c r="B19" s="191"/>
+      <c r="C19" s="192"/>
+      <c r="D19" s="192"/>
+      <c r="E19" s="193"/>
+      <c r="F19" s="193"/>
+      <c r="G19" s="193"/>
+      <c r="H19" s="193"/>
+      <c r="I19" s="194"/>
+      <c r="K19" s="191"/>
+      <c r="L19" s="191"/>
+      <c r="M19" s="192"/>
+      <c r="N19" s="192"/>
+      <c r="O19" s="193"/>
+      <c r="P19" s="193"/>
+      <c r="Q19" s="193"/>
+      <c r="R19" s="193"/>
+      <c r="S19" s="194"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="178" t="s">
+        <v>164</v>
+      </c>
+      <c r="F20" s="178" t="s">
+        <v>164</v>
+      </c>
+      <c r="K20" s="178" t="s">
+        <v>162</v>
+      </c>
+      <c r="P20" s="178" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="179" t="s">
+        <v>163</v>
+      </c>
+      <c r="B21" s="180" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" s="181"/>
+      <c r="D21" s="179"/>
+      <c r="E21" s="179"/>
+      <c r="F21" s="179" t="s">
+        <v>163</v>
+      </c>
+      <c r="G21" s="179" t="s">
+        <v>161</v>
+      </c>
+      <c r="H21" s="179"/>
+      <c r="I21" s="179"/>
+      <c r="K21" s="179" t="s">
+        <v>163</v>
+      </c>
+      <c r="L21" s="180" t="s">
+        <v>160</v>
+      </c>
+      <c r="M21" s="181"/>
+      <c r="N21" s="178"/>
+      <c r="O21" s="179"/>
+      <c r="P21" s="179" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q21" s="179" t="s">
+        <v>161</v>
+      </c>
+      <c r="R21" s="179"/>
+      <c r="S21" s="179"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="182" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="182" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="182" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="182" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="179"/>
+      <c r="F22" s="182" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="182" t="s">
+        <v>95</v>
+      </c>
+      <c r="H22" s="182" t="s">
+        <v>96</v>
+      </c>
+      <c r="I22" s="182" t="s">
+        <v>97</v>
+      </c>
+      <c r="K22" s="182" t="s">
+        <v>94</v>
+      </c>
+      <c r="L22" s="182" t="s">
+        <v>95</v>
+      </c>
+      <c r="M22" s="182" t="s">
+        <v>96</v>
+      </c>
+      <c r="N22" s="182" t="s">
+        <v>97</v>
+      </c>
+      <c r="O22" s="179"/>
+      <c r="P22" s="182" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q22" s="182" t="s">
+        <v>95</v>
+      </c>
+      <c r="R22" s="182" t="s">
+        <v>96</v>
+      </c>
+      <c r="S22" s="182" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="183">
+        <v>0</v>
+      </c>
+      <c r="B23" s="183">
+        <v>1.22</v>
+      </c>
+      <c r="C23" s="183">
+        <v>38.979999999999997</v>
+      </c>
+      <c r="D23" s="183">
+        <v>6.78</v>
+      </c>
+      <c r="E23" s="135"/>
+      <c r="F23" s="183">
+        <v>0</v>
+      </c>
+      <c r="G23" s="183">
+        <v>99.39</v>
+      </c>
+      <c r="H23" s="183">
+        <v>100</v>
+      </c>
+      <c r="I23" s="183">
+        <v>90.67</v>
+      </c>
+      <c r="K23" s="183">
+        <v>0</v>
+      </c>
+      <c r="L23" s="183">
+        <v>1.22</v>
+      </c>
+      <c r="M23" s="183">
+        <v>32.549999999999997</v>
+      </c>
+      <c r="N23" s="183">
+        <v>6.21</v>
+      </c>
+      <c r="O23" s="135"/>
+      <c r="P23" s="183">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="183">
+        <v>99.39</v>
+      </c>
+      <c r="R23" s="183">
+        <v>100</v>
+      </c>
+      <c r="S23" s="183">
+        <v>93.97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="183">
+        <v>1</v>
+      </c>
+      <c r="B24" s="183">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C24" s="183">
+        <v>9.16</v>
+      </c>
+      <c r="D24" s="183">
+        <v>4.09</v>
+      </c>
+      <c r="E24" s="135"/>
+      <c r="F24" s="183">
+        <v>1</v>
+      </c>
+      <c r="G24" s="183">
+        <v>98.41</v>
+      </c>
+      <c r="H24" s="183">
+        <v>100</v>
+      </c>
+      <c r="I24" s="183">
+        <v>94.14</v>
+      </c>
+      <c r="K24" s="183">
+        <v>1</v>
+      </c>
+      <c r="L24" s="183">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="M24" s="183">
+        <v>9.16</v>
+      </c>
+      <c r="N24" s="183">
+        <v>4.08</v>
+      </c>
+      <c r="O24" s="135"/>
+      <c r="P24" s="183">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="183">
+        <v>98.41</v>
+      </c>
+      <c r="R24" s="183">
+        <v>100</v>
+      </c>
+      <c r="S24" s="183">
+        <v>94.04</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="183">
+        <v>2</v>
+      </c>
+      <c r="B25" s="183">
+        <v>9.67</v>
+      </c>
+      <c r="C25" s="183">
+        <v>45.06</v>
+      </c>
+      <c r="D25" s="183">
+        <v>6.78</v>
+      </c>
+      <c r="E25" s="135"/>
+      <c r="F25" s="183">
+        <v>2</v>
+      </c>
+      <c r="G25" s="183">
+        <v>97.87</v>
+      </c>
+      <c r="H25" s="183">
+        <v>99.9</v>
+      </c>
+      <c r="I25" s="183">
+        <v>84.68</v>
+      </c>
+      <c r="K25" s="183">
+        <v>2</v>
+      </c>
+      <c r="L25" s="183">
+        <v>9.67</v>
+      </c>
+      <c r="M25" s="183">
+        <v>35.85</v>
+      </c>
+      <c r="N25" s="183">
+        <v>5.96</v>
+      </c>
+      <c r="O25" s="135"/>
+      <c r="P25" s="183">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="183">
+        <v>97.87</v>
+      </c>
+      <c r="R25" s="183">
+        <v>99.81</v>
+      </c>
+      <c r="S25" s="183">
+        <v>91.27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="183">
+        <v>3</v>
+      </c>
+      <c r="B26" s="183">
+        <v>2.38</v>
+      </c>
+      <c r="C26" s="183">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="D26" s="183">
+        <v>4.66</v>
+      </c>
+      <c r="E26" s="135"/>
+      <c r="F26" s="183">
+        <v>3</v>
+      </c>
+      <c r="G26" s="183">
+        <v>97.72</v>
+      </c>
+      <c r="H26" s="183">
+        <v>100</v>
+      </c>
+      <c r="I26" s="183">
+        <v>86.52</v>
+      </c>
+      <c r="K26" s="183">
+        <v>3</v>
+      </c>
+      <c r="L26" s="183">
+        <v>2.38</v>
+      </c>
+      <c r="M26" s="183">
+        <v>15.84</v>
+      </c>
+      <c r="N26" s="183">
+        <v>4.51</v>
+      </c>
+      <c r="O26" s="135"/>
+      <c r="P26" s="183">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="183">
+        <v>97.72</v>
+      </c>
+      <c r="R26" s="183">
+        <v>99.9</v>
+      </c>
+      <c r="S26" s="183">
+        <v>94.68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="183">
+        <v>4</v>
+      </c>
+      <c r="B27" s="183">
+        <v>2.75</v>
+      </c>
+      <c r="C27" s="183">
+        <v>5.5</v>
+      </c>
+      <c r="D27" s="183">
+        <v>3.72</v>
+      </c>
+      <c r="E27" s="135"/>
+      <c r="F27" s="183">
+        <v>4</v>
+      </c>
+      <c r="G27" s="183">
+        <v>98.27</v>
+      </c>
+      <c r="H27" s="183">
+        <v>99.29</v>
+      </c>
+      <c r="I27" s="183">
+        <v>97.44</v>
+      </c>
+      <c r="K27" s="183">
+        <v>4</v>
+      </c>
+      <c r="L27" s="183">
+        <v>2.75</v>
+      </c>
+      <c r="M27" s="183">
+        <v>5.5</v>
+      </c>
+      <c r="N27" s="183">
+        <v>3.72</v>
+      </c>
+      <c r="O27" s="135"/>
+      <c r="P27" s="183">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="183">
+        <v>98.27</v>
+      </c>
+      <c r="R27" s="183">
+        <v>99.28</v>
+      </c>
+      <c r="S27" s="183">
+        <v>97.44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="183">
+        <v>5</v>
+      </c>
+      <c r="B28" s="183">
+        <v>4.26</v>
+      </c>
+      <c r="C28" s="183">
+        <v>24.66</v>
+      </c>
+      <c r="D28" s="183">
+        <v>5.23</v>
+      </c>
+      <c r="E28" s="135"/>
+      <c r="F28" s="183">
+        <v>5</v>
+      </c>
+      <c r="G28" s="183">
+        <v>97.09</v>
+      </c>
+      <c r="H28" s="188">
+        <v>99.66</v>
+      </c>
+      <c r="I28" s="188">
+        <v>94.27</v>
+      </c>
+      <c r="K28" s="183">
+        <v>5</v>
+      </c>
+      <c r="L28" s="183">
+        <v>4.26</v>
+      </c>
+      <c r="M28" s="183">
+        <v>24.66</v>
+      </c>
+      <c r="N28" s="183">
+        <v>5.23</v>
+      </c>
+      <c r="O28" s="135"/>
+      <c r="P28" s="183">
+        <v>5</v>
+      </c>
+      <c r="Q28" s="183">
+        <v>97.09</v>
+      </c>
+      <c r="R28" s="188">
+        <v>99.66</v>
+      </c>
+      <c r="S28" s="188">
+        <v>94.27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" s="183">
+        <v>6</v>
+      </c>
+      <c r="B29" s="183">
+        <v>7.93</v>
+      </c>
+      <c r="C29" s="183">
+        <v>23.8</v>
+      </c>
+      <c r="D29" s="183">
+        <v>4.82</v>
+      </c>
+      <c r="E29" s="135"/>
+      <c r="F29" s="183">
+        <v>6</v>
+      </c>
+      <c r="G29" s="183">
+        <v>98.01</v>
+      </c>
+      <c r="H29" s="183">
+        <v>99.9</v>
+      </c>
+      <c r="I29" s="183">
+        <v>94.63</v>
+      </c>
+      <c r="K29" s="183">
+        <v>6</v>
+      </c>
+      <c r="L29" s="183">
+        <v>7.93</v>
+      </c>
+      <c r="M29" s="183">
+        <v>20.98</v>
+      </c>
+      <c r="N29" s="183">
+        <v>4.57</v>
+      </c>
+      <c r="O29" s="135"/>
+      <c r="P29" s="183">
+        <v>6</v>
+      </c>
+      <c r="Q29" s="183">
+        <v>98.01</v>
+      </c>
+      <c r="R29" s="183">
+        <v>99.69</v>
+      </c>
+      <c r="S29" s="183">
+        <v>95.64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="183">
+        <v>7</v>
+      </c>
+      <c r="B30" s="183">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="C30" s="183">
+        <v>4.38</v>
+      </c>
+      <c r="D30" s="183">
+        <v>3.61</v>
+      </c>
+      <c r="E30" s="135"/>
+      <c r="F30" s="183">
+        <v>7</v>
+      </c>
+      <c r="G30" s="183">
+        <v>96.11</v>
+      </c>
+      <c r="H30" s="183">
+        <v>98.83</v>
+      </c>
+      <c r="I30" s="183">
+        <v>96.84</v>
+      </c>
+      <c r="K30" s="183">
+        <v>7</v>
+      </c>
+      <c r="L30" s="183">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="M30" s="183">
+        <v>6.61</v>
+      </c>
+      <c r="N30" s="183">
+        <v>3.83</v>
+      </c>
+      <c r="O30" s="135"/>
+      <c r="P30" s="183">
+        <v>7</v>
+      </c>
+      <c r="Q30" s="183">
+        <v>96.11</v>
+      </c>
+      <c r="R30" s="183">
+        <v>98.25</v>
+      </c>
+      <c r="S30" s="183">
+        <v>95.87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="183">
+        <v>8</v>
+      </c>
+      <c r="B31" s="183">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="C31" s="183">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="D31" s="183">
+        <v>3.53</v>
+      </c>
+      <c r="E31" s="135"/>
+      <c r="F31" s="183">
+        <v>8</v>
+      </c>
+      <c r="G31" s="183">
+        <v>97.53</v>
+      </c>
+      <c r="H31" s="183">
+        <v>97.33</v>
+      </c>
+      <c r="I31" s="183">
+        <v>97.88</v>
+      </c>
+      <c r="K31" s="183">
+        <v>8</v>
+      </c>
+      <c r="L31" s="183">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="M31" s="183">
+        <v>2.36</v>
+      </c>
+      <c r="N31" s="183">
+        <v>3.53</v>
+      </c>
+      <c r="O31" s="135"/>
+      <c r="P31" s="183">
+        <v>8</v>
+      </c>
+      <c r="Q31" s="183">
+        <v>97.53</v>
+      </c>
+      <c r="R31" s="183">
+        <v>97.74</v>
+      </c>
+      <c r="S31" s="183">
+        <v>97.87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="183">
+        <v>9</v>
+      </c>
+      <c r="B32" s="183">
+        <v>1.39</v>
+      </c>
+      <c r="C32" s="183">
+        <v>5.25</v>
+      </c>
+      <c r="D32" s="183">
+        <v>3.68</v>
+      </c>
+      <c r="E32" s="135"/>
+      <c r="F32" s="183">
+        <v>9</v>
+      </c>
+      <c r="G32" s="183">
+        <v>98.21</v>
+      </c>
+      <c r="H32" s="183">
+        <v>99.6</v>
+      </c>
+      <c r="I32" s="183">
+        <v>93.26</v>
+      </c>
+      <c r="K32" s="183">
+        <v>9</v>
+      </c>
+      <c r="L32" s="183">
+        <v>1.39</v>
+      </c>
+      <c r="M32" s="183">
+        <v>5.25</v>
+      </c>
+      <c r="N32" s="183">
+        <v>3.68</v>
+      </c>
+      <c r="O32" s="135"/>
+      <c r="P32" s="183">
+        <v>9</v>
+      </c>
+      <c r="Q32" s="183">
+        <v>98.21</v>
+      </c>
+      <c r="R32" s="183">
+        <v>99.6</v>
+      </c>
+      <c r="S32" s="183">
+        <v>93.26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" s="183" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="183">
+        <v>3.5</v>
+      </c>
+      <c r="C33" s="183"/>
+      <c r="D33" s="183"/>
+      <c r="E33" s="179"/>
+      <c r="F33" s="183" t="s">
+        <v>97</v>
+      </c>
+      <c r="G33" s="183">
+        <v>97.87</v>
+      </c>
+      <c r="H33" s="183"/>
+      <c r="I33" s="183"/>
+      <c r="K33" s="183" t="s">
+        <v>97</v>
+      </c>
+      <c r="L33" s="183">
+        <v>3.5</v>
+      </c>
+      <c r="M33" s="183"/>
+      <c r="N33" s="183"/>
+      <c r="O33" s="179"/>
+      <c r="P33" s="183" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q33" s="183">
+        <v>97.87</v>
+      </c>
+      <c r="R33" s="183"/>
+      <c r="S33" s="183"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34" s="183" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="183"/>
+      <c r="C34" s="183"/>
+      <c r="D34" s="183">
+        <v>3.5</v>
+      </c>
+      <c r="E34" s="179"/>
+      <c r="F34" s="183" t="s">
+        <v>109</v>
+      </c>
+      <c r="G34" s="183"/>
+      <c r="H34" s="183"/>
+      <c r="I34" s="183">
+        <v>97.65</v>
+      </c>
+      <c r="K34" s="183" t="s">
+        <v>109</v>
+      </c>
+      <c r="L34" s="183"/>
+      <c r="M34" s="183"/>
+      <c r="N34" s="183">
+        <v>3.53</v>
+      </c>
+      <c r="O34" s="179"/>
+      <c r="P34" s="183" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q34" s="183"/>
+      <c r="R34" s="183"/>
+      <c r="S34" s="183">
+        <v>97.86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35" s="183" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="183"/>
+      <c r="C35" s="183"/>
+      <c r="D35" s="183">
+        <v>6.02</v>
+      </c>
+      <c r="E35" s="179"/>
+      <c r="F35" s="189" t="s">
+        <v>110</v>
+      </c>
+      <c r="G35" s="190"/>
+      <c r="H35" s="183"/>
+      <c r="I35" s="183">
+        <v>87.71</v>
+      </c>
+      <c r="K35" s="183" t="s">
+        <v>110</v>
+      </c>
+      <c r="L35" s="183"/>
+      <c r="M35" s="183"/>
+      <c r="N35" s="183">
+        <v>6.34</v>
+      </c>
+      <c r="O35" s="179"/>
+      <c r="P35" s="186" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q35" s="187"/>
+      <c r="R35" s="183"/>
+      <c r="S35" s="183">
+        <v>92.44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A36" s="183" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="183"/>
+      <c r="C36" s="183"/>
+      <c r="D36" s="183">
+        <v>4.84</v>
+      </c>
+      <c r="E36" s="179"/>
+      <c r="F36" s="183" t="s">
+        <v>111</v>
+      </c>
+      <c r="G36" s="183"/>
+      <c r="H36" s="183"/>
+      <c r="I36" s="182">
+        <v>94.7</v>
+      </c>
+      <c r="K36" s="183" t="s">
+        <v>111</v>
+      </c>
+      <c r="L36" s="183"/>
+      <c r="M36" s="183"/>
+      <c r="N36" s="183">
+        <v>4.82</v>
+      </c>
+      <c r="O36" s="179"/>
+      <c r="P36" s="183" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q36" s="183"/>
+      <c r="R36" s="183"/>
+      <c r="S36" s="182">
+        <v>96.48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" s="183" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="183"/>
+      <c r="C37" s="182"/>
+      <c r="D37" s="182">
+        <v>11.87</v>
+      </c>
+      <c r="E37" s="179"/>
+      <c r="F37" s="183" t="s">
+        <v>112</v>
+      </c>
+      <c r="G37" s="183"/>
+      <c r="H37" s="183"/>
+      <c r="I37" s="183">
+        <v>88.16</v>
+      </c>
+      <c r="K37" s="183" t="s">
+        <v>112</v>
+      </c>
+      <c r="L37" s="183"/>
+      <c r="M37" s="182"/>
+      <c r="N37" s="182">
+        <v>10.79</v>
+      </c>
+      <c r="O37" s="179"/>
+      <c r="P37" s="183" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q37" s="183"/>
+      <c r="R37" s="183"/>
+      <c r="S37" s="183">
+        <v>91.02</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" s="136" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A39" s="178" t="s">
+        <v>164</v>
+      </c>
+      <c r="B39" s="135"/>
+      <c r="C39" s="135"/>
+      <c r="D39" s="135"/>
+      <c r="E39" s="135"/>
+      <c r="F39" s="178" t="s">
+        <v>164</v>
+      </c>
+      <c r="G39" s="135"/>
+      <c r="H39" s="135"/>
+      <c r="I39" s="135"/>
+      <c r="K39" s="178" t="s">
+        <v>162</v>
+      </c>
+      <c r="P39" s="178" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40" s="179" t="s">
+        <v>165</v>
+      </c>
+      <c r="B40" s="180" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40" s="181"/>
+      <c r="D40" s="179"/>
+      <c r="E40" s="179"/>
+      <c r="F40" s="179" t="s">
+        <v>165</v>
+      </c>
+      <c r="G40" s="179" t="s">
+        <v>161</v>
+      </c>
+      <c r="H40" s="179"/>
+      <c r="I40" s="179"/>
+      <c r="K40" s="179" t="s">
+        <v>165</v>
+      </c>
+      <c r="L40" s="180" t="s">
+        <v>160</v>
+      </c>
+      <c r="M40" s="181"/>
+      <c r="N40" s="179"/>
+      <c r="O40" s="179"/>
+      <c r="P40" s="179" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q40" s="179" t="s">
+        <v>161</v>
+      </c>
+      <c r="R40" s="179"/>
+      <c r="S40" s="179"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A41" s="182" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" s="182" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="182" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="182" t="s">
+        <v>97</v>
+      </c>
+      <c r="E41" s="179"/>
+      <c r="F41" s="182" t="s">
+        <v>94</v>
+      </c>
+      <c r="G41" s="182" t="s">
+        <v>95</v>
+      </c>
+      <c r="H41" s="182" t="s">
+        <v>96</v>
+      </c>
+      <c r="I41" s="182" t="s">
+        <v>97</v>
+      </c>
+      <c r="K41" s="182" t="s">
+        <v>94</v>
+      </c>
+      <c r="L41" s="182" t="s">
+        <v>95</v>
+      </c>
+      <c r="M41" s="182" t="s">
+        <v>96</v>
+      </c>
+      <c r="N41" s="182" t="s">
+        <v>97</v>
+      </c>
+      <c r="O41" s="179"/>
+      <c r="P41" s="182" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q41" s="182" t="s">
+        <v>95</v>
+      </c>
+      <c r="R41" s="182" t="s">
+        <v>96</v>
+      </c>
+      <c r="S41" s="182" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A42" s="183">
+        <v>0</v>
+      </c>
+      <c r="B42" s="183">
+        <v>98.06</v>
+      </c>
+      <c r="C42" s="183">
+        <v>99.08</v>
+      </c>
+      <c r="D42" s="183">
+        <v>94.86</v>
+      </c>
+      <c r="E42" s="135"/>
+      <c r="F42" s="183">
+        <v>0</v>
+      </c>
+      <c r="G42" s="183">
+        <v>99.39</v>
+      </c>
+      <c r="H42" s="183">
+        <v>99.69</v>
+      </c>
+      <c r="I42" s="183">
+        <v>97.43</v>
+      </c>
+      <c r="K42" s="183">
+        <v>0</v>
+      </c>
+      <c r="L42" s="183">
+        <v>98.06</v>
+      </c>
+      <c r="M42" s="183">
+        <v>99.9</v>
+      </c>
+      <c r="N42" s="183">
+        <v>95.02</v>
+      </c>
+      <c r="O42" s="135"/>
+      <c r="P42" s="183">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="183">
+        <v>99.39</v>
+      </c>
+      <c r="R42" s="183">
+        <v>99.8</v>
+      </c>
+      <c r="S42" s="183">
+        <v>97.54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A43" s="183">
+        <v>1</v>
+      </c>
+      <c r="B43" s="183">
+        <v>95.86</v>
+      </c>
+      <c r="C43" s="183">
+        <v>99.74</v>
+      </c>
+      <c r="D43" s="183">
+        <v>94.64</v>
+      </c>
+      <c r="E43" s="135"/>
+      <c r="F43" s="183">
+        <v>1</v>
+      </c>
+      <c r="G43" s="183">
+        <v>98.41</v>
+      </c>
+      <c r="H43" s="183">
+        <v>99.47</v>
+      </c>
+      <c r="I43" s="183">
+        <v>97.27</v>
+      </c>
+      <c r="K43" s="183">
+        <v>1</v>
+      </c>
+      <c r="L43" s="183">
+        <v>95.86</v>
+      </c>
+      <c r="M43" s="183">
+        <v>99.3</v>
+      </c>
+      <c r="N43" s="183">
+        <v>95.3</v>
+      </c>
+      <c r="O43" s="135"/>
+      <c r="P43" s="183">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="183">
+        <v>98.41</v>
+      </c>
+      <c r="R43" s="183">
+        <v>99.38</v>
+      </c>
+      <c r="S43" s="183">
+        <v>97.75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A44" s="183">
+        <v>2</v>
+      </c>
+      <c r="B44" s="183">
+        <v>96.61</v>
+      </c>
+      <c r="C44" s="183">
+        <v>99.52</v>
+      </c>
+      <c r="D44" s="183">
+        <v>92.8</v>
+      </c>
+      <c r="E44" s="135"/>
+      <c r="F44" s="183">
+        <v>2</v>
+      </c>
+      <c r="G44" s="183">
+        <v>97.87</v>
+      </c>
+      <c r="H44" s="183">
+        <v>99.42</v>
+      </c>
+      <c r="I44" s="183">
+        <v>96.83</v>
+      </c>
+      <c r="K44" s="183">
+        <v>2</v>
+      </c>
+      <c r="L44" s="183">
+        <v>96.61</v>
+      </c>
+      <c r="M44" s="183">
+        <v>98.74</v>
+      </c>
+      <c r="N44" s="183">
+        <v>93.16</v>
+      </c>
+      <c r="O44" s="135"/>
+      <c r="P44" s="183">
+        <v>2</v>
+      </c>
+      <c r="Q44" s="183">
+        <v>97.87</v>
+      </c>
+      <c r="R44" s="183">
+        <v>99.32</v>
+      </c>
+      <c r="S44" s="183">
+        <v>97.12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A45" s="183">
+        <v>3</v>
+      </c>
+      <c r="B45" s="183">
+        <v>94.46</v>
+      </c>
+      <c r="C45" s="183">
+        <v>96.44</v>
+      </c>
+      <c r="D45" s="183">
+        <v>95.16</v>
+      </c>
+      <c r="E45" s="135"/>
+      <c r="F45" s="183">
+        <v>3</v>
+      </c>
+      <c r="G45" s="183">
+        <v>97.72</v>
+      </c>
+      <c r="H45" s="183">
+        <v>98.61</v>
+      </c>
+      <c r="I45" s="183">
+        <v>97.79</v>
+      </c>
+      <c r="K45" s="183">
+        <v>3</v>
+      </c>
+      <c r="L45" s="183">
+        <v>94.46</v>
+      </c>
+      <c r="M45" s="183">
+        <v>97.92</v>
+      </c>
+      <c r="N45" s="183">
+        <v>95.21</v>
+      </c>
+      <c r="O45" s="135"/>
+      <c r="P45" s="183">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="183">
+        <v>97.72</v>
+      </c>
+      <c r="R45" s="183">
+        <v>98.81</v>
+      </c>
+      <c r="S45" s="183">
+        <v>97.75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A46" s="183">
+        <v>4</v>
+      </c>
+      <c r="B46" s="183">
+        <v>95.11</v>
+      </c>
+      <c r="C46" s="183">
+        <v>97.66</v>
+      </c>
+      <c r="D46" s="183">
+        <v>95.31</v>
+      </c>
+      <c r="E46" s="135"/>
+      <c r="F46" s="183">
+        <v>4</v>
+      </c>
+      <c r="G46" s="183">
+        <v>98.27</v>
+      </c>
+      <c r="H46" s="183">
+        <v>99.08</v>
+      </c>
+      <c r="I46" s="183">
+        <v>97.87</v>
+      </c>
+      <c r="K46" s="183">
+        <v>4</v>
+      </c>
+      <c r="L46" s="183">
+        <v>95.11</v>
+      </c>
+      <c r="M46" s="183">
+        <v>99.08</v>
+      </c>
+      <c r="N46" s="183">
+        <v>92.07</v>
+      </c>
+      <c r="O46" s="135"/>
+      <c r="P46" s="183">
+        <v>4</v>
+      </c>
+      <c r="Q46" s="183">
+        <v>98.27</v>
+      </c>
+      <c r="R46" s="183">
+        <v>99.69</v>
+      </c>
+      <c r="S46" s="183">
+        <v>96.66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A47" s="183">
+        <v>5</v>
+      </c>
+      <c r="B47" s="183">
+        <v>93.72</v>
+      </c>
+      <c r="C47" s="183">
+        <v>96.97</v>
+      </c>
+      <c r="D47" s="183">
+        <v>95.28</v>
+      </c>
+      <c r="E47" s="135"/>
+      <c r="F47" s="183">
+        <v>5</v>
+      </c>
+      <c r="G47" s="183">
+        <v>97.09</v>
+      </c>
+      <c r="H47" s="184">
+        <v>98.21</v>
+      </c>
+      <c r="I47" s="184">
+        <v>97.83</v>
+      </c>
+      <c r="K47" s="183">
+        <v>5</v>
+      </c>
+      <c r="L47" s="183">
+        <v>93.72</v>
+      </c>
+      <c r="M47" s="183">
+        <v>96.97</v>
+      </c>
+      <c r="N47" s="183">
+        <v>94.18</v>
+      </c>
+      <c r="O47" s="135"/>
+      <c r="P47" s="183">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="183">
+        <v>97.09</v>
+      </c>
+      <c r="R47" s="188">
+        <v>98.54</v>
+      </c>
+      <c r="S47" s="188">
+        <v>97.17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A48" s="183">
+        <v>6</v>
+      </c>
+      <c r="B48" s="183">
+        <v>95.93</v>
+      </c>
+      <c r="C48" s="183">
+        <v>99.37</v>
+      </c>
+      <c r="D48" s="183">
+        <v>94.8</v>
+      </c>
+      <c r="E48" s="135"/>
+      <c r="F48" s="183">
+        <v>6</v>
+      </c>
+      <c r="G48" s="183">
+        <v>98.01</v>
+      </c>
+      <c r="H48" s="183">
+        <v>99.27</v>
+      </c>
+      <c r="I48" s="183">
+        <v>97.55</v>
+      </c>
+      <c r="K48" s="183">
+        <v>6</v>
+      </c>
+      <c r="L48" s="183">
+        <v>95.93</v>
+      </c>
+      <c r="M48" s="183">
+        <v>99.37</v>
+      </c>
+      <c r="N48" s="183">
+        <v>94.75</v>
+      </c>
+      <c r="O48" s="135"/>
+      <c r="P48" s="183">
+        <v>6</v>
+      </c>
+      <c r="Q48" s="183">
+        <v>98.01</v>
+      </c>
+      <c r="R48" s="183">
+        <v>99.27</v>
+      </c>
+      <c r="S48" s="183">
+        <v>97.47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A49" s="183">
+        <v>7</v>
+      </c>
+      <c r="B49" s="183">
+        <v>93</v>
+      </c>
+      <c r="C49" s="183">
+        <v>97.37</v>
+      </c>
+      <c r="D49" s="183">
+        <v>90.72</v>
+      </c>
+      <c r="E49" s="135"/>
+      <c r="F49" s="183">
+        <v>7</v>
+      </c>
+      <c r="G49" s="183">
+        <v>96.11</v>
+      </c>
+      <c r="H49" s="183">
+        <v>97.76</v>
+      </c>
+      <c r="I49" s="183">
+        <v>94.33</v>
+      </c>
+      <c r="K49" s="183">
+        <v>7</v>
+      </c>
+      <c r="L49" s="183">
+        <v>93</v>
+      </c>
+      <c r="M49" s="183">
+        <v>98.64</v>
+      </c>
+      <c r="N49" s="183">
+        <v>94.74</v>
+      </c>
+      <c r="O49" s="135"/>
+      <c r="P49" s="183">
+        <v>7</v>
+      </c>
+      <c r="Q49" s="183">
+        <v>96.11</v>
+      </c>
+      <c r="R49" s="183">
+        <v>98.15</v>
+      </c>
+      <c r="S49" s="183">
+        <v>97.51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A50" s="183">
+        <v>8</v>
+      </c>
+      <c r="B50" s="183">
+        <v>94.15</v>
+      </c>
+      <c r="C50" s="183">
+        <v>98.67</v>
+      </c>
+      <c r="D50" s="183">
+        <v>92.05</v>
+      </c>
+      <c r="E50" s="135"/>
+      <c r="F50" s="183">
+        <v>8</v>
+      </c>
+      <c r="G50" s="183">
+        <v>97.53</v>
+      </c>
+      <c r="H50" s="183">
+        <v>99.18</v>
+      </c>
+      <c r="I50" s="183">
+        <v>96.36</v>
+      </c>
+      <c r="K50" s="183">
+        <v>8</v>
+      </c>
+      <c r="L50" s="183">
+        <v>94.15</v>
+      </c>
+      <c r="M50" s="183">
+        <v>99.18</v>
+      </c>
+      <c r="N50" s="183">
+        <v>85.42</v>
+      </c>
+      <c r="O50" s="135"/>
+      <c r="P50" s="183">
+        <v>8</v>
+      </c>
+      <c r="Q50" s="183">
+        <v>97.53</v>
+      </c>
+      <c r="R50" s="183">
+        <v>99.18</v>
+      </c>
+      <c r="S50" s="183">
+        <v>92.57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A51" s="183">
+        <v>9</v>
+      </c>
+      <c r="B51" s="183">
+        <v>96.23</v>
+      </c>
+      <c r="C51" s="183">
+        <v>100</v>
+      </c>
+      <c r="D51" s="183">
+        <v>70.989999999999995</v>
+      </c>
+      <c r="E51" s="135"/>
+      <c r="F51" s="183">
+        <v>9</v>
+      </c>
+      <c r="G51" s="183">
+        <v>98.21</v>
+      </c>
+      <c r="H51" s="183">
+        <v>99.9</v>
+      </c>
+      <c r="I51" s="183">
+        <v>78.22</v>
+      </c>
+      <c r="K51" s="183">
+        <v>9</v>
+      </c>
+      <c r="L51" s="183">
+        <v>96.23</v>
+      </c>
+      <c r="M51" s="183">
+        <v>99.7</v>
+      </c>
+      <c r="N51" s="183">
+        <v>83.44</v>
+      </c>
+      <c r="O51" s="135"/>
+      <c r="P51" s="183">
+        <v>9</v>
+      </c>
+      <c r="Q51" s="183">
+        <v>98.21</v>
+      </c>
+      <c r="R51" s="183">
+        <v>99.6</v>
+      </c>
+      <c r="S51" s="183">
+        <v>90.03</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A52" s="183" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" s="183">
+        <v>95.33</v>
+      </c>
+      <c r="C52" s="183"/>
+      <c r="D52" s="183"/>
+      <c r="E52" s="179"/>
+      <c r="F52" s="183" t="s">
+        <v>97</v>
+      </c>
+      <c r="G52" s="183">
+        <v>97.87</v>
+      </c>
+      <c r="H52" s="183"/>
+      <c r="I52" s="183"/>
+      <c r="K52" s="183" t="s">
+        <v>97</v>
+      </c>
+      <c r="L52" s="183">
+        <v>95.33</v>
+      </c>
+      <c r="M52" s="183"/>
+      <c r="N52" s="183"/>
+      <c r="O52" s="179"/>
+      <c r="P52" s="183" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q52" s="183">
+        <v>97.87</v>
+      </c>
+      <c r="R52" s="183"/>
+      <c r="S52" s="183"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A53" s="183" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" s="183"/>
+      <c r="C53" s="183"/>
+      <c r="D53" s="183">
+        <v>95.27</v>
+      </c>
+      <c r="E53" s="179"/>
+      <c r="F53" s="183" t="s">
+        <v>109</v>
+      </c>
+      <c r="G53" s="183"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="185">
+        <v>97.85</v>
+      </c>
+      <c r="K53" s="183" t="s">
+        <v>109</v>
+      </c>
+      <c r="L53" s="183"/>
+      <c r="M53" s="183"/>
+      <c r="N53" s="183">
+        <v>95.3</v>
+      </c>
+      <c r="O53" s="179"/>
+      <c r="P53" s="183" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q53" s="183"/>
+      <c r="R53" s="183"/>
+      <c r="S53" s="183">
+        <v>97.87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A54" s="183" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" s="183"/>
+      <c r="C54" s="183"/>
+      <c r="D54" s="183">
+        <v>80.78</v>
+      </c>
+      <c r="E54" s="179"/>
+      <c r="F54" s="189" t="s">
+        <v>110</v>
+      </c>
+      <c r="G54" s="190"/>
+      <c r="H54" s="183"/>
+      <c r="I54" s="183">
+        <v>88.59</v>
+      </c>
+      <c r="K54" s="183" t="s">
+        <v>110</v>
+      </c>
+      <c r="L54" s="183"/>
+      <c r="M54" s="183"/>
+      <c r="N54" s="183">
+        <v>87.45</v>
+      </c>
+      <c r="O54" s="179"/>
+      <c r="P54" s="183" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q54" s="183"/>
+      <c r="R54" s="183"/>
+      <c r="S54" s="183">
+        <v>93.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A55" s="183" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" s="183"/>
+      <c r="C55" s="183"/>
+      <c r="D55" s="182">
+        <v>95.2</v>
+      </c>
+      <c r="E55" s="179"/>
+      <c r="F55" s="183" t="s">
+        <v>111</v>
+      </c>
+      <c r="G55" s="183"/>
+      <c r="H55" s="183"/>
+      <c r="I55" s="182">
+        <v>97.76</v>
+      </c>
+      <c r="K55" s="183" t="s">
+        <v>111</v>
+      </c>
+      <c r="L55" s="183"/>
+      <c r="M55" s="183"/>
+      <c r="N55" s="182">
+        <v>95.19</v>
+      </c>
+      <c r="O55" s="179"/>
+      <c r="P55" s="183" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q55" s="183"/>
+      <c r="R55" s="183"/>
+      <c r="S55" s="182">
+        <v>97.83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A56" s="183" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" s="183"/>
+      <c r="C56" s="182"/>
+      <c r="D56" s="183">
+        <v>91.83</v>
+      </c>
+      <c r="E56" s="179"/>
+      <c r="F56" s="183" t="s">
+        <v>112</v>
+      </c>
+      <c r="G56" s="183"/>
+      <c r="H56" s="183"/>
+      <c r="I56" s="183">
+        <v>95.64</v>
+      </c>
+      <c r="K56" s="183" t="s">
+        <v>112</v>
+      </c>
+      <c r="L56" s="183"/>
+      <c r="M56" s="182"/>
+      <c r="N56" s="183">
+        <v>90.84</v>
+      </c>
+      <c r="O56" s="179"/>
+      <c r="P56" s="183" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q56" s="183"/>
+      <c r="R56" s="183"/>
+      <c r="S56" s="183">
+        <v>95.62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A57" s="135"/>
+      <c r="B57" s="135"/>
+      <c r="C57" s="135"/>
+      <c r="D57" s="135"/>
+      <c r="E57" s="135"/>
+      <c r="F57" s="135"/>
+      <c r="G57" s="135"/>
+      <c r="H57" s="135"/>
+      <c r="I57" s="135"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F35:G35"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D37D389-054D-49CB-907C-AFF7D26BA222}">
   <dimension ref="A1:W35"/>
   <sheetViews>
@@ -47071,7 +50655,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12D6A94-C3A6-4756-A633-01A8292168B5}">
   <dimension ref="A1:X51"/>
   <sheetViews>
@@ -49288,7 +52872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9E5FCC-E3E6-4612-B501-2D6B180DDCDA}">
   <dimension ref="A1:T33"/>
   <sheetViews>
@@ -50184,7 +53768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9BC920C-48A2-4140-B7CF-8FF35C410D86}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
@@ -51527,1010 +55111,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02550D39-0834-49AB-9810-9D5EA2ED264D}">
-  <dimension ref="A1:K34"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="27.6640625" style="53" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="53" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.88671875" style="53"/>
-    <col min="7" max="7" width="26.88671875" style="53" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="53" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="53"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="55" t="s">
-        <v>143</v>
-      </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="H1" s="55" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="H2" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="I2" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="J2" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="56" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="57">
-        <v>0</v>
-      </c>
-      <c r="B3" s="57">
-        <v>98.92</v>
-      </c>
-      <c r="C3" s="57">
-        <v>99.83</v>
-      </c>
-      <c r="D3" s="59">
-        <f>C3-B3</f>
-        <v>0.90999999999999659</v>
-      </c>
-      <c r="E3" s="57">
-        <v>95</v>
-      </c>
-      <c r="G3" s="57">
-        <v>0</v>
-      </c>
-      <c r="H3" s="57">
-        <v>99.18</v>
-      </c>
-      <c r="I3" s="57">
-        <v>99.59</v>
-      </c>
-      <c r="J3" s="59">
-        <f>I3-H3</f>
-        <v>0.40999999999999659</v>
-      </c>
-      <c r="K3" s="57">
-        <v>94.79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="57">
-        <v>1</v>
-      </c>
-      <c r="B4" s="57">
-        <v>97.92</v>
-      </c>
-      <c r="C4" s="57">
-        <v>99.66</v>
-      </c>
-      <c r="D4" s="59">
-        <f t="shared" ref="D4:D12" si="0">C4-B4</f>
-        <v>1.7399999999999949</v>
-      </c>
-      <c r="E4" s="57">
-        <v>85.41</v>
-      </c>
-      <c r="G4" s="57">
-        <v>1</v>
-      </c>
-      <c r="H4" s="57">
-        <v>98.59</v>
-      </c>
-      <c r="I4" s="57">
-        <v>99.65</v>
-      </c>
-      <c r="J4" s="59">
-        <f t="shared" ref="J4:J12" si="1">I4-H4</f>
-        <v>1.0600000000000023</v>
-      </c>
-      <c r="K4" s="57">
-        <v>85.88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="57">
-        <v>2</v>
-      </c>
-      <c r="B5" s="57">
-        <v>97.78</v>
-      </c>
-      <c r="C5" s="57">
-        <v>98.96</v>
-      </c>
-      <c r="D5" s="59">
-        <f t="shared" si="0"/>
-        <v>1.1799999999999926</v>
-      </c>
-      <c r="E5" s="57">
-        <v>94.83</v>
-      </c>
-      <c r="G5" s="57">
-        <v>2</v>
-      </c>
-      <c r="H5" s="57">
-        <v>97.29</v>
-      </c>
-      <c r="I5" s="57">
-        <v>99.03</v>
-      </c>
-      <c r="J5" s="59">
-        <f t="shared" si="1"/>
-        <v>1.7399999999999949</v>
-      </c>
-      <c r="K5" s="57">
-        <v>94.95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="57">
-        <v>3</v>
-      </c>
-      <c r="B6" s="57">
-        <v>95.84</v>
-      </c>
-      <c r="C6" s="57">
-        <v>99.12</v>
-      </c>
-      <c r="D6" s="59">
-        <f t="shared" si="0"/>
-        <v>3.2800000000000011</v>
-      </c>
-      <c r="E6" s="57">
-        <v>76.77</v>
-      </c>
-      <c r="G6" s="57">
-        <v>3</v>
-      </c>
-      <c r="H6" s="57">
-        <v>95.84</v>
-      </c>
-      <c r="I6" s="57">
-        <v>99.01</v>
-      </c>
-      <c r="J6" s="59">
-        <f t="shared" si="1"/>
-        <v>3.1700000000000017</v>
-      </c>
-      <c r="K6" s="57">
-        <v>76.88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="57">
-        <v>4</v>
-      </c>
-      <c r="B7" s="57">
-        <v>98.32</v>
-      </c>
-      <c r="C7" s="57">
-        <v>99.59</v>
-      </c>
-      <c r="D7" s="59">
-        <f t="shared" si="0"/>
-        <v>1.2700000000000102</v>
-      </c>
-      <c r="E7" s="57">
-        <v>94.22</v>
-      </c>
-      <c r="G7" s="57">
-        <v>4</v>
-      </c>
-      <c r="H7" s="57">
-        <v>98.37</v>
-      </c>
-      <c r="I7" s="57">
-        <v>99.39</v>
-      </c>
-      <c r="J7" s="59">
-        <f t="shared" si="1"/>
-        <v>1.019999999999996</v>
-      </c>
-      <c r="K7" s="57">
-        <v>94.08</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="57">
-        <v>5</v>
-      </c>
-      <c r="B8" s="57">
-        <v>98.25</v>
-      </c>
-      <c r="C8" s="57">
-        <v>99.54</v>
-      </c>
-      <c r="D8" s="59">
-        <f t="shared" si="0"/>
-        <v>1.2900000000000063</v>
-      </c>
-      <c r="E8" s="57">
-        <v>86.85</v>
-      </c>
-      <c r="G8" s="57">
-        <v>5</v>
-      </c>
-      <c r="H8" s="57">
-        <v>98.99</v>
-      </c>
-      <c r="I8" s="57">
-        <v>99.78</v>
-      </c>
-      <c r="J8" s="59">
-        <f t="shared" si="1"/>
-        <v>0.79000000000000625</v>
-      </c>
-      <c r="K8" s="57">
-        <v>85.85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="57">
-        <v>6</v>
-      </c>
-      <c r="B9" s="57">
-        <v>96.62</v>
-      </c>
-      <c r="C9" s="57">
-        <v>99.05</v>
-      </c>
-      <c r="D9" s="59">
-        <f t="shared" si="0"/>
-        <v>2.4299999999999926</v>
-      </c>
-      <c r="E9" s="57">
-        <v>96.39</v>
-      </c>
-      <c r="G9" s="57">
-        <v>6</v>
-      </c>
-      <c r="H9" s="57">
-        <v>95.72</v>
-      </c>
-      <c r="I9" s="57">
-        <v>98.64</v>
-      </c>
-      <c r="J9" s="59">
-        <f t="shared" si="1"/>
-        <v>2.9200000000000017</v>
-      </c>
-      <c r="K9" s="57">
-        <v>96.02</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="57">
-        <v>7</v>
-      </c>
-      <c r="B10" s="57">
-        <v>95.81</v>
-      </c>
-      <c r="C10" s="57">
-        <v>99.44</v>
-      </c>
-      <c r="D10" s="59">
-        <f t="shared" si="0"/>
-        <v>3.6299999999999955</v>
-      </c>
-      <c r="E10" s="57">
-        <v>94.27</v>
-      </c>
-      <c r="G10" s="57">
-        <v>7</v>
-      </c>
-      <c r="H10" s="57">
-        <v>94.74</v>
-      </c>
-      <c r="I10" s="57">
-        <v>99.03</v>
-      </c>
-      <c r="J10" s="59">
-        <f t="shared" si="1"/>
-        <v>4.2900000000000063</v>
-      </c>
-      <c r="K10" s="57">
-        <v>93.81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="57">
-        <v>8</v>
-      </c>
-      <c r="B11" s="57">
-        <v>90.75</v>
-      </c>
-      <c r="C11" s="57">
-        <v>98.55</v>
-      </c>
-      <c r="D11" s="59">
-        <f t="shared" si="0"/>
-        <v>7.7999999999999972</v>
-      </c>
-      <c r="E11" s="57">
-        <v>94.98</v>
-      </c>
-      <c r="G11" s="57">
-        <v>8</v>
-      </c>
-      <c r="H11" s="57">
-        <v>89.63</v>
-      </c>
-      <c r="I11" s="57">
-        <v>97.84</v>
-      </c>
-      <c r="J11" s="59">
-        <f t="shared" si="1"/>
-        <v>8.210000000000008</v>
-      </c>
-      <c r="K11" s="57">
-        <v>94.78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="57">
-        <v>9</v>
-      </c>
-      <c r="B12" s="57">
-        <v>95.55</v>
-      </c>
-      <c r="C12" s="57">
-        <v>99.68</v>
-      </c>
-      <c r="D12" s="59">
-        <f t="shared" si="0"/>
-        <v>4.1300000000000097</v>
-      </c>
-      <c r="E12" s="57">
-        <v>86.88</v>
-      </c>
-      <c r="G12" s="57">
-        <v>9</v>
-      </c>
-      <c r="H12" s="57">
-        <v>94.95</v>
-      </c>
-      <c r="I12" s="57">
-        <v>99.5</v>
-      </c>
-      <c r="J12" s="59">
-        <f t="shared" si="1"/>
-        <v>4.5499999999999972</v>
-      </c>
-      <c r="K12" s="57">
-        <v>86.79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="57">
-        <v>96.58</v>
-      </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="G13" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="H13" s="57">
-        <v>96.34</v>
-      </c>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62">
-        <v>96.58</v>
-      </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="G14" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="H14" s="62"/>
-      <c r="I14" s="57">
-        <v>96.34</v>
-      </c>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62">
-        <v>83.37</v>
-      </c>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="G15" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62">
-        <v>84.14</v>
-      </c>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="62" t="s">
-        <v>111</v>
-      </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="90">
-        <v>93.74</v>
-      </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="G16" s="62" t="s">
-        <v>111</v>
-      </c>
-      <c r="H16" s="62"/>
-      <c r="I16" s="90">
-        <v>93.85</v>
-      </c>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57">
-        <v>85.16</v>
-      </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="G17" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57">
-        <v>84.36</v>
-      </c>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="B18" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="H18" s="55" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="55"/>
-      <c r="G19" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="H19" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="I19" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="J19" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="K19" s="56" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="57">
-        <v>0</v>
-      </c>
-      <c r="B20" s="57">
-        <v>98.92</v>
-      </c>
-      <c r="C20" s="57">
-        <v>99.88</v>
-      </c>
-      <c r="D20" s="59">
-        <f>C20-B20</f>
-        <v>0.95999999999999375</v>
-      </c>
-      <c r="E20" s="57">
-        <v>86.01</v>
-      </c>
-      <c r="G20" s="57">
-        <v>0</v>
-      </c>
-      <c r="H20" s="57">
-        <v>99.18</v>
-      </c>
-      <c r="I20" s="57">
-        <v>99.69</v>
-      </c>
-      <c r="J20" s="59">
-        <f>I20-H20</f>
-        <v>0.50999999999999091</v>
-      </c>
-      <c r="K20" s="57">
-        <v>86.76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="57">
-        <v>1</v>
-      </c>
-      <c r="B21" s="57">
-        <v>97.92</v>
-      </c>
-      <c r="C21" s="57">
-        <v>99.67</v>
-      </c>
-      <c r="D21" s="59">
-        <f t="shared" ref="D21:D29" si="2">C21-B21</f>
-        <v>1.75</v>
-      </c>
-      <c r="E21" s="57">
-        <v>84.84</v>
-      </c>
-      <c r="G21" s="57">
-        <v>1</v>
-      </c>
-      <c r="H21" s="57">
-        <v>98.59</v>
-      </c>
-      <c r="I21" s="57">
-        <v>99.65</v>
-      </c>
-      <c r="J21" s="59">
-        <f t="shared" ref="J21:J29" si="3">I21-H21</f>
-        <v>1.0600000000000023</v>
-      </c>
-      <c r="K21" s="57">
-        <v>85.43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="57">
-        <v>2</v>
-      </c>
-      <c r="B22" s="57">
-        <v>97.78</v>
-      </c>
-      <c r="C22" s="57">
-        <v>99.53</v>
-      </c>
-      <c r="D22" s="59">
-        <f t="shared" si="2"/>
-        <v>1.75</v>
-      </c>
-      <c r="E22" s="57">
-        <v>81.52</v>
-      </c>
-      <c r="G22" s="57">
-        <v>2</v>
-      </c>
-      <c r="H22" s="57">
-        <v>97.29</v>
-      </c>
-      <c r="I22" s="57">
-        <v>99.42</v>
-      </c>
-      <c r="J22" s="59">
-        <f t="shared" si="3"/>
-        <v>2.1299999999999955</v>
-      </c>
-      <c r="K22" s="57">
-        <v>82.81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="57">
-        <v>3</v>
-      </c>
-      <c r="B23" s="57">
-        <v>95.84</v>
-      </c>
-      <c r="C23" s="57">
-        <v>98.97</v>
-      </c>
-      <c r="D23" s="59">
-        <f t="shared" si="2"/>
-        <v>3.1299999999999955</v>
-      </c>
-      <c r="E23" s="57">
-        <v>79.66</v>
-      </c>
-      <c r="G23" s="57">
-        <v>3</v>
-      </c>
-      <c r="H23" s="57">
-        <v>95.84</v>
-      </c>
-      <c r="I23" s="57">
-        <v>98.81</v>
-      </c>
-      <c r="J23" s="59">
-        <f t="shared" si="3"/>
-        <v>2.9699999999999989</v>
-      </c>
-      <c r="K23" s="57">
-        <v>80.239999999999995</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="57">
-        <v>4</v>
-      </c>
-      <c r="B24" s="57">
-        <v>98.32</v>
-      </c>
-      <c r="C24" s="57">
-        <v>99.59</v>
-      </c>
-      <c r="D24" s="59">
-        <f t="shared" si="2"/>
-        <v>1.2700000000000102</v>
-      </c>
-      <c r="E24" s="57">
-        <v>93.95</v>
-      </c>
-      <c r="G24" s="57">
-        <v>4</v>
-      </c>
-      <c r="H24" s="57">
-        <v>98.37</v>
-      </c>
-      <c r="I24" s="57">
-        <v>99.39</v>
-      </c>
-      <c r="J24" s="59">
-        <f t="shared" si="3"/>
-        <v>1.019999999999996</v>
-      </c>
-      <c r="K24" s="57">
-        <v>93.86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="57">
-        <v>5</v>
-      </c>
-      <c r="B25" s="57">
-        <v>98.25</v>
-      </c>
-      <c r="C25" s="57">
-        <v>99.5</v>
-      </c>
-      <c r="D25" s="59">
-        <f t="shared" si="2"/>
-        <v>1.25</v>
-      </c>
-      <c r="E25" s="57">
-        <v>90.42</v>
-      </c>
-      <c r="G25" s="57">
-        <v>5</v>
-      </c>
-      <c r="H25" s="57">
-        <v>98.99</v>
-      </c>
-      <c r="I25" s="57">
-        <v>99.66</v>
-      </c>
-      <c r="J25" s="59">
-        <f t="shared" si="3"/>
-        <v>0.67000000000000171</v>
-      </c>
-      <c r="K25" s="57">
-        <v>89.99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="57">
-        <v>6</v>
-      </c>
-      <c r="B26" s="57">
-        <v>96.62</v>
-      </c>
-      <c r="C26" s="57">
-        <v>98.48</v>
-      </c>
-      <c r="D26" s="59">
-        <f t="shared" si="2"/>
-        <v>1.8599999999999994</v>
-      </c>
-      <c r="E26" s="57">
-        <v>96.64</v>
-      </c>
-      <c r="G26" s="57">
-        <v>6</v>
-      </c>
-      <c r="H26" s="57">
-        <v>95.72</v>
-      </c>
-      <c r="I26" s="57">
-        <v>97.49</v>
-      </c>
-      <c r="J26" s="59">
-        <f t="shared" si="3"/>
-        <v>1.769999999999996</v>
-      </c>
-      <c r="K26" s="57">
-        <v>96.32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="57">
-        <v>7</v>
-      </c>
-      <c r="B27" s="57">
-        <v>95.81</v>
-      </c>
-      <c r="C27" s="57">
-        <v>98.18</v>
-      </c>
-      <c r="D27" s="59">
-        <f t="shared" si="2"/>
-        <v>2.3700000000000045</v>
-      </c>
-      <c r="E27" s="58">
-        <v>95.92</v>
-      </c>
-      <c r="G27" s="57">
-        <v>7</v>
-      </c>
-      <c r="H27" s="57">
-        <v>94.74</v>
-      </c>
-      <c r="I27" s="57">
-        <v>98.34</v>
-      </c>
-      <c r="J27" s="59">
-        <f t="shared" si="3"/>
-        <v>3.6000000000000085</v>
-      </c>
-      <c r="K27" s="57">
-        <v>95.61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="57">
-        <v>8</v>
-      </c>
-      <c r="B28" s="57">
-        <v>90.75</v>
-      </c>
-      <c r="C28" s="57">
-        <v>96.55</v>
-      </c>
-      <c r="D28" s="59">
-        <f t="shared" si="2"/>
-        <v>5.7999999999999972</v>
-      </c>
-      <c r="E28" s="57">
-        <v>95.48</v>
-      </c>
-      <c r="G28" s="57">
-        <v>8</v>
-      </c>
-      <c r="H28" s="57">
-        <v>89.63</v>
-      </c>
-      <c r="I28" s="57">
-        <v>96.1</v>
-      </c>
-      <c r="J28" s="59">
-        <f t="shared" si="3"/>
-        <v>6.4699999999999989</v>
-      </c>
-      <c r="K28" s="57">
-        <v>95.26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="57">
-        <v>9</v>
-      </c>
-      <c r="B29" s="57">
-        <v>95.55</v>
-      </c>
-      <c r="C29" s="57">
-        <v>99.83</v>
-      </c>
-      <c r="D29" s="59">
-        <f t="shared" si="2"/>
-        <v>4.2800000000000011</v>
-      </c>
-      <c r="E29" s="57">
-        <v>71.86</v>
-      </c>
-      <c r="G29" s="57">
-        <v>9</v>
-      </c>
-      <c r="H29" s="57">
-        <v>94.95</v>
-      </c>
-      <c r="I29" s="57">
-        <v>98.71</v>
-      </c>
-      <c r="J29" s="59">
-        <f t="shared" si="3"/>
-        <v>3.7599999999999909</v>
-      </c>
-      <c r="K29" s="57">
-        <v>86.05</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="57">
-        <v>96.58</v>
-      </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="G30" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="H30" s="57">
-        <v>96.34</v>
-      </c>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="B31" s="62"/>
-      <c r="C31" s="57">
-        <v>96.58</v>
-      </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="G31" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="H31" s="62"/>
-      <c r="I31" s="57">
-        <v>96.33</v>
-      </c>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62">
-        <v>77.61</v>
-      </c>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="G32" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62">
-        <v>82.61</v>
-      </c>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="62" t="s">
-        <v>111</v>
-      </c>
-      <c r="B33" s="62"/>
-      <c r="C33" s="90">
-        <v>90.54</v>
-      </c>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="G33" s="62" t="s">
-        <v>111</v>
-      </c>
-      <c r="H33" s="62"/>
-      <c r="I33" s="56">
-        <v>90.91</v>
-      </c>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57">
-        <v>83.84</v>
-      </c>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="G34" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57">
-        <v>84.6</v>
-      </c>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>